--- a/PACKING MATEREILS STATEMENT-2021-22.xlsx
+++ b/PACKING MATEREILS STATEMENT-2021-22.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\New folder\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27639A7-0D36-4933-A00F-6C6F009856AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021-22" sheetId="79" r:id="rId1"/>
@@ -19,7 +13,7 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -152,11 +146,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -599,23 +593,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="April 2021-22"/>
-      <sheetName val="May 2021"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -652,43 +637,6 @@
           </cell>
           <cell r="L32">
             <v>900</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="32">
-          <cell r="B32">
-            <v>0</v>
-          </cell>
-          <cell r="C32">
-            <v>0</v>
-          </cell>
-          <cell r="D32">
-            <v>0</v>
-          </cell>
-          <cell r="E32">
-            <v>0</v>
-          </cell>
-          <cell r="F32">
-            <v>0</v>
-          </cell>
-          <cell r="G32">
-            <v>0</v>
-          </cell>
-          <cell r="H32">
-            <v>0</v>
-          </cell>
-          <cell r="I32">
-            <v>0</v>
-          </cell>
-          <cell r="J32">
-            <v>0</v>
-          </cell>
-          <cell r="K32">
-            <v>0</v>
-          </cell>
-          <cell r="L32">
-            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -740,7 +688,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -772,27 +720,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -824,24 +754,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1017,14 +929,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31" style="12" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
@@ -1040,7 +952,7 @@
     <col min="12" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1">
       <c r="A1" s="67" t="s">
         <v>40</v>
       </c>
@@ -1055,7 +967,7 @@
       <c r="J1" s="67"/>
       <c r="K1" s="67"/>
     </row>
-    <row r="2" spans="1:12" s="22" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="22" customFormat="1" ht="23.25" thickBot="1">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1090,7 +1002,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="15"/>
       <c r="B3" s="23"/>
       <c r="C3" s="17"/>
@@ -1103,7 +1015,7 @@
       <c r="J3" s="25"/>
       <c r="K3" s="65"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1121,21 +1033,21 @@
         <v>58368</v>
       </c>
       <c r="G4" s="29">
-        <f>F4*0.023</f>
-        <v>1342.4639999999999</v>
+        <f>F4*0.024</f>
+        <v>1400.8320000000001</v>
       </c>
       <c r="H4" s="28"/>
       <c r="I4" s="28">
         <f>G4+H4</f>
-        <v>1342.4639999999999</v>
+        <v>1400.8320000000001</v>
       </c>
       <c r="J4" s="28"/>
       <c r="K4" s="28">
         <f>E4-I4-J4</f>
-        <v>52.436000000000149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-5.9320000000000164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -1167,39 +1079,41 @@
         <v>448.21600000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="26">
         <v>0</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="27">
+        <v>1086.95</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1086.95</v>
       </c>
       <c r="F6" s="29">
         <f>'[1]April 2021-22'!$G$32</f>
         <v>0</v>
       </c>
       <c r="G6" s="29">
-        <f>615.95+23.76</f>
-        <v>639.71</v>
+        <f>F6*0.108</f>
+        <v>0</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="28">
         <f t="shared" si="1"/>
-        <v>639.71</v>
+        <v>0</v>
       </c>
       <c r="J6" s="28"/>
       <c r="K6" s="28">
         <f>E6-I6-J6</f>
-        <v>-639.71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1086.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="7" t="s">
         <v>38</v>
       </c>
@@ -1217,21 +1131,21 @@
         <v>1870</v>
       </c>
       <c r="G7" s="29">
-        <f>1882.17+28.05</f>
-        <v>1910.22</v>
+        <f>F7*0.075</f>
+        <v>140.25</v>
       </c>
       <c r="H7" s="28"/>
       <c r="I7" s="28">
         <f>G7+H7</f>
-        <v>1910.22</v>
+        <v>140.25</v>
       </c>
       <c r="J7" s="28"/>
       <c r="K7" s="28">
         <f>E7-I7-J7</f>
-        <v>-1598.12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>171.85000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="7" t="s">
         <v>35</v>
       </c>
@@ -1249,21 +1163,21 @@
         <v>552</v>
       </c>
       <c r="G8" s="29">
-        <f t="shared" ref="G8" si="2">F8*0.035</f>
+        <f>F8*0.035</f>
         <v>19.32</v>
       </c>
       <c r="H8" s="28"/>
       <c r="I8" s="28">
-        <f t="shared" ref="I8" si="3">G8+H8</f>
+        <f t="shared" ref="I8" si="2">G8+H8</f>
         <v>19.32</v>
       </c>
       <c r="J8" s="28"/>
       <c r="K8" s="28">
-        <f t="shared" ref="K8" si="4">E8-I8-J8</f>
+        <f t="shared" ref="K8" si="3">E8-I8-J8</f>
         <v>675.76</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="12.75" customHeight="1">
       <c r="A9" s="9"/>
       <c r="B9" s="30"/>
       <c r="C9" s="1"/>
@@ -1276,7 +1190,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
@@ -1299,7 +1213,7 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="28">
-        <f t="shared" ref="I10:I13" si="5">G10+H10</f>
+        <f t="shared" ref="I10:I13" si="4">G10+H10</f>
         <v>10440</v>
       </c>
       <c r="J10" s="28"/>
@@ -1308,18 +1222,20 @@
         <v>38115</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="33">
         <v>28977</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2">
+        <v>65700</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="34">
         <f>B11+C11+D11</f>
-        <v>28977</v>
+        <v>94677</v>
       </c>
       <c r="F11" s="35">
         <f>'[1]April 2021-22'!$I$32</f>
@@ -1331,16 +1247,16 @@
       </c>
       <c r="H11" s="34"/>
       <c r="I11" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10656</v>
       </c>
       <c r="J11" s="28"/>
       <c r="K11" s="63">
         <f>E11-I11-J11</f>
-        <v>18321</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>84021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
@@ -1363,7 +1279,7 @@
       </c>
       <c r="H12" s="34"/>
       <c r="I12" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1008</v>
       </c>
       <c r="J12" s="28"/>
@@ -1372,18 +1288,21 @@
         <v>8616</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="33">
         <v>6774</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <f>1800+2700</f>
+        <v>4500</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="34">
         <f>B13+C13+D13</f>
-        <v>6774</v>
+        <v>11274</v>
       </c>
       <c r="F13" s="35">
         <f>'[1]April 2021-22'!$D$32</f>
@@ -1395,17 +1314,17 @@
       </c>
       <c r="H13" s="34"/>
       <c r="I13" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7176</v>
       </c>
       <c r="J13" s="28"/>
       <c r="K13" s="63">
         <f>E13-I13-J13</f>
-        <v>-402</v>
+        <v>4098</v>
       </c>
       <c r="L13" s="62"/>
     </row>
-    <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="16.5" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="36"/>
       <c r="C14" s="5"/>
@@ -1418,7 +1337,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -1428,7 +1347,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="34">
-        <f t="shared" ref="E15:E19" si="6">B15+C15+D15</f>
+        <f t="shared" ref="E15:E19" si="5">B15+C15+D15</f>
         <v>109056</v>
       </c>
       <c r="F15" s="35">
@@ -1441,7 +1360,7 @@
       </c>
       <c r="H15" s="34"/>
       <c r="I15" s="28">
-        <f t="shared" ref="I15:I19" si="7">G15+H15</f>
+        <f t="shared" ref="I15:I19" si="6">G15+H15</f>
         <v>7176</v>
       </c>
       <c r="J15" s="28"/>
@@ -1450,7 +1369,7 @@
         <v>101880</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
@@ -1460,7 +1379,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
       <c r="E16" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>42200</v>
       </c>
       <c r="F16" s="35">
@@ -1473,7 +1392,7 @@
       </c>
       <c r="H16" s="34"/>
       <c r="I16" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>33012</v>
       </c>
       <c r="J16" s="28"/>
@@ -1482,7 +1401,7 @@
         <v>9188</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="7" t="s">
         <v>28</v>
       </c>
@@ -1492,7 +1411,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
       <c r="E17" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56750</v>
       </c>
       <c r="F17" s="35">
@@ -1505,7 +1424,7 @@
       </c>
       <c r="H17" s="34"/>
       <c r="I17" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J17" s="28"/>
@@ -1514,7 +1433,7 @@
         <v>56750</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="7" t="s">
         <v>29</v>
       </c>
@@ -1524,7 +1443,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
       <c r="E18" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>189089</v>
       </c>
       <c r="F18" s="39">
@@ -1537,7 +1456,7 @@
       </c>
       <c r="H18" s="34"/>
       <c r="I18" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2125</v>
       </c>
       <c r="J18" s="28"/>
@@ -1546,7 +1465,7 @@
         <v>186964</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="7" t="s">
         <v>33</v>
       </c>
@@ -1556,7 +1475,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
       <c r="E19" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>22710</v>
       </c>
       <c r="F19" s="39">
@@ -1569,7 +1488,7 @@
       </c>
       <c r="H19" s="34"/>
       <c r="I19" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>276</v>
       </c>
       <c r="J19" s="28"/>
@@ -1578,7 +1497,7 @@
         <v>22434</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15" customHeight="1">
       <c r="A20" s="9"/>
       <c r="B20" s="36"/>
       <c r="C20" s="5"/>
@@ -1591,7 +1510,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="7" t="s">
         <v>19</v>
       </c>
@@ -1601,7 +1520,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
       <c r="E21" s="34">
-        <f t="shared" ref="E21:E27" si="8">B21+C21+D21</f>
+        <f t="shared" ref="E21:E27" si="7">B21+C21+D21</f>
         <v>1034</v>
       </c>
       <c r="F21" s="35">
@@ -1614,16 +1533,16 @@
       </c>
       <c r="H21" s="34"/>
       <c r="I21" s="28">
-        <f t="shared" ref="I21:I26" si="9">G21+H21</f>
+        <f t="shared" ref="I21:I26" si="8">G21+H21</f>
         <v>435</v>
       </c>
       <c r="J21" s="28"/>
       <c r="K21" s="63">
-        <f t="shared" ref="K21:K27" si="10">E21-I21-J21</f>
+        <f t="shared" ref="K21:K27" si="9">E21-I21-J21</f>
         <v>599</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="7" t="s">
         <v>18</v>
       </c>
@@ -1633,7 +1552,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
       <c r="E22" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1509</v>
       </c>
       <c r="F22" s="35">
@@ -1646,16 +1565,16 @@
       </c>
       <c r="H22" s="34"/>
       <c r="I22" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
       <c r="J22" s="28"/>
       <c r="K22" s="63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1467</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="42" t="s">
         <v>36</v>
       </c>
@@ -1665,7 +1584,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
       <c r="E23" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>7547</v>
       </c>
       <c r="F23" s="39"/>
@@ -1675,17 +1594,17 @@
       </c>
       <c r="H23" s="34"/>
       <c r="I23" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1281</v>
       </c>
       <c r="J23" s="28"/>
       <c r="K23" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>6266</v>
       </c>
       <c r="L23" s="41"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="7" t="s">
         <v>34</v>
       </c>
@@ -1695,7 +1614,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
       <c r="E24" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>929</v>
       </c>
       <c r="F24" s="39">
@@ -1708,27 +1627,29 @@
       </c>
       <c r="H24" s="34"/>
       <c r="I24" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="J24" s="28"/>
       <c r="K24" s="63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>906</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="40">
         <v>3862</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2">
+        <v>2700</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="34">
-        <f t="shared" si="8"/>
-        <v>3862</v>
+        <f t="shared" si="7"/>
+        <v>6562</v>
       </c>
       <c r="F25" s="35">
         <f>F4</f>
@@ -1740,17 +1661,17 @@
       </c>
       <c r="H25" s="34"/>
       <c r="I25" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2432</v>
       </c>
       <c r="J25" s="28"/>
       <c r="K25" s="63">
-        <f t="shared" si="10"/>
-        <v>1430</v>
+        <f t="shared" si="9"/>
+        <v>4130</v>
       </c>
       <c r="M25" s="62"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="7" t="s">
         <v>17</v>
       </c>
@@ -1760,7 +1681,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="3"/>
       <c r="E26" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>824</v>
       </c>
       <c r="F26" s="35">
@@ -1773,16 +1694,16 @@
       </c>
       <c r="H26" s="34"/>
       <c r="I26" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>319</v>
       </c>
       <c r="J26" s="28"/>
       <c r="K26" s="63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>505</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" s="7" t="s">
         <v>27</v>
       </c>
@@ -1792,7 +1713,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="3"/>
       <c r="E27" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>583</v>
       </c>
       <c r="F27" s="35">
@@ -1810,11 +1731,11 @@
       </c>
       <c r="J27" s="28"/>
       <c r="K27" s="63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>361</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" s="11"/>
       <c r="B28" s="36"/>
       <c r="C28" s="5"/>
@@ -1827,18 +1748,20 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B29" s="40">
         <v>11358</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2">
+        <v>32400</v>
+      </c>
       <c r="D29" s="3"/>
       <c r="E29" s="34">
-        <f t="shared" ref="E29:E36" si="11">B29+C29+D29</f>
-        <v>11358</v>
+        <f t="shared" ref="E29:E36" si="10">B29+C29+D29</f>
+        <v>43758</v>
       </c>
       <c r="F29" s="44">
         <f>'[1]April 2021-22'!$K$32</f>
@@ -1850,16 +1773,16 @@
       </c>
       <c r="H29" s="45"/>
       <c r="I29" s="28">
-        <f t="shared" ref="I29:I36" si="12">G29+H29</f>
+        <f t="shared" ref="I29:I36" si="11">G29+H29</f>
         <v>13320</v>
       </c>
       <c r="J29" s="28"/>
       <c r="K29" s="64">
-        <f t="shared" ref="K29:K35" si="13">E29-I29-J29</f>
-        <v>-1962</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K29:K35" si="12">E29-I29-J29</f>
+        <v>30438</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="7" t="s">
         <v>31</v>
       </c>
@@ -1869,7 +1792,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="3"/>
       <c r="E30" s="46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>45020</v>
       </c>
       <c r="F30" s="47">
@@ -1882,7 +1805,7 @@
       </c>
       <c r="H30" s="45"/>
       <c r="I30" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3600</v>
       </c>
       <c r="J30" s="28"/>
@@ -1891,7 +1814,7 @@
         <v>41420</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" s="7" t="s">
         <v>20</v>
       </c>
@@ -1901,7 +1824,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="3"/>
       <c r="E31" s="46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1685</v>
       </c>
       <c r="F31" s="49">
@@ -1914,16 +1837,16 @@
       </c>
       <c r="H31" s="45"/>
       <c r="I31" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>555</v>
       </c>
       <c r="J31" s="28"/>
       <c r="K31" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1130</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" s="7" t="s">
         <v>25</v>
       </c>
@@ -1933,7 +1856,7 @@
       <c r="C32" s="4"/>
       <c r="D32" s="3"/>
       <c r="E32" s="46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>601</v>
       </c>
       <c r="F32" s="49">
@@ -1946,16 +1869,16 @@
       </c>
       <c r="H32" s="51"/>
       <c r="I32" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>75</v>
       </c>
       <c r="J32" s="28"/>
       <c r="K32" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>526</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="7" t="s">
         <v>21</v>
       </c>
@@ -1965,7 +1888,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="3"/>
       <c r="E33" s="46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>86097</v>
       </c>
       <c r="F33" s="49">
@@ -1978,16 +1901,16 @@
       </c>
       <c r="H33" s="48"/>
       <c r="I33" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3600</v>
       </c>
       <c r="J33" s="28"/>
       <c r="K33" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>82497</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="7" t="s">
         <v>22</v>
       </c>
@@ -1997,7 +1920,7 @@
       <c r="C34" s="4"/>
       <c r="D34" s="3"/>
       <c r="E34" s="46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>85444</v>
       </c>
       <c r="F34" s="49">
@@ -2010,16 +1933,16 @@
       </c>
       <c r="H34" s="51"/>
       <c r="I34" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>13320</v>
       </c>
       <c r="J34" s="28"/>
       <c r="K34" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>72124</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="7" t="s">
         <v>23</v>
       </c>
@@ -2029,7 +1952,7 @@
       <c r="C35" s="4"/>
       <c r="D35" s="3"/>
       <c r="E35" s="46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>48222</v>
       </c>
       <c r="F35" s="49">
@@ -2042,16 +1965,16 @@
       </c>
       <c r="H35" s="51"/>
       <c r="I35" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>13320</v>
       </c>
       <c r="J35" s="28"/>
       <c r="K35" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>34902</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="15.75" thickBot="1">
       <c r="A36" s="52" t="s">
         <v>32</v>
       </c>
@@ -2061,7 +1984,7 @@
       <c r="C36" s="54"/>
       <c r="D36" s="55"/>
       <c r="E36" s="56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>19760</v>
       </c>
       <c r="F36" s="57">
@@ -2074,7 +1997,7 @@
       </c>
       <c r="H36" s="59"/>
       <c r="I36" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>13320</v>
       </c>
       <c r="J36" s="60"/>
@@ -2083,16 +2006,16 @@
         <v>6440</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="B37" s="41"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="F38" s="61">
         <f>F4+F5+F6+F7+F8+F10+F11+F12+F13+F29+F30</f>
         <v>128662</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="F39" s="41"/>
       <c r="H39" s="61"/>
       <c r="J39" s="61"/>
@@ -2107,20 +2030,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C5A89A-3BAF-4F76-97CA-77210900D131}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31" style="12" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="13" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" style="13" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="13" customWidth="1"/>
@@ -2130,7 +2053,7 @@
     <col min="12" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1">
       <c r="A1" s="67" t="s">
         <v>40</v>
       </c>
@@ -2145,7 +2068,7 @@
       <c r="J1" s="67"/>
       <c r="K1" s="67"/>
     </row>
-    <row r="2" spans="1:12" s="22" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="22" customFormat="1" ht="23.25" thickBot="1">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -2180,7 +2103,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="15"/>
       <c r="B3" s="23"/>
       <c r="C3" s="17"/>
@@ -2193,167 +2116,169 @@
       <c r="J3" s="25"/>
       <c r="K3" s="65"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="26">
-        <v>1394.9</v>
-      </c>
-      <c r="C4" s="27"/>
+        <v>-5.9</v>
+      </c>
+      <c r="C4" s="64">
+        <v>4045270</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="28">
         <f t="shared" ref="E4:E7" si="0">B4+C4+D4</f>
-        <v>1394.9</v>
+        <v>4045264.1</v>
       </c>
       <c r="F4" s="29">
-        <f>'[1]May 2021'!$J$32</f>
-        <v>0</v>
+        <f>'[1]April 2021-22'!$J$32</f>
+        <v>58368</v>
       </c>
       <c r="G4" s="29">
-        <f>F4*0.023</f>
-        <v>0</v>
+        <f>F4*0.024</f>
+        <v>1400.8320000000001</v>
       </c>
       <c r="H4" s="28"/>
       <c r="I4" s="28">
         <f>G4+H4</f>
-        <v>0</v>
+        <v>1400.8320000000001</v>
       </c>
       <c r="J4" s="28"/>
-      <c r="K4" s="28">
+      <c r="K4" s="29">
         <f>E4-I4-J4</f>
-        <v>1394.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4043863.2680000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="26">
-        <v>631.96</v>
+        <v>448.22</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="3"/>
       <c r="E5" s="28">
         <f t="shared" si="0"/>
-        <v>631.96</v>
+        <v>448.22</v>
       </c>
       <c r="F5" s="29">
-        <f>'[1]May 2021'!$C$32</f>
-        <v>0</v>
+        <f>'[1]April 2021-22'!$C$32</f>
+        <v>7656</v>
       </c>
       <c r="G5" s="29">
         <f>F5*0.024</f>
-        <v>0</v>
+        <v>183.744</v>
       </c>
       <c r="H5" s="28"/>
       <c r="I5" s="28">
         <f t="shared" ref="I5:I6" si="1">G5+H5</f>
-        <v>0</v>
+        <v>183.744</v>
       </c>
       <c r="J5" s="28"/>
       <c r="K5" s="28">
         <f>E5-I5-J5</f>
-        <v>631.96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>264.476</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="26">
-        <v>0</v>
+        <v>1086.95</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="3"/>
       <c r="E6" s="28">
         <f t="shared" si="0"/>
+        <v>1086.95</v>
+      </c>
+      <c r="F6" s="29">
+        <f>'[1]April 2021-22'!$G$32</f>
         <v>0</v>
       </c>
-      <c r="F6" s="29">
-        <f>'[1]May 2021'!$G$32</f>
+      <c r="G6" s="29">
+        <f>F6*0.108</f>
         <v>0</v>
-      </c>
-      <c r="G6" s="29">
-        <f>615.95+23.76</f>
-        <v>639.71</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="28">
         <f t="shared" si="1"/>
-        <v>639.71</v>
+        <v>0</v>
       </c>
       <c r="J6" s="28"/>
       <c r="K6" s="28">
         <f>E6-I6-J6</f>
-        <v>-639.71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1086.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="26">
-        <v>312.10000000000002</v>
+        <v>171.85</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="3"/>
       <c r="E7" s="28">
         <f t="shared" si="0"/>
-        <v>312.10000000000002</v>
+        <v>171.85</v>
       </c>
       <c r="F7" s="29">
-        <f>'[1]May 2021'!$F$32</f>
-        <v>0</v>
+        <f>'[1]April 2021-22'!$F$32</f>
+        <v>1870</v>
       </c>
       <c r="G7" s="29">
-        <f>1882.17+28.05</f>
-        <v>1910.22</v>
+        <f>F7*0.075</f>
+        <v>140.25</v>
       </c>
       <c r="H7" s="28"/>
       <c r="I7" s="28">
         <f>G7+H7</f>
-        <v>1910.22</v>
+        <v>140.25</v>
       </c>
       <c r="J7" s="28"/>
       <c r="K7" s="28">
         <f>E7-I7-J7</f>
-        <v>-1598.12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>31.599999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="26">
-        <v>695.08</v>
+        <v>675.76</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="3"/>
       <c r="E8" s="28">
         <f>B8+C8+D8</f>
-        <v>695.08</v>
+        <v>675.76</v>
       </c>
       <c r="F8" s="29">
-        <f>'[1]May 2021'!$E$32</f>
-        <v>0</v>
+        <f>'[1]April 2021-22'!$E$32</f>
+        <v>552</v>
       </c>
       <c r="G8" s="29">
-        <f t="shared" ref="G8" si="2">F8*0.035</f>
-        <v>0</v>
+        <f>F8*0.035</f>
+        <v>19.32</v>
       </c>
       <c r="H8" s="28"/>
       <c r="I8" s="28">
-        <f t="shared" ref="I8" si="3">G8+H8</f>
-        <v>0</v>
+        <f t="shared" ref="I8" si="2">G8+H8</f>
+        <v>19.32</v>
       </c>
       <c r="J8" s="28"/>
       <c r="K8" s="28">
-        <f t="shared" ref="K8" si="4">E8-I8-J8</f>
-        <v>695.08</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K8" si="3">E8-I8-J8</f>
+        <v>656.43999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="12.75" customHeight="1">
       <c r="A9" s="9"/>
       <c r="B9" s="30"/>
       <c r="C9" s="1"/>
@@ -2366,136 +2291,138 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="33">
-        <v>48555</v>
+        <v>38115</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
       <c r="E10" s="34">
         <f>B10+C10+D10</f>
-        <v>48555</v>
+        <v>38115</v>
       </c>
       <c r="F10" s="35">
-        <f>'[1]May 2021'!$H$32</f>
-        <v>0</v>
+        <f>'[1]April 2021-22'!$H$32</f>
+        <v>10440</v>
       </c>
       <c r="G10" s="35">
         <f>F10*1</f>
-        <v>0</v>
+        <v>10440</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="28">
-        <f t="shared" ref="I10:I13" si="5">G10+H10</f>
-        <v>0</v>
+        <f t="shared" ref="I10:I13" si="4">G10+H10</f>
+        <v>10440</v>
       </c>
       <c r="J10" s="28"/>
       <c r="K10" s="63">
         <f>E10-I10-J10</f>
-        <v>48555</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>27675</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="33">
-        <v>28977</v>
+        <v>84021</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
       <c r="E11" s="34">
         <f>B11+C11+D11</f>
-        <v>28977</v>
+        <v>84021</v>
       </c>
       <c r="F11" s="35">
-        <f>'[1]May 2021'!$I$32</f>
-        <v>0</v>
+        <f>'[1]April 2021-22'!$I$32</f>
+        <v>5328</v>
       </c>
       <c r="G11" s="35">
         <f>F11*2</f>
-        <v>0</v>
+        <v>10656</v>
       </c>
       <c r="H11" s="34"/>
       <c r="I11" s="28">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10656</v>
       </c>
       <c r="J11" s="28"/>
       <c r="K11" s="63">
         <f>E11-I11-J11</f>
-        <v>28977</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>73365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="33">
-        <v>9624</v>
+        <v>8616</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
       <c r="E12" s="34">
         <f>B12+C12+D12</f>
-        <v>9624</v>
+        <v>8616</v>
       </c>
       <c r="F12" s="35">
-        <f>'[1]May 2021'!$B$32</f>
-        <v>0</v>
+        <f>'[1]April 2021-22'!$B$32</f>
+        <v>1008</v>
       </c>
       <c r="G12" s="35">
         <f>F12*1</f>
-        <v>0</v>
+        <v>1008</v>
       </c>
       <c r="H12" s="34"/>
       <c r="I12" s="28">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1008</v>
       </c>
       <c r="J12" s="28"/>
       <c r="K12" s="63">
         <f>E12-I12-J12</f>
-        <v>9624</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7608</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="33">
-        <v>6774</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>4098</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2700</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="34">
         <f>B13+C13+D13</f>
-        <v>6774</v>
+        <v>6798</v>
       </c>
       <c r="F13" s="35">
-        <f>'[1]May 2021'!$D$32</f>
-        <v>0</v>
+        <f>'[1]April 2021-22'!$D$32</f>
+        <v>35880</v>
       </c>
       <c r="G13" s="35">
         <f>F13/5</f>
-        <v>0</v>
+        <v>7176</v>
       </c>
       <c r="H13" s="34"/>
       <c r="I13" s="28">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>7176</v>
       </c>
       <c r="J13" s="28"/>
       <c r="K13" s="63">
         <f>E13-I13-J13</f>
-        <v>6774</v>
+        <v>-378</v>
       </c>
       <c r="L13" s="62"/>
     </row>
-    <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="16.5" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="36"/>
       <c r="C14" s="5"/>
@@ -2508,71 +2435,71 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="33">
-        <v>109056</v>
+        <v>101880</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="34">
-        <f t="shared" ref="E15:E19" si="6">B15+C15+D15</f>
-        <v>109056</v>
+        <f t="shared" ref="E15:E19" si="5">B15+C15+D15</f>
+        <v>101880</v>
       </c>
       <c r="F15" s="35">
         <f>F13</f>
-        <v>0</v>
+        <v>35880</v>
       </c>
       <c r="G15" s="35">
         <f>F15/5</f>
-        <v>0</v>
+        <v>7176</v>
       </c>
       <c r="H15" s="34"/>
       <c r="I15" s="28">
-        <f t="shared" ref="I15:I19" si="7">G15+H15</f>
-        <v>0</v>
+        <f t="shared" ref="I15:I19" si="6">G15+H15</f>
+        <v>7176</v>
       </c>
       <c r="J15" s="28"/>
       <c r="K15" s="63">
         <f>E15-I15-J15</f>
-        <v>109056</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>94704</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="33">
-        <v>42200</v>
+        <v>9188</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
       <c r="E16" s="34">
-        <f t="shared" si="6"/>
-        <v>42200</v>
+        <f t="shared" si="5"/>
+        <v>9188</v>
       </c>
       <c r="F16" s="35">
         <f>F4+F5</f>
-        <v>0</v>
+        <v>66024</v>
       </c>
       <c r="G16" s="35">
         <f>F16/2</f>
-        <v>0</v>
+        <v>33012</v>
       </c>
       <c r="H16" s="34"/>
       <c r="I16" s="28">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>33012</v>
       </c>
       <c r="J16" s="28"/>
       <c r="K16" s="63">
         <f>E16-I16-J16</f>
-        <v>42200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-23824</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="7" t="s">
         <v>28</v>
       </c>
@@ -2582,7 +2509,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
       <c r="E17" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56750</v>
       </c>
       <c r="F17" s="35">
@@ -2595,7 +2522,7 @@
       </c>
       <c r="H17" s="34"/>
       <c r="I17" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J17" s="28"/>
@@ -2604,71 +2531,71 @@
         <v>56750</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="33">
-        <v>189089</v>
+        <v>186964</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
       <c r="E18" s="34">
-        <f t="shared" si="6"/>
-        <v>189089</v>
+        <f t="shared" si="5"/>
+        <v>186964</v>
       </c>
       <c r="F18" s="39">
         <f>F7</f>
-        <v>0</v>
+        <v>1870</v>
       </c>
       <c r="G18" s="35">
         <f>(F18/22)*25</f>
-        <v>0</v>
+        <v>2125</v>
       </c>
       <c r="H18" s="34"/>
       <c r="I18" s="28">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2125</v>
       </c>
       <c r="J18" s="28"/>
       <c r="K18" s="63">
         <f>E18-I18-J18</f>
-        <v>189089</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>184839</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="33">
-        <v>22710</v>
+        <v>22434</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
       <c r="E19" s="34">
-        <f t="shared" si="6"/>
-        <v>22710</v>
+        <f t="shared" si="5"/>
+        <v>22434</v>
       </c>
       <c r="F19" s="39">
         <f>F8</f>
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="G19" s="35">
         <f>F19/2</f>
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="H19" s="34"/>
       <c r="I19" s="28">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>276</v>
       </c>
       <c r="J19" s="28"/>
       <c r="K19" s="63">
         <f>E19-I19-J19</f>
-        <v>22710</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1">
       <c r="A20" s="9"/>
       <c r="B20" s="36"/>
       <c r="C20" s="5"/>
@@ -2681,230 +2608,230 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="40">
-        <v>1034</v>
+        <v>599</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
       <c r="E21" s="34">
-        <f t="shared" ref="E21:E27" si="8">B21+C21+D21</f>
-        <v>1034</v>
+        <f t="shared" ref="E21:E28" si="7">B21+C21+D21</f>
+        <v>599</v>
       </c>
       <c r="F21" s="35">
         <f>F10</f>
-        <v>0</v>
+        <v>10440</v>
       </c>
       <c r="G21" s="35">
         <f>F21/24</f>
-        <v>0</v>
+        <v>435</v>
       </c>
       <c r="H21" s="34"/>
       <c r="I21" s="28">
-        <f t="shared" ref="I21:I26" si="9">G21+H21</f>
-        <v>0</v>
+        <f t="shared" ref="I21:I26" si="8">G21+H21</f>
+        <v>435</v>
       </c>
       <c r="J21" s="28"/>
       <c r="K21" s="63">
-        <f t="shared" ref="K21:K27" si="10">E21-I21-J21</f>
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K21:K27" si="9">E21-I21-J21</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="40">
-        <v>1509</v>
+        <v>1467</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
       <c r="E22" s="34">
-        <f t="shared" si="8"/>
-        <v>1509</v>
+        <f t="shared" si="7"/>
+        <v>1467</v>
       </c>
       <c r="F22" s="35">
         <f>F12</f>
-        <v>0</v>
+        <v>1008</v>
       </c>
       <c r="G22" s="35">
         <f>F22/24</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="H22" s="34"/>
       <c r="I22" s="28">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>42</v>
       </c>
       <c r="J22" s="28"/>
       <c r="K22" s="63">
-        <f t="shared" si="10"/>
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="42" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="33">
-        <v>7547</v>
+        <v>6266</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
       <c r="E23" s="34">
-        <f t="shared" si="8"/>
-        <v>7547</v>
+        <f t="shared" si="7"/>
+        <v>6266</v>
       </c>
       <c r="F23" s="39"/>
       <c r="G23" s="35">
         <f>(F13/30)+(F7/22)+(F6/22)</f>
-        <v>0</v>
+        <v>1281</v>
       </c>
       <c r="H23" s="34"/>
       <c r="I23" s="28">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1281</v>
       </c>
       <c r="J23" s="28"/>
       <c r="K23" s="33">
-        <f t="shared" si="10"/>
-        <v>7547</v>
+        <f t="shared" si="9"/>
+        <v>4985</v>
       </c>
       <c r="L23" s="41"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="43">
-        <v>929</v>
+        <v>906</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
       <c r="E24" s="34">
-        <f t="shared" si="8"/>
-        <v>929</v>
+        <f t="shared" si="7"/>
+        <v>906</v>
       </c>
       <c r="F24" s="39">
         <f>F8</f>
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="G24" s="35">
         <f>(F19/24)</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H24" s="34"/>
       <c r="I24" s="28">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>23</v>
       </c>
       <c r="J24" s="28"/>
       <c r="K24" s="63">
-        <f t="shared" si="10"/>
-        <v>929</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>883</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="40">
-        <v>3862</v>
+        <v>4130</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="3"/>
       <c r="E25" s="34">
-        <f t="shared" si="8"/>
-        <v>3862</v>
+        <f t="shared" si="7"/>
+        <v>4130</v>
       </c>
       <c r="F25" s="35">
         <f>F4</f>
-        <v>0</v>
+        <v>58368</v>
       </c>
       <c r="G25" s="35">
         <f>F25/24</f>
-        <v>0</v>
+        <v>2432</v>
       </c>
       <c r="H25" s="34"/>
       <c r="I25" s="28">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>2432</v>
       </c>
       <c r="J25" s="28"/>
       <c r="K25" s="63">
-        <f t="shared" si="10"/>
-        <v>3862</v>
+        <f t="shared" si="9"/>
+        <v>1698</v>
       </c>
       <c r="M25" s="62"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="40">
-        <v>824</v>
+        <v>505</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="3"/>
       <c r="E26" s="34">
-        <f t="shared" si="8"/>
-        <v>824</v>
+        <f t="shared" si="7"/>
+        <v>505</v>
       </c>
       <c r="F26" s="35">
         <f>F5</f>
-        <v>0</v>
+        <v>7656</v>
       </c>
       <c r="G26" s="35">
         <f>F26/24</f>
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="H26" s="34"/>
       <c r="I26" s="28">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>319</v>
       </c>
       <c r="J26" s="28"/>
       <c r="K26" s="63">
-        <f t="shared" si="10"/>
-        <v>824</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="40">
-        <v>583</v>
+        <v>361</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="3"/>
       <c r="E27" s="34">
-        <f t="shared" si="8"/>
-        <v>583</v>
+        <f t="shared" si="7"/>
+        <v>361</v>
       </c>
       <c r="F27" s="35">
         <f>F11</f>
-        <v>0</v>
+        <v>5328</v>
       </c>
       <c r="G27" s="35">
         <f>F27/24</f>
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="H27" s="34"/>
       <c r="I27" s="28">
         <f>G27+H27</f>
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="J27" s="28"/>
       <c r="K27" s="63">
-        <f t="shared" si="10"/>
-        <v>583</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="11"/>
       <c r="B28" s="36"/>
       <c r="C28" s="5"/>
@@ -2917,272 +2844,272 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B29" s="40">
-        <v>11358</v>
+        <v>30438</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="3"/>
       <c r="E29" s="34">
-        <f t="shared" ref="E29:E36" si="11">B29+C29+D29</f>
-        <v>11358</v>
+        <f t="shared" ref="E29:E36" si="10">B29+C29+D29</f>
+        <v>30438</v>
       </c>
       <c r="F29" s="44">
-        <f>'[1]May 2021'!$K$32</f>
-        <v>0</v>
+        <f>'[1]April 2021-22'!$K$32</f>
+        <v>6660</v>
       </c>
       <c r="G29" s="44">
         <f>F29*2</f>
-        <v>0</v>
+        <v>13320</v>
       </c>
       <c r="H29" s="45"/>
       <c r="I29" s="28">
-        <f t="shared" ref="I29:I36" si="12">G29+H29</f>
-        <v>0</v>
+        <f t="shared" ref="I29:I36" si="11">G29+H29</f>
+        <v>13320</v>
       </c>
       <c r="J29" s="28"/>
       <c r="K29" s="64">
-        <f t="shared" ref="K29:K35" si="13">E29-I29-J29</f>
-        <v>11358</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K29:K35" si="12">E29-I29-J29</f>
+        <v>17118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="40">
-        <v>45020</v>
+        <v>41420</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="3"/>
       <c r="E30" s="46">
-        <f t="shared" si="11"/>
-        <v>45020</v>
+        <f t="shared" si="10"/>
+        <v>41420</v>
       </c>
       <c r="F30" s="47">
-        <f>'[1]May 2021'!$L$32</f>
-        <v>0</v>
+        <f>'[1]April 2021-22'!$L$32</f>
+        <v>900</v>
       </c>
       <c r="G30" s="44">
         <f>F30*4</f>
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="H30" s="45"/>
       <c r="I30" s="28">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>3600</v>
       </c>
       <c r="J30" s="28"/>
       <c r="K30" s="64">
         <f>E30-I30-J30</f>
-        <v>45020</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>37820</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B31" s="40">
-        <v>1685</v>
+        <v>1130</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="3"/>
       <c r="E31" s="46">
-        <f t="shared" si="11"/>
-        <v>1685</v>
+        <f t="shared" si="10"/>
+        <v>1130</v>
       </c>
       <c r="F31" s="49">
         <f>F29</f>
-        <v>0</v>
+        <v>6660</v>
       </c>
       <c r="G31" s="44">
         <f>F31/12</f>
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="H31" s="45"/>
       <c r="I31" s="28">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>555</v>
       </c>
       <c r="J31" s="28"/>
       <c r="K31" s="27">
-        <f t="shared" si="13"/>
-        <v>1685</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>575</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="40">
-        <v>601</v>
+        <v>526</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="3"/>
       <c r="E32" s="46">
-        <f t="shared" si="11"/>
-        <v>601</v>
+        <f t="shared" si="10"/>
+        <v>526</v>
       </c>
       <c r="F32" s="49">
         <f>F30</f>
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="G32" s="50">
         <f>F32/12</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H32" s="51"/>
       <c r="I32" s="28">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>75</v>
       </c>
       <c r="J32" s="28"/>
       <c r="K32" s="27">
-        <f t="shared" si="13"/>
-        <v>601</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="40">
-        <v>86097</v>
+        <v>82497</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="3"/>
       <c r="E33" s="46">
-        <f t="shared" si="11"/>
-        <v>86097</v>
+        <f t="shared" si="10"/>
+        <v>82497</v>
       </c>
       <c r="F33" s="49">
         <f>F30</f>
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="G33" s="50">
         <f>F33*4</f>
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="H33" s="48"/>
       <c r="I33" s="28">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>3600</v>
       </c>
       <c r="J33" s="28"/>
       <c r="K33" s="27">
-        <f t="shared" si="13"/>
-        <v>86097</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>78897</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="40">
-        <v>85444</v>
+        <v>72124</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="3"/>
       <c r="E34" s="46">
-        <f t="shared" si="11"/>
-        <v>85444</v>
+        <f t="shared" si="10"/>
+        <v>72124</v>
       </c>
       <c r="F34" s="49">
         <f>F29</f>
-        <v>0</v>
+        <v>6660</v>
       </c>
       <c r="G34" s="50">
         <f>F34*2</f>
-        <v>0</v>
+        <v>13320</v>
       </c>
       <c r="H34" s="51"/>
       <c r="I34" s="28">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>13320</v>
       </c>
       <c r="J34" s="28"/>
       <c r="K34" s="27">
-        <f t="shared" si="13"/>
-        <v>85444</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>58804</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B35" s="40">
-        <v>48222</v>
+        <v>34902</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="3"/>
       <c r="E35" s="46">
-        <f t="shared" si="11"/>
-        <v>48222</v>
+        <f t="shared" si="10"/>
+        <v>34902</v>
       </c>
       <c r="F35" s="49">
         <f>F29</f>
-        <v>0</v>
+        <v>6660</v>
       </c>
       <c r="G35" s="50">
         <f>F35*2</f>
-        <v>0</v>
+        <v>13320</v>
       </c>
       <c r="H35" s="51"/>
       <c r="I35" s="28">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>13320</v>
       </c>
       <c r="J35" s="28"/>
       <c r="K35" s="27">
-        <f t="shared" si="13"/>
-        <v>48222</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>21582</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" thickBot="1">
       <c r="A36" s="52" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="53">
-        <v>19760</v>
+        <v>6440</v>
       </c>
       <c r="C36" s="54"/>
       <c r="D36" s="55"/>
       <c r="E36" s="56">
-        <f t="shared" si="11"/>
-        <v>19760</v>
+        <f t="shared" si="10"/>
+        <v>6440</v>
       </c>
       <c r="F36" s="57">
         <f>F29</f>
-        <v>0</v>
+        <v>6660</v>
       </c>
       <c r="G36" s="58">
         <f>F36*2</f>
-        <v>0</v>
+        <v>13320</v>
       </c>
       <c r="H36" s="59"/>
       <c r="I36" s="60">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>13320</v>
       </c>
       <c r="J36" s="60"/>
       <c r="K36" s="66">
         <f>E36-I36-J36</f>
-        <v>19760</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-6880</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="B37" s="41"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="F38" s="61">
         <f>F4+F5+F6+F7+F8+F10+F11+F12+F13+F29+F30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>128662</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="F39" s="41"/>
       <c r="H39" s="61"/>
       <c r="J39" s="61"/>

--- a/PACKING MATEREILS STATEMENT-2021-22.xlsx
+++ b/PACKING MATEREILS STATEMENT-2021-22.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
   <si>
     <t>Particulars</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>PACKING MATERIALS STATEMENT AS ON THE MONTH OF APRIL 2021-22</t>
+  </si>
+  <si>
+    <t>PACKING MATERIALS STATEMENT AS ON THE MONTH OF MAY 2021-22</t>
   </si>
 </sst>
 </file>
@@ -601,6 +604,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="April 2021-22"/>
+      <sheetName val="May 2021"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -637,6 +641,43 @@
           </cell>
           <cell r="L32">
             <v>900</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="30">
+          <cell r="B30">
+            <v>672</v>
+          </cell>
+          <cell r="C30">
+            <v>2280</v>
+          </cell>
+          <cell r="D30">
+            <v>13500</v>
+          </cell>
+          <cell r="E30">
+            <v>0</v>
+          </cell>
+          <cell r="F30">
+            <v>572</v>
+          </cell>
+          <cell r="G30">
+            <v>330</v>
+          </cell>
+          <cell r="H30">
+            <v>4560</v>
+          </cell>
+          <cell r="I30">
+            <v>2496</v>
+          </cell>
+          <cell r="J30">
+            <v>21936</v>
+          </cell>
+          <cell r="K30">
+            <v>2112</v>
+          </cell>
+          <cell r="L30">
+            <v>3132</v>
           </cell>
         </row>
       </sheetData>
@@ -933,7 +974,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2034,7 +2075,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2055,7 +2096,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1">
       <c r="A1" s="67" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1" s="67"/>
       <c r="C1" s="67"/>
@@ -2121,7 +2162,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="26">
-        <v>-5.9</v>
+        <v>-5.93</v>
       </c>
       <c r="C4" s="64">
         <v>4045270</v>
@@ -2129,25 +2170,25 @@
       <c r="D4" s="3"/>
       <c r="E4" s="28">
         <f t="shared" ref="E4:E7" si="0">B4+C4+D4</f>
-        <v>4045264.1</v>
+        <v>4045264.07</v>
       </c>
       <c r="F4" s="29">
-        <f>'[1]April 2021-22'!$J$32</f>
-        <v>58368</v>
+        <f>'[1]May 2021'!$J$30</f>
+        <v>21936</v>
       </c>
       <c r="G4" s="29">
         <f>F4*0.024</f>
-        <v>1400.8320000000001</v>
+        <v>526.46400000000006</v>
       </c>
       <c r="H4" s="28"/>
       <c r="I4" s="28">
         <f>G4+H4</f>
-        <v>1400.8320000000001</v>
+        <v>526.46400000000006</v>
       </c>
       <c r="J4" s="28"/>
       <c r="K4" s="29">
         <f>E4-I4-J4</f>
-        <v>4043863.2680000002</v>
+        <v>4044737.6059999997</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2164,22 +2205,22 @@
         <v>448.22</v>
       </c>
       <c r="F5" s="29">
-        <f>'[1]April 2021-22'!$C$32</f>
-        <v>7656</v>
+        <f>'[1]May 2021'!$C$30</f>
+        <v>2280</v>
       </c>
       <c r="G5" s="29">
         <f>F5*0.024</f>
-        <v>183.744</v>
+        <v>54.72</v>
       </c>
       <c r="H5" s="28"/>
       <c r="I5" s="28">
         <f t="shared" ref="I5:I6" si="1">G5+H5</f>
-        <v>183.744</v>
+        <v>54.72</v>
       </c>
       <c r="J5" s="28"/>
       <c r="K5" s="28">
         <f>E5-I5-J5</f>
-        <v>264.476</v>
+        <v>393.5</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2196,22 +2237,22 @@
         <v>1086.95</v>
       </c>
       <c r="F6" s="29">
-        <f>'[1]April 2021-22'!$G$32</f>
-        <v>0</v>
+        <f>'[1]May 2021'!$G$30</f>
+        <v>330</v>
       </c>
       <c r="G6" s="29">
         <f>F6*0.108</f>
-        <v>0</v>
+        <v>35.64</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35.64</v>
       </c>
       <c r="J6" s="28"/>
       <c r="K6" s="28">
         <f>E6-I6-J6</f>
-        <v>1086.95</v>
+        <v>1051.31</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2228,22 +2269,22 @@
         <v>171.85</v>
       </c>
       <c r="F7" s="29">
-        <f>'[1]April 2021-22'!$F$32</f>
-        <v>1870</v>
+        <f>'[1]May 2021'!$F$30</f>
+        <v>572</v>
       </c>
       <c r="G7" s="29">
         <f>F7*0.075</f>
-        <v>140.25</v>
+        <v>42.9</v>
       </c>
       <c r="H7" s="28"/>
       <c r="I7" s="28">
         <f>G7+H7</f>
-        <v>140.25</v>
+        <v>42.9</v>
       </c>
       <c r="J7" s="28"/>
       <c r="K7" s="28">
         <f>E7-I7-J7</f>
-        <v>31.599999999999994</v>
+        <v>128.94999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2260,22 +2301,22 @@
         <v>675.76</v>
       </c>
       <c r="F8" s="29">
-        <f>'[1]April 2021-22'!$E$32</f>
-        <v>552</v>
+        <f>'[1]May 2021'!$E$30</f>
+        <v>0</v>
       </c>
       <c r="G8" s="29">
         <f>F8*0.035</f>
-        <v>19.32</v>
+        <v>0</v>
       </c>
       <c r="H8" s="28"/>
       <c r="I8" s="28">
         <f t="shared" ref="I8" si="2">G8+H8</f>
-        <v>19.32</v>
+        <v>0</v>
       </c>
       <c r="J8" s="28"/>
       <c r="K8" s="28">
         <f t="shared" ref="K8" si="3">E8-I8-J8</f>
-        <v>656.43999999999994</v>
+        <v>675.76</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="12.75" customHeight="1">
@@ -2305,22 +2346,22 @@
         <v>38115</v>
       </c>
       <c r="F10" s="35">
-        <f>'[1]April 2021-22'!$H$32</f>
-        <v>10440</v>
+        <f>'[1]May 2021'!$H$30</f>
+        <v>4560</v>
       </c>
       <c r="G10" s="35">
         <f>F10*1</f>
-        <v>10440</v>
+        <v>4560</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="28">
         <f t="shared" ref="I10:I13" si="4">G10+H10</f>
-        <v>10440</v>
+        <v>4560</v>
       </c>
       <c r="J10" s="28"/>
       <c r="K10" s="63">
         <f>E10-I10-J10</f>
-        <v>27675</v>
+        <v>33555</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2337,22 +2378,22 @@
         <v>84021</v>
       </c>
       <c r="F11" s="35">
-        <f>'[1]April 2021-22'!$I$32</f>
-        <v>5328</v>
+        <f>'[1]May 2021'!$I$30</f>
+        <v>2496</v>
       </c>
       <c r="G11" s="35">
         <f>F11*2</f>
-        <v>10656</v>
+        <v>4992</v>
       </c>
       <c r="H11" s="34"/>
       <c r="I11" s="28">
         <f t="shared" si="4"/>
-        <v>10656</v>
+        <v>4992</v>
       </c>
       <c r="J11" s="28"/>
       <c r="K11" s="63">
         <f>E11-I11-J11</f>
-        <v>73365</v>
+        <v>79029</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2369,22 +2410,22 @@
         <v>8616</v>
       </c>
       <c r="F12" s="35">
-        <f>'[1]April 2021-22'!$B$32</f>
-        <v>1008</v>
+        <f>'[1]May 2021'!$B$30</f>
+        <v>672</v>
       </c>
       <c r="G12" s="35">
         <f>F12*1</f>
-        <v>1008</v>
+        <v>672</v>
       </c>
       <c r="H12" s="34"/>
       <c r="I12" s="28">
         <f t="shared" si="4"/>
-        <v>1008</v>
+        <v>672</v>
       </c>
       <c r="J12" s="28"/>
       <c r="K12" s="63">
         <f>E12-I12-J12</f>
-        <v>7608</v>
+        <v>7944</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2403,22 +2444,22 @@
         <v>6798</v>
       </c>
       <c r="F13" s="35">
-        <f>'[1]April 2021-22'!$D$32</f>
-        <v>35880</v>
+        <f>'[1]May 2021'!$D$30</f>
+        <v>13500</v>
       </c>
       <c r="G13" s="35">
         <f>F13/5</f>
-        <v>7176</v>
+        <v>2700</v>
       </c>
       <c r="H13" s="34"/>
       <c r="I13" s="28">
         <f t="shared" si="4"/>
-        <v>7176</v>
+        <v>2700</v>
       </c>
       <c r="J13" s="28"/>
       <c r="K13" s="63">
         <f>E13-I13-J13</f>
-        <v>-378</v>
+        <v>4098</v>
       </c>
       <c r="L13" s="62"/>
     </row>
@@ -2450,21 +2491,21 @@
       </c>
       <c r="F15" s="35">
         <f>F13</f>
-        <v>35880</v>
+        <v>13500</v>
       </c>
       <c r="G15" s="35">
         <f>F15/5</f>
-        <v>7176</v>
+        <v>2700</v>
       </c>
       <c r="H15" s="34"/>
       <c r="I15" s="28">
         <f t="shared" ref="I15:I19" si="6">G15+H15</f>
-        <v>7176</v>
+        <v>2700</v>
       </c>
       <c r="J15" s="28"/>
       <c r="K15" s="63">
         <f>E15-I15-J15</f>
-        <v>94704</v>
+        <v>99180</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2482,21 +2523,21 @@
       </c>
       <c r="F16" s="35">
         <f>F4+F5</f>
-        <v>66024</v>
+        <v>24216</v>
       </c>
       <c r="G16" s="35">
         <f>F16/2</f>
-        <v>33012</v>
+        <v>12108</v>
       </c>
       <c r="H16" s="34"/>
       <c r="I16" s="28">
         <f t="shared" si="6"/>
-        <v>33012</v>
+        <v>12108</v>
       </c>
       <c r="J16" s="28"/>
       <c r="K16" s="63">
         <f>E16-I16-J16</f>
-        <v>-23824</v>
+        <v>-2920</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2514,21 +2555,21 @@
       </c>
       <c r="F17" s="35">
         <f>F6</f>
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="G17" s="35">
         <f>(F17/22)*50</f>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="H17" s="34"/>
       <c r="I17" s="28">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="J17" s="28"/>
       <c r="K17" s="63">
         <f>E17-I17-J17</f>
-        <v>56750</v>
+        <v>56000</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2546,21 +2587,21 @@
       </c>
       <c r="F18" s="39">
         <f>F7</f>
-        <v>1870</v>
+        <v>572</v>
       </c>
       <c r="G18" s="35">
         <f>(F18/22)*25</f>
-        <v>2125</v>
+        <v>650</v>
       </c>
       <c r="H18" s="34"/>
       <c r="I18" s="28">
         <f t="shared" si="6"/>
-        <v>2125</v>
+        <v>650</v>
       </c>
       <c r="J18" s="28"/>
       <c r="K18" s="63">
         <f>E18-I18-J18</f>
-        <v>184839</v>
+        <v>186314</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2578,21 +2619,21 @@
       </c>
       <c r="F19" s="39">
         <f>F8</f>
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="G19" s="35">
         <f>F19/2</f>
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="H19" s="34"/>
       <c r="I19" s="28">
         <f t="shared" si="6"/>
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="J19" s="28"/>
       <c r="K19" s="63">
         <f>E19-I19-J19</f>
-        <v>22158</v>
+        <v>22434</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1">
@@ -2618,26 +2659,26 @@
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
       <c r="E21" s="34">
-        <f t="shared" ref="E21:E28" si="7">B21+C21+D21</f>
+        <f t="shared" ref="E21:E27" si="7">B21+C21+D21</f>
         <v>599</v>
       </c>
       <c r="F21" s="35">
         <f>F10</f>
-        <v>10440</v>
+        <v>4560</v>
       </c>
       <c r="G21" s="35">
         <f>F21/24</f>
-        <v>435</v>
+        <v>190</v>
       </c>
       <c r="H21" s="34"/>
       <c r="I21" s="28">
         <f t="shared" ref="I21:I26" si="8">G21+H21</f>
-        <v>435</v>
+        <v>190</v>
       </c>
       <c r="J21" s="28"/>
       <c r="K21" s="63">
         <f t="shared" ref="K21:K27" si="9">E21-I21-J21</f>
-        <v>164</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2655,21 +2696,21 @@
       </c>
       <c r="F22" s="35">
         <f>F12</f>
-        <v>1008</v>
+        <v>672</v>
       </c>
       <c r="G22" s="35">
         <f>F22/24</f>
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H22" s="34"/>
       <c r="I22" s="28">
         <f t="shared" si="8"/>
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="J22" s="28"/>
       <c r="K22" s="63">
         <f t="shared" si="9"/>
-        <v>1425</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2688,17 +2729,17 @@
       <c r="F23" s="39"/>
       <c r="G23" s="35">
         <f>(F13/30)+(F7/22)+(F6/22)</f>
-        <v>1281</v>
+        <v>491</v>
       </c>
       <c r="H23" s="34"/>
       <c r="I23" s="28">
         <f t="shared" si="8"/>
-        <v>1281</v>
+        <v>491</v>
       </c>
       <c r="J23" s="28"/>
       <c r="K23" s="33">
         <f t="shared" si="9"/>
-        <v>4985</v>
+        <v>5775</v>
       </c>
       <c r="L23" s="41"/>
     </row>
@@ -2717,21 +2758,21 @@
       </c>
       <c r="F24" s="39">
         <f>F8</f>
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="G24" s="35">
         <f>(F19/24)</f>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H24" s="34"/>
       <c r="I24" s="28">
         <f t="shared" si="8"/>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J24" s="28"/>
       <c r="K24" s="63">
         <f t="shared" si="9"/>
-        <v>883</v>
+        <v>906</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2749,21 +2790,21 @@
       </c>
       <c r="F25" s="35">
         <f>F4</f>
-        <v>58368</v>
+        <v>21936</v>
       </c>
       <c r="G25" s="35">
         <f>F25/24</f>
-        <v>2432</v>
+        <v>914</v>
       </c>
       <c r="H25" s="34"/>
       <c r="I25" s="28">
         <f t="shared" si="8"/>
-        <v>2432</v>
+        <v>914</v>
       </c>
       <c r="J25" s="28"/>
       <c r="K25" s="63">
         <f t="shared" si="9"/>
-        <v>1698</v>
+        <v>3216</v>
       </c>
       <c r="M25" s="62"/>
     </row>
@@ -2782,21 +2823,21 @@
       </c>
       <c r="F26" s="35">
         <f>F5</f>
-        <v>7656</v>
+        <v>2280</v>
       </c>
       <c r="G26" s="35">
         <f>F26/24</f>
-        <v>319</v>
+        <v>95</v>
       </c>
       <c r="H26" s="34"/>
       <c r="I26" s="28">
         <f t="shared" si="8"/>
-        <v>319</v>
+        <v>95</v>
       </c>
       <c r="J26" s="28"/>
       <c r="K26" s="63">
         <f t="shared" si="9"/>
-        <v>186</v>
+        <v>410</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2814,21 +2855,21 @@
       </c>
       <c r="F27" s="35">
         <f>F11</f>
-        <v>5328</v>
+        <v>2496</v>
       </c>
       <c r="G27" s="35">
         <f>F27/24</f>
-        <v>222</v>
+        <v>104</v>
       </c>
       <c r="H27" s="34"/>
       <c r="I27" s="28">
         <f>G27+H27</f>
-        <v>222</v>
+        <v>104</v>
       </c>
       <c r="J27" s="28"/>
       <c r="K27" s="63">
         <f t="shared" si="9"/>
-        <v>139</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2858,22 +2899,22 @@
         <v>30438</v>
       </c>
       <c r="F29" s="44">
-        <f>'[1]April 2021-22'!$K$32</f>
-        <v>6660</v>
+        <f>'[1]May 2021'!$K$30</f>
+        <v>2112</v>
       </c>
       <c r="G29" s="44">
         <f>F29*2</f>
-        <v>13320</v>
+        <v>4224</v>
       </c>
       <c r="H29" s="45"/>
       <c r="I29" s="28">
         <f t="shared" ref="I29:I36" si="11">G29+H29</f>
-        <v>13320</v>
+        <v>4224</v>
       </c>
       <c r="J29" s="28"/>
       <c r="K29" s="64">
         <f t="shared" ref="K29:K35" si="12">E29-I29-J29</f>
-        <v>17118</v>
+        <v>26214</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2890,22 +2931,22 @@
         <v>41420</v>
       </c>
       <c r="F30" s="47">
-        <f>'[1]April 2021-22'!$L$32</f>
-        <v>900</v>
+        <f>'[1]May 2021'!$L$30</f>
+        <v>3132</v>
       </c>
       <c r="G30" s="44">
         <f>F30*4</f>
-        <v>3600</v>
+        <v>12528</v>
       </c>
       <c r="H30" s="45"/>
       <c r="I30" s="28">
         <f t="shared" si="11"/>
-        <v>3600</v>
+        <v>12528</v>
       </c>
       <c r="J30" s="28"/>
       <c r="K30" s="64">
         <f>E30-I30-J30</f>
-        <v>37820</v>
+        <v>28892</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2923,21 +2964,21 @@
       </c>
       <c r="F31" s="49">
         <f>F29</f>
-        <v>6660</v>
+        <v>2112</v>
       </c>
       <c r="G31" s="44">
         <f>F31/12</f>
-        <v>555</v>
+        <v>176</v>
       </c>
       <c r="H31" s="45"/>
       <c r="I31" s="28">
         <f t="shared" si="11"/>
-        <v>555</v>
+        <v>176</v>
       </c>
       <c r="J31" s="28"/>
       <c r="K31" s="27">
         <f t="shared" si="12"/>
-        <v>575</v>
+        <v>954</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2955,21 +2996,21 @@
       </c>
       <c r="F32" s="49">
         <f>F30</f>
-        <v>900</v>
+        <v>3132</v>
       </c>
       <c r="G32" s="50">
         <f>F32/12</f>
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="H32" s="51"/>
       <c r="I32" s="28">
         <f t="shared" si="11"/>
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="J32" s="28"/>
       <c r="K32" s="27">
         <f t="shared" si="12"/>
-        <v>451</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2987,21 +3028,21 @@
       </c>
       <c r="F33" s="49">
         <f>F30</f>
-        <v>900</v>
+        <v>3132</v>
       </c>
       <c r="G33" s="50">
         <f>F33*4</f>
-        <v>3600</v>
+        <v>12528</v>
       </c>
       <c r="H33" s="48"/>
       <c r="I33" s="28">
         <f t="shared" si="11"/>
-        <v>3600</v>
+        <v>12528</v>
       </c>
       <c r="J33" s="28"/>
       <c r="K33" s="27">
         <f t="shared" si="12"/>
-        <v>78897</v>
+        <v>69969</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3019,21 +3060,21 @@
       </c>
       <c r="F34" s="49">
         <f>F29</f>
-        <v>6660</v>
+        <v>2112</v>
       </c>
       <c r="G34" s="50">
         <f>F34*2</f>
-        <v>13320</v>
+        <v>4224</v>
       </c>
       <c r="H34" s="51"/>
       <c r="I34" s="28">
         <f t="shared" si="11"/>
-        <v>13320</v>
+        <v>4224</v>
       </c>
       <c r="J34" s="28"/>
       <c r="K34" s="27">
         <f t="shared" si="12"/>
-        <v>58804</v>
+        <v>67900</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3051,21 +3092,21 @@
       </c>
       <c r="F35" s="49">
         <f>F29</f>
-        <v>6660</v>
+        <v>2112</v>
       </c>
       <c r="G35" s="50">
         <f>F35*2</f>
-        <v>13320</v>
+        <v>4224</v>
       </c>
       <c r="H35" s="51"/>
       <c r="I35" s="28">
         <f t="shared" si="11"/>
-        <v>13320</v>
+        <v>4224</v>
       </c>
       <c r="J35" s="28"/>
       <c r="K35" s="27">
         <f t="shared" si="12"/>
-        <v>21582</v>
+        <v>30678</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" thickBot="1">
@@ -3083,21 +3124,21 @@
       </c>
       <c r="F36" s="57">
         <f>F29</f>
-        <v>6660</v>
+        <v>2112</v>
       </c>
       <c r="G36" s="58">
         <f>F36*2</f>
-        <v>13320</v>
+        <v>4224</v>
       </c>
       <c r="H36" s="59"/>
       <c r="I36" s="60">
         <f t="shared" si="11"/>
-        <v>13320</v>
+        <v>4224</v>
       </c>
       <c r="J36" s="60"/>
       <c r="K36" s="66">
         <f>E36-I36-J36</f>
-        <v>-6880</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -3106,7 +3147,7 @@
     <row r="38" spans="1:11">
       <c r="F38" s="61">
         <f>F4+F5+F6+F7+F8+F10+F11+F12+F13+F29+F30</f>
-        <v>128662</v>
+        <v>51590</v>
       </c>
     </row>
     <row r="39" spans="1:11">

--- a/PACKING MATEREILS STATEMENT-2021-22.xlsx
+++ b/PACKING MATEREILS STATEMENT-2021-22.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
   <si>
     <t>Particulars</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>PACKING MATERIALS STATEMENT AS ON THE MONTH OF MAY 2021-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 GM HM LINNER </t>
   </si>
 </sst>
 </file>
@@ -647,37 +650,37 @@
       <sheetData sheetId="1">
         <row r="30">
           <cell r="B30">
-            <v>672</v>
+            <v>2040</v>
           </cell>
           <cell r="C30">
-            <v>2280</v>
+            <v>9936</v>
           </cell>
           <cell r="D30">
-            <v>13500</v>
+            <v>58530</v>
           </cell>
           <cell r="E30">
-            <v>0</v>
+            <v>552</v>
           </cell>
           <cell r="F30">
-            <v>572</v>
+            <v>2794</v>
           </cell>
           <cell r="G30">
-            <v>330</v>
+            <v>638</v>
           </cell>
           <cell r="H30">
-            <v>4560</v>
+            <v>20016</v>
           </cell>
           <cell r="I30">
-            <v>2496</v>
+            <v>10296</v>
           </cell>
           <cell r="J30">
-            <v>21936</v>
+            <v>95328</v>
           </cell>
           <cell r="K30">
-            <v>2112</v>
+            <v>10356</v>
           </cell>
           <cell r="L30">
-            <v>3132</v>
+            <v>5268</v>
           </cell>
         </row>
       </sheetData>
@@ -2075,7 +2078,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2174,21 +2177,21 @@
       </c>
       <c r="F4" s="29">
         <f>'[1]May 2021'!$J$30</f>
-        <v>21936</v>
+        <v>95328</v>
       </c>
       <c r="G4" s="29">
         <f>F4*0.024</f>
-        <v>526.46400000000006</v>
+        <v>2287.8719999999998</v>
       </c>
       <c r="H4" s="28"/>
       <c r="I4" s="28">
         <f>G4+H4</f>
-        <v>526.46400000000006</v>
+        <v>2287.8719999999998</v>
       </c>
       <c r="J4" s="28"/>
       <c r="K4" s="29">
         <f>E4-I4-J4</f>
-        <v>4044737.6059999997</v>
+        <v>4042976.1979999999</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2206,21 +2209,21 @@
       </c>
       <c r="F5" s="29">
         <f>'[1]May 2021'!$C$30</f>
-        <v>2280</v>
+        <v>9936</v>
       </c>
       <c r="G5" s="29">
         <f>F5*0.024</f>
-        <v>54.72</v>
+        <v>238.464</v>
       </c>
       <c r="H5" s="28"/>
       <c r="I5" s="28">
         <f t="shared" ref="I5:I6" si="1">G5+H5</f>
-        <v>54.72</v>
+        <v>238.464</v>
       </c>
       <c r="J5" s="28"/>
       <c r="K5" s="28">
         <f>E5-I5-J5</f>
-        <v>393.5</v>
+        <v>209.75600000000003</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2238,21 +2241,21 @@
       </c>
       <c r="F6" s="29">
         <f>'[1]May 2021'!$G$30</f>
-        <v>330</v>
+        <v>638</v>
       </c>
       <c r="G6" s="29">
         <f>F6*0.108</f>
-        <v>35.64</v>
+        <v>68.903999999999996</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="28">
         <f t="shared" si="1"/>
-        <v>35.64</v>
+        <v>68.903999999999996</v>
       </c>
       <c r="J6" s="28"/>
       <c r="K6" s="28">
         <f>E6-I6-J6</f>
-        <v>1051.31</v>
+        <v>1018.046</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2270,21 +2273,21 @@
       </c>
       <c r="F7" s="29">
         <f>'[1]May 2021'!$F$30</f>
-        <v>572</v>
+        <v>2794</v>
       </c>
       <c r="G7" s="29">
         <f>F7*0.075</f>
-        <v>42.9</v>
+        <v>209.54999999999998</v>
       </c>
       <c r="H7" s="28"/>
       <c r="I7" s="28">
         <f>G7+H7</f>
-        <v>42.9</v>
+        <v>209.54999999999998</v>
       </c>
       <c r="J7" s="28"/>
       <c r="K7" s="28">
         <f>E7-I7-J7</f>
-        <v>128.94999999999999</v>
+        <v>-37.699999999999989</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2302,21 +2305,21 @@
       </c>
       <c r="F8" s="29">
         <f>'[1]May 2021'!$E$30</f>
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="G8" s="29">
         <f>F8*0.035</f>
-        <v>0</v>
+        <v>19.32</v>
       </c>
       <c r="H8" s="28"/>
       <c r="I8" s="28">
         <f t="shared" ref="I8" si="2">G8+H8</f>
-        <v>0</v>
+        <v>19.32</v>
       </c>
       <c r="J8" s="28"/>
       <c r="K8" s="28">
         <f t="shared" ref="K8" si="3">E8-I8-J8</f>
-        <v>675.76</v>
+        <v>656.43999999999994</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="12.75" customHeight="1">
@@ -2347,21 +2350,21 @@
       </c>
       <c r="F10" s="35">
         <f>'[1]May 2021'!$H$30</f>
-        <v>4560</v>
+        <v>20016</v>
       </c>
       <c r="G10" s="35">
         <f>F10*1</f>
-        <v>4560</v>
+        <v>20016</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="28">
         <f t="shared" ref="I10:I13" si="4">G10+H10</f>
-        <v>4560</v>
+        <v>20016</v>
       </c>
       <c r="J10" s="28"/>
       <c r="K10" s="63">
         <f>E10-I10-J10</f>
-        <v>33555</v>
+        <v>18099</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2379,21 +2382,21 @@
       </c>
       <c r="F11" s="35">
         <f>'[1]May 2021'!$I$30</f>
-        <v>2496</v>
+        <v>10296</v>
       </c>
       <c r="G11" s="35">
         <f>F11*2</f>
-        <v>4992</v>
+        <v>20592</v>
       </c>
       <c r="H11" s="34"/>
       <c r="I11" s="28">
         <f t="shared" si="4"/>
-        <v>4992</v>
+        <v>20592</v>
       </c>
       <c r="J11" s="28"/>
       <c r="K11" s="63">
         <f>E11-I11-J11</f>
-        <v>79029</v>
+        <v>63429</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2411,21 +2414,21 @@
       </c>
       <c r="F12" s="35">
         <f>'[1]May 2021'!$B$30</f>
-        <v>672</v>
+        <v>2040</v>
       </c>
       <c r="G12" s="35">
         <f>F12*1</f>
-        <v>672</v>
+        <v>2040</v>
       </c>
       <c r="H12" s="34"/>
       <c r="I12" s="28">
         <f t="shared" si="4"/>
-        <v>672</v>
+        <v>2040</v>
       </c>
       <c r="J12" s="28"/>
       <c r="K12" s="63">
         <f>E12-I12-J12</f>
-        <v>7944</v>
+        <v>6576</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2436,30 +2439,31 @@
         <v>4098</v>
       </c>
       <c r="C13" s="2">
-        <v>2700</v>
+        <f>2700+1250</f>
+        <v>3950</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="34">
         <f>B13+C13+D13</f>
-        <v>6798</v>
+        <v>8048</v>
       </c>
       <c r="F13" s="35">
         <f>'[1]May 2021'!$D$30</f>
-        <v>13500</v>
+        <v>58530</v>
       </c>
       <c r="G13" s="35">
         <f>F13/5</f>
-        <v>2700</v>
+        <v>11706</v>
       </c>
       <c r="H13" s="34"/>
       <c r="I13" s="28">
         <f t="shared" si="4"/>
-        <v>2700</v>
+        <v>11706</v>
       </c>
       <c r="J13" s="28"/>
       <c r="K13" s="63">
         <f>E13-I13-J13</f>
-        <v>4098</v>
+        <v>-3658</v>
       </c>
       <c r="L13" s="62"/>
     </row>
@@ -2491,21 +2495,21 @@
       </c>
       <c r="F15" s="35">
         <f>F13</f>
-        <v>13500</v>
+        <v>58530</v>
       </c>
       <c r="G15" s="35">
         <f>F15/5</f>
-        <v>2700</v>
+        <v>11706</v>
       </c>
       <c r="H15" s="34"/>
       <c r="I15" s="28">
         <f t="shared" ref="I15:I19" si="6">G15+H15</f>
-        <v>2700</v>
+        <v>11706</v>
       </c>
       <c r="J15" s="28"/>
       <c r="K15" s="63">
         <f>E15-I15-J15</f>
-        <v>99180</v>
+        <v>90174</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2516,28 +2520,30 @@
         <v>9188</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3">
+        <v>3500</v>
+      </c>
       <c r="E16" s="34">
         <f t="shared" si="5"/>
-        <v>9188</v>
+        <v>12688</v>
       </c>
       <c r="F16" s="35">
         <f>F4+F5</f>
-        <v>24216</v>
+        <v>105264</v>
       </c>
       <c r="G16" s="35">
         <f>F16/2</f>
-        <v>12108</v>
+        <v>52632</v>
       </c>
       <c r="H16" s="34"/>
       <c r="I16" s="28">
         <f t="shared" si="6"/>
-        <v>12108</v>
+        <v>52632</v>
       </c>
       <c r="J16" s="28"/>
       <c r="K16" s="63">
         <f>E16-I16-J16</f>
-        <v>-2920</v>
+        <v>-39944</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2555,21 +2561,21 @@
       </c>
       <c r="F17" s="35">
         <f>F6</f>
-        <v>330</v>
+        <v>638</v>
       </c>
       <c r="G17" s="35">
         <f>(F17/22)*50</f>
-        <v>750</v>
+        <v>1450</v>
       </c>
       <c r="H17" s="34"/>
       <c r="I17" s="28">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>1450</v>
       </c>
       <c r="J17" s="28"/>
       <c r="K17" s="63">
         <f>E17-I17-J17</f>
-        <v>56000</v>
+        <v>55300</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2587,26 +2593,26 @@
       </c>
       <c r="F18" s="39">
         <f>F7</f>
-        <v>572</v>
+        <v>2794</v>
       </c>
       <c r="G18" s="35">
         <f>(F18/22)*25</f>
-        <v>650</v>
+        <v>3175</v>
       </c>
       <c r="H18" s="34"/>
       <c r="I18" s="28">
         <f t="shared" si="6"/>
-        <v>650</v>
+        <v>3175</v>
       </c>
       <c r="J18" s="28"/>
       <c r="K18" s="63">
         <f>E18-I18-J18</f>
-        <v>186314</v>
+        <v>183789</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="7" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B19" s="33">
         <v>22434</v>
@@ -2619,21 +2625,21 @@
       </c>
       <c r="F19" s="39">
         <f>F8</f>
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="G19" s="35">
         <f>F19/2</f>
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="H19" s="34"/>
       <c r="I19" s="28">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="J19" s="28"/>
       <c r="K19" s="63">
         <f>E19-I19-J19</f>
-        <v>22434</v>
+        <v>22158</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1">
@@ -2664,21 +2670,21 @@
       </c>
       <c r="F21" s="35">
         <f>F10</f>
-        <v>4560</v>
+        <v>20016</v>
       </c>
       <c r="G21" s="35">
         <f>F21/24</f>
-        <v>190</v>
+        <v>834</v>
       </c>
       <c r="H21" s="34"/>
       <c r="I21" s="28">
         <f t="shared" ref="I21:I26" si="8">G21+H21</f>
-        <v>190</v>
+        <v>834</v>
       </c>
       <c r="J21" s="28"/>
       <c r="K21" s="63">
         <f t="shared" ref="K21:K27" si="9">E21-I21-J21</f>
-        <v>409</v>
+        <v>-235</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2696,21 +2702,21 @@
       </c>
       <c r="F22" s="35">
         <f>F12</f>
-        <v>672</v>
+        <v>2040</v>
       </c>
       <c r="G22" s="35">
         <f>F22/24</f>
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="H22" s="34"/>
       <c r="I22" s="28">
         <f t="shared" si="8"/>
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="J22" s="28"/>
       <c r="K22" s="63">
         <f t="shared" si="9"/>
-        <v>1439</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2729,17 +2735,17 @@
       <c r="F23" s="39"/>
       <c r="G23" s="35">
         <f>(F13/30)+(F7/22)+(F6/22)</f>
-        <v>491</v>
+        <v>2107</v>
       </c>
       <c r="H23" s="34"/>
       <c r="I23" s="28">
         <f t="shared" si="8"/>
-        <v>491</v>
+        <v>2107</v>
       </c>
       <c r="J23" s="28"/>
       <c r="K23" s="33">
         <f t="shared" si="9"/>
-        <v>5775</v>
+        <v>4159</v>
       </c>
       <c r="L23" s="41"/>
     </row>
@@ -2758,21 +2764,21 @@
       </c>
       <c r="F24" s="39">
         <f>F8</f>
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="G24" s="35">
         <f>(F19/24)</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H24" s="34"/>
       <c r="I24" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J24" s="28"/>
       <c r="K24" s="63">
         <f t="shared" si="9"/>
-        <v>906</v>
+        <v>883</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2790,21 +2796,21 @@
       </c>
       <c r="F25" s="35">
         <f>F4</f>
-        <v>21936</v>
+        <v>95328</v>
       </c>
       <c r="G25" s="35">
         <f>F25/24</f>
-        <v>914</v>
+        <v>3972</v>
       </c>
       <c r="H25" s="34"/>
       <c r="I25" s="28">
         <f t="shared" si="8"/>
-        <v>914</v>
+        <v>3972</v>
       </c>
       <c r="J25" s="28"/>
       <c r="K25" s="63">
         <f t="shared" si="9"/>
-        <v>3216</v>
+        <v>158</v>
       </c>
       <c r="M25" s="62"/>
     </row>
@@ -2823,21 +2829,21 @@
       </c>
       <c r="F26" s="35">
         <f>F5</f>
-        <v>2280</v>
+        <v>9936</v>
       </c>
       <c r="G26" s="35">
         <f>F26/24</f>
-        <v>95</v>
+        <v>414</v>
       </c>
       <c r="H26" s="34"/>
       <c r="I26" s="28">
         <f t="shared" si="8"/>
-        <v>95</v>
+        <v>414</v>
       </c>
       <c r="J26" s="28"/>
       <c r="K26" s="63">
         <f t="shared" si="9"/>
-        <v>410</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2855,21 +2861,21 @@
       </c>
       <c r="F27" s="35">
         <f>F11</f>
-        <v>2496</v>
+        <v>10296</v>
       </c>
       <c r="G27" s="35">
         <f>F27/24</f>
-        <v>104</v>
+        <v>429</v>
       </c>
       <c r="H27" s="34"/>
       <c r="I27" s="28">
         <f>G27+H27</f>
-        <v>104</v>
+        <v>429</v>
       </c>
       <c r="J27" s="28"/>
       <c r="K27" s="63">
         <f t="shared" si="9"/>
-        <v>257</v>
+        <v>-68</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2900,21 +2906,21 @@
       </c>
       <c r="F29" s="44">
         <f>'[1]May 2021'!$K$30</f>
-        <v>2112</v>
+        <v>10356</v>
       </c>
       <c r="G29" s="44">
         <f>F29*2</f>
-        <v>4224</v>
+        <v>20712</v>
       </c>
       <c r="H29" s="45"/>
       <c r="I29" s="28">
         <f t="shared" ref="I29:I36" si="11">G29+H29</f>
-        <v>4224</v>
+        <v>20712</v>
       </c>
       <c r="J29" s="28"/>
       <c r="K29" s="64">
         <f t="shared" ref="K29:K35" si="12">E29-I29-J29</f>
-        <v>26214</v>
+        <v>9726</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2932,21 +2938,21 @@
       </c>
       <c r="F30" s="47">
         <f>'[1]May 2021'!$L$30</f>
-        <v>3132</v>
+        <v>5268</v>
       </c>
       <c r="G30" s="44">
         <f>F30*4</f>
-        <v>12528</v>
+        <v>21072</v>
       </c>
       <c r="H30" s="45"/>
       <c r="I30" s="28">
         <f t="shared" si="11"/>
-        <v>12528</v>
+        <v>21072</v>
       </c>
       <c r="J30" s="28"/>
       <c r="K30" s="64">
         <f>E30-I30-J30</f>
-        <v>28892</v>
+        <v>20348</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2964,21 +2970,21 @@
       </c>
       <c r="F31" s="49">
         <f>F29</f>
-        <v>2112</v>
+        <v>10356</v>
       </c>
       <c r="G31" s="44">
         <f>F31/12</f>
-        <v>176</v>
+        <v>863</v>
       </c>
       <c r="H31" s="45"/>
       <c r="I31" s="28">
         <f t="shared" si="11"/>
-        <v>176</v>
+        <v>863</v>
       </c>
       <c r="J31" s="28"/>
       <c r="K31" s="27">
         <f t="shared" si="12"/>
-        <v>954</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2996,21 +3002,21 @@
       </c>
       <c r="F32" s="49">
         <f>F30</f>
-        <v>3132</v>
+        <v>5268</v>
       </c>
       <c r="G32" s="50">
         <f>F32/12</f>
-        <v>261</v>
+        <v>439</v>
       </c>
       <c r="H32" s="51"/>
       <c r="I32" s="28">
         <f t="shared" si="11"/>
-        <v>261</v>
+        <v>439</v>
       </c>
       <c r="J32" s="28"/>
       <c r="K32" s="27">
         <f t="shared" si="12"/>
-        <v>265</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -3028,21 +3034,21 @@
       </c>
       <c r="F33" s="49">
         <f>F30</f>
-        <v>3132</v>
+        <v>5268</v>
       </c>
       <c r="G33" s="50">
         <f>F33*4</f>
-        <v>12528</v>
+        <v>21072</v>
       </c>
       <c r="H33" s="48"/>
       <c r="I33" s="28">
         <f t="shared" si="11"/>
-        <v>12528</v>
+        <v>21072</v>
       </c>
       <c r="J33" s="28"/>
       <c r="K33" s="27">
         <f t="shared" si="12"/>
-        <v>69969</v>
+        <v>61425</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3060,21 +3066,21 @@
       </c>
       <c r="F34" s="49">
         <f>F29</f>
-        <v>2112</v>
+        <v>10356</v>
       </c>
       <c r="G34" s="50">
         <f>F34*2</f>
-        <v>4224</v>
+        <v>20712</v>
       </c>
       <c r="H34" s="51"/>
       <c r="I34" s="28">
         <f t="shared" si="11"/>
-        <v>4224</v>
+        <v>20712</v>
       </c>
       <c r="J34" s="28"/>
       <c r="K34" s="27">
         <f t="shared" si="12"/>
-        <v>67900</v>
+        <v>51412</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3092,21 +3098,21 @@
       </c>
       <c r="F35" s="49">
         <f>F29</f>
-        <v>2112</v>
+        <v>10356</v>
       </c>
       <c r="G35" s="50">
         <f>F35*2</f>
-        <v>4224</v>
+        <v>20712</v>
       </c>
       <c r="H35" s="51"/>
       <c r="I35" s="28">
         <f t="shared" si="11"/>
-        <v>4224</v>
+        <v>20712</v>
       </c>
       <c r="J35" s="28"/>
       <c r="K35" s="27">
         <f t="shared" si="12"/>
-        <v>30678</v>
+        <v>14190</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" thickBot="1">
@@ -3124,21 +3130,21 @@
       </c>
       <c r="F36" s="57">
         <f>F29</f>
-        <v>2112</v>
+        <v>10356</v>
       </c>
       <c r="G36" s="58">
         <f>F36*2</f>
-        <v>4224</v>
+        <v>20712</v>
       </c>
       <c r="H36" s="59"/>
       <c r="I36" s="60">
         <f t="shared" si="11"/>
-        <v>4224</v>
+        <v>20712</v>
       </c>
       <c r="J36" s="60"/>
       <c r="K36" s="66">
         <f>E36-I36-J36</f>
-        <v>2216</v>
+        <v>-14272</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -3147,7 +3153,7 @@
     <row r="38" spans="1:11">
       <c r="F38" s="61">
         <f>F4+F5+F6+F7+F8+F10+F11+F12+F13+F29+F30</f>
-        <v>51590</v>
+        <v>215754</v>
       </c>
     </row>
     <row r="39" spans="1:11">

--- a/PACKING MATEREILS STATEMENT-2021-22.xlsx
+++ b/PACKING MATEREILS STATEMENT-2021-22.xlsx
@@ -650,37 +650,37 @@
       <sheetData sheetId="1">
         <row r="30">
           <cell r="B30">
-            <v>2040</v>
+            <v>1032</v>
           </cell>
           <cell r="C30">
-            <v>9936</v>
+            <v>3312</v>
           </cell>
           <cell r="D30">
-            <v>58530</v>
+            <v>22650</v>
           </cell>
           <cell r="E30">
-            <v>552</v>
+            <v>0</v>
           </cell>
           <cell r="F30">
-            <v>2794</v>
+            <v>1166</v>
           </cell>
           <cell r="G30">
             <v>638</v>
           </cell>
           <cell r="H30">
-            <v>20016</v>
+            <v>9576</v>
           </cell>
           <cell r="I30">
-            <v>10296</v>
+            <v>4968</v>
           </cell>
           <cell r="J30">
-            <v>95328</v>
+            <v>37992</v>
           </cell>
           <cell r="K30">
-            <v>10356</v>
+            <v>4560</v>
           </cell>
           <cell r="L30">
-            <v>5268</v>
+            <v>4932</v>
           </cell>
         </row>
       </sheetData>
@@ -977,7 +977,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="M4" sqref="M4:M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="J8" s="28"/>
       <c r="K8" s="28">
-        <f t="shared" ref="K8" si="3">E8-I8-J8</f>
+        <f t="shared" ref="K8:M8" si="3">E8-I8-J8</f>
         <v>675.76</v>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="J21" s="28"/>
       <c r="K21" s="63">
-        <f t="shared" ref="K21:K27" si="9">E21-I21-J21</f>
+        <f t="shared" ref="K21:M27" si="9">E21-I21-J21</f>
         <v>599</v>
       </c>
     </row>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="J29" s="28"/>
       <c r="K29" s="64">
-        <f t="shared" ref="K29:K35" si="12">E29-I29-J29</f>
+        <f t="shared" ref="K29:M35" si="12">E29-I29-J29</f>
         <v>30438</v>
       </c>
     </row>
@@ -2075,10 +2075,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2097,7 +2097,7 @@
     <col min="12" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1">
       <c r="A1" s="67" t="s">
         <v>41</v>
       </c>
@@ -2112,7 +2112,7 @@
       <c r="J1" s="67"/>
       <c r="K1" s="67"/>
     </row>
-    <row r="2" spans="1:12" s="22" customFormat="1" ht="23.25" thickBot="1">
+    <row r="2" spans="1:14" s="22" customFormat="1" ht="23.25" thickBot="1">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="A3" s="15"/>
       <c r="B3" s="23"/>
       <c r="C3" s="17"/>
@@ -2160,41 +2160,42 @@
       <c r="J3" s="25"/>
       <c r="K3" s="65"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="26">
         <v>-5.93</v>
       </c>
-      <c r="C4" s="64">
-        <v>4045270</v>
+      <c r="C4" s="27">
+        <v>4045.27</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="28">
         <f t="shared" ref="E4:E7" si="0">B4+C4+D4</f>
-        <v>4045264.07</v>
+        <v>4039.34</v>
       </c>
       <c r="F4" s="29">
         <f>'[1]May 2021'!$J$30</f>
-        <v>95328</v>
+        <v>37992</v>
       </c>
       <c r="G4" s="29">
         <f>F4*0.024</f>
-        <v>2287.8719999999998</v>
+        <v>911.80799999999999</v>
       </c>
       <c r="H4" s="28"/>
       <c r="I4" s="28">
         <f>G4+H4</f>
-        <v>2287.8719999999998</v>
+        <v>911.80799999999999</v>
       </c>
       <c r="J4" s="28"/>
       <c r="K4" s="29">
         <f>E4-I4-J4</f>
-        <v>4042976.1979999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>3127.5320000000002</v>
+      </c>
+      <c r="N4" s="41"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -2209,24 +2210,25 @@
       </c>
       <c r="F5" s="29">
         <f>'[1]May 2021'!$C$30</f>
-        <v>9936</v>
+        <v>3312</v>
       </c>
       <c r="G5" s="29">
         <f>F5*0.024</f>
-        <v>238.464</v>
+        <v>79.488</v>
       </c>
       <c r="H5" s="28"/>
       <c r="I5" s="28">
         <f t="shared" ref="I5:I6" si="1">G5+H5</f>
-        <v>238.464</v>
+        <v>79.488</v>
       </c>
       <c r="J5" s="28"/>
       <c r="K5" s="28">
         <f>E5-I5-J5</f>
-        <v>209.75600000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>368.73200000000003</v>
+      </c>
+      <c r="N5" s="41"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="7" t="s">
         <v>37</v>
       </c>
@@ -2257,8 +2259,9 @@
         <f>E6-I6-J6</f>
         <v>1018.046</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="N6" s="41"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="7" t="s">
         <v>38</v>
       </c>
@@ -2273,24 +2276,25 @@
       </c>
       <c r="F7" s="29">
         <f>'[1]May 2021'!$F$30</f>
-        <v>2794</v>
+        <v>1166</v>
       </c>
       <c r="G7" s="29">
         <f>F7*0.075</f>
-        <v>209.54999999999998</v>
+        <v>87.45</v>
       </c>
       <c r="H7" s="28"/>
       <c r="I7" s="28">
         <f>G7+H7</f>
-        <v>209.54999999999998</v>
+        <v>87.45</v>
       </c>
       <c r="J7" s="28"/>
       <c r="K7" s="28">
         <f>E7-I7-J7</f>
-        <v>-37.699999999999989</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>84.399999999999991</v>
+      </c>
+      <c r="N7" s="41"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="7" t="s">
         <v>35</v>
       </c>
@@ -2305,24 +2309,25 @@
       </c>
       <c r="F8" s="29">
         <f>'[1]May 2021'!$E$30</f>
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="G8" s="29">
         <f>F8*0.035</f>
-        <v>19.32</v>
+        <v>0</v>
       </c>
       <c r="H8" s="28"/>
       <c r="I8" s="28">
         <f t="shared" ref="I8" si="2">G8+H8</f>
-        <v>19.32</v>
+        <v>0</v>
       </c>
       <c r="J8" s="28"/>
       <c r="K8" s="28">
         <f t="shared" ref="K8" si="3">E8-I8-J8</f>
-        <v>656.43999999999994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="12.75" customHeight="1">
+        <v>675.76</v>
+      </c>
+      <c r="N8" s="41"/>
+    </row>
+    <row r="9" spans="1:14" ht="12.75" customHeight="1">
       <c r="A9" s="9"/>
       <c r="B9" s="30"/>
       <c r="C9" s="1"/>
@@ -2334,8 +2339,9 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="N9" s="41"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
@@ -2350,24 +2356,25 @@
       </c>
       <c r="F10" s="35">
         <f>'[1]May 2021'!$H$30</f>
-        <v>20016</v>
+        <v>9576</v>
       </c>
       <c r="G10" s="35">
         <f>F10*1</f>
-        <v>20016</v>
+        <v>9576</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="28">
         <f t="shared" ref="I10:I13" si="4">G10+H10</f>
-        <v>20016</v>
+        <v>9576</v>
       </c>
       <c r="J10" s="28"/>
       <c r="K10" s="63">
         <f>E10-I10-J10</f>
-        <v>18099</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>28539</v>
+      </c>
+      <c r="N10" s="41"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
@@ -2382,24 +2389,25 @@
       </c>
       <c r="F11" s="35">
         <f>'[1]May 2021'!$I$30</f>
-        <v>10296</v>
+        <v>4968</v>
       </c>
       <c r="G11" s="35">
         <f>F11*2</f>
-        <v>20592</v>
+        <v>9936</v>
       </c>
       <c r="H11" s="34"/>
       <c r="I11" s="28">
         <f t="shared" si="4"/>
-        <v>20592</v>
+        <v>9936</v>
       </c>
       <c r="J11" s="28"/>
       <c r="K11" s="63">
         <f>E11-I11-J11</f>
-        <v>63429</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>74085</v>
+      </c>
+      <c r="N11" s="41"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
@@ -2414,24 +2422,25 @@
       </c>
       <c r="F12" s="35">
         <f>'[1]May 2021'!$B$30</f>
-        <v>2040</v>
+        <v>1032</v>
       </c>
       <c r="G12" s="35">
         <f>F12*1</f>
-        <v>2040</v>
+        <v>1032</v>
       </c>
       <c r="H12" s="34"/>
       <c r="I12" s="28">
         <f t="shared" si="4"/>
-        <v>2040</v>
+        <v>1032</v>
       </c>
       <c r="J12" s="28"/>
       <c r="K12" s="63">
         <f>E12-I12-J12</f>
-        <v>6576</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>7584</v>
+      </c>
+      <c r="N12" s="41"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
@@ -2449,25 +2458,26 @@
       </c>
       <c r="F13" s="35">
         <f>'[1]May 2021'!$D$30</f>
-        <v>58530</v>
+        <v>22650</v>
       </c>
       <c r="G13" s="35">
         <f>F13/5</f>
-        <v>11706</v>
+        <v>4530</v>
       </c>
       <c r="H13" s="34"/>
       <c r="I13" s="28">
         <f t="shared" si="4"/>
-        <v>11706</v>
+        <v>4530</v>
       </c>
       <c r="J13" s="28"/>
       <c r="K13" s="63">
         <f>E13-I13-J13</f>
-        <v>-3658</v>
+        <v>3518</v>
       </c>
       <c r="L13" s="62"/>
-    </row>
-    <row r="14" spans="1:12" ht="16.5" customHeight="1">
+      <c r="N13" s="41"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="36"/>
       <c r="C14" s="5"/>
@@ -2479,8 +2489,9 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="N14" s="41"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -2495,58 +2506,62 @@
       </c>
       <c r="F15" s="35">
         <f>F13</f>
-        <v>58530</v>
+        <v>22650</v>
       </c>
       <c r="G15" s="35">
         <f>F15/5</f>
-        <v>11706</v>
+        <v>4530</v>
       </c>
       <c r="H15" s="34"/>
       <c r="I15" s="28">
         <f t="shared" ref="I15:I19" si="6">G15+H15</f>
-        <v>11706</v>
+        <v>4530</v>
       </c>
       <c r="J15" s="28"/>
       <c r="K15" s="63">
         <f>E15-I15-J15</f>
-        <v>90174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>97350</v>
+      </c>
+      <c r="N15" s="41"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="33">
         <v>9188</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2">
+        <v>100000</v>
+      </c>
       <c r="D16" s="3">
-        <v>3500</v>
+        <v>21000</v>
       </c>
       <c r="E16" s="34">
         <f t="shared" si="5"/>
-        <v>12688</v>
+        <v>130188</v>
       </c>
       <c r="F16" s="35">
         <f>F4+F5</f>
-        <v>105264</v>
+        <v>41304</v>
       </c>
       <c r="G16" s="35">
         <f>F16/2</f>
-        <v>52632</v>
+        <v>20652</v>
       </c>
       <c r="H16" s="34"/>
       <c r="I16" s="28">
         <f t="shared" si="6"/>
-        <v>52632</v>
+        <v>20652</v>
       </c>
       <c r="J16" s="28"/>
       <c r="K16" s="63">
         <f>E16-I16-J16</f>
-        <v>-39944</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>109536</v>
+      </c>
+      <c r="N16" s="41"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="7" t="s">
         <v>28</v>
       </c>
@@ -2577,8 +2592,9 @@
         <f>E17-I17-J17</f>
         <v>55300</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="41"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="7" t="s">
         <v>29</v>
       </c>
@@ -2593,24 +2609,25 @@
       </c>
       <c r="F18" s="39">
         <f>F7</f>
-        <v>2794</v>
+        <v>1166</v>
       </c>
       <c r="G18" s="35">
         <f>(F18/22)*25</f>
-        <v>3175</v>
+        <v>1325</v>
       </c>
       <c r="H18" s="34"/>
       <c r="I18" s="28">
         <f t="shared" si="6"/>
-        <v>3175</v>
+        <v>1325</v>
       </c>
       <c r="J18" s="28"/>
       <c r="K18" s="63">
         <f>E18-I18-J18</f>
-        <v>183789</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>185639</v>
+      </c>
+      <c r="N18" s="41"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="7" t="s">
         <v>42</v>
       </c>
@@ -2618,31 +2635,34 @@
         <v>22434</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3">
+        <v>-21000</v>
+      </c>
       <c r="E19" s="34">
         <f t="shared" si="5"/>
-        <v>22434</v>
+        <v>1434</v>
       </c>
       <c r="F19" s="39">
         <f>F8</f>
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="G19" s="35">
         <f>F19/2</f>
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="H19" s="34"/>
       <c r="I19" s="28">
         <f t="shared" si="6"/>
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="J19" s="28"/>
       <c r="K19" s="63">
         <f>E19-I19-J19</f>
-        <v>22158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1">
+        <v>1434</v>
+      </c>
+      <c r="N19" s="41"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1">
       <c r="A20" s="9"/>
       <c r="B20" s="36"/>
       <c r="C20" s="5"/>
@@ -2654,8 +2674,9 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" s="41"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="7" t="s">
         <v>19</v>
       </c>
@@ -2670,24 +2691,25 @@
       </c>
       <c r="F21" s="35">
         <f>F10</f>
-        <v>20016</v>
+        <v>9576</v>
       </c>
       <c r="G21" s="35">
         <f>F21/24</f>
-        <v>834</v>
+        <v>399</v>
       </c>
       <c r="H21" s="34"/>
       <c r="I21" s="28">
         <f t="shared" ref="I21:I26" si="8">G21+H21</f>
-        <v>834</v>
+        <v>399</v>
       </c>
       <c r="J21" s="28"/>
       <c r="K21" s="63">
         <f t="shared" ref="K21:K27" si="9">E21-I21-J21</f>
-        <v>-235</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>200</v>
+      </c>
+      <c r="N21" s="41"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="7" t="s">
         <v>18</v>
       </c>
@@ -2702,24 +2724,25 @@
       </c>
       <c r="F22" s="35">
         <f>F12</f>
-        <v>2040</v>
+        <v>1032</v>
       </c>
       <c r="G22" s="35">
         <f>F22/24</f>
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="H22" s="34"/>
       <c r="I22" s="28">
         <f t="shared" si="8"/>
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="J22" s="28"/>
       <c r="K22" s="63">
         <f t="shared" si="9"/>
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1424</v>
+      </c>
+      <c r="N22" s="41"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="42" t="s">
         <v>36</v>
       </c>
@@ -2735,21 +2758,22 @@
       <c r="F23" s="39"/>
       <c r="G23" s="35">
         <f>(F13/30)+(F7/22)+(F6/22)</f>
-        <v>2107</v>
+        <v>837</v>
       </c>
       <c r="H23" s="34"/>
       <c r="I23" s="28">
         <f t="shared" si="8"/>
-        <v>2107</v>
+        <v>837</v>
       </c>
       <c r="J23" s="28"/>
       <c r="K23" s="33">
         <f t="shared" si="9"/>
-        <v>4159</v>
+        <v>5429</v>
       </c>
       <c r="L23" s="41"/>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" s="41"/>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="7" t="s">
         <v>34</v>
       </c>
@@ -2764,24 +2788,25 @@
       </c>
       <c r="F24" s="39">
         <f>F8</f>
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="G24" s="35">
         <f>(F19/24)</f>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H24" s="34"/>
       <c r="I24" s="28">
         <f t="shared" si="8"/>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J24" s="28"/>
       <c r="K24" s="63">
         <f t="shared" si="9"/>
-        <v>883</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>906</v>
+      </c>
+      <c r="N24" s="41"/>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="7" t="s">
         <v>16</v>
       </c>
@@ -2796,25 +2821,26 @@
       </c>
       <c r="F25" s="35">
         <f>F4</f>
-        <v>95328</v>
+        <v>37992</v>
       </c>
       <c r="G25" s="35">
         <f>F25/24</f>
-        <v>3972</v>
+        <v>1583</v>
       </c>
       <c r="H25" s="34"/>
       <c r="I25" s="28">
         <f t="shared" si="8"/>
-        <v>3972</v>
+        <v>1583</v>
       </c>
       <c r="J25" s="28"/>
       <c r="K25" s="63">
         <f t="shared" si="9"/>
-        <v>158</v>
+        <v>2547</v>
       </c>
       <c r="M25" s="62"/>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" s="41"/>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="7" t="s">
         <v>17</v>
       </c>
@@ -2829,24 +2855,25 @@
       </c>
       <c r="F26" s="35">
         <f>F5</f>
-        <v>9936</v>
+        <v>3312</v>
       </c>
       <c r="G26" s="35">
         <f>F26/24</f>
-        <v>414</v>
+        <v>138</v>
       </c>
       <c r="H26" s="34"/>
       <c r="I26" s="28">
         <f t="shared" si="8"/>
-        <v>414</v>
+        <v>138</v>
       </c>
       <c r="J26" s="28"/>
       <c r="K26" s="63">
         <f t="shared" si="9"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>367</v>
+      </c>
+      <c r="N26" s="41"/>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="7" t="s">
         <v>27</v>
       </c>
@@ -2861,24 +2888,25 @@
       </c>
       <c r="F27" s="35">
         <f>F11</f>
-        <v>10296</v>
+        <v>4968</v>
       </c>
       <c r="G27" s="35">
         <f>F27/24</f>
-        <v>429</v>
+        <v>207</v>
       </c>
       <c r="H27" s="34"/>
       <c r="I27" s="28">
         <f>G27+H27</f>
-        <v>429</v>
+        <v>207</v>
       </c>
       <c r="J27" s="28"/>
       <c r="K27" s="63">
         <f t="shared" si="9"/>
-        <v>-68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>154</v>
+      </c>
+      <c r="N27" s="41"/>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="11"/>
       <c r="B28" s="36"/>
       <c r="C28" s="5"/>
@@ -2890,8 +2918,9 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="41"/>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="7" t="s">
         <v>24</v>
       </c>
@@ -2906,24 +2935,25 @@
       </c>
       <c r="F29" s="44">
         <f>'[1]May 2021'!$K$30</f>
-        <v>10356</v>
+        <v>4560</v>
       </c>
       <c r="G29" s="44">
         <f>F29*2</f>
-        <v>20712</v>
+        <v>9120</v>
       </c>
       <c r="H29" s="45"/>
       <c r="I29" s="28">
         <f t="shared" ref="I29:I36" si="11">G29+H29</f>
-        <v>20712</v>
+        <v>9120</v>
       </c>
       <c r="J29" s="28"/>
       <c r="K29" s="64">
         <f t="shared" ref="K29:K35" si="12">E29-I29-J29</f>
-        <v>9726</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>21318</v>
+      </c>
+      <c r="N29" s="41"/>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="7" t="s">
         <v>31</v>
       </c>
@@ -2938,24 +2968,25 @@
       </c>
       <c r="F30" s="47">
         <f>'[1]May 2021'!$L$30</f>
-        <v>5268</v>
+        <v>4932</v>
       </c>
       <c r="G30" s="44">
         <f>F30*4</f>
-        <v>21072</v>
+        <v>19728</v>
       </c>
       <c r="H30" s="45"/>
       <c r="I30" s="28">
         <f t="shared" si="11"/>
-        <v>21072</v>
+        <v>19728</v>
       </c>
       <c r="J30" s="28"/>
       <c r="K30" s="64">
         <f>E30-I30-J30</f>
-        <v>20348</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>21692</v>
+      </c>
+      <c r="N30" s="41"/>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="7" t="s">
         <v>20</v>
       </c>
@@ -2970,24 +3001,25 @@
       </c>
       <c r="F31" s="49">
         <f>F29</f>
-        <v>10356</v>
+        <v>4560</v>
       </c>
       <c r="G31" s="44">
         <f>F31/12</f>
-        <v>863</v>
+        <v>380</v>
       </c>
       <c r="H31" s="45"/>
       <c r="I31" s="28">
         <f t="shared" si="11"/>
-        <v>863</v>
+        <v>380</v>
       </c>
       <c r="J31" s="28"/>
       <c r="K31" s="27">
         <f t="shared" si="12"/>
-        <v>267</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>750</v>
+      </c>
+      <c r="N31" s="41"/>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="7" t="s">
         <v>25</v>
       </c>
@@ -3002,24 +3034,25 @@
       </c>
       <c r="F32" s="49">
         <f>F30</f>
-        <v>5268</v>
+        <v>4932</v>
       </c>
       <c r="G32" s="50">
         <f>F32/12</f>
-        <v>439</v>
+        <v>411</v>
       </c>
       <c r="H32" s="51"/>
       <c r="I32" s="28">
         <f t="shared" si="11"/>
-        <v>439</v>
+        <v>411</v>
       </c>
       <c r="J32" s="28"/>
       <c r="K32" s="27">
         <f t="shared" si="12"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>115</v>
+      </c>
+      <c r="N32" s="41"/>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="7" t="s">
         <v>21</v>
       </c>
@@ -3034,24 +3067,25 @@
       </c>
       <c r="F33" s="49">
         <f>F30</f>
-        <v>5268</v>
+        <v>4932</v>
       </c>
       <c r="G33" s="50">
         <f>F33*4</f>
-        <v>21072</v>
+        <v>19728</v>
       </c>
       <c r="H33" s="48"/>
       <c r="I33" s="28">
         <f t="shared" si="11"/>
-        <v>21072</v>
+        <v>19728</v>
       </c>
       <c r="J33" s="28"/>
       <c r="K33" s="27">
         <f t="shared" si="12"/>
-        <v>61425</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>62769</v>
+      </c>
+      <c r="N33" s="41"/>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="7" t="s">
         <v>22</v>
       </c>
@@ -3066,24 +3100,25 @@
       </c>
       <c r="F34" s="49">
         <f>F29</f>
-        <v>10356</v>
+        <v>4560</v>
       </c>
       <c r="G34" s="50">
         <f>F34*2</f>
-        <v>20712</v>
+        <v>9120</v>
       </c>
       <c r="H34" s="51"/>
       <c r="I34" s="28">
         <f t="shared" si="11"/>
-        <v>20712</v>
+        <v>9120</v>
       </c>
       <c r="J34" s="28"/>
       <c r="K34" s="27">
         <f t="shared" si="12"/>
-        <v>51412</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>63004</v>
+      </c>
+      <c r="N34" s="41"/>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="7" t="s">
         <v>23</v>
       </c>
@@ -3098,24 +3133,25 @@
       </c>
       <c r="F35" s="49">
         <f>F29</f>
-        <v>10356</v>
+        <v>4560</v>
       </c>
       <c r="G35" s="50">
         <f>F35*2</f>
-        <v>20712</v>
+        <v>9120</v>
       </c>
       <c r="H35" s="51"/>
       <c r="I35" s="28">
         <f t="shared" si="11"/>
-        <v>20712</v>
+        <v>9120</v>
       </c>
       <c r="J35" s="28"/>
       <c r="K35" s="27">
         <f t="shared" si="12"/>
-        <v>14190</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" thickBot="1">
+        <v>25782</v>
+      </c>
+      <c r="N35" s="41"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" thickBot="1">
       <c r="A36" s="52" t="s">
         <v>32</v>
       </c>
@@ -3130,33 +3166,34 @@
       </c>
       <c r="F36" s="57">
         <f>F29</f>
-        <v>10356</v>
+        <v>4560</v>
       </c>
       <c r="G36" s="58">
         <f>F36*2</f>
-        <v>20712</v>
+        <v>9120</v>
       </c>
       <c r="H36" s="59"/>
       <c r="I36" s="60">
         <f t="shared" si="11"/>
-        <v>20712</v>
+        <v>9120</v>
       </c>
       <c r="J36" s="60"/>
       <c r="K36" s="66">
         <f>E36-I36-J36</f>
-        <v>-14272</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>-2680</v>
+      </c>
+      <c r="N36" s="41"/>
+    </row>
+    <row r="37" spans="1:14">
       <c r="B37" s="41"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:14">
       <c r="F38" s="61">
         <f>F4+F5+F6+F7+F8+F10+F11+F12+F13+F29+F30</f>
-        <v>215754</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>90826</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="F39" s="41"/>
       <c r="H39" s="61"/>
       <c r="J39" s="61"/>

--- a/PACKING MATEREILS STATEMENT-2021-22.xlsx
+++ b/PACKING MATEREILS STATEMENT-2021-22.xlsx
@@ -1,24 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riya\Downloads\excel-main\excel-main\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A930EC-A37C-443E-805D-49BB6E9D37A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021-22" sheetId="79" r:id="rId1"/>
     <sheet name="May 2021" sheetId="80" r:id="rId2"/>
+    <sheet name="June 2021" sheetId="81" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="44">
   <si>
     <t>Particulars</t>
   </si>
@@ -143,20 +158,23 @@
     <t>PACKING MATERIALS STATEMENT AS ON THE MONTH OF APRIL 2021-22</t>
   </si>
   <si>
-    <t>PACKING MATERIALS STATEMENT AS ON THE MONTH OF MAY 2021-22</t>
+    <t xml:space="preserve">100 GM HM LINNER </t>
   </si>
   <si>
-    <t xml:space="preserve">100 GM HM LINNER </t>
+    <t>PACKING MATERIALS STATEMENT AS ON THE MONTH OF MAY 2021</t>
+  </si>
+  <si>
+    <t>PACKING MATERIALS STATEMENT AS ON THE MONTH OF JUNE 2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -599,15 +617,24 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="April 2021-22"/>
       <sheetName val="May 2021"/>
+      <sheetName val="June 2021"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -684,6 +711,43 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="2">
+        <row r="30">
+          <cell r="B30">
+            <v>0</v>
+          </cell>
+          <cell r="C30">
+            <v>1224</v>
+          </cell>
+          <cell r="D30">
+            <v>4410</v>
+          </cell>
+          <cell r="E30">
+            <v>552</v>
+          </cell>
+          <cell r="F30">
+            <v>0</v>
+          </cell>
+          <cell r="G30">
+            <v>0</v>
+          </cell>
+          <cell r="H30">
+            <v>1416</v>
+          </cell>
+          <cell r="I30">
+            <v>0</v>
+          </cell>
+          <cell r="J30">
+            <v>6192</v>
+          </cell>
+          <cell r="K30">
+            <v>2748</v>
+          </cell>
+          <cell r="L30">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -732,7 +796,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -764,9 +828,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -798,6 +880,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -973,14 +1073,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M4" sqref="M4:M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" style="12" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
@@ -996,7 +1096,7 @@
     <col min="12" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="67" t="s">
         <v>40</v>
       </c>
@@ -1011,7 +1111,7 @@
       <c r="J1" s="67"/>
       <c r="K1" s="67"/>
     </row>
-    <row r="2" spans="1:12" s="22" customFormat="1" ht="23.25" thickBot="1">
+    <row r="2" spans="1:12" s="22" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1046,7 +1146,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="23"/>
       <c r="C3" s="17"/>
@@ -1059,7 +1159,7 @@
       <c r="J3" s="25"/>
       <c r="K3" s="65"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1091,7 +1191,7 @@
         <v>-5.9320000000000164</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -1123,7 +1223,7 @@
         <v>448.21600000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>37</v>
       </c>
@@ -1157,7 +1257,7 @@
         <v>1086.95</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>38</v>
       </c>
@@ -1189,7 +1289,7 @@
         <v>171.85000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>35</v>
       </c>
@@ -1217,11 +1317,11 @@
       </c>
       <c r="J8" s="28"/>
       <c r="K8" s="28">
-        <f t="shared" ref="K8:M8" si="3">E8-I8-J8</f>
+        <f t="shared" ref="K8" si="3">E8-I8-J8</f>
         <v>675.76</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="12.75" customHeight="1">
+    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="30"/>
       <c r="C9" s="1"/>
@@ -1234,7 +1334,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
@@ -1266,7 +1366,7 @@
         <v>38115</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
@@ -1300,7 +1400,7 @@
         <v>84021</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
@@ -1332,7 +1432,7 @@
         <v>8616</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
@@ -1368,7 +1468,7 @@
       </c>
       <c r="L13" s="62"/>
     </row>
-    <row r="14" spans="1:12" ht="16.5" customHeight="1">
+    <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="36"/>
       <c r="C14" s="5"/>
@@ -1381,7 +1481,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -1413,7 +1513,7 @@
         <v>101880</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
@@ -1445,7 +1545,7 @@
         <v>9188</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>28</v>
       </c>
@@ -1477,7 +1577,7 @@
         <v>56750</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>29</v>
       </c>
@@ -1509,7 +1609,7 @@
         <v>186964</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>33</v>
       </c>
@@ -1541,7 +1641,7 @@
         <v>22434</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="36"/>
       <c r="C20" s="5"/>
@@ -1554,7 +1654,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>19</v>
       </c>
@@ -1582,11 +1682,11 @@
       </c>
       <c r="J21" s="28"/>
       <c r="K21" s="63">
-        <f t="shared" ref="K21:M27" si="9">E21-I21-J21</f>
+        <f t="shared" ref="K21:K27" si="9">E21-I21-J21</f>
         <v>599</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>18</v>
       </c>
@@ -1618,7 +1718,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
         <v>36</v>
       </c>
@@ -1648,7 +1748,7 @@
       </c>
       <c r="L23" s="41"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>34</v>
       </c>
@@ -1680,7 +1780,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>16</v>
       </c>
@@ -1715,7 +1815,7 @@
       </c>
       <c r="M25" s="62"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>17</v>
       </c>
@@ -1747,7 +1847,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>27</v>
       </c>
@@ -1779,7 +1879,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="36"/>
       <c r="C28" s="5"/>
@@ -1792,7 +1892,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>24</v>
       </c>
@@ -1822,11 +1922,11 @@
       </c>
       <c r="J29" s="28"/>
       <c r="K29" s="64">
-        <f t="shared" ref="K29:M35" si="12">E29-I29-J29</f>
+        <f t="shared" ref="K29:K35" si="12">E29-I29-J29</f>
         <v>30438</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>31</v>
       </c>
@@ -1858,7 +1958,7 @@
         <v>41420</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>20</v>
       </c>
@@ -1890,7 +1990,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>25</v>
       </c>
@@ -1922,7 +2022,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>21</v>
       </c>
@@ -1954,7 +2054,7 @@
         <v>82497</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>22</v>
       </c>
@@ -1986,7 +2086,7 @@
         <v>72124</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>23</v>
       </c>
@@ -2018,7 +2118,7 @@
         <v>34902</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.75" thickBot="1">
+    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="52" t="s">
         <v>32</v>
       </c>
@@ -2050,16 +2150,16 @@
         <v>6440</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B37" s="41"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F38" s="61">
         <f>F4+F5+F6+F7+F8+F10+F11+F12+F13+F29+F30</f>
         <v>128662</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F39" s="41"/>
       <c r="H39" s="61"/>
       <c r="J39" s="61"/>
@@ -2074,14 +2174,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" style="12" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
@@ -2097,9 +2197,9 @@
     <col min="12" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="67" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1" s="67"/>
       <c r="C1" s="67"/>
@@ -2112,7 +2212,7 @@
       <c r="J1" s="67"/>
       <c r="K1" s="67"/>
     </row>
-    <row r="2" spans="1:14" s="22" customFormat="1" ht="23.25" thickBot="1">
+    <row r="2" spans="1:14" s="22" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -2147,7 +2247,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="23"/>
       <c r="C3" s="17"/>
@@ -2160,7 +2260,7 @@
       <c r="J3" s="25"/>
       <c r="K3" s="65"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -2195,7 +2295,7 @@
       </c>
       <c r="N4" s="41"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -2228,7 +2328,7 @@
       </c>
       <c r="N5" s="41"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>37</v>
       </c>
@@ -2261,7 +2361,7 @@
       </c>
       <c r="N6" s="41"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>38</v>
       </c>
@@ -2294,7 +2394,7 @@
       </c>
       <c r="N7" s="41"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>35</v>
       </c>
@@ -2327,7 +2427,7 @@
       </c>
       <c r="N8" s="41"/>
     </row>
-    <row r="9" spans="1:14" ht="12.75" customHeight="1">
+    <row r="9" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="30"/>
       <c r="C9" s="1"/>
@@ -2341,7 +2441,7 @@
       <c r="K9" s="1"/>
       <c r="N9" s="41"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
@@ -2374,7 +2474,7 @@
       </c>
       <c r="N10" s="41"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
@@ -2407,7 +2507,7 @@
       </c>
       <c r="N11" s="41"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
@@ -2440,7 +2540,7 @@
       </c>
       <c r="N12" s="41"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
@@ -2477,7 +2577,7 @@
       <c r="L13" s="62"/>
       <c r="N13" s="41"/>
     </row>
-    <row r="14" spans="1:14" ht="16.5" customHeight="1">
+    <row r="14" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="36"/>
       <c r="C14" s="5"/>
@@ -2491,7 +2591,7 @@
       <c r="K14" s="1"/>
       <c r="N14" s="41"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -2524,7 +2624,7 @@
       </c>
       <c r="N15" s="41"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
@@ -2561,7 +2661,7 @@
       </c>
       <c r="N16" s="41"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>28</v>
       </c>
@@ -2594,7 +2694,7 @@
       </c>
       <c r="N17" s="41"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>29</v>
       </c>
@@ -2627,9 +2727,9 @@
       </c>
       <c r="N18" s="41"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="33">
         <v>22434</v>
@@ -2662,7 +2762,7 @@
       </c>
       <c r="N19" s="41"/>
     </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1">
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="36"/>
       <c r="C20" s="5"/>
@@ -2676,7 +2776,7 @@
       <c r="K20" s="1"/>
       <c r="N20" s="41"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>19</v>
       </c>
@@ -2709,7 +2809,7 @@
       </c>
       <c r="N21" s="41"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>18</v>
       </c>
@@ -2742,7 +2842,7 @@
       </c>
       <c r="N22" s="41"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
         <v>36</v>
       </c>
@@ -2773,7 +2873,7 @@
       <c r="L23" s="41"/>
       <c r="N23" s="41"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>34</v>
       </c>
@@ -2806,7 +2906,7 @@
       </c>
       <c r="N24" s="41"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>16</v>
       </c>
@@ -2840,7 +2940,7 @@
       <c r="M25" s="62"/>
       <c r="N25" s="41"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>17</v>
       </c>
@@ -2873,7 +2973,7 @@
       </c>
       <c r="N26" s="41"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>27</v>
       </c>
@@ -2906,7 +3006,7 @@
       </c>
       <c r="N27" s="41"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="36"/>
       <c r="C28" s="5"/>
@@ -2920,7 +3020,7 @@
       <c r="K28" s="1"/>
       <c r="N28" s="41"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>24</v>
       </c>
@@ -2953,7 +3053,7 @@
       </c>
       <c r="N29" s="41"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>31</v>
       </c>
@@ -2986,7 +3086,7 @@
       </c>
       <c r="N30" s="41"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>20</v>
       </c>
@@ -3019,7 +3119,7 @@
       </c>
       <c r="N31" s="41"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>25</v>
       </c>
@@ -3052,7 +3152,7 @@
       </c>
       <c r="N32" s="41"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>21</v>
       </c>
@@ -3085,7 +3185,7 @@
       </c>
       <c r="N33" s="41"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>22</v>
       </c>
@@ -3118,7 +3218,7 @@
       </c>
       <c r="N34" s="41"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>23</v>
       </c>
@@ -3151,7 +3251,7 @@
       </c>
       <c r="N35" s="41"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" thickBot="1">
+    <row r="36" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="52" t="s">
         <v>32</v>
       </c>
@@ -3184,16 +3284,1148 @@
       </c>
       <c r="N36" s="41"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B37" s="41"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F38" s="61">
         <f>F4+F5+F6+F7+F8+F10+F11+F12+F13+F29+F30</f>
         <v>90826</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F39" s="41"/>
+      <c r="H39" s="61"/>
+      <c r="J39" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.27" right="0.34" top="0.28000000000000003" bottom="0.21" header="0.23" footer="0.16"/>
+  <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9726FBB0-A2F6-4CA2-971A-11DA26A5DA43}">
+  <dimension ref="A1:N39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="13" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="13"/>
+    <col min="10" max="10" width="6.28515625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="13" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+    </row>
+    <row r="2" spans="1:14" s="22" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="65"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="26">
+        <v>3127.5</v>
+      </c>
+      <c r="C4" s="27">
+        <v>3000</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="28">
+        <f t="shared" ref="E4:E7" si="0">B4+C4+D4</f>
+        <v>6127.5</v>
+      </c>
+      <c r="F4" s="29">
+        <f>'[1]June 2021'!$J$30</f>
+        <v>6192</v>
+      </c>
+      <c r="G4" s="29">
+        <f>F4*0.024</f>
+        <v>148.608</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28">
+        <f>G4+H4</f>
+        <v>148.608</v>
+      </c>
+      <c r="J4" s="28"/>
+      <c r="K4" s="29">
+        <f>E4-I4-J4</f>
+        <v>5978.8919999999998</v>
+      </c>
+      <c r="N4" s="41"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="26">
+        <v>368.73</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="28">
+        <f t="shared" si="0"/>
+        <v>368.73</v>
+      </c>
+      <c r="F5" s="29">
+        <f>'[1]June 2021'!$C$30</f>
+        <v>1224</v>
+      </c>
+      <c r="G5" s="29">
+        <f>F5*0.024</f>
+        <v>29.376000000000001</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28">
+        <f t="shared" ref="I5:I6" si="1">G5+H5</f>
+        <v>29.376000000000001</v>
+      </c>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28">
+        <f>E5-I5-J5</f>
+        <v>339.35400000000004</v>
+      </c>
+      <c r="N5" s="41"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="26">
+        <v>1018.05</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="28">
+        <f t="shared" si="0"/>
+        <v>1018.05</v>
+      </c>
+      <c r="F6" s="29">
+        <f>'[1]June 2021'!$G$30</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="29">
+        <f>F6*0.108</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28">
+        <f>E6-I6-J6</f>
+        <v>1018.05</v>
+      </c>
+      <c r="N6" s="41"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="26">
+        <v>84.4</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="28">
+        <f t="shared" si="0"/>
+        <v>84.4</v>
+      </c>
+      <c r="F7" s="29">
+        <f>'[1]June 2021'!$F$30</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="29">
+        <f>F7*0.075</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28">
+        <f>G7+H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28">
+        <f>E7-I7-J7</f>
+        <v>84.4</v>
+      </c>
+      <c r="N7" s="41"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="26">
+        <v>675.76</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="28">
+        <f>B8+C8+D8</f>
+        <v>675.76</v>
+      </c>
+      <c r="F8" s="29">
+        <f>'[1]June 2021'!$E$30</f>
+        <v>552</v>
+      </c>
+      <c r="G8" s="29">
+        <f>F8*0.035</f>
+        <v>19.32</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28">
+        <f t="shared" ref="I8" si="2">G8+H8</f>
+        <v>19.32</v>
+      </c>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28">
+        <f t="shared" ref="K8" si="3">E8-I8-J8</f>
+        <v>656.43999999999994</v>
+      </c>
+      <c r="N8" s="41"/>
+    </row>
+    <row r="9" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="N9" s="41"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="33">
+        <v>28539</v>
+      </c>
+      <c r="C10" s="2">
+        <v>506</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="34">
+        <f>B10+C10+D10</f>
+        <v>29045</v>
+      </c>
+      <c r="F10" s="35">
+        <f>'[1]June 2021'!$H$30</f>
+        <v>1416</v>
+      </c>
+      <c r="G10" s="35">
+        <f>F10*1</f>
+        <v>1416</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="28">
+        <f t="shared" ref="I10:I13" si="4">G10+H10</f>
+        <v>1416</v>
+      </c>
+      <c r="J10" s="28"/>
+      <c r="K10" s="63">
+        <f>E10-I10-J10</f>
+        <v>27629</v>
+      </c>
+      <c r="N10" s="41"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="33">
+        <v>74085</v>
+      </c>
+      <c r="C11" s="2">
+        <v>560</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="34">
+        <f>B11+C11+D11</f>
+        <v>74645</v>
+      </c>
+      <c r="F11" s="35">
+        <f>'[1]June 2021'!$I$30</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="35">
+        <f>F11*2</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="34"/>
+      <c r="I11" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="28"/>
+      <c r="K11" s="63">
+        <f>E11-I11-J11</f>
+        <v>74645</v>
+      </c>
+      <c r="N11" s="41"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="33">
+        <v>7584</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="34">
+        <f>B12+C12+D12</f>
+        <v>7584</v>
+      </c>
+      <c r="F12" s="35">
+        <f>'[1]June 2021'!$B$30</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="35">
+        <f>F12*1</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="34"/>
+      <c r="I12" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="28"/>
+      <c r="K12" s="63">
+        <f>E12-I12-J12</f>
+        <v>7584</v>
+      </c>
+      <c r="N12" s="41"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="33">
+        <v>3518</v>
+      </c>
+      <c r="C13" s="2">
+        <f>2900+2350</f>
+        <v>5250</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="34">
+        <f>B13+C13+D13</f>
+        <v>8768</v>
+      </c>
+      <c r="F13" s="35">
+        <f>'[1]June 2021'!$D$30</f>
+        <v>4410</v>
+      </c>
+      <c r="G13" s="35">
+        <f>F13/5</f>
+        <v>882</v>
+      </c>
+      <c r="H13" s="34"/>
+      <c r="I13" s="28">
+        <f t="shared" si="4"/>
+        <v>882</v>
+      </c>
+      <c r="J13" s="28"/>
+      <c r="K13" s="63">
+        <f>E13-I13-J13</f>
+        <v>7886</v>
+      </c>
+      <c r="L13" s="62"/>
+      <c r="N13" s="41"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="N14" s="41"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="33">
+        <v>97350</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="34">
+        <f t="shared" ref="E15:E19" si="5">B15+C15+D15</f>
+        <v>97350</v>
+      </c>
+      <c r="F15" s="35">
+        <f>F13</f>
+        <v>4410</v>
+      </c>
+      <c r="G15" s="35">
+        <f>F15/5</f>
+        <v>882</v>
+      </c>
+      <c r="H15" s="34"/>
+      <c r="I15" s="28">
+        <f t="shared" ref="I15:I19" si="6">G15+H15</f>
+        <v>882</v>
+      </c>
+      <c r="J15" s="28"/>
+      <c r="K15" s="63">
+        <f>E15-I15-J15</f>
+        <v>96468</v>
+      </c>
+      <c r="N15" s="41"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="33">
+        <v>109536</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="34">
+        <f t="shared" si="5"/>
+        <v>109536</v>
+      </c>
+      <c r="F16" s="35">
+        <f>F4+F5</f>
+        <v>7416</v>
+      </c>
+      <c r="G16" s="35">
+        <f>F16/2</f>
+        <v>3708</v>
+      </c>
+      <c r="H16" s="34"/>
+      <c r="I16" s="28">
+        <f t="shared" si="6"/>
+        <v>3708</v>
+      </c>
+      <c r="J16" s="28"/>
+      <c r="K16" s="63">
+        <f>E16-I16-J16</f>
+        <v>105828</v>
+      </c>
+      <c r="N16" s="41"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="33">
+        <v>55300</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="34">
+        <f t="shared" si="5"/>
+        <v>55300</v>
+      </c>
+      <c r="F17" s="35">
+        <f>F6</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="35">
+        <f>(F17/22)*50</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="34"/>
+      <c r="I17" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="28"/>
+      <c r="K17" s="63">
+        <f>E17-I17-J17</f>
+        <v>55300</v>
+      </c>
+      <c r="N17" s="41"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="33">
+        <v>185639</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="34">
+        <f t="shared" si="5"/>
+        <v>185639</v>
+      </c>
+      <c r="F18" s="39">
+        <f>F7</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="35">
+        <f>(F18/22)*25</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="34"/>
+      <c r="I18" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="28"/>
+      <c r="K18" s="63">
+        <f>E18-I18-J18</f>
+        <v>185639</v>
+      </c>
+      <c r="N18" s="41"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="33">
+        <v>1434</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="34">
+        <f t="shared" si="5"/>
+        <v>1434</v>
+      </c>
+      <c r="F19" s="39">
+        <f>F8</f>
+        <v>552</v>
+      </c>
+      <c r="G19" s="35">
+        <f>F19/2</f>
+        <v>276</v>
+      </c>
+      <c r="H19" s="34"/>
+      <c r="I19" s="28">
+        <f t="shared" si="6"/>
+        <v>276</v>
+      </c>
+      <c r="J19" s="28"/>
+      <c r="K19" s="63">
+        <f>E19-I19-J19</f>
+        <v>1158</v>
+      </c>
+      <c r="N19" s="41"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="N20" s="41"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="40">
+        <v>200</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="34">
+        <f t="shared" ref="E21:E27" si="7">B21+C21+D21</f>
+        <v>200</v>
+      </c>
+      <c r="F21" s="35">
+        <f>F10</f>
+        <v>1416</v>
+      </c>
+      <c r="G21" s="35">
+        <f>F21/24</f>
+        <v>59</v>
+      </c>
+      <c r="H21" s="34"/>
+      <c r="I21" s="28">
+        <f t="shared" ref="I21:I26" si="8">G21+H21</f>
+        <v>59</v>
+      </c>
+      <c r="J21" s="28"/>
+      <c r="K21" s="63">
+        <f t="shared" ref="K21:K27" si="9">E21-I21-J21</f>
+        <v>141</v>
+      </c>
+      <c r="N21" s="41"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="40">
+        <v>1424</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="34">
+        <f t="shared" si="7"/>
+        <v>1424</v>
+      </c>
+      <c r="F22" s="35">
+        <f>F12</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="35">
+        <f>F22/24</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="34"/>
+      <c r="I22" s="28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="28"/>
+      <c r="K22" s="63">
+        <f t="shared" si="9"/>
+        <v>1424</v>
+      </c>
+      <c r="N22" s="41"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="33">
+        <v>5429</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="34">
+        <f t="shared" si="7"/>
+        <v>5429</v>
+      </c>
+      <c r="F23" s="39"/>
+      <c r="G23" s="35">
+        <f>(F13/30)+(F7/22)+(F6/22)</f>
+        <v>147</v>
+      </c>
+      <c r="H23" s="34"/>
+      <c r="I23" s="28">
+        <f t="shared" si="8"/>
+        <v>147</v>
+      </c>
+      <c r="J23" s="28"/>
+      <c r="K23" s="33">
+        <f t="shared" si="9"/>
+        <v>5282</v>
+      </c>
+      <c r="L23" s="41"/>
+      <c r="N23" s="41"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="43">
+        <v>906</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="34">
+        <f t="shared" si="7"/>
+        <v>906</v>
+      </c>
+      <c r="F24" s="39">
+        <f>F8</f>
+        <v>552</v>
+      </c>
+      <c r="G24" s="35">
+        <f>(F19/24)</f>
+        <v>23</v>
+      </c>
+      <c r="H24" s="34"/>
+      <c r="I24" s="28">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="J24" s="28"/>
+      <c r="K24" s="63">
+        <f t="shared" si="9"/>
+        <v>883</v>
+      </c>
+      <c r="N24" s="41"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="40">
+        <v>2547</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="34">
+        <f t="shared" si="7"/>
+        <v>2547</v>
+      </c>
+      <c r="F25" s="35">
+        <f>F4</f>
+        <v>6192</v>
+      </c>
+      <c r="G25" s="35">
+        <f>F25/24</f>
+        <v>258</v>
+      </c>
+      <c r="H25" s="34"/>
+      <c r="I25" s="28">
+        <f t="shared" si="8"/>
+        <v>258</v>
+      </c>
+      <c r="J25" s="28"/>
+      <c r="K25" s="63">
+        <f t="shared" si="9"/>
+        <v>2289</v>
+      </c>
+      <c r="M25" s="62"/>
+      <c r="N25" s="41"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="40">
+        <v>367</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="34">
+        <f t="shared" si="7"/>
+        <v>367</v>
+      </c>
+      <c r="F26" s="35">
+        <f>F5</f>
+        <v>1224</v>
+      </c>
+      <c r="G26" s="35">
+        <f>F26/24</f>
+        <v>51</v>
+      </c>
+      <c r="H26" s="34"/>
+      <c r="I26" s="28">
+        <f t="shared" si="8"/>
+        <v>51</v>
+      </c>
+      <c r="J26" s="28"/>
+      <c r="K26" s="63">
+        <f t="shared" si="9"/>
+        <v>316</v>
+      </c>
+      <c r="N26" s="41"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="40">
+        <v>154</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="34">
+        <f t="shared" si="7"/>
+        <v>154</v>
+      </c>
+      <c r="F27" s="35">
+        <f>F11</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="35">
+        <f>F27/24</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="34"/>
+      <c r="I27" s="28">
+        <f>G27+H27</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="28"/>
+      <c r="K27" s="63">
+        <f t="shared" si="9"/>
+        <v>154</v>
+      </c>
+      <c r="N27" s="41"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="N28" s="41"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="40">
+        <v>21318</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="34">
+        <f t="shared" ref="E29:E36" si="10">B29+C29+D29</f>
+        <v>21318</v>
+      </c>
+      <c r="F29" s="44">
+        <f>'[1]June 2021'!$K$30</f>
+        <v>2748</v>
+      </c>
+      <c r="G29" s="44">
+        <f>F29*2</f>
+        <v>5496</v>
+      </c>
+      <c r="H29" s="45"/>
+      <c r="I29" s="28">
+        <f t="shared" ref="I29:I36" si="11">G29+H29</f>
+        <v>5496</v>
+      </c>
+      <c r="J29" s="28"/>
+      <c r="K29" s="64">
+        <f t="shared" ref="K29:K35" si="12">E29-I29-J29</f>
+        <v>15822</v>
+      </c>
+      <c r="N29" s="41"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="40">
+        <v>21692</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="46">
+        <f t="shared" si="10"/>
+        <v>21692</v>
+      </c>
+      <c r="F30" s="47">
+        <f>'[1]June 2021'!$L$30</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="44">
+        <f>F30*4</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="45"/>
+      <c r="I30" s="28">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="28"/>
+      <c r="K30" s="64">
+        <f>E30-I30-J30</f>
+        <v>21692</v>
+      </c>
+      <c r="N30" s="41"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="40">
+        <v>750</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="46">
+        <f t="shared" si="10"/>
+        <v>750</v>
+      </c>
+      <c r="F31" s="49">
+        <f>F29</f>
+        <v>2748</v>
+      </c>
+      <c r="G31" s="44">
+        <f>F31/12</f>
+        <v>229</v>
+      </c>
+      <c r="H31" s="45"/>
+      <c r="I31" s="28">
+        <f t="shared" si="11"/>
+        <v>229</v>
+      </c>
+      <c r="J31" s="28"/>
+      <c r="K31" s="27">
+        <f t="shared" si="12"/>
+        <v>521</v>
+      </c>
+      <c r="N31" s="41"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="40">
+        <v>115</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="46">
+        <f t="shared" si="10"/>
+        <v>115</v>
+      </c>
+      <c r="F32" s="49">
+        <f>F30</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="50">
+        <f>F32/12</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="51"/>
+      <c r="I32" s="28">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="28"/>
+      <c r="K32" s="27">
+        <f t="shared" si="12"/>
+        <v>115</v>
+      </c>
+      <c r="N32" s="41"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="40">
+        <v>62769</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="46">
+        <f t="shared" si="10"/>
+        <v>62769</v>
+      </c>
+      <c r="F33" s="49">
+        <f>F30</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="50">
+        <f>F33*4</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="48"/>
+      <c r="I33" s="28">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="28"/>
+      <c r="K33" s="27">
+        <f t="shared" si="12"/>
+        <v>62769</v>
+      </c>
+      <c r="N33" s="41"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="40">
+        <v>63004</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="46">
+        <f t="shared" si="10"/>
+        <v>63004</v>
+      </c>
+      <c r="F34" s="49">
+        <f>F29</f>
+        <v>2748</v>
+      </c>
+      <c r="G34" s="50">
+        <f>F34*2</f>
+        <v>5496</v>
+      </c>
+      <c r="H34" s="51"/>
+      <c r="I34" s="28">
+        <f t="shared" si="11"/>
+        <v>5496</v>
+      </c>
+      <c r="J34" s="28"/>
+      <c r="K34" s="27">
+        <f t="shared" si="12"/>
+        <v>57508</v>
+      </c>
+      <c r="N34" s="41"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="40">
+        <v>25782</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="46">
+        <f t="shared" si="10"/>
+        <v>25782</v>
+      </c>
+      <c r="F35" s="49">
+        <f>F29</f>
+        <v>2748</v>
+      </c>
+      <c r="G35" s="50">
+        <f>F35*2</f>
+        <v>5496</v>
+      </c>
+      <c r="H35" s="51"/>
+      <c r="I35" s="28">
+        <f t="shared" si="11"/>
+        <v>5496</v>
+      </c>
+      <c r="J35" s="28"/>
+      <c r="K35" s="27">
+        <f t="shared" si="12"/>
+        <v>20286</v>
+      </c>
+      <c r="N35" s="41"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="53">
+        <v>-2680</v>
+      </c>
+      <c r="C36" s="54"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="56">
+        <f t="shared" si="10"/>
+        <v>-2680</v>
+      </c>
+      <c r="F36" s="57">
+        <f>F29</f>
+        <v>2748</v>
+      </c>
+      <c r="G36" s="58">
+        <f>F36*2</f>
+        <v>5496</v>
+      </c>
+      <c r="H36" s="59"/>
+      <c r="I36" s="60">
+        <f t="shared" si="11"/>
+        <v>5496</v>
+      </c>
+      <c r="J36" s="60"/>
+      <c r="K36" s="66">
+        <f>E36-I36-J36</f>
+        <v>-8176</v>
+      </c>
+      <c r="N36" s="41"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="41"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F38" s="61">
+        <f>F4+F5+F6+F7+F8+F10+F11+F12+F13+F29+F30</f>
+        <v>16542</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F39" s="41"/>
       <c r="H39" s="61"/>
       <c r="J39" s="61"/>

--- a/PACKING MATEREILS STATEMENT-2021-22.xlsx
+++ b/PACKING MATEREILS STATEMENT-2021-22.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riya\Downloads\excel-main\excel-main\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A930EC-A37C-443E-805D-49BB6E9D37A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021-22" sheetId="79" r:id="rId1"/>
@@ -20,7 +14,7 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -170,11 +164,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -629,7 +623,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="April 2021-22"/>
@@ -720,31 +714,31 @@
             <v>1224</v>
           </cell>
           <cell r="D30">
-            <v>4410</v>
+            <v>18000</v>
           </cell>
           <cell r="E30">
             <v>552</v>
           </cell>
           <cell r="F30">
-            <v>0</v>
+            <v>22</v>
           </cell>
           <cell r="G30">
             <v>0</v>
           </cell>
           <cell r="H30">
-            <v>1416</v>
+            <v>4296</v>
           </cell>
           <cell r="I30">
-            <v>0</v>
+            <v>2016</v>
           </cell>
           <cell r="J30">
-            <v>6192</v>
+            <v>23112</v>
           </cell>
           <cell r="K30">
-            <v>2748</v>
+            <v>7716</v>
           </cell>
           <cell r="L30">
-            <v>0</v>
+            <v>612</v>
           </cell>
         </row>
       </sheetData>
@@ -796,7 +790,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -828,27 +822,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -880,24 +856,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1073,14 +1031,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M4" sqref="M4:M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31" style="12" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
@@ -1096,7 +1054,7 @@
     <col min="12" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1">
       <c r="A1" s="67" t="s">
         <v>40</v>
       </c>
@@ -1111,7 +1069,7 @@
       <c r="J1" s="67"/>
       <c r="K1" s="67"/>
     </row>
-    <row r="2" spans="1:12" s="22" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="22" customFormat="1" ht="23.25" thickBot="1">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1146,7 +1104,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="15"/>
       <c r="B3" s="23"/>
       <c r="C3" s="17"/>
@@ -1159,7 +1117,7 @@
       <c r="J3" s="25"/>
       <c r="K3" s="65"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1191,7 +1149,7 @@
         <v>-5.9320000000000164</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -1223,7 +1181,7 @@
         <v>448.21600000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="7" t="s">
         <v>37</v>
       </c>
@@ -1257,7 +1215,7 @@
         <v>1086.95</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="7" t="s">
         <v>38</v>
       </c>
@@ -1289,7 +1247,7 @@
         <v>171.85000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="7" t="s">
         <v>35</v>
       </c>
@@ -1321,7 +1279,7 @@
         <v>675.76</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="12.75" customHeight="1">
       <c r="A9" s="9"/>
       <c r="B9" s="30"/>
       <c r="C9" s="1"/>
@@ -1334,7 +1292,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
@@ -1366,7 +1324,7 @@
         <v>38115</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
@@ -1400,7 +1358,7 @@
         <v>84021</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
@@ -1432,7 +1390,7 @@
         <v>8616</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
@@ -1468,7 +1426,7 @@
       </c>
       <c r="L13" s="62"/>
     </row>
-    <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="16.5" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="36"/>
       <c r="C14" s="5"/>
@@ -1481,7 +1439,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -1513,7 +1471,7 @@
         <v>101880</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
@@ -1545,7 +1503,7 @@
         <v>9188</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="7" t="s">
         <v>28</v>
       </c>
@@ -1577,7 +1535,7 @@
         <v>56750</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="7" t="s">
         <v>29</v>
       </c>
@@ -1609,7 +1567,7 @@
         <v>186964</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="7" t="s">
         <v>33</v>
       </c>
@@ -1641,7 +1599,7 @@
         <v>22434</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15" customHeight="1">
       <c r="A20" s="9"/>
       <c r="B20" s="36"/>
       <c r="C20" s="5"/>
@@ -1654,7 +1612,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="7" t="s">
         <v>19</v>
       </c>
@@ -1686,7 +1644,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="7" t="s">
         <v>18</v>
       </c>
@@ -1718,7 +1676,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="42" t="s">
         <v>36</v>
       </c>
@@ -1748,7 +1706,7 @@
       </c>
       <c r="L23" s="41"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="7" t="s">
         <v>34</v>
       </c>
@@ -1780,7 +1738,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="7" t="s">
         <v>16</v>
       </c>
@@ -1815,7 +1773,7 @@
       </c>
       <c r="M25" s="62"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="7" t="s">
         <v>17</v>
       </c>
@@ -1847,7 +1805,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" s="7" t="s">
         <v>27</v>
       </c>
@@ -1879,7 +1837,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" s="11"/>
       <c r="B28" s="36"/>
       <c r="C28" s="5"/>
@@ -1892,7 +1850,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" s="7" t="s">
         <v>24</v>
       </c>
@@ -1926,7 +1884,7 @@
         <v>30438</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" s="7" t="s">
         <v>31</v>
       </c>
@@ -1958,7 +1916,7 @@
         <v>41420</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" s="7" t="s">
         <v>20</v>
       </c>
@@ -1990,7 +1948,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" s="7" t="s">
         <v>25</v>
       </c>
@@ -2022,7 +1980,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="7" t="s">
         <v>21</v>
       </c>
@@ -2054,7 +2012,7 @@
         <v>82497</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="7" t="s">
         <v>22</v>
       </c>
@@ -2086,7 +2044,7 @@
         <v>72124</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="7" t="s">
         <v>23</v>
       </c>
@@ -2118,7 +2076,7 @@
         <v>34902</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="15.75" thickBot="1">
       <c r="A36" s="52" t="s">
         <v>32</v>
       </c>
@@ -2150,16 +2108,16 @@
         <v>6440</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="B37" s="41"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="F38" s="61">
         <f>F4+F5+F6+F7+F8+F10+F11+F12+F13+F29+F30</f>
         <v>128662</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="F39" s="41"/>
       <c r="H39" s="61"/>
       <c r="J39" s="61"/>
@@ -2174,14 +2132,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31" style="12" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
@@ -2197,7 +2155,7 @@
     <col min="12" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1">
       <c r="A1" s="67" t="s">
         <v>42</v>
       </c>
@@ -2212,7 +2170,7 @@
       <c r="J1" s="67"/>
       <c r="K1" s="67"/>
     </row>
-    <row r="2" spans="1:14" s="22" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="22" customFormat="1" ht="23.25" thickBot="1">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -2247,7 +2205,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="15"/>
       <c r="B3" s="23"/>
       <c r="C3" s="17"/>
@@ -2260,7 +2218,7 @@
       <c r="J3" s="25"/>
       <c r="K3" s="65"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -2295,7 +2253,7 @@
       </c>
       <c r="N4" s="41"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -2328,7 +2286,7 @@
       </c>
       <c r="N5" s="41"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="7" t="s">
         <v>37</v>
       </c>
@@ -2361,7 +2319,7 @@
       </c>
       <c r="N6" s="41"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="7" t="s">
         <v>38</v>
       </c>
@@ -2394,7 +2352,7 @@
       </c>
       <c r="N7" s="41"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="7" t="s">
         <v>35</v>
       </c>
@@ -2427,7 +2385,7 @@
       </c>
       <c r="N8" s="41"/>
     </row>
-    <row r="9" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="12.75" customHeight="1">
       <c r="A9" s="9"/>
       <c r="B9" s="30"/>
       <c r="C9" s="1"/>
@@ -2441,7 +2399,7 @@
       <c r="K9" s="1"/>
       <c r="N9" s="41"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
@@ -2474,7 +2432,7 @@
       </c>
       <c r="N10" s="41"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
@@ -2507,7 +2465,7 @@
       </c>
       <c r="N11" s="41"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
@@ -2540,7 +2498,7 @@
       </c>
       <c r="N12" s="41"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
@@ -2577,7 +2535,7 @@
       <c r="L13" s="62"/>
       <c r="N13" s="41"/>
     </row>
-    <row r="14" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="16.5" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="36"/>
       <c r="C14" s="5"/>
@@ -2591,7 +2549,7 @@
       <c r="K14" s="1"/>
       <c r="N14" s="41"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -2624,7 +2582,7 @@
       </c>
       <c r="N15" s="41"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
@@ -2661,7 +2619,7 @@
       </c>
       <c r="N16" s="41"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="7" t="s">
         <v>28</v>
       </c>
@@ -2694,7 +2652,7 @@
       </c>
       <c r="N17" s="41"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="7" t="s">
         <v>29</v>
       </c>
@@ -2727,7 +2685,7 @@
       </c>
       <c r="N18" s="41"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="7" t="s">
         <v>41</v>
       </c>
@@ -2762,7 +2720,7 @@
       </c>
       <c r="N19" s="41"/>
     </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="15" customHeight="1">
       <c r="A20" s="9"/>
       <c r="B20" s="36"/>
       <c r="C20" s="5"/>
@@ -2776,7 +2734,7 @@
       <c r="K20" s="1"/>
       <c r="N20" s="41"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="7" t="s">
         <v>19</v>
       </c>
@@ -2809,7 +2767,7 @@
       </c>
       <c r="N21" s="41"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="7" t="s">
         <v>18</v>
       </c>
@@ -2842,7 +2800,7 @@
       </c>
       <c r="N22" s="41"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="42" t="s">
         <v>36</v>
       </c>
@@ -2873,7 +2831,7 @@
       <c r="L23" s="41"/>
       <c r="N23" s="41"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="7" t="s">
         <v>34</v>
       </c>
@@ -2906,7 +2864,7 @@
       </c>
       <c r="N24" s="41"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="7" t="s">
         <v>16</v>
       </c>
@@ -2940,7 +2898,7 @@
       <c r="M25" s="62"/>
       <c r="N25" s="41"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="7" t="s">
         <v>17</v>
       </c>
@@ -2973,7 +2931,7 @@
       </c>
       <c r="N26" s="41"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="7" t="s">
         <v>27</v>
       </c>
@@ -3006,7 +2964,7 @@
       </c>
       <c r="N27" s="41"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="11"/>
       <c r="B28" s="36"/>
       <c r="C28" s="5"/>
@@ -3020,7 +2978,7 @@
       <c r="K28" s="1"/>
       <c r="N28" s="41"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="7" t="s">
         <v>24</v>
       </c>
@@ -3053,7 +3011,7 @@
       </c>
       <c r="N29" s="41"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="7" t="s">
         <v>31</v>
       </c>
@@ -3086,7 +3044,7 @@
       </c>
       <c r="N30" s="41"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="7" t="s">
         <v>20</v>
       </c>
@@ -3119,7 +3077,7 @@
       </c>
       <c r="N31" s="41"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" s="7" t="s">
         <v>25</v>
       </c>
@@ -3152,7 +3110,7 @@
       </c>
       <c r="N32" s="41"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" s="7" t="s">
         <v>21</v>
       </c>
@@ -3185,7 +3143,7 @@
       </c>
       <c r="N33" s="41"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" s="7" t="s">
         <v>22</v>
       </c>
@@ -3218,7 +3176,7 @@
       </c>
       <c r="N34" s="41"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" s="7" t="s">
         <v>23</v>
       </c>
@@ -3251,7 +3209,7 @@
       </c>
       <c r="N35" s="41"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="15.75" thickBot="1">
       <c r="A36" s="52" t="s">
         <v>32</v>
       </c>
@@ -3284,16 +3242,16 @@
       </c>
       <c r="N36" s="41"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="B37" s="41"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="F38" s="61">
         <f>F4+F5+F6+F7+F8+F10+F11+F12+F13+F29+F30</f>
         <v>90826</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="F39" s="41"/>
       <c r="H39" s="61"/>
       <c r="J39" s="61"/>
@@ -3308,14 +3266,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9726FBB0-A2F6-4CA2-971A-11DA26A5DA43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31" style="12" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
@@ -3331,7 +3289,7 @@
     <col min="12" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1">
       <c r="A1" s="67" t="s">
         <v>43</v>
       </c>
@@ -3346,7 +3304,7 @@
       <c r="J1" s="67"/>
       <c r="K1" s="67"/>
     </row>
-    <row r="2" spans="1:14" s="22" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="22" customFormat="1" ht="23.25" thickBot="1">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -3381,7 +3339,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="15"/>
       <c r="B3" s="23"/>
       <c r="C3" s="17"/>
@@ -3394,7 +3352,7 @@
       <c r="J3" s="25"/>
       <c r="K3" s="65"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -3411,25 +3369,25 @@
       </c>
       <c r="F4" s="29">
         <f>'[1]June 2021'!$J$30</f>
-        <v>6192</v>
+        <v>23112</v>
       </c>
       <c r="G4" s="29">
         <f>F4*0.024</f>
-        <v>148.608</v>
+        <v>554.68799999999999</v>
       </c>
       <c r="H4" s="28"/>
       <c r="I4" s="28">
         <f>G4+H4</f>
-        <v>148.608</v>
+        <v>554.68799999999999</v>
       </c>
       <c r="J4" s="28"/>
       <c r="K4" s="29">
         <f>E4-I4-J4</f>
-        <v>5978.8919999999998</v>
+        <v>5572.8119999999999</v>
       </c>
       <c r="N4" s="41"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -3462,7 +3420,7 @@
       </c>
       <c r="N5" s="41"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="7" t="s">
         <v>37</v>
       </c>
@@ -3495,40 +3453,42 @@
       </c>
       <c r="N6" s="41"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="26">
         <v>84.4</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="27">
+        <v>113650</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="28">
         <f t="shared" si="0"/>
-        <v>84.4</v>
+        <v>113734.39999999999</v>
       </c>
       <c r="F7" s="29">
         <f>'[1]June 2021'!$F$30</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G7" s="29">
         <f>F7*0.075</f>
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="H7" s="28"/>
       <c r="I7" s="28">
         <f>G7+H7</f>
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="J7" s="28"/>
       <c r="K7" s="28">
         <f>E7-I7-J7</f>
-        <v>84.4</v>
+        <v>113732.75</v>
       </c>
       <c r="N7" s="41"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="7" t="s">
         <v>35</v>
       </c>
@@ -3561,7 +3521,7 @@
       </c>
       <c r="N8" s="41"/>
     </row>
-    <row r="9" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="12.75" customHeight="1">
       <c r="A9" s="9"/>
       <c r="B9" s="30"/>
       <c r="C9" s="1"/>
@@ -3575,7 +3535,7 @@
       <c r="K9" s="1"/>
       <c r="N9" s="41"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
@@ -3592,25 +3552,25 @@
       </c>
       <c r="F10" s="35">
         <f>'[1]June 2021'!$H$30</f>
-        <v>1416</v>
+        <v>4296</v>
       </c>
       <c r="G10" s="35">
         <f>F10*1</f>
-        <v>1416</v>
+        <v>4296</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="28">
         <f t="shared" ref="I10:I13" si="4">G10+H10</f>
-        <v>1416</v>
+        <v>4296</v>
       </c>
       <c r="J10" s="28"/>
       <c r="K10" s="63">
         <f>E10-I10-J10</f>
-        <v>27629</v>
+        <v>24749</v>
       </c>
       <c r="N10" s="41"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
@@ -3627,25 +3587,25 @@
       </c>
       <c r="F11" s="35">
         <f>'[1]June 2021'!$I$30</f>
-        <v>0</v>
+        <v>2016</v>
       </c>
       <c r="G11" s="35">
         <f>F11*2</f>
-        <v>0</v>
+        <v>4032</v>
       </c>
       <c r="H11" s="34"/>
       <c r="I11" s="28">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4032</v>
       </c>
       <c r="J11" s="28"/>
       <c r="K11" s="63">
         <f>E11-I11-J11</f>
-        <v>74645</v>
+        <v>70613</v>
       </c>
       <c r="N11" s="41"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
@@ -3678,7 +3638,7 @@
       </c>
       <c r="N12" s="41"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
@@ -3696,26 +3656,26 @@
       </c>
       <c r="F13" s="35">
         <f>'[1]June 2021'!$D$30</f>
-        <v>4410</v>
+        <v>18000</v>
       </c>
       <c r="G13" s="35">
         <f>F13/5</f>
-        <v>882</v>
+        <v>3600</v>
       </c>
       <c r="H13" s="34"/>
       <c r="I13" s="28">
         <f t="shared" si="4"/>
-        <v>882</v>
+        <v>3600</v>
       </c>
       <c r="J13" s="28"/>
       <c r="K13" s="63">
         <f>E13-I13-J13</f>
-        <v>7886</v>
+        <v>5168</v>
       </c>
       <c r="L13" s="62"/>
       <c r="N13" s="41"/>
     </row>
-    <row r="14" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="16.5" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="36"/>
       <c r="C14" s="5"/>
@@ -3729,7 +3689,7 @@
       <c r="K14" s="1"/>
       <c r="N14" s="41"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -3744,25 +3704,25 @@
       </c>
       <c r="F15" s="35">
         <f>F13</f>
-        <v>4410</v>
+        <v>18000</v>
       </c>
       <c r="G15" s="35">
         <f>F15/5</f>
-        <v>882</v>
+        <v>3600</v>
       </c>
       <c r="H15" s="34"/>
       <c r="I15" s="28">
         <f t="shared" ref="I15:I19" si="6">G15+H15</f>
-        <v>882</v>
+        <v>3600</v>
       </c>
       <c r="J15" s="28"/>
       <c r="K15" s="63">
         <f>E15-I15-J15</f>
-        <v>96468</v>
+        <v>93750</v>
       </c>
       <c r="N15" s="41"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
@@ -3777,25 +3737,25 @@
       </c>
       <c r="F16" s="35">
         <f>F4+F5</f>
-        <v>7416</v>
+        <v>24336</v>
       </c>
       <c r="G16" s="35">
         <f>F16/2</f>
-        <v>3708</v>
+        <v>12168</v>
       </c>
       <c r="H16" s="34"/>
       <c r="I16" s="28">
         <f t="shared" si="6"/>
-        <v>3708</v>
+        <v>12168</v>
       </c>
       <c r="J16" s="28"/>
       <c r="K16" s="63">
         <f>E16-I16-J16</f>
-        <v>105828</v>
+        <v>97368</v>
       </c>
       <c r="N16" s="41"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="7" t="s">
         <v>28</v>
       </c>
@@ -3828,7 +3788,7 @@
       </c>
       <c r="N17" s="41"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="7" t="s">
         <v>29</v>
       </c>
@@ -3843,25 +3803,25 @@
       </c>
       <c r="F18" s="39">
         <f>F7</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G18" s="35">
         <f>(F18/22)*25</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H18" s="34"/>
       <c r="I18" s="28">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J18" s="28"/>
       <c r="K18" s="63">
         <f>E18-I18-J18</f>
-        <v>185639</v>
+        <v>185614</v>
       </c>
       <c r="N18" s="41"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="7" t="s">
         <v>41</v>
       </c>
@@ -3894,7 +3854,7 @@
       </c>
       <c r="N19" s="41"/>
     </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="15" customHeight="1">
       <c r="A20" s="9"/>
       <c r="B20" s="36"/>
       <c r="C20" s="5"/>
@@ -3908,7 +3868,7 @@
       <c r="K20" s="1"/>
       <c r="N20" s="41"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="7" t="s">
         <v>19</v>
       </c>
@@ -3923,25 +3883,25 @@
       </c>
       <c r="F21" s="35">
         <f>F10</f>
-        <v>1416</v>
+        <v>4296</v>
       </c>
       <c r="G21" s="35">
         <f>F21/24</f>
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="H21" s="34"/>
       <c r="I21" s="28">
         <f t="shared" ref="I21:I26" si="8">G21+H21</f>
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="J21" s="28"/>
       <c r="K21" s="63">
         <f t="shared" ref="K21:K27" si="9">E21-I21-J21</f>
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="N21" s="41"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="7" t="s">
         <v>18</v>
       </c>
@@ -3974,7 +3934,7 @@
       </c>
       <c r="N22" s="41"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="42" t="s">
         <v>36</v>
       </c>
@@ -3990,22 +3950,22 @@
       <c r="F23" s="39"/>
       <c r="G23" s="35">
         <f>(F13/30)+(F7/22)+(F6/22)</f>
-        <v>147</v>
+        <v>601</v>
       </c>
       <c r="H23" s="34"/>
       <c r="I23" s="28">
         <f t="shared" si="8"/>
-        <v>147</v>
+        <v>601</v>
       </c>
       <c r="J23" s="28"/>
       <c r="K23" s="33">
         <f t="shared" si="9"/>
-        <v>5282</v>
+        <v>4828</v>
       </c>
       <c r="L23" s="41"/>
       <c r="N23" s="41"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="7" t="s">
         <v>34</v>
       </c>
@@ -4038,7 +3998,7 @@
       </c>
       <c r="N24" s="41"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="7" t="s">
         <v>16</v>
       </c>
@@ -4053,26 +4013,26 @@
       </c>
       <c r="F25" s="35">
         <f>F4</f>
-        <v>6192</v>
+        <v>23112</v>
       </c>
       <c r="G25" s="35">
         <f>F25/24</f>
-        <v>258</v>
+        <v>963</v>
       </c>
       <c r="H25" s="34"/>
       <c r="I25" s="28">
         <f t="shared" si="8"/>
-        <v>258</v>
+        <v>963</v>
       </c>
       <c r="J25" s="28"/>
       <c r="K25" s="63">
         <f t="shared" si="9"/>
-        <v>2289</v>
+        <v>1584</v>
       </c>
       <c r="M25" s="62"/>
       <c r="N25" s="41"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="7" t="s">
         <v>17</v>
       </c>
@@ -4105,7 +4065,7 @@
       </c>
       <c r="N26" s="41"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="7" t="s">
         <v>27</v>
       </c>
@@ -4120,25 +4080,25 @@
       </c>
       <c r="F27" s="35">
         <f>F11</f>
-        <v>0</v>
+        <v>2016</v>
       </c>
       <c r="G27" s="35">
         <f>F27/24</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="H27" s="34"/>
       <c r="I27" s="28">
         <f>G27+H27</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="J27" s="28"/>
       <c r="K27" s="63">
         <f t="shared" si="9"/>
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="N27" s="41"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="11"/>
       <c r="B28" s="36"/>
       <c r="C28" s="5"/>
@@ -4152,7 +4112,7 @@
       <c r="K28" s="1"/>
       <c r="N28" s="41"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="7" t="s">
         <v>24</v>
       </c>
@@ -4167,25 +4127,25 @@
       </c>
       <c r="F29" s="44">
         <f>'[1]June 2021'!$K$30</f>
-        <v>2748</v>
+        <v>7716</v>
       </c>
       <c r="G29" s="44">
         <f>F29*2</f>
-        <v>5496</v>
+        <v>15432</v>
       </c>
       <c r="H29" s="45"/>
       <c r="I29" s="28">
         <f t="shared" ref="I29:I36" si="11">G29+H29</f>
-        <v>5496</v>
+        <v>15432</v>
       </c>
       <c r="J29" s="28"/>
       <c r="K29" s="64">
         <f t="shared" ref="K29:K35" si="12">E29-I29-J29</f>
-        <v>15822</v>
+        <v>5886</v>
       </c>
       <c r="N29" s="41"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="7" t="s">
         <v>31</v>
       </c>
@@ -4200,25 +4160,25 @@
       </c>
       <c r="F30" s="47">
         <f>'[1]June 2021'!$L$30</f>
-        <v>0</v>
+        <v>612</v>
       </c>
       <c r="G30" s="44">
         <f>F30*4</f>
-        <v>0</v>
+        <v>2448</v>
       </c>
       <c r="H30" s="45"/>
       <c r="I30" s="28">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2448</v>
       </c>
       <c r="J30" s="28"/>
       <c r="K30" s="64">
         <f>E30-I30-J30</f>
-        <v>21692</v>
+        <v>19244</v>
       </c>
       <c r="N30" s="41"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="7" t="s">
         <v>20</v>
       </c>
@@ -4233,25 +4193,25 @@
       </c>
       <c r="F31" s="49">
         <f>F29</f>
-        <v>2748</v>
+        <v>7716</v>
       </c>
       <c r="G31" s="44">
         <f>F31/12</f>
-        <v>229</v>
+        <v>643</v>
       </c>
       <c r="H31" s="45"/>
       <c r="I31" s="28">
         <f t="shared" si="11"/>
-        <v>229</v>
+        <v>643</v>
       </c>
       <c r="J31" s="28"/>
       <c r="K31" s="27">
         <f t="shared" si="12"/>
-        <v>521</v>
+        <v>107</v>
       </c>
       <c r="N31" s="41"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" s="7" t="s">
         <v>25</v>
       </c>
@@ -4266,25 +4226,25 @@
       </c>
       <c r="F32" s="49">
         <f>F30</f>
-        <v>0</v>
+        <v>612</v>
       </c>
       <c r="G32" s="50">
         <f>F32/12</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="H32" s="51"/>
       <c r="I32" s="28">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="J32" s="28"/>
       <c r="K32" s="27">
         <f t="shared" si="12"/>
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="N32" s="41"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" s="7" t="s">
         <v>21</v>
       </c>
@@ -4299,25 +4259,25 @@
       </c>
       <c r="F33" s="49">
         <f>F30</f>
-        <v>0</v>
+        <v>612</v>
       </c>
       <c r="G33" s="50">
         <f>F33*4</f>
-        <v>0</v>
+        <v>2448</v>
       </c>
       <c r="H33" s="48"/>
       <c r="I33" s="28">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2448</v>
       </c>
       <c r="J33" s="28"/>
       <c r="K33" s="27">
         <f t="shared" si="12"/>
-        <v>62769</v>
+        <v>60321</v>
       </c>
       <c r="N33" s="41"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" s="7" t="s">
         <v>22</v>
       </c>
@@ -4332,25 +4292,25 @@
       </c>
       <c r="F34" s="49">
         <f>F29</f>
-        <v>2748</v>
+        <v>7716</v>
       </c>
       <c r="G34" s="50">
         <f>F34*2</f>
-        <v>5496</v>
+        <v>15432</v>
       </c>
       <c r="H34" s="51"/>
       <c r="I34" s="28">
         <f t="shared" si="11"/>
-        <v>5496</v>
+        <v>15432</v>
       </c>
       <c r="J34" s="28"/>
       <c r="K34" s="27">
         <f t="shared" si="12"/>
-        <v>57508</v>
+        <v>47572</v>
       </c>
       <c r="N34" s="41"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" s="7" t="s">
         <v>23</v>
       </c>
@@ -4365,25 +4325,25 @@
       </c>
       <c r="F35" s="49">
         <f>F29</f>
-        <v>2748</v>
+        <v>7716</v>
       </c>
       <c r="G35" s="50">
         <f>F35*2</f>
-        <v>5496</v>
+        <v>15432</v>
       </c>
       <c r="H35" s="51"/>
       <c r="I35" s="28">
         <f t="shared" si="11"/>
-        <v>5496</v>
+        <v>15432</v>
       </c>
       <c r="J35" s="28"/>
       <c r="K35" s="27">
         <f t="shared" si="12"/>
-        <v>20286</v>
+        <v>10350</v>
       </c>
       <c r="N35" s="41"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="15.75" thickBot="1">
       <c r="A36" s="52" t="s">
         <v>32</v>
       </c>
@@ -4398,34 +4358,34 @@
       </c>
       <c r="F36" s="57">
         <f>F29</f>
-        <v>2748</v>
+        <v>7716</v>
       </c>
       <c r="G36" s="58">
         <f>F36*2</f>
-        <v>5496</v>
+        <v>15432</v>
       </c>
       <c r="H36" s="59"/>
       <c r="I36" s="60">
         <f t="shared" si="11"/>
-        <v>5496</v>
+        <v>15432</v>
       </c>
       <c r="J36" s="60"/>
       <c r="K36" s="66">
         <f>E36-I36-J36</f>
-        <v>-8176</v>
+        <v>-18112</v>
       </c>
       <c r="N36" s="41"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="B37" s="41"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="F38" s="61">
         <f>F4+F5+F6+F7+F8+F10+F11+F12+F13+F29+F30</f>
-        <v>16542</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+        <v>57550</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="F39" s="41"/>
       <c r="H39" s="61"/>
       <c r="J39" s="61"/>

--- a/PACKING MATEREILS STATEMENT-2021-22.xlsx
+++ b/PACKING MATEREILS STATEMENT-2021-22.xlsx
@@ -708,34 +708,34 @@
       <sheetData sheetId="2">
         <row r="30">
           <cell r="B30">
-            <v>0</v>
+            <v>576</v>
           </cell>
           <cell r="C30">
-            <v>1224</v>
+            <v>4464</v>
           </cell>
           <cell r="D30">
-            <v>18000</v>
+            <v>31050</v>
           </cell>
           <cell r="E30">
             <v>552</v>
           </cell>
           <cell r="F30">
-            <v>22</v>
+            <v>1452</v>
           </cell>
           <cell r="G30">
             <v>0</v>
           </cell>
           <cell r="H30">
-            <v>4296</v>
+            <v>10656</v>
           </cell>
           <cell r="I30">
-            <v>2016</v>
+            <v>4944</v>
           </cell>
           <cell r="J30">
-            <v>23112</v>
+            <v>41568</v>
           </cell>
           <cell r="K30">
-            <v>7716</v>
+            <v>10944</v>
           </cell>
           <cell r="L30">
             <v>612</v>
@@ -3270,7 +3270,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3360,30 +3360,31 @@
         <v>3127.5</v>
       </c>
       <c r="C4" s="27">
-        <v>3000</v>
+        <f>3000+325+1920</f>
+        <v>5245</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="28">
         <f t="shared" ref="E4:E7" si="0">B4+C4+D4</f>
-        <v>6127.5</v>
+        <v>8372.5</v>
       </c>
       <c r="F4" s="29">
         <f>'[1]June 2021'!$J$30</f>
-        <v>23112</v>
+        <v>41568</v>
       </c>
       <c r="G4" s="29">
         <f>F4*0.024</f>
-        <v>554.68799999999999</v>
+        <v>997.63200000000006</v>
       </c>
       <c r="H4" s="28"/>
       <c r="I4" s="28">
         <f>G4+H4</f>
-        <v>554.68799999999999</v>
+        <v>997.63200000000006</v>
       </c>
       <c r="J4" s="28"/>
       <c r="K4" s="29">
         <f>E4-I4-J4</f>
-        <v>5572.8119999999999</v>
+        <v>7374.8680000000004</v>
       </c>
       <c r="N4" s="41"/>
     </row>
@@ -3394,29 +3395,32 @@
       <c r="B5" s="26">
         <v>368.73</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="27">
+        <f>1027.71+200+304</f>
+        <v>1531.71</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="28">
         <f t="shared" si="0"/>
-        <v>368.73</v>
+        <v>1900.44</v>
       </c>
       <c r="F5" s="29">
         <f>'[1]June 2021'!$C$30</f>
-        <v>1224</v>
+        <v>4464</v>
       </c>
       <c r="G5" s="29">
         <f>F5*0.024</f>
-        <v>29.376000000000001</v>
+        <v>107.136</v>
       </c>
       <c r="H5" s="28"/>
       <c r="I5" s="28">
         <f t="shared" ref="I5:I6" si="1">G5+H5</f>
-        <v>29.376000000000001</v>
+        <v>107.136</v>
       </c>
       <c r="J5" s="28"/>
       <c r="K5" s="28">
         <f>E5-I5-J5</f>
-        <v>339.35400000000004</v>
+        <v>1793.3040000000001</v>
       </c>
       <c r="N5" s="41"/>
     </row>
@@ -3461,30 +3465,30 @@
         <v>84.4</v>
       </c>
       <c r="C7" s="27">
-        <v>113650</v>
+        <v>1136.5</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="28">
         <f t="shared" si="0"/>
-        <v>113734.39999999999</v>
+        <v>1220.9000000000001</v>
       </c>
       <c r="F7" s="29">
         <f>'[1]June 2021'!$F$30</f>
-        <v>22</v>
+        <v>1452</v>
       </c>
       <c r="G7" s="29">
         <f>F7*0.075</f>
-        <v>1.65</v>
+        <v>108.89999999999999</v>
       </c>
       <c r="H7" s="28"/>
       <c r="I7" s="28">
         <f>G7+H7</f>
-        <v>1.65</v>
+        <v>108.89999999999999</v>
       </c>
       <c r="J7" s="28"/>
       <c r="K7" s="28">
         <f>E7-I7-J7</f>
-        <v>113732.75</v>
+        <v>1112</v>
       </c>
       <c r="N7" s="41"/>
     </row>
@@ -3543,30 +3547,31 @@
         <v>28539</v>
       </c>
       <c r="C10" s="2">
-        <v>506</v>
+        <f>506+64925+200+908</f>
+        <v>66539</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="34">
         <f>B10+C10+D10</f>
-        <v>29045</v>
+        <v>95078</v>
       </c>
       <c r="F10" s="35">
         <f>'[1]June 2021'!$H$30</f>
-        <v>4296</v>
+        <v>10656</v>
       </c>
       <c r="G10" s="35">
         <f>F10*1</f>
-        <v>4296</v>
+        <v>10656</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="28">
         <f t="shared" ref="I10:I13" si="4">G10+H10</f>
-        <v>4296</v>
+        <v>10656</v>
       </c>
       <c r="J10" s="28"/>
       <c r="K10" s="63">
         <f>E10-I10-J10</f>
-        <v>24749</v>
+        <v>84422</v>
       </c>
       <c r="N10" s="41"/>
     </row>
@@ -3578,30 +3583,31 @@
         <v>74085</v>
       </c>
       <c r="C11" s="2">
-        <v>560</v>
+        <f>560+200+269</f>
+        <v>1029</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="34">
         <f>B11+C11+D11</f>
-        <v>74645</v>
+        <v>75114</v>
       </c>
       <c r="F11" s="35">
         <f>'[1]June 2021'!$I$30</f>
-        <v>2016</v>
+        <v>4944</v>
       </c>
       <c r="G11" s="35">
         <f>F11*2</f>
-        <v>4032</v>
+        <v>9888</v>
       </c>
       <c r="H11" s="34"/>
       <c r="I11" s="28">
         <f t="shared" si="4"/>
-        <v>4032</v>
+        <v>9888</v>
       </c>
       <c r="J11" s="28"/>
       <c r="K11" s="63">
         <f>E11-I11-J11</f>
-        <v>70613</v>
+        <v>65226</v>
       </c>
       <c r="N11" s="41"/>
     </row>
@@ -3620,21 +3626,21 @@
       </c>
       <c r="F12" s="35">
         <f>'[1]June 2021'!$B$30</f>
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="G12" s="35">
         <f>F12*1</f>
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="H12" s="34"/>
       <c r="I12" s="28">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="J12" s="28"/>
       <c r="K12" s="63">
         <f>E12-I12-J12</f>
-        <v>7584</v>
+        <v>7008</v>
       </c>
       <c r="N12" s="41"/>
     </row>
@@ -3646,31 +3652,31 @@
         <v>3518</v>
       </c>
       <c r="C13" s="2">
-        <f>2900+2350</f>
-        <v>5250</v>
+        <f>2900+2350+3000</f>
+        <v>8250</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="34">
         <f>B13+C13+D13</f>
-        <v>8768</v>
+        <v>11768</v>
       </c>
       <c r="F13" s="35">
         <f>'[1]June 2021'!$D$30</f>
-        <v>18000</v>
+        <v>31050</v>
       </c>
       <c r="G13" s="35">
         <f>F13/5</f>
-        <v>3600</v>
+        <v>6210</v>
       </c>
       <c r="H13" s="34"/>
       <c r="I13" s="28">
         <f t="shared" si="4"/>
-        <v>3600</v>
+        <v>6210</v>
       </c>
       <c r="J13" s="28"/>
       <c r="K13" s="63">
         <f>E13-I13-J13</f>
-        <v>5168</v>
+        <v>5558</v>
       </c>
       <c r="L13" s="62"/>
       <c r="N13" s="41"/>
@@ -3704,21 +3710,21 @@
       </c>
       <c r="F15" s="35">
         <f>F13</f>
-        <v>18000</v>
+        <v>31050</v>
       </c>
       <c r="G15" s="35">
         <f>F15/5</f>
-        <v>3600</v>
+        <v>6210</v>
       </c>
       <c r="H15" s="34"/>
       <c r="I15" s="28">
         <f t="shared" ref="I15:I19" si="6">G15+H15</f>
-        <v>3600</v>
+        <v>6210</v>
       </c>
       <c r="J15" s="28"/>
       <c r="K15" s="63">
         <f>E15-I15-J15</f>
-        <v>93750</v>
+        <v>91140</v>
       </c>
       <c r="N15" s="41"/>
     </row>
@@ -3737,21 +3743,21 @@
       </c>
       <c r="F16" s="35">
         <f>F4+F5</f>
-        <v>24336</v>
+        <v>46032</v>
       </c>
       <c r="G16" s="35">
         <f>F16/2</f>
-        <v>12168</v>
+        <v>23016</v>
       </c>
       <c r="H16" s="34"/>
       <c r="I16" s="28">
         <f t="shared" si="6"/>
-        <v>12168</v>
+        <v>23016</v>
       </c>
       <c r="J16" s="28"/>
       <c r="K16" s="63">
         <f>E16-I16-J16</f>
-        <v>97368</v>
+        <v>86520</v>
       </c>
       <c r="N16" s="41"/>
     </row>
@@ -3803,21 +3809,21 @@
       </c>
       <c r="F18" s="39">
         <f>F7</f>
-        <v>22</v>
+        <v>1452</v>
       </c>
       <c r="G18" s="35">
         <f>(F18/22)*25</f>
-        <v>25</v>
+        <v>1650</v>
       </c>
       <c r="H18" s="34"/>
       <c r="I18" s="28">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>1650</v>
       </c>
       <c r="J18" s="28"/>
       <c r="K18" s="63">
         <f>E18-I18-J18</f>
-        <v>185614</v>
+        <v>183989</v>
       </c>
       <c r="N18" s="41"/>
     </row>
@@ -3883,21 +3889,21 @@
       </c>
       <c r="F21" s="35">
         <f>F10</f>
-        <v>4296</v>
+        <v>10656</v>
       </c>
       <c r="G21" s="35">
         <f>F21/24</f>
-        <v>179</v>
+        <v>444</v>
       </c>
       <c r="H21" s="34"/>
       <c r="I21" s="28">
         <f t="shared" ref="I21:I26" si="8">G21+H21</f>
-        <v>179</v>
+        <v>444</v>
       </c>
       <c r="J21" s="28"/>
       <c r="K21" s="63">
         <f t="shared" ref="K21:K27" si="9">E21-I21-J21</f>
-        <v>21</v>
+        <v>-244</v>
       </c>
       <c r="N21" s="41"/>
     </row>
@@ -3916,21 +3922,21 @@
       </c>
       <c r="F22" s="35">
         <f>F12</f>
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="G22" s="35">
         <f>F22/24</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H22" s="34"/>
       <c r="I22" s="28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J22" s="28"/>
       <c r="K22" s="63">
         <f t="shared" si="9"/>
-        <v>1424</v>
+        <v>1400</v>
       </c>
       <c r="N22" s="41"/>
     </row>
@@ -3950,17 +3956,17 @@
       <c r="F23" s="39"/>
       <c r="G23" s="35">
         <f>(F13/30)+(F7/22)+(F6/22)</f>
-        <v>601</v>
+        <v>1101</v>
       </c>
       <c r="H23" s="34"/>
       <c r="I23" s="28">
         <f t="shared" si="8"/>
-        <v>601</v>
+        <v>1101</v>
       </c>
       <c r="J23" s="28"/>
       <c r="K23" s="33">
         <f t="shared" si="9"/>
-        <v>4828</v>
+        <v>4328</v>
       </c>
       <c r="L23" s="41"/>
       <c r="N23" s="41"/>
@@ -4013,21 +4019,21 @@
       </c>
       <c r="F25" s="35">
         <f>F4</f>
-        <v>23112</v>
+        <v>41568</v>
       </c>
       <c r="G25" s="35">
         <f>F25/24</f>
-        <v>963</v>
+        <v>1732</v>
       </c>
       <c r="H25" s="34"/>
       <c r="I25" s="28">
         <f t="shared" si="8"/>
-        <v>963</v>
+        <v>1732</v>
       </c>
       <c r="J25" s="28"/>
       <c r="K25" s="63">
         <f t="shared" si="9"/>
-        <v>1584</v>
+        <v>815</v>
       </c>
       <c r="M25" s="62"/>
       <c r="N25" s="41"/>
@@ -4047,21 +4053,21 @@
       </c>
       <c r="F26" s="35">
         <f>F5</f>
-        <v>1224</v>
+        <v>4464</v>
       </c>
       <c r="G26" s="35">
         <f>F26/24</f>
-        <v>51</v>
+        <v>186</v>
       </c>
       <c r="H26" s="34"/>
       <c r="I26" s="28">
         <f t="shared" si="8"/>
-        <v>51</v>
+        <v>186</v>
       </c>
       <c r="J26" s="28"/>
       <c r="K26" s="63">
         <f t="shared" si="9"/>
-        <v>316</v>
+        <v>181</v>
       </c>
       <c r="N26" s="41"/>
     </row>
@@ -4080,21 +4086,21 @@
       </c>
       <c r="F27" s="35">
         <f>F11</f>
-        <v>2016</v>
+        <v>4944</v>
       </c>
       <c r="G27" s="35">
         <f>F27/24</f>
-        <v>84</v>
+        <v>206</v>
       </c>
       <c r="H27" s="34"/>
       <c r="I27" s="28">
         <f>G27+H27</f>
-        <v>84</v>
+        <v>206</v>
       </c>
       <c r="J27" s="28"/>
       <c r="K27" s="63">
         <f t="shared" si="9"/>
-        <v>70</v>
+        <v>-52</v>
       </c>
       <c r="N27" s="41"/>
     </row>
@@ -4119,29 +4125,31 @@
       <c r="B29" s="40">
         <v>21318</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2">
+        <v>30942</v>
+      </c>
       <c r="D29" s="3"/>
       <c r="E29" s="34">
         <f t="shared" ref="E29:E36" si="10">B29+C29+D29</f>
-        <v>21318</v>
+        <v>52260</v>
       </c>
       <c r="F29" s="44">
         <f>'[1]June 2021'!$K$30</f>
-        <v>7716</v>
+        <v>10944</v>
       </c>
       <c r="G29" s="44">
         <f>F29*2</f>
-        <v>15432</v>
+        <v>21888</v>
       </c>
       <c r="H29" s="45"/>
       <c r="I29" s="28">
         <f t="shared" ref="I29:I36" si="11">G29+H29</f>
-        <v>15432</v>
+        <v>21888</v>
       </c>
       <c r="J29" s="28"/>
       <c r="K29" s="64">
         <f t="shared" ref="K29:K35" si="12">E29-I29-J29</f>
-        <v>5886</v>
+        <v>30372</v>
       </c>
       <c r="N29" s="41"/>
     </row>
@@ -4185,29 +4193,31 @@
       <c r="B31" s="40">
         <v>750</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="2">
+        <v>1400</v>
+      </c>
       <c r="D31" s="3"/>
       <c r="E31" s="46">
         <f t="shared" si="10"/>
-        <v>750</v>
+        <v>2150</v>
       </c>
       <c r="F31" s="49">
         <f>F29</f>
-        <v>7716</v>
+        <v>10944</v>
       </c>
       <c r="G31" s="44">
         <f>F31/12</f>
-        <v>643</v>
+        <v>912</v>
       </c>
       <c r="H31" s="45"/>
       <c r="I31" s="28">
         <f t="shared" si="11"/>
-        <v>643</v>
+        <v>912</v>
       </c>
       <c r="J31" s="28"/>
       <c r="K31" s="27">
         <f t="shared" si="12"/>
-        <v>107</v>
+        <v>1238</v>
       </c>
       <c r="N31" s="41"/>
     </row>
@@ -4218,11 +4228,13 @@
       <c r="B32" s="40">
         <v>115</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="4">
+        <v>1000</v>
+      </c>
       <c r="D32" s="3"/>
       <c r="E32" s="46">
         <f t="shared" si="10"/>
-        <v>115</v>
+        <v>1115</v>
       </c>
       <c r="F32" s="49">
         <f>F30</f>
@@ -4240,7 +4252,7 @@
       <c r="J32" s="28"/>
       <c r="K32" s="27">
         <f t="shared" si="12"/>
-        <v>64</v>
+        <v>1064</v>
       </c>
       <c r="N32" s="41"/>
     </row>
@@ -4292,21 +4304,21 @@
       </c>
       <c r="F34" s="49">
         <f>F29</f>
-        <v>7716</v>
+        <v>10944</v>
       </c>
       <c r="G34" s="50">
         <f>F34*2</f>
-        <v>15432</v>
+        <v>21888</v>
       </c>
       <c r="H34" s="51"/>
       <c r="I34" s="28">
         <f t="shared" si="11"/>
-        <v>15432</v>
+        <v>21888</v>
       </c>
       <c r="J34" s="28"/>
       <c r="K34" s="27">
         <f t="shared" si="12"/>
-        <v>47572</v>
+        <v>41116</v>
       </c>
       <c r="N34" s="41"/>
     </row>
@@ -4325,21 +4337,21 @@
       </c>
       <c r="F35" s="49">
         <f>F29</f>
-        <v>7716</v>
+        <v>10944</v>
       </c>
       <c r="G35" s="50">
         <f>F35*2</f>
-        <v>15432</v>
+        <v>21888</v>
       </c>
       <c r="H35" s="51"/>
       <c r="I35" s="28">
         <f t="shared" si="11"/>
-        <v>15432</v>
+        <v>21888</v>
       </c>
       <c r="J35" s="28"/>
       <c r="K35" s="27">
         <f t="shared" si="12"/>
-        <v>10350</v>
+        <v>3894</v>
       </c>
       <c r="N35" s="41"/>
     </row>
@@ -4350,29 +4362,31 @@
       <c r="B36" s="53">
         <v>-2680</v>
       </c>
-      <c r="C36" s="54"/>
+      <c r="C36" s="54">
+        <v>25000</v>
+      </c>
       <c r="D36" s="55"/>
       <c r="E36" s="56">
         <f t="shared" si="10"/>
-        <v>-2680</v>
+        <v>22320</v>
       </c>
       <c r="F36" s="57">
         <f>F29</f>
-        <v>7716</v>
+        <v>10944</v>
       </c>
       <c r="G36" s="58">
         <f>F36*2</f>
-        <v>15432</v>
+        <v>21888</v>
       </c>
       <c r="H36" s="59"/>
       <c r="I36" s="60">
         <f t="shared" si="11"/>
-        <v>15432</v>
+        <v>21888</v>
       </c>
       <c r="J36" s="60"/>
       <c r="K36" s="66">
         <f>E36-I36-J36</f>
-        <v>-18112</v>
+        <v>432</v>
       </c>
       <c r="N36" s="41"/>
     </row>
@@ -4382,7 +4396,7 @@
     <row r="38" spans="1:14">
       <c r="F38" s="61">
         <f>F4+F5+F6+F7+F8+F10+F11+F12+F13+F29+F30</f>
-        <v>57550</v>
+        <v>106818</v>
       </c>
     </row>
     <row r="39" spans="1:14">

--- a/PACKING MATEREILS STATEMENT-2021-22.xlsx
+++ b/PACKING MATEREILS STATEMENT-2021-22.xlsx
@@ -4,15 +4,17 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021-22" sheetId="79" r:id="rId1"/>
     <sheet name="May 2021" sheetId="80" r:id="rId2"/>
     <sheet name="June 2021" sheetId="81" r:id="rId3"/>
+    <sheet name="july" sheetId="82" r:id="rId4"/>
+    <sheet name="AUGUST" sheetId="83" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="125725"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="46">
   <si>
     <t>Particulars</t>
   </si>
@@ -159,6 +161,12 @@
   </si>
   <si>
     <t>PACKING MATERIALS STATEMENT AS ON THE MONTH OF JUNE 2021</t>
+  </si>
+  <si>
+    <t>PACKING MATERIALS STATEMENT AS ON THE MONTH OF JULY 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PACKING MATERIALS STATEMENT AS ON THE MONTH OF AUGUST 2021   </t>
   </si>
 </sst>
 </file>
@@ -629,6 +637,9 @@
       <sheetName val="April 2021-22"/>
       <sheetName val="May 2021"/>
       <sheetName val="June 2021"/>
+      <sheetName val="July 2020"/>
+      <sheetName val="AUGUST 2021 "/>
+      <sheetName val="Sheet2"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -742,6 +753,81 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="3">
+        <row r="30">
+          <cell r="B30">
+            <v>1008</v>
+          </cell>
+          <cell r="C30">
+            <v>3936</v>
+          </cell>
+          <cell r="D30">
+            <v>41880</v>
+          </cell>
+          <cell r="E30">
+            <v>744</v>
+          </cell>
+          <cell r="F30">
+            <v>2156</v>
+          </cell>
+          <cell r="G30">
+            <v>308</v>
+          </cell>
+          <cell r="H30">
+            <v>9480</v>
+          </cell>
+          <cell r="I30">
+            <v>6696</v>
+          </cell>
+          <cell r="J30">
+            <v>52176</v>
+          </cell>
+          <cell r="K30">
+            <v>10596</v>
+          </cell>
+          <cell r="L30">
+            <v>12</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="30">
+          <cell r="B30">
+            <v>768</v>
+          </cell>
+          <cell r="C30">
+            <v>7728</v>
+          </cell>
+          <cell r="D30">
+            <v>39900</v>
+          </cell>
+          <cell r="E30">
+            <v>696</v>
+          </cell>
+          <cell r="F30">
+            <v>2222</v>
+          </cell>
+          <cell r="G30">
+            <v>330</v>
+          </cell>
+          <cell r="H30">
+            <v>6960</v>
+          </cell>
+          <cell r="I30">
+            <v>3624</v>
+          </cell>
+          <cell r="J30">
+            <v>47040</v>
+          </cell>
+          <cell r="K30">
+            <v>8952</v>
+          </cell>
+          <cell r="L30">
+            <v>600</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1034,7 +1120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M4" sqref="M4:M36"/>
     </sheetView>
   </sheetViews>
@@ -2135,7 +2221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3269,8 +3355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3359,14 +3445,11 @@
       <c r="B4" s="26">
         <v>3127.5</v>
       </c>
-      <c r="C4" s="27">
-        <f>3000+325+1920</f>
-        <v>5245</v>
-      </c>
+      <c r="C4" s="27"/>
       <c r="D4" s="3"/>
       <c r="E4" s="28">
         <f t="shared" ref="E4:E7" si="0">B4+C4+D4</f>
-        <v>8372.5</v>
+        <v>3127.5</v>
       </c>
       <c r="F4" s="29">
         <f>'[1]June 2021'!$J$30</f>
@@ -3384,7 +3467,7 @@
       <c r="J4" s="28"/>
       <c r="K4" s="29">
         <f>E4-I4-J4</f>
-        <v>7374.8680000000004</v>
+        <v>2129.8679999999999</v>
       </c>
       <c r="N4" s="41"/>
     </row>
@@ -3396,13 +3479,12 @@
         <v>368.73</v>
       </c>
       <c r="C5" s="27">
-        <f>1027.71+200+304</f>
-        <v>1531.71</v>
+        <v>1027.71</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="28">
         <f t="shared" si="0"/>
-        <v>1900.44</v>
+        <v>1396.44</v>
       </c>
       <c r="F5" s="29">
         <f>'[1]June 2021'!$C$30</f>
@@ -3420,7 +3502,7 @@
       <c r="J5" s="28"/>
       <c r="K5" s="28">
         <f>E5-I5-J5</f>
-        <v>1793.3040000000001</v>
+        <v>1289.3040000000001</v>
       </c>
       <c r="N5" s="41"/>
     </row>
@@ -3465,12 +3547,12 @@
         <v>84.4</v>
       </c>
       <c r="C7" s="27">
-        <v>1136.5</v>
+        <v>1113.6500000000001</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="28">
         <f t="shared" si="0"/>
-        <v>1220.9000000000001</v>
+        <v>1198.0500000000002</v>
       </c>
       <c r="F7" s="29">
         <f>'[1]June 2021'!$F$30</f>
@@ -3488,7 +3570,7 @@
       <c r="J7" s="28"/>
       <c r="K7" s="28">
         <f>E7-I7-J7</f>
-        <v>1112</v>
+        <v>1089.1500000000001</v>
       </c>
       <c r="N7" s="41"/>
     </row>
@@ -3547,13 +3629,12 @@
         <v>28539</v>
       </c>
       <c r="C10" s="2">
-        <f>506+64925+200+908</f>
-        <v>66539</v>
+        <v>64925</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="34">
         <f>B10+C10+D10</f>
-        <v>95078</v>
+        <v>93464</v>
       </c>
       <c r="F10" s="35">
         <f>'[1]June 2021'!$H$30</f>
@@ -3571,7 +3652,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="63">
         <f>E10-I10-J10</f>
-        <v>84422</v>
+        <v>82808</v>
       </c>
       <c r="N10" s="41"/>
     </row>
@@ -3582,14 +3663,11 @@
       <c r="B11" s="33">
         <v>74085</v>
       </c>
-      <c r="C11" s="2">
-        <f>560+200+269</f>
-        <v>1029</v>
-      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="3"/>
       <c r="E11" s="34">
         <f>B11+C11+D11</f>
-        <v>75114</v>
+        <v>74085</v>
       </c>
       <c r="F11" s="35">
         <f>'[1]June 2021'!$I$30</f>
@@ -3607,7 +3685,7 @@
       <c r="J11" s="28"/>
       <c r="K11" s="63">
         <f>E11-I11-J11</f>
-        <v>65226</v>
+        <v>64197</v>
       </c>
       <c r="N11" s="41"/>
     </row>
@@ -3881,11 +3959,13 @@
       <c r="B21" s="40">
         <v>200</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2">
+        <v>1614</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="34">
         <f t="shared" ref="E21:E27" si="7">B21+C21+D21</f>
-        <v>200</v>
+        <v>1814</v>
       </c>
       <c r="F21" s="35">
         <f>F10</f>
@@ -3903,7 +3983,7 @@
       <c r="J21" s="28"/>
       <c r="K21" s="63">
         <f t="shared" ref="K21:K27" si="9">E21-I21-J21</f>
-        <v>-244</v>
+        <v>1370</v>
       </c>
       <c r="N21" s="41"/>
     </row>
@@ -4011,11 +4091,13 @@
       <c r="B25" s="40">
         <v>2547</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2">
+        <v>5245</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="34">
         <f t="shared" si="7"/>
-        <v>2547</v>
+        <v>7792</v>
       </c>
       <c r="F25" s="35">
         <f>F4</f>
@@ -4033,7 +4115,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="63">
         <f t="shared" si="9"/>
-        <v>815</v>
+        <v>6060</v>
       </c>
       <c r="M25" s="62"/>
       <c r="N25" s="41"/>
@@ -4045,11 +4127,13 @@
       <c r="B26" s="40">
         <v>367</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2">
+        <v>504</v>
+      </c>
       <c r="D26" s="3"/>
       <c r="E26" s="34">
         <f t="shared" si="7"/>
-        <v>367</v>
+        <v>871</v>
       </c>
       <c r="F26" s="35">
         <f>F5</f>
@@ -4067,7 +4151,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="63">
         <f t="shared" si="9"/>
-        <v>181</v>
+        <v>685</v>
       </c>
       <c r="N26" s="41"/>
     </row>
@@ -4078,11 +4162,13 @@
       <c r="B27" s="40">
         <v>154</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2">
+        <v>1029</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="E27" s="34">
         <f t="shared" si="7"/>
-        <v>154</v>
+        <v>1183</v>
       </c>
       <c r="F27" s="35">
         <f>F11</f>
@@ -4100,7 +4186,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="63">
         <f t="shared" si="9"/>
-        <v>-52</v>
+        <v>977</v>
       </c>
       <c r="N27" s="41"/>
     </row>
@@ -4411,4 +4497,2277 @@
   <pageMargins left="0.27" right="0.34" top="0.28000000000000003" bottom="0.21" header="0.23" footer="0.16"/>
   <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="13" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="13"/>
+    <col min="10" max="10" width="6.28515625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="13" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A1" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+    </row>
+    <row r="2" spans="1:14" s="22" customFormat="1" ht="23.25" thickBot="1">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="15"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="65"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="26">
+        <v>2129.9</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="28">
+        <f t="shared" ref="E4:E7" si="0">B4+C4+D4</f>
+        <v>2129.9</v>
+      </c>
+      <c r="F4" s="29">
+        <f>'[1]July 2020'!$J$30</f>
+        <v>52176</v>
+      </c>
+      <c r="G4" s="29">
+        <f>F4*0.024</f>
+        <v>1252.2239999999999</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28">
+        <f>G4+H4</f>
+        <v>1252.2239999999999</v>
+      </c>
+      <c r="J4" s="28"/>
+      <c r="K4" s="29">
+        <f>E4-I4-J4</f>
+        <v>877.67600000000016</v>
+      </c>
+      <c r="N4" s="41"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="26">
+        <v>1289.3</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="28">
+        <f t="shared" si="0"/>
+        <v>1289.3</v>
+      </c>
+      <c r="F5" s="29">
+        <f>'[1]July 2020'!$C$30</f>
+        <v>3936</v>
+      </c>
+      <c r="G5" s="29">
+        <f>F5*0.024</f>
+        <v>94.463999999999999</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28">
+        <f t="shared" ref="I5:I6" si="1">G5+H5</f>
+        <v>94.463999999999999</v>
+      </c>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28">
+        <f>E5-I5-J5</f>
+        <v>1194.836</v>
+      </c>
+      <c r="N5" s="41"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="26">
+        <v>1018.5</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="28">
+        <f t="shared" si="0"/>
+        <v>1018.5</v>
+      </c>
+      <c r="F6" s="29">
+        <f>'[1]July 2020'!$G$30</f>
+        <v>308</v>
+      </c>
+      <c r="G6" s="29">
+        <f>F6*0.108</f>
+        <v>33.264000000000003</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28">
+        <f t="shared" si="1"/>
+        <v>33.264000000000003</v>
+      </c>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28">
+        <f>E6-I6-J6</f>
+        <v>985.23599999999999</v>
+      </c>
+      <c r="N6" s="41"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="26">
+        <v>1089.1500000000001</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="28">
+        <f t="shared" si="0"/>
+        <v>1089.1500000000001</v>
+      </c>
+      <c r="F7" s="29">
+        <f>'[1]July 2020'!$F$30</f>
+        <v>2156</v>
+      </c>
+      <c r="G7" s="29">
+        <f>F7*0.075</f>
+        <v>161.69999999999999</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28">
+        <f>G7+H7</f>
+        <v>161.69999999999999</v>
+      </c>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28">
+        <f>E7-I7-J7</f>
+        <v>927.45</v>
+      </c>
+      <c r="N7" s="41"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="26">
+        <v>656.44</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="28">
+        <f>B8+C8+D8</f>
+        <v>656.44</v>
+      </c>
+      <c r="F8" s="29">
+        <f>'[1]July 2020'!$E$30</f>
+        <v>744</v>
+      </c>
+      <c r="G8" s="29">
+        <f>F8*0.035</f>
+        <v>26.040000000000003</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28">
+        <f t="shared" ref="I8" si="2">G8+H8</f>
+        <v>26.040000000000003</v>
+      </c>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28">
+        <f t="shared" ref="K8" si="3">E8-I8-J8</f>
+        <v>630.40000000000009</v>
+      </c>
+      <c r="N8" s="41"/>
+    </row>
+    <row r="9" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="N9" s="41"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="33">
+        <v>82808</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="34">
+        <f>B10+C10+D10</f>
+        <v>82808</v>
+      </c>
+      <c r="F10" s="35">
+        <f>'[1]July 2020'!$H$30</f>
+        <v>9480</v>
+      </c>
+      <c r="G10" s="35">
+        <f>F10*1</f>
+        <v>9480</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="28">
+        <f t="shared" ref="I10:I13" si="4">G10+H10</f>
+        <v>9480</v>
+      </c>
+      <c r="J10" s="28"/>
+      <c r="K10" s="63">
+        <f>E10-I10-J10</f>
+        <v>73328</v>
+      </c>
+      <c r="N10" s="41"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="33">
+        <v>64197</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="34">
+        <f>B11+C11+D11</f>
+        <v>64197</v>
+      </c>
+      <c r="F11" s="35">
+        <f>'[1]July 2020'!$I$30</f>
+        <v>6696</v>
+      </c>
+      <c r="G11" s="35">
+        <f>F11*2</f>
+        <v>13392</v>
+      </c>
+      <c r="H11" s="34"/>
+      <c r="I11" s="28">
+        <f t="shared" si="4"/>
+        <v>13392</v>
+      </c>
+      <c r="J11" s="28"/>
+      <c r="K11" s="63">
+        <f>E11-I11-J11</f>
+        <v>50805</v>
+      </c>
+      <c r="N11" s="41"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="33">
+        <v>7008</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="34">
+        <f>B12+C12+D12</f>
+        <v>7008</v>
+      </c>
+      <c r="F12" s="35">
+        <f>'[1]July 2020'!$B$30</f>
+        <v>1008</v>
+      </c>
+      <c r="G12" s="35">
+        <f>F12*1</f>
+        <v>1008</v>
+      </c>
+      <c r="H12" s="34"/>
+      <c r="I12" s="28">
+        <f t="shared" si="4"/>
+        <v>1008</v>
+      </c>
+      <c r="J12" s="28"/>
+      <c r="K12" s="63">
+        <f>E12-I12-J12</f>
+        <v>6000</v>
+      </c>
+      <c r="N12" s="41"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="33">
+        <v>5558</v>
+      </c>
+      <c r="C13" s="2">
+        <f>4200+2600+1900</f>
+        <v>8700</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="34">
+        <f>B13+C13+D13</f>
+        <v>14258</v>
+      </c>
+      <c r="F13" s="35">
+        <f>'[1]July 2020'!$D$30</f>
+        <v>41880</v>
+      </c>
+      <c r="G13" s="35">
+        <f>F13/5</f>
+        <v>8376</v>
+      </c>
+      <c r="H13" s="34"/>
+      <c r="I13" s="28">
+        <f t="shared" si="4"/>
+        <v>8376</v>
+      </c>
+      <c r="J13" s="28"/>
+      <c r="K13" s="63">
+        <f>E13-I13-J13</f>
+        <v>5882</v>
+      </c>
+      <c r="L13" s="62"/>
+      <c r="N13" s="41"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="N14" s="41"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="33">
+        <v>91140</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="34">
+        <f t="shared" ref="E15:E19" si="5">B15+C15+D15</f>
+        <v>91140</v>
+      </c>
+      <c r="F15" s="35">
+        <f>F13</f>
+        <v>41880</v>
+      </c>
+      <c r="G15" s="35">
+        <f>F15/5</f>
+        <v>8376</v>
+      </c>
+      <c r="H15" s="34"/>
+      <c r="I15" s="28">
+        <f t="shared" ref="I15:I19" si="6">G15+H15</f>
+        <v>8376</v>
+      </c>
+      <c r="J15" s="28"/>
+      <c r="K15" s="63">
+        <f>E15-I15-J15</f>
+        <v>82764</v>
+      </c>
+      <c r="N15" s="41"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="33">
+        <v>86520</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="34">
+        <f t="shared" si="5"/>
+        <v>86520</v>
+      </c>
+      <c r="F16" s="35">
+        <f>F4+F5</f>
+        <v>56112</v>
+      </c>
+      <c r="G16" s="35">
+        <f>F16/2</f>
+        <v>28056</v>
+      </c>
+      <c r="H16" s="34"/>
+      <c r="I16" s="28">
+        <f t="shared" si="6"/>
+        <v>28056</v>
+      </c>
+      <c r="J16" s="28"/>
+      <c r="K16" s="63">
+        <f>E16-I16-J16</f>
+        <v>58464</v>
+      </c>
+      <c r="N16" s="41"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="33">
+        <v>55300</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="34">
+        <f t="shared" si="5"/>
+        <v>55300</v>
+      </c>
+      <c r="F17" s="35">
+        <f>F6</f>
+        <v>308</v>
+      </c>
+      <c r="G17" s="35">
+        <f>(F17/22)*50</f>
+        <v>700</v>
+      </c>
+      <c r="H17" s="34"/>
+      <c r="I17" s="28">
+        <f t="shared" si="6"/>
+        <v>700</v>
+      </c>
+      <c r="J17" s="28"/>
+      <c r="K17" s="63">
+        <f>E17-I17-J17</f>
+        <v>54600</v>
+      </c>
+      <c r="N17" s="41"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="33">
+        <v>183989</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="34">
+        <f t="shared" si="5"/>
+        <v>183989</v>
+      </c>
+      <c r="F18" s="39">
+        <f>F7</f>
+        <v>2156</v>
+      </c>
+      <c r="G18" s="35">
+        <f>(F18/22)*25</f>
+        <v>2450</v>
+      </c>
+      <c r="H18" s="34"/>
+      <c r="I18" s="28">
+        <f t="shared" si="6"/>
+        <v>2450</v>
+      </c>
+      <c r="J18" s="28"/>
+      <c r="K18" s="63">
+        <f>E18-I18-J18</f>
+        <v>181539</v>
+      </c>
+      <c r="N18" s="41"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="33">
+        <v>1158</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="34">
+        <f t="shared" si="5"/>
+        <v>1158</v>
+      </c>
+      <c r="F19" s="39">
+        <f>F8</f>
+        <v>744</v>
+      </c>
+      <c r="G19" s="35">
+        <f>F19/2</f>
+        <v>372</v>
+      </c>
+      <c r="H19" s="34"/>
+      <c r="I19" s="28">
+        <f t="shared" si="6"/>
+        <v>372</v>
+      </c>
+      <c r="J19" s="28"/>
+      <c r="K19" s="63">
+        <f>E19-I19-J19</f>
+        <v>786</v>
+      </c>
+      <c r="N19" s="41"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1">
+      <c r="A20" s="9"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="N20" s="41"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="40">
+        <v>1370</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="34">
+        <f t="shared" ref="E21:E27" si="7">B21+C21+D21</f>
+        <v>1370</v>
+      </c>
+      <c r="F21" s="35">
+        <f>F10</f>
+        <v>9480</v>
+      </c>
+      <c r="G21" s="35">
+        <f>F21/24</f>
+        <v>395</v>
+      </c>
+      <c r="H21" s="34"/>
+      <c r="I21" s="28">
+        <f t="shared" ref="I21:I26" si="8">G21+H21</f>
+        <v>395</v>
+      </c>
+      <c r="J21" s="28"/>
+      <c r="K21" s="63">
+        <f t="shared" ref="K21:K27" si="9">E21-I21-J21</f>
+        <v>975</v>
+      </c>
+      <c r="N21" s="41"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="40">
+        <v>1400</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="34">
+        <f t="shared" si="7"/>
+        <v>1400</v>
+      </c>
+      <c r="F22" s="35">
+        <f>F12</f>
+        <v>1008</v>
+      </c>
+      <c r="G22" s="35">
+        <f>F22/24</f>
+        <v>42</v>
+      </c>
+      <c r="H22" s="34"/>
+      <c r="I22" s="28">
+        <f t="shared" si="8"/>
+        <v>42</v>
+      </c>
+      <c r="J22" s="28"/>
+      <c r="K22" s="63">
+        <f t="shared" si="9"/>
+        <v>1358</v>
+      </c>
+      <c r="N22" s="41"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="33">
+        <v>4328</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="34">
+        <f t="shared" si="7"/>
+        <v>4328</v>
+      </c>
+      <c r="F23" s="39"/>
+      <c r="G23" s="35">
+        <f>(F13/30)+(F7/22)+(F6/22)</f>
+        <v>1508</v>
+      </c>
+      <c r="H23" s="34"/>
+      <c r="I23" s="28">
+        <f t="shared" si="8"/>
+        <v>1508</v>
+      </c>
+      <c r="J23" s="28"/>
+      <c r="K23" s="33">
+        <f t="shared" si="9"/>
+        <v>2820</v>
+      </c>
+      <c r="L23" s="41"/>
+      <c r="N23" s="41"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="43">
+        <v>883</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="34">
+        <f t="shared" si="7"/>
+        <v>883</v>
+      </c>
+      <c r="F24" s="39">
+        <f>F8</f>
+        <v>744</v>
+      </c>
+      <c r="G24" s="35">
+        <f>(F19/24)</f>
+        <v>31</v>
+      </c>
+      <c r="H24" s="34"/>
+      <c r="I24" s="28">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="J24" s="28"/>
+      <c r="K24" s="63">
+        <f t="shared" si="9"/>
+        <v>852</v>
+      </c>
+      <c r="N24" s="41"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="40">
+        <v>6060</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="34">
+        <f t="shared" si="7"/>
+        <v>7560</v>
+      </c>
+      <c r="F25" s="35">
+        <f>F4</f>
+        <v>52176</v>
+      </c>
+      <c r="G25" s="35">
+        <f>F25/24</f>
+        <v>2174</v>
+      </c>
+      <c r="H25" s="34"/>
+      <c r="I25" s="28">
+        <f t="shared" si="8"/>
+        <v>2174</v>
+      </c>
+      <c r="J25" s="28"/>
+      <c r="K25" s="63">
+        <f t="shared" si="9"/>
+        <v>5386</v>
+      </c>
+      <c r="M25" s="62"/>
+      <c r="N25" s="41"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="40">
+        <v>685</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="34">
+        <f t="shared" si="7"/>
+        <v>685</v>
+      </c>
+      <c r="F26" s="35">
+        <f>F5</f>
+        <v>3936</v>
+      </c>
+      <c r="G26" s="35">
+        <f>F26/24</f>
+        <v>164</v>
+      </c>
+      <c r="H26" s="34"/>
+      <c r="I26" s="28">
+        <f t="shared" si="8"/>
+        <v>164</v>
+      </c>
+      <c r="J26" s="28"/>
+      <c r="K26" s="63">
+        <f t="shared" si="9"/>
+        <v>521</v>
+      </c>
+      <c r="N26" s="41"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="40">
+        <v>977</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="34">
+        <f t="shared" si="7"/>
+        <v>977</v>
+      </c>
+      <c r="F27" s="35">
+        <f>F11</f>
+        <v>6696</v>
+      </c>
+      <c r="G27" s="35">
+        <f>F27/24</f>
+        <v>279</v>
+      </c>
+      <c r="H27" s="34"/>
+      <c r="I27" s="28">
+        <f>G27+H27</f>
+        <v>279</v>
+      </c>
+      <c r="J27" s="28"/>
+      <c r="K27" s="63">
+        <f t="shared" si="9"/>
+        <v>698</v>
+      </c>
+      <c r="N27" s="41"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="11"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="N28" s="41"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="40">
+        <v>30372</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="34">
+        <f t="shared" ref="E29:E36" si="10">B29+C29+D29</f>
+        <v>30372</v>
+      </c>
+      <c r="F29" s="44">
+        <f>'[1]July 2020'!$K$30</f>
+        <v>10596</v>
+      </c>
+      <c r="G29" s="44">
+        <f>F29*2</f>
+        <v>21192</v>
+      </c>
+      <c r="H29" s="45"/>
+      <c r="I29" s="28">
+        <f t="shared" ref="I29:I36" si="11">G29+H29</f>
+        <v>21192</v>
+      </c>
+      <c r="J29" s="28"/>
+      <c r="K29" s="64">
+        <f t="shared" ref="K29:K35" si="12">E29-I29-J29</f>
+        <v>9180</v>
+      </c>
+      <c r="N29" s="41"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="40">
+        <v>19244</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="46">
+        <f t="shared" si="10"/>
+        <v>19244</v>
+      </c>
+      <c r="F30" s="47">
+        <f>'[1]July 2020'!$L$30</f>
+        <v>12</v>
+      </c>
+      <c r="G30" s="44">
+        <f>F30*4</f>
+        <v>48</v>
+      </c>
+      <c r="H30" s="45"/>
+      <c r="I30" s="28">
+        <f t="shared" si="11"/>
+        <v>48</v>
+      </c>
+      <c r="J30" s="28"/>
+      <c r="K30" s="64">
+        <f>E30-I30-J30</f>
+        <v>19196</v>
+      </c>
+      <c r="N30" s="41"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="40">
+        <v>1238</v>
+      </c>
+      <c r="C31" s="2">
+        <v>550</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="46">
+        <f t="shared" si="10"/>
+        <v>1788</v>
+      </c>
+      <c r="F31" s="49">
+        <f>F29</f>
+        <v>10596</v>
+      </c>
+      <c r="G31" s="44">
+        <f>F31/12</f>
+        <v>883</v>
+      </c>
+      <c r="H31" s="45"/>
+      <c r="I31" s="28">
+        <f t="shared" si="11"/>
+        <v>883</v>
+      </c>
+      <c r="J31" s="28"/>
+      <c r="K31" s="27">
+        <f t="shared" si="12"/>
+        <v>905</v>
+      </c>
+      <c r="N31" s="41"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="40">
+        <v>1064</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="46">
+        <f t="shared" si="10"/>
+        <v>1064</v>
+      </c>
+      <c r="F32" s="49">
+        <f>F30</f>
+        <v>12</v>
+      </c>
+      <c r="G32" s="50">
+        <f>F32/12</f>
+        <v>1</v>
+      </c>
+      <c r="H32" s="51"/>
+      <c r="I32" s="28">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J32" s="28"/>
+      <c r="K32" s="27">
+        <f t="shared" si="12"/>
+        <v>1063</v>
+      </c>
+      <c r="N32" s="41"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="40">
+        <v>60321</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="46">
+        <f t="shared" si="10"/>
+        <v>60321</v>
+      </c>
+      <c r="F33" s="49">
+        <f>F30</f>
+        <v>12</v>
+      </c>
+      <c r="G33" s="50">
+        <f>F33*4</f>
+        <v>48</v>
+      </c>
+      <c r="H33" s="48"/>
+      <c r="I33" s="28">
+        <f t="shared" si="11"/>
+        <v>48</v>
+      </c>
+      <c r="J33" s="28"/>
+      <c r="K33" s="27">
+        <f t="shared" si="12"/>
+        <v>60273</v>
+      </c>
+      <c r="N33" s="41"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="40">
+        <v>41116</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="46">
+        <f t="shared" si="10"/>
+        <v>41116</v>
+      </c>
+      <c r="F34" s="49">
+        <f>F29</f>
+        <v>10596</v>
+      </c>
+      <c r="G34" s="50">
+        <f>F34*2</f>
+        <v>21192</v>
+      </c>
+      <c r="H34" s="51"/>
+      <c r="I34" s="28">
+        <f t="shared" si="11"/>
+        <v>21192</v>
+      </c>
+      <c r="J34" s="28"/>
+      <c r="K34" s="27">
+        <f t="shared" si="12"/>
+        <v>19924</v>
+      </c>
+      <c r="N34" s="41"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="40">
+        <v>3894</v>
+      </c>
+      <c r="C35" s="4">
+        <f>102000+10000</f>
+        <v>112000</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="46">
+        <f t="shared" si="10"/>
+        <v>115894</v>
+      </c>
+      <c r="F35" s="49">
+        <f>F29</f>
+        <v>10596</v>
+      </c>
+      <c r="G35" s="50">
+        <f>F35*2</f>
+        <v>21192</v>
+      </c>
+      <c r="H35" s="51"/>
+      <c r="I35" s="28">
+        <f t="shared" si="11"/>
+        <v>21192</v>
+      </c>
+      <c r="J35" s="28"/>
+      <c r="K35" s="27">
+        <f t="shared" si="12"/>
+        <v>94702</v>
+      </c>
+      <c r="N35" s="41"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A36" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="53">
+        <v>432</v>
+      </c>
+      <c r="C36" s="54">
+        <f>24000+10000</f>
+        <v>34000</v>
+      </c>
+      <c r="D36" s="55"/>
+      <c r="E36" s="56">
+        <f t="shared" si="10"/>
+        <v>34432</v>
+      </c>
+      <c r="F36" s="57">
+        <f>F29</f>
+        <v>10596</v>
+      </c>
+      <c r="G36" s="58">
+        <f>F36*2</f>
+        <v>21192</v>
+      </c>
+      <c r="H36" s="59"/>
+      <c r="I36" s="60">
+        <f t="shared" si="11"/>
+        <v>21192</v>
+      </c>
+      <c r="J36" s="60"/>
+      <c r="K36" s="66">
+        <f>E36-I36-J36</f>
+        <v>13240</v>
+      </c>
+      <c r="N36" s="41"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="B37" s="41"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="F38" s="61">
+        <f>F4+F5+F6+F7+F8+F10+F11+F12+F13+F29+F30</f>
+        <v>128992</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="F39" s="41"/>
+      <c r="H39" s="61"/>
+      <c r="J39" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.27" right="0.34" top="0.28000000000000003" bottom="0.21" header="0.23" footer="0.16"/>
+  <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="13" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="13"/>
+    <col min="10" max="10" width="6.28515625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="13" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A1" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+    </row>
+    <row r="2" spans="1:14" s="22" customFormat="1" ht="23.25" thickBot="1">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="15"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="65"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="26">
+        <v>877.7</v>
+      </c>
+      <c r="C4" s="27">
+        <v>4036.79</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="28">
+        <f t="shared" ref="E4:E7" si="0">B4+C4+D4</f>
+        <v>4914.49</v>
+      </c>
+      <c r="F4" s="29">
+        <f>'[1]AUGUST 2021 '!$J$30</f>
+        <v>47040</v>
+      </c>
+      <c r="G4" s="29">
+        <f>F4*0.024</f>
+        <v>1128.96</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28">
+        <f>G4+H4</f>
+        <v>1128.96</v>
+      </c>
+      <c r="J4" s="28"/>
+      <c r="K4" s="29">
+        <f>E4-I4-J4</f>
+        <v>3785.5299999999997</v>
+      </c>
+      <c r="N4" s="41"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="26">
+        <v>1195.4100000000001</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="28">
+        <f t="shared" si="0"/>
+        <v>1195.4100000000001</v>
+      </c>
+      <c r="F5" s="29">
+        <f>'[1]AUGUST 2021 '!$C$30</f>
+        <v>7728</v>
+      </c>
+      <c r="G5" s="29">
+        <f>F5*0.024</f>
+        <v>185.47200000000001</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28">
+        <f t="shared" ref="I5:I6" si="1">G5+H5</f>
+        <v>185.47200000000001</v>
+      </c>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28">
+        <f>E5-I5-J5</f>
+        <v>1009.9380000000001</v>
+      </c>
+      <c r="N5" s="41"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="26">
+        <v>985.24</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="28">
+        <f t="shared" si="0"/>
+        <v>985.24</v>
+      </c>
+      <c r="F6" s="29">
+        <f>'[1]AUGUST 2021 '!$G$30</f>
+        <v>330</v>
+      </c>
+      <c r="G6" s="29">
+        <f>F6*0.108</f>
+        <v>35.64</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28">
+        <f t="shared" si="1"/>
+        <v>35.64</v>
+      </c>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28">
+        <f>E6-I6-J6</f>
+        <v>949.6</v>
+      </c>
+      <c r="N6" s="41"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="26">
+        <v>927.45</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="28">
+        <f t="shared" si="0"/>
+        <v>927.45</v>
+      </c>
+      <c r="F7" s="29">
+        <f>'[1]AUGUST 2021 '!$F$30</f>
+        <v>2222</v>
+      </c>
+      <c r="G7" s="29">
+        <f>F7*0.075</f>
+        <v>166.65</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28">
+        <f>G7+H7</f>
+        <v>166.65</v>
+      </c>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28">
+        <f>E7-I7-J7</f>
+        <v>760.80000000000007</v>
+      </c>
+      <c r="N7" s="41"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="26">
+        <v>630.4</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="28">
+        <f>B8+C8+D8</f>
+        <v>630.4</v>
+      </c>
+      <c r="F8" s="29">
+        <f>'[1]AUGUST 2021 '!$E$30</f>
+        <v>696</v>
+      </c>
+      <c r="G8" s="29">
+        <f>F8*0.035</f>
+        <v>24.360000000000003</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28">
+        <f t="shared" ref="I8" si="2">G8+H8</f>
+        <v>24.360000000000003</v>
+      </c>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28">
+        <f t="shared" ref="K8" si="3">E8-I8-J8</f>
+        <v>606.04</v>
+      </c>
+      <c r="N8" s="41"/>
+    </row>
+    <row r="9" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="N9" s="41"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="33">
+        <v>73328</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="34">
+        <f>B10+C10+D10</f>
+        <v>73328</v>
+      </c>
+      <c r="F10" s="35">
+        <f>'[1]AUGUST 2021 '!$H$30</f>
+        <v>6960</v>
+      </c>
+      <c r="G10" s="35">
+        <f>F10*1</f>
+        <v>6960</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="28">
+        <f t="shared" ref="I10:I13" si="4">G10+H10</f>
+        <v>6960</v>
+      </c>
+      <c r="J10" s="28"/>
+      <c r="K10" s="63">
+        <f>E10-I10-J10</f>
+        <v>66368</v>
+      </c>
+      <c r="N10" s="41"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="33">
+        <v>50805</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="34">
+        <f>B11+C11+D11</f>
+        <v>50805</v>
+      </c>
+      <c r="F11" s="35">
+        <f>'[1]AUGUST 2021 '!$I$30</f>
+        <v>3624</v>
+      </c>
+      <c r="G11" s="35">
+        <f>F11*2</f>
+        <v>7248</v>
+      </c>
+      <c r="H11" s="34"/>
+      <c r="I11" s="28">
+        <f t="shared" si="4"/>
+        <v>7248</v>
+      </c>
+      <c r="J11" s="28"/>
+      <c r="K11" s="63">
+        <f>E11-I11-J11</f>
+        <v>43557</v>
+      </c>
+      <c r="N11" s="41"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="33">
+        <v>6000</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="34">
+        <f>B12+C12+D12</f>
+        <v>6000</v>
+      </c>
+      <c r="F12" s="35">
+        <f>'[1]AUGUST 2021 '!$B$30</f>
+        <v>768</v>
+      </c>
+      <c r="G12" s="35">
+        <f>F12*1</f>
+        <v>768</v>
+      </c>
+      <c r="H12" s="34"/>
+      <c r="I12" s="28">
+        <f t="shared" si="4"/>
+        <v>768</v>
+      </c>
+      <c r="J12" s="28"/>
+      <c r="K12" s="63">
+        <f>E12-I12-J12</f>
+        <v>5232</v>
+      </c>
+      <c r="N12" s="41"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="33">
+        <v>5882</v>
+      </c>
+      <c r="C13" s="2">
+        <f>2000</f>
+        <v>2000</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="34">
+        <f>B13+C13+D13</f>
+        <v>7882</v>
+      </c>
+      <c r="F13" s="35">
+        <f>'[1]AUGUST 2021 '!$D$30</f>
+        <v>39900</v>
+      </c>
+      <c r="G13" s="35">
+        <f>F13/5</f>
+        <v>7980</v>
+      </c>
+      <c r="H13" s="34"/>
+      <c r="I13" s="28">
+        <f t="shared" si="4"/>
+        <v>7980</v>
+      </c>
+      <c r="J13" s="28"/>
+      <c r="K13" s="63">
+        <f>E13-I13-J13</f>
+        <v>-98</v>
+      </c>
+      <c r="L13" s="62"/>
+      <c r="N13" s="41"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="N14" s="41"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="33">
+        <v>82764</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="34">
+        <f t="shared" ref="E15:E19" si="5">B15+C15+D15</f>
+        <v>82764</v>
+      </c>
+      <c r="F15" s="35">
+        <f>F13</f>
+        <v>39900</v>
+      </c>
+      <c r="G15" s="35">
+        <f>F15/5</f>
+        <v>7980</v>
+      </c>
+      <c r="H15" s="34"/>
+      <c r="I15" s="28">
+        <f t="shared" ref="I15:I19" si="6">G15+H15</f>
+        <v>7980</v>
+      </c>
+      <c r="J15" s="28"/>
+      <c r="K15" s="63">
+        <f>E15-I15-J15</f>
+        <v>74784</v>
+      </c>
+      <c r="N15" s="41"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="33">
+        <v>58476</v>
+      </c>
+      <c r="C16" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="34">
+        <f t="shared" si="5"/>
+        <v>158476</v>
+      </c>
+      <c r="F16" s="35">
+        <f>F4+F5</f>
+        <v>54768</v>
+      </c>
+      <c r="G16" s="35">
+        <f>F16/2</f>
+        <v>27384</v>
+      </c>
+      <c r="H16" s="34"/>
+      <c r="I16" s="28">
+        <f t="shared" si="6"/>
+        <v>27384</v>
+      </c>
+      <c r="J16" s="28"/>
+      <c r="K16" s="63">
+        <f>E16-I16-J16</f>
+        <v>131092</v>
+      </c>
+      <c r="N16" s="41"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="33">
+        <v>54600</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="34">
+        <f t="shared" si="5"/>
+        <v>54600</v>
+      </c>
+      <c r="F17" s="35">
+        <f>F6</f>
+        <v>330</v>
+      </c>
+      <c r="G17" s="35">
+        <f>(F17/22)*50</f>
+        <v>750</v>
+      </c>
+      <c r="H17" s="34"/>
+      <c r="I17" s="28">
+        <f t="shared" si="6"/>
+        <v>750</v>
+      </c>
+      <c r="J17" s="28"/>
+      <c r="K17" s="63">
+        <f>E17-I17-J17</f>
+        <v>53850</v>
+      </c>
+      <c r="N17" s="41"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="33">
+        <v>181539</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="34">
+        <f t="shared" si="5"/>
+        <v>181539</v>
+      </c>
+      <c r="F18" s="39">
+        <f>F7</f>
+        <v>2222</v>
+      </c>
+      <c r="G18" s="35">
+        <f>(F18/22)*25</f>
+        <v>2525</v>
+      </c>
+      <c r="H18" s="34"/>
+      <c r="I18" s="28">
+        <f t="shared" si="6"/>
+        <v>2525</v>
+      </c>
+      <c r="J18" s="28"/>
+      <c r="K18" s="63">
+        <f>E18-I18-J18</f>
+        <v>179014</v>
+      </c>
+      <c r="N18" s="41"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="33">
+        <v>786</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="34">
+        <f t="shared" si="5"/>
+        <v>786</v>
+      </c>
+      <c r="F19" s="39">
+        <f>F8</f>
+        <v>696</v>
+      </c>
+      <c r="G19" s="35">
+        <f>F19/2</f>
+        <v>348</v>
+      </c>
+      <c r="H19" s="34"/>
+      <c r="I19" s="28">
+        <f t="shared" si="6"/>
+        <v>348</v>
+      </c>
+      <c r="J19" s="28"/>
+      <c r="K19" s="63">
+        <f>E19-I19-J19</f>
+        <v>438</v>
+      </c>
+      <c r="N19" s="41"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1">
+      <c r="A20" s="9"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="N20" s="41"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="40">
+        <v>975</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="34">
+        <f t="shared" ref="E21:E27" si="7">B21+C21+D21</f>
+        <v>975</v>
+      </c>
+      <c r="F21" s="35">
+        <f>F10</f>
+        <v>6960</v>
+      </c>
+      <c r="G21" s="35">
+        <f>F21/24</f>
+        <v>290</v>
+      </c>
+      <c r="H21" s="34"/>
+      <c r="I21" s="28">
+        <f t="shared" ref="I21:I26" si="8">G21+H21</f>
+        <v>290</v>
+      </c>
+      <c r="J21" s="28"/>
+      <c r="K21" s="63">
+        <f t="shared" ref="K21:K27" si="9">E21-I21-J21</f>
+        <v>685</v>
+      </c>
+      <c r="N21" s="41"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="40">
+        <v>1358</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="34">
+        <f t="shared" si="7"/>
+        <v>1358</v>
+      </c>
+      <c r="F22" s="35">
+        <f>F12</f>
+        <v>768</v>
+      </c>
+      <c r="G22" s="35">
+        <f>F22/24</f>
+        <v>32</v>
+      </c>
+      <c r="H22" s="34"/>
+      <c r="I22" s="28">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="J22" s="28"/>
+      <c r="K22" s="63">
+        <f t="shared" si="9"/>
+        <v>1326</v>
+      </c>
+      <c r="N22" s="41"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="33">
+        <v>2820</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="34">
+        <f t="shared" si="7"/>
+        <v>2820</v>
+      </c>
+      <c r="F23" s="39"/>
+      <c r="G23" s="35">
+        <f>(F13/30)+(F7/22)+(F6/22)</f>
+        <v>1446</v>
+      </c>
+      <c r="H23" s="34"/>
+      <c r="I23" s="28">
+        <f t="shared" si="8"/>
+        <v>1446</v>
+      </c>
+      <c r="J23" s="28"/>
+      <c r="K23" s="33">
+        <f t="shared" si="9"/>
+        <v>1374</v>
+      </c>
+      <c r="L23" s="41"/>
+      <c r="N23" s="41"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="43">
+        <v>852</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="34">
+        <f t="shared" si="7"/>
+        <v>852</v>
+      </c>
+      <c r="F24" s="39">
+        <f>F8</f>
+        <v>696</v>
+      </c>
+      <c r="G24" s="35">
+        <f>(F19/24)</f>
+        <v>29</v>
+      </c>
+      <c r="H24" s="34"/>
+      <c r="I24" s="28">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="J24" s="28"/>
+      <c r="K24" s="63">
+        <f t="shared" si="9"/>
+        <v>823</v>
+      </c>
+      <c r="N24" s="41"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="40">
+        <v>5386</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="34">
+        <f t="shared" si="7"/>
+        <v>5386</v>
+      </c>
+      <c r="F25" s="35">
+        <f>F4</f>
+        <v>47040</v>
+      </c>
+      <c r="G25" s="35">
+        <f>F25/24</f>
+        <v>1960</v>
+      </c>
+      <c r="H25" s="34"/>
+      <c r="I25" s="28">
+        <f t="shared" si="8"/>
+        <v>1960</v>
+      </c>
+      <c r="J25" s="28"/>
+      <c r="K25" s="63">
+        <f t="shared" si="9"/>
+        <v>3426</v>
+      </c>
+      <c r="M25" s="62"/>
+      <c r="N25" s="41"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="40">
+        <v>522</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="34">
+        <f t="shared" si="7"/>
+        <v>522</v>
+      </c>
+      <c r="F26" s="35">
+        <f>F5</f>
+        <v>7728</v>
+      </c>
+      <c r="G26" s="35">
+        <f>F26/24</f>
+        <v>322</v>
+      </c>
+      <c r="H26" s="34"/>
+      <c r="I26" s="28">
+        <f t="shared" si="8"/>
+        <v>322</v>
+      </c>
+      <c r="J26" s="28"/>
+      <c r="K26" s="63">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="N26" s="41"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="40">
+        <v>698</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="34">
+        <f t="shared" si="7"/>
+        <v>698</v>
+      </c>
+      <c r="F27" s="35">
+        <f>F11</f>
+        <v>3624</v>
+      </c>
+      <c r="G27" s="35">
+        <f>F27/24</f>
+        <v>151</v>
+      </c>
+      <c r="H27" s="34"/>
+      <c r="I27" s="28">
+        <f>G27+H27</f>
+        <v>151</v>
+      </c>
+      <c r="J27" s="28"/>
+      <c r="K27" s="63">
+        <f t="shared" si="9"/>
+        <v>547</v>
+      </c>
+      <c r="N27" s="41"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="11"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="N28" s="41"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="40">
+        <v>9180</v>
+      </c>
+      <c r="C29" s="2">
+        <v>31104</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="34">
+        <f t="shared" ref="E29:E36" si="10">B29+C29+D29</f>
+        <v>40284</v>
+      </c>
+      <c r="F29" s="44">
+        <f>'[1]AUGUST 2021 '!$K$30</f>
+        <v>8952</v>
+      </c>
+      <c r="G29" s="44">
+        <f>F29*2</f>
+        <v>17904</v>
+      </c>
+      <c r="H29" s="45"/>
+      <c r="I29" s="28">
+        <f t="shared" ref="I29:I36" si="11">G29+H29</f>
+        <v>17904</v>
+      </c>
+      <c r="J29" s="28"/>
+      <c r="K29" s="64">
+        <f t="shared" ref="K29:K35" si="12">E29-I29-J29</f>
+        <v>22380</v>
+      </c>
+      <c r="N29" s="41"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="40">
+        <v>19196</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="46">
+        <f t="shared" si="10"/>
+        <v>19196</v>
+      </c>
+      <c r="F30" s="47">
+        <f>'[1]AUGUST 2021 '!$L$30</f>
+        <v>600</v>
+      </c>
+      <c r="G30" s="44">
+        <f>F30*4</f>
+        <v>2400</v>
+      </c>
+      <c r="H30" s="45"/>
+      <c r="I30" s="28">
+        <f t="shared" si="11"/>
+        <v>2400</v>
+      </c>
+      <c r="J30" s="28"/>
+      <c r="K30" s="64">
+        <f>E30-I30-J30</f>
+        <v>16796</v>
+      </c>
+      <c r="N30" s="41"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="40">
+        <v>905</v>
+      </c>
+      <c r="C31" s="2">
+        <f>700+1300+2300+664</f>
+        <v>4964</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="46">
+        <f t="shared" si="10"/>
+        <v>5869</v>
+      </c>
+      <c r="F31" s="49">
+        <f>F29</f>
+        <v>8952</v>
+      </c>
+      <c r="G31" s="44">
+        <f>F31/12</f>
+        <v>746</v>
+      </c>
+      <c r="H31" s="45"/>
+      <c r="I31" s="28">
+        <f t="shared" si="11"/>
+        <v>746</v>
+      </c>
+      <c r="J31" s="28"/>
+      <c r="K31" s="27">
+        <f t="shared" si="12"/>
+        <v>5123</v>
+      </c>
+      <c r="N31" s="41"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="40">
+        <v>1063</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="46">
+        <f t="shared" si="10"/>
+        <v>1063</v>
+      </c>
+      <c r="F32" s="49">
+        <f>F30</f>
+        <v>600</v>
+      </c>
+      <c r="G32" s="50">
+        <f>F32/12</f>
+        <v>50</v>
+      </c>
+      <c r="H32" s="51"/>
+      <c r="I32" s="28">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="J32" s="28"/>
+      <c r="K32" s="27">
+        <f t="shared" si="12"/>
+        <v>1013</v>
+      </c>
+      <c r="N32" s="41"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="40">
+        <v>60273</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="46">
+        <f t="shared" si="10"/>
+        <v>60273</v>
+      </c>
+      <c r="F33" s="49">
+        <f>F30</f>
+        <v>600</v>
+      </c>
+      <c r="G33" s="50">
+        <f>F33*4</f>
+        <v>2400</v>
+      </c>
+      <c r="H33" s="48"/>
+      <c r="I33" s="28">
+        <f t="shared" si="11"/>
+        <v>2400</v>
+      </c>
+      <c r="J33" s="28"/>
+      <c r="K33" s="27">
+        <f t="shared" si="12"/>
+        <v>57873</v>
+      </c>
+      <c r="N33" s="41"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="40">
+        <v>19924</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="46">
+        <f t="shared" si="10"/>
+        <v>19924</v>
+      </c>
+      <c r="F34" s="49">
+        <f>F29</f>
+        <v>8952</v>
+      </c>
+      <c r="G34" s="50">
+        <f>F34*2</f>
+        <v>17904</v>
+      </c>
+      <c r="H34" s="51"/>
+      <c r="I34" s="28">
+        <f t="shared" si="11"/>
+        <v>17904</v>
+      </c>
+      <c r="J34" s="28"/>
+      <c r="K34" s="27">
+        <f t="shared" si="12"/>
+        <v>2020</v>
+      </c>
+      <c r="N34" s="41"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="40">
+        <v>94702</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="46">
+        <f t="shared" si="10"/>
+        <v>94702</v>
+      </c>
+      <c r="F35" s="49">
+        <f>F29</f>
+        <v>8952</v>
+      </c>
+      <c r="G35" s="50">
+        <f>F35*2</f>
+        <v>17904</v>
+      </c>
+      <c r="H35" s="51"/>
+      <c r="I35" s="28">
+        <f t="shared" si="11"/>
+        <v>17904</v>
+      </c>
+      <c r="J35" s="28"/>
+      <c r="K35" s="27">
+        <f t="shared" si="12"/>
+        <v>76798</v>
+      </c>
+      <c r="N35" s="41"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A36" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="53">
+        <v>13240</v>
+      </c>
+      <c r="C36" s="54">
+        <v>52000</v>
+      </c>
+      <c r="D36" s="55"/>
+      <c r="E36" s="56">
+        <f t="shared" si="10"/>
+        <v>65240</v>
+      </c>
+      <c r="F36" s="57">
+        <f>F29</f>
+        <v>8952</v>
+      </c>
+      <c r="G36" s="58">
+        <f>F36*2</f>
+        <v>17904</v>
+      </c>
+      <c r="H36" s="59"/>
+      <c r="I36" s="60">
+        <f t="shared" si="11"/>
+        <v>17904</v>
+      </c>
+      <c r="J36" s="60"/>
+      <c r="K36" s="66">
+        <f>E36-I36-J36</f>
+        <v>47336</v>
+      </c>
+      <c r="N36" s="41"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="B37" s="41"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="F38" s="61">
+        <f>F4+F5+F6+F7+F8+F10+F11+F12+F13+F29+F30</f>
+        <v>118820</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="F39" s="41"/>
+      <c r="H39" s="61"/>
+      <c r="J39" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.27" right="0.34" top="0.28000000000000003" bottom="0.21" header="0.23" footer="0.16"/>
+  <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/PACKING MATEREILS STATEMENT-2021-22.xlsx
+++ b/PACKING MATEREILS STATEMENT-2021-22.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021-22" sheetId="79" r:id="rId1"/>
@@ -12,9 +12,10 @@
     <sheet name="June 2021" sheetId="81" r:id="rId3"/>
     <sheet name="july" sheetId="82" r:id="rId4"/>
     <sheet name="AUGUST" sheetId="83" r:id="rId5"/>
+    <sheet name="september" sheetId="84" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="125725"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="47">
   <si>
     <t>Particulars</t>
   </si>
@@ -167,6 +168,9 @@
   </si>
   <si>
     <t xml:space="preserve">PACKING MATERIALS STATEMENT AS ON THE MONTH OF AUGUST 2021   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PACKING MATERIALS STATEMENT AS ON THE MONTH OF SEPTEMBER 2021   </t>
   </si>
 </sst>
 </file>
@@ -430,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -613,6 +617,11 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,8 +647,8 @@
       <sheetName val="May 2021"/>
       <sheetName val="June 2021"/>
       <sheetName val="July 2020"/>
-      <sheetName val="AUGUST 2021 "/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="August 2021"/>
+      <sheetName val="September 2021"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -827,7 +836,43 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5">
+        <row r="30">
+          <cell r="B30">
+            <v>1248</v>
+          </cell>
+          <cell r="C30">
+            <v>2184</v>
+          </cell>
+          <cell r="D30">
+            <v>16380</v>
+          </cell>
+          <cell r="E30">
+            <v>0</v>
+          </cell>
+          <cell r="F30">
+            <v>660</v>
+          </cell>
+          <cell r="G30">
+            <v>616</v>
+          </cell>
+          <cell r="H30">
+            <v>4608</v>
+          </cell>
+          <cell r="I30">
+            <v>2808</v>
+          </cell>
+          <cell r="J30">
+            <v>23736</v>
+          </cell>
+          <cell r="K30">
+            <v>2148</v>
+          </cell>
+          <cell r="L30">
+            <v>3852</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5639,8 +5684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5738,7 +5783,7 @@
         <v>4914.49</v>
       </c>
       <c r="F4" s="29">
-        <f>'[1]AUGUST 2021 '!$J$30</f>
+        <f>'[1]August 2021'!$J$30</f>
         <v>47040</v>
       </c>
       <c r="G4" s="29">
@@ -5754,6 +5799,9 @@
       <c r="K4" s="29">
         <f>E4-I4-J4</f>
         <v>3785.5299999999997</v>
+      </c>
+      <c r="M4" s="13">
+        <v>3785.5</v>
       </c>
       <c r="N4" s="41"/>
     </row>
@@ -5771,7 +5819,7 @@
         <v>1195.4100000000001</v>
       </c>
       <c r="F5" s="29">
-        <f>'[1]AUGUST 2021 '!$C$30</f>
+        <f>'[1]August 2021'!$C$30</f>
         <v>7728</v>
       </c>
       <c r="G5" s="29">
@@ -5787,6 +5835,9 @@
       <c r="K5" s="28">
         <f>E5-I5-J5</f>
         <v>1009.9380000000001</v>
+      </c>
+      <c r="M5" s="13">
+        <v>1009.94</v>
       </c>
       <c r="N5" s="41"/>
     </row>
@@ -5804,7 +5855,7 @@
         <v>985.24</v>
       </c>
       <c r="F6" s="29">
-        <f>'[1]AUGUST 2021 '!$G$30</f>
+        <f>'[1]August 2021'!$G$30</f>
         <v>330</v>
       </c>
       <c r="G6" s="29">
@@ -5819,6 +5870,9 @@
       <c r="J6" s="28"/>
       <c r="K6" s="28">
         <f>E6-I6-J6</f>
+        <v>949.6</v>
+      </c>
+      <c r="M6" s="13">
         <v>949.6</v>
       </c>
       <c r="N6" s="41"/>
@@ -5837,7 +5891,7 @@
         <v>927.45</v>
       </c>
       <c r="F7" s="29">
-        <f>'[1]AUGUST 2021 '!$F$30</f>
+        <f>'[1]August 2021'!$F$30</f>
         <v>2222</v>
       </c>
       <c r="G7" s="29">
@@ -5853,6 +5907,9 @@
       <c r="K7" s="28">
         <f>E7-I7-J7</f>
         <v>760.80000000000007</v>
+      </c>
+      <c r="M7" s="13">
+        <v>760.8</v>
       </c>
       <c r="N7" s="41"/>
     </row>
@@ -5870,7 +5927,7 @@
         <v>630.4</v>
       </c>
       <c r="F8" s="29">
-        <f>'[1]AUGUST 2021 '!$E$30</f>
+        <f>'[1]August 2021'!$E$30</f>
         <v>696</v>
       </c>
       <c r="G8" s="29">
@@ -5885,6 +5942,9 @@
       <c r="J8" s="28"/>
       <c r="K8" s="28">
         <f t="shared" ref="K8" si="3">E8-I8-J8</f>
+        <v>606.04</v>
+      </c>
+      <c r="M8" s="13">
         <v>606.04</v>
       </c>
       <c r="N8" s="41"/>
@@ -5917,7 +5977,7 @@
         <v>73328</v>
       </c>
       <c r="F10" s="35">
-        <f>'[1]AUGUST 2021 '!$H$30</f>
+        <f>'[1]August 2021'!$H$30</f>
         <v>6960</v>
       </c>
       <c r="G10" s="35">
@@ -5932,6 +5992,9 @@
       <c r="J10" s="28"/>
       <c r="K10" s="63">
         <f>E10-I10-J10</f>
+        <v>66368</v>
+      </c>
+      <c r="M10" s="13">
         <v>66368</v>
       </c>
       <c r="N10" s="41"/>
@@ -5950,7 +6013,7 @@
         <v>50805</v>
       </c>
       <c r="F11" s="35">
-        <f>'[1]AUGUST 2021 '!$I$30</f>
+        <f>'[1]August 2021'!$I$30</f>
         <v>3624</v>
       </c>
       <c r="G11" s="35">
@@ -5965,6 +6028,9 @@
       <c r="J11" s="28"/>
       <c r="K11" s="63">
         <f>E11-I11-J11</f>
+        <v>43557</v>
+      </c>
+      <c r="M11" s="13">
         <v>43557</v>
       </c>
       <c r="N11" s="41"/>
@@ -5983,7 +6049,7 @@
         <v>6000</v>
       </c>
       <c r="F12" s="35">
-        <f>'[1]AUGUST 2021 '!$B$30</f>
+        <f>'[1]August 2021'!$B$30</f>
         <v>768</v>
       </c>
       <c r="G12" s="35">
@@ -6000,6 +6066,9 @@
         <f>E12-I12-J12</f>
         <v>5232</v>
       </c>
+      <c r="M12" s="13">
+        <v>5232</v>
+      </c>
       <c r="N12" s="41"/>
     </row>
     <row r="13" spans="1:14">
@@ -6019,7 +6088,7 @@
         <v>7882</v>
       </c>
       <c r="F13" s="35">
-        <f>'[1]AUGUST 2021 '!$D$30</f>
+        <f>'[1]August 2021'!$D$30</f>
         <v>39900</v>
       </c>
       <c r="G13" s="35">
@@ -6037,6 +6106,9 @@
         <v>-98</v>
       </c>
       <c r="L13" s="62"/>
+      <c r="M13" s="13">
+        <v>-98</v>
+      </c>
       <c r="N13" s="41"/>
     </row>
     <row r="14" spans="1:14" ht="16.5" customHeight="1">
@@ -6084,6 +6156,9 @@
         <f>E15-I15-J15</f>
         <v>74784</v>
       </c>
+      <c r="M15" s="13">
+        <v>74784</v>
+      </c>
       <c r="N15" s="41"/>
     </row>
     <row r="16" spans="1:14">
@@ -6117,6 +6192,9 @@
       <c r="J16" s="28"/>
       <c r="K16" s="63">
         <f>E16-I16-J16</f>
+        <v>131092</v>
+      </c>
+      <c r="M16" s="13">
         <v>131092</v>
       </c>
       <c r="N16" s="41"/>
@@ -6152,6 +6230,9 @@
         <f>E17-I17-J17</f>
         <v>53850</v>
       </c>
+      <c r="M17" s="13">
+        <v>53850</v>
+      </c>
       <c r="N17" s="41"/>
     </row>
     <row r="18" spans="1:14">
@@ -6185,6 +6266,9 @@
         <f>E18-I18-J18</f>
         <v>179014</v>
       </c>
+      <c r="M18" s="13">
+        <v>179014</v>
+      </c>
       <c r="N18" s="41"/>
     </row>
     <row r="19" spans="1:14">
@@ -6216,6 +6300,9 @@
       <c r="J19" s="28"/>
       <c r="K19" s="63">
         <f>E19-I19-J19</f>
+        <v>438</v>
+      </c>
+      <c r="M19" s="13">
         <v>438</v>
       </c>
       <c r="N19" s="41"/>
@@ -6265,6 +6352,9 @@
         <f t="shared" ref="K21:K27" si="9">E21-I21-J21</f>
         <v>685</v>
       </c>
+      <c r="M21" s="13">
+        <v>685</v>
+      </c>
       <c r="N21" s="41"/>
     </row>
     <row r="22" spans="1:14">
@@ -6298,6 +6388,9 @@
         <f t="shared" si="9"/>
         <v>1326</v>
       </c>
+      <c r="M22" s="13">
+        <v>1326</v>
+      </c>
       <c r="N22" s="41"/>
     </row>
     <row r="23" spans="1:14">
@@ -6329,6 +6422,9 @@
         <v>1374</v>
       </c>
       <c r="L23" s="41"/>
+      <c r="M23" s="13">
+        <v>1374</v>
+      </c>
       <c r="N23" s="41"/>
     </row>
     <row r="24" spans="1:14">
@@ -6362,6 +6458,9 @@
         <f t="shared" si="9"/>
         <v>823</v>
       </c>
+      <c r="M24" s="13">
+        <v>832</v>
+      </c>
       <c r="N24" s="41"/>
     </row>
     <row r="25" spans="1:14">
@@ -6395,7 +6494,9 @@
         <f t="shared" si="9"/>
         <v>3426</v>
       </c>
-      <c r="M25" s="62"/>
+      <c r="M25" s="62">
+        <v>3426</v>
+      </c>
       <c r="N25" s="41"/>
     </row>
     <row r="26" spans="1:14">
@@ -6429,6 +6530,9 @@
         <f t="shared" si="9"/>
         <v>200</v>
       </c>
+      <c r="M26" s="13">
+        <v>200</v>
+      </c>
       <c r="N26" s="41"/>
     </row>
     <row r="27" spans="1:14">
@@ -6460,6 +6564,9 @@
       <c r="J27" s="28"/>
       <c r="K27" s="63">
         <f t="shared" si="9"/>
+        <v>547</v>
+      </c>
+      <c r="M27" s="13">
         <v>547</v>
       </c>
       <c r="N27" s="41"/>
@@ -6494,7 +6601,7 @@
         <v>40284</v>
       </c>
       <c r="F29" s="44">
-        <f>'[1]AUGUST 2021 '!$K$30</f>
+        <f>'[1]August 2021'!$K$30</f>
         <v>8952</v>
       </c>
       <c r="G29" s="44">
@@ -6509,6 +6616,9 @@
       <c r="J29" s="28"/>
       <c r="K29" s="64">
         <f t="shared" ref="K29:K35" si="12">E29-I29-J29</f>
+        <v>22380</v>
+      </c>
+      <c r="M29" s="13">
         <v>22380</v>
       </c>
       <c r="N29" s="41"/>
@@ -6527,7 +6637,7 @@
         <v>19196</v>
       </c>
       <c r="F30" s="47">
-        <f>'[1]AUGUST 2021 '!$L$30</f>
+        <f>'[1]August 2021'!$L$30</f>
         <v>600</v>
       </c>
       <c r="G30" s="44">
@@ -6544,6 +6654,9 @@
         <f>E30-I30-J30</f>
         <v>16796</v>
       </c>
+      <c r="M30" s="13">
+        <v>16796</v>
+      </c>
       <c r="N30" s="41"/>
     </row>
     <row r="31" spans="1:14">
@@ -6578,6 +6691,9 @@
       <c r="J31" s="28"/>
       <c r="K31" s="27">
         <f t="shared" si="12"/>
+        <v>5123</v>
+      </c>
+      <c r="M31" s="13">
         <v>5123</v>
       </c>
       <c r="N31" s="41"/>
@@ -6613,6 +6729,9 @@
         <f t="shared" si="12"/>
         <v>1013</v>
       </c>
+      <c r="M32" s="13">
+        <v>1013</v>
+      </c>
       <c r="N32" s="41"/>
     </row>
     <row r="33" spans="1:14">
@@ -6646,6 +6765,9 @@
         <f t="shared" si="12"/>
         <v>57873</v>
       </c>
+      <c r="M33" s="13">
+        <v>57873</v>
+      </c>
       <c r="N33" s="41"/>
     </row>
     <row r="34" spans="1:14">
@@ -6679,6 +6801,9 @@
         <f t="shared" si="12"/>
         <v>2020</v>
       </c>
+      <c r="M34" s="13">
+        <v>2020</v>
+      </c>
       <c r="N34" s="41"/>
     </row>
     <row r="35" spans="1:14">
@@ -6712,6 +6837,9 @@
         <f t="shared" si="12"/>
         <v>76798</v>
       </c>
+      <c r="M35" s="13">
+        <v>76798</v>
+      </c>
       <c r="N35" s="41"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" thickBot="1">
@@ -6747,6 +6875,9 @@
         <f>E36-I36-J36</f>
         <v>47336</v>
       </c>
+      <c r="M36" s="13">
+        <v>47336</v>
+      </c>
       <c r="N36" s="41"/>
     </row>
     <row r="37" spans="1:14">
@@ -6756,6 +6887,1140 @@
       <c r="F38" s="61">
         <f>F4+F5+F6+F7+F8+F10+F11+F12+F13+F29+F30</f>
         <v>118820</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="F39" s="41"/>
+      <c r="H39" s="61"/>
+      <c r="J39" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.27" right="0.34" top="0.28000000000000003" bottom="0.21" header="0.23" footer="0.16"/>
+  <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="13" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="13"/>
+    <col min="10" max="10" width="6.28515625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="13" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A1" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+    </row>
+    <row r="2" spans="1:14" s="22" customFormat="1" ht="23.25" thickBot="1">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="15"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="65"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="70">
+        <v>3785.5</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="28">
+        <f t="shared" ref="E4:E7" si="0">B4+C4+D4</f>
+        <v>3785.5</v>
+      </c>
+      <c r="F4" s="29">
+        <f>'[1]September 2021'!$J$30</f>
+        <v>23736</v>
+      </c>
+      <c r="G4" s="29">
+        <f>F4*0.024</f>
+        <v>569.66399999999999</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28">
+        <f>G4+H4</f>
+        <v>569.66399999999999</v>
+      </c>
+      <c r="J4" s="28"/>
+      <c r="K4" s="29">
+        <f>E4-I4-J4</f>
+        <v>3215.8360000000002</v>
+      </c>
+      <c r="N4" s="41"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="70">
+        <v>1009.94</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="28">
+        <f t="shared" si="0"/>
+        <v>1009.94</v>
+      </c>
+      <c r="F5" s="29">
+        <f>'[1]September 2021'!$C$30</f>
+        <v>2184</v>
+      </c>
+      <c r="G5" s="29">
+        <f>F5*0.024</f>
+        <v>52.416000000000004</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28">
+        <f t="shared" ref="I5:I6" si="1">G5+H5</f>
+        <v>52.416000000000004</v>
+      </c>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28">
+        <f>E5-I5-J5</f>
+        <v>957.524</v>
+      </c>
+      <c r="N5" s="41"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="70">
+        <v>949.6</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="28">
+        <f t="shared" si="0"/>
+        <v>949.6</v>
+      </c>
+      <c r="F6" s="29">
+        <f>'[1]September 2021'!$G$30</f>
+        <v>616</v>
+      </c>
+      <c r="G6" s="29">
+        <f>F6*0.108</f>
+        <v>66.528000000000006</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28">
+        <f t="shared" si="1"/>
+        <v>66.528000000000006</v>
+      </c>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28">
+        <f>E6-I6-J6</f>
+        <v>883.072</v>
+      </c>
+      <c r="N6" s="41"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="70">
+        <v>760.8</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="28">
+        <f t="shared" si="0"/>
+        <v>760.8</v>
+      </c>
+      <c r="F7" s="29">
+        <f>'[1]September 2021'!$F$30</f>
+        <v>660</v>
+      </c>
+      <c r="G7" s="29">
+        <f>F7*0.075</f>
+        <v>49.5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28">
+        <f>G7+H7</f>
+        <v>49.5</v>
+      </c>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28">
+        <f>E7-I7-J7</f>
+        <v>711.3</v>
+      </c>
+      <c r="N7" s="41"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="70">
+        <v>606.04</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="28">
+        <f>B8+C8+D8</f>
+        <v>606.04</v>
+      </c>
+      <c r="F8" s="29">
+        <f>'[1]September 2021'!$E$30</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="29">
+        <f>F8*0.035</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28">
+        <f t="shared" ref="I8" si="2">G8+H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28">
+        <f t="shared" ref="K8" si="3">E8-I8-J8</f>
+        <v>606.04</v>
+      </c>
+      <c r="N8" s="41"/>
+    </row>
+    <row r="9" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="N9" s="41"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="70">
+        <v>66368</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="34">
+        <f>B10+C10+D10</f>
+        <v>66368</v>
+      </c>
+      <c r="F10" s="35">
+        <f>'[1]September 2021'!$H$30</f>
+        <v>4608</v>
+      </c>
+      <c r="G10" s="35">
+        <f>F10*1</f>
+        <v>4608</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="28">
+        <f t="shared" ref="I10:I13" si="4">G10+H10</f>
+        <v>4608</v>
+      </c>
+      <c r="J10" s="28"/>
+      <c r="K10" s="63">
+        <f>E10-I10-J10</f>
+        <v>61760</v>
+      </c>
+      <c r="N10" s="41"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="70">
+        <v>43557</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="34">
+        <f>B11+C11+D11</f>
+        <v>43557</v>
+      </c>
+      <c r="F11" s="35">
+        <f>'[1]September 2021'!$I$30</f>
+        <v>2808</v>
+      </c>
+      <c r="G11" s="35">
+        <f>F11*2</f>
+        <v>5616</v>
+      </c>
+      <c r="H11" s="34"/>
+      <c r="I11" s="28">
+        <f t="shared" si="4"/>
+        <v>5616</v>
+      </c>
+      <c r="J11" s="28"/>
+      <c r="K11" s="63">
+        <f>E11-I11-J11</f>
+        <v>37941</v>
+      </c>
+      <c r="N11" s="41"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="70">
+        <v>5232</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="34">
+        <f>B12+C12+D12</f>
+        <v>5232</v>
+      </c>
+      <c r="F12" s="35">
+        <f>'[1]September 2021'!$B$30</f>
+        <v>1248</v>
+      </c>
+      <c r="G12" s="35">
+        <f>F12*1</f>
+        <v>1248</v>
+      </c>
+      <c r="H12" s="34"/>
+      <c r="I12" s="28">
+        <f t="shared" si="4"/>
+        <v>1248</v>
+      </c>
+      <c r="J12" s="28"/>
+      <c r="K12" s="63">
+        <f>E12-I12-J12</f>
+        <v>3984</v>
+      </c>
+      <c r="N12" s="41"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="70">
+        <v>-98</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3050</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="34">
+        <f>B13+C13+D13</f>
+        <v>2952</v>
+      </c>
+      <c r="F13" s="35">
+        <f>'[1]September 2021'!$D$30</f>
+        <v>16380</v>
+      </c>
+      <c r="G13" s="35">
+        <f>F13/5</f>
+        <v>3276</v>
+      </c>
+      <c r="H13" s="34"/>
+      <c r="I13" s="28">
+        <f t="shared" si="4"/>
+        <v>3276</v>
+      </c>
+      <c r="J13" s="28"/>
+      <c r="K13" s="63">
+        <f>E13-I13-J13</f>
+        <v>-324</v>
+      </c>
+      <c r="L13" s="62"/>
+      <c r="N13" s="41"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="N14" s="41"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="68">
+        <v>74784</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="34">
+        <f t="shared" ref="E15:E19" si="5">B15+C15+D15</f>
+        <v>74784</v>
+      </c>
+      <c r="F15" s="35">
+        <f>F13</f>
+        <v>16380</v>
+      </c>
+      <c r="G15" s="35">
+        <f>F15/5</f>
+        <v>3276</v>
+      </c>
+      <c r="H15" s="34"/>
+      <c r="I15" s="28">
+        <f t="shared" ref="I15:I19" si="6">G15+H15</f>
+        <v>3276</v>
+      </c>
+      <c r="J15" s="28"/>
+      <c r="K15" s="63">
+        <f>E15-I15-J15</f>
+        <v>71508</v>
+      </c>
+      <c r="N15" s="41"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="70">
+        <v>131092</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="34">
+        <f t="shared" si="5"/>
+        <v>131092</v>
+      </c>
+      <c r="F16" s="35">
+        <f>F4+F5</f>
+        <v>25920</v>
+      </c>
+      <c r="G16" s="35">
+        <f>F16/2</f>
+        <v>12960</v>
+      </c>
+      <c r="H16" s="34"/>
+      <c r="I16" s="28">
+        <f t="shared" si="6"/>
+        <v>12960</v>
+      </c>
+      <c r="J16" s="28"/>
+      <c r="K16" s="63">
+        <f>E16-I16-J16</f>
+        <v>118132</v>
+      </c>
+      <c r="N16" s="41"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="70">
+        <v>53850</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="34">
+        <f t="shared" si="5"/>
+        <v>53850</v>
+      </c>
+      <c r="F17" s="35">
+        <f>F6</f>
+        <v>616</v>
+      </c>
+      <c r="G17" s="35">
+        <f>(F17/22)*50</f>
+        <v>1400</v>
+      </c>
+      <c r="H17" s="34"/>
+      <c r="I17" s="28">
+        <f t="shared" si="6"/>
+        <v>1400</v>
+      </c>
+      <c r="J17" s="28"/>
+      <c r="K17" s="63">
+        <f>E17-I17-J17</f>
+        <v>52450</v>
+      </c>
+      <c r="N17" s="41"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="70">
+        <v>179014</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="34">
+        <f t="shared" si="5"/>
+        <v>179014</v>
+      </c>
+      <c r="F18" s="39">
+        <f>F7</f>
+        <v>660</v>
+      </c>
+      <c r="G18" s="35">
+        <f>(F18/22)*25</f>
+        <v>750</v>
+      </c>
+      <c r="H18" s="34"/>
+      <c r="I18" s="28">
+        <f t="shared" si="6"/>
+        <v>750</v>
+      </c>
+      <c r="J18" s="28"/>
+      <c r="K18" s="63">
+        <f>E18-I18-J18</f>
+        <v>178264</v>
+      </c>
+      <c r="N18" s="41"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="70">
+        <v>438</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="34">
+        <f t="shared" si="5"/>
+        <v>438</v>
+      </c>
+      <c r="F19" s="39">
+        <f>F8</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="35">
+        <f>F19/2</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="34"/>
+      <c r="I19" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="28"/>
+      <c r="K19" s="63">
+        <f>E19-I19-J19</f>
+        <v>438</v>
+      </c>
+      <c r="N19" s="41"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1">
+      <c r="A20" s="9"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="N20" s="41"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="70">
+        <v>685</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="34">
+        <f t="shared" ref="E21:E27" si="7">B21+C21+D21</f>
+        <v>685</v>
+      </c>
+      <c r="F21" s="35">
+        <f>F10</f>
+        <v>4608</v>
+      </c>
+      <c r="G21" s="35">
+        <f>F21/24</f>
+        <v>192</v>
+      </c>
+      <c r="H21" s="34"/>
+      <c r="I21" s="28">
+        <f t="shared" ref="I21:I26" si="8">G21+H21</f>
+        <v>192</v>
+      </c>
+      <c r="J21" s="28"/>
+      <c r="K21" s="63">
+        <f t="shared" ref="K21:K27" si="9">E21-I21-J21</f>
+        <v>493</v>
+      </c>
+      <c r="N21" s="41"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="70">
+        <v>1326</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="34">
+        <f t="shared" si="7"/>
+        <v>1326</v>
+      </c>
+      <c r="F22" s="35">
+        <f>F12</f>
+        <v>1248</v>
+      </c>
+      <c r="G22" s="35">
+        <f>F22/24</f>
+        <v>52</v>
+      </c>
+      <c r="H22" s="34"/>
+      <c r="I22" s="28">
+        <f t="shared" si="8"/>
+        <v>52</v>
+      </c>
+      <c r="J22" s="28"/>
+      <c r="K22" s="63">
+        <f t="shared" si="9"/>
+        <v>1274</v>
+      </c>
+      <c r="N22" s="41"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="70">
+        <v>1374</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="34">
+        <f t="shared" si="7"/>
+        <v>1374</v>
+      </c>
+      <c r="F23" s="39"/>
+      <c r="G23" s="35">
+        <f>(F13/30)+(F7/22)+(F6/22)</f>
+        <v>604</v>
+      </c>
+      <c r="H23" s="34"/>
+      <c r="I23" s="28">
+        <f t="shared" si="8"/>
+        <v>604</v>
+      </c>
+      <c r="J23" s="28"/>
+      <c r="K23" s="33">
+        <f t="shared" si="9"/>
+        <v>770</v>
+      </c>
+      <c r="L23" s="41"/>
+      <c r="N23" s="41"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="70">
+        <v>832</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="34">
+        <f t="shared" si="7"/>
+        <v>832</v>
+      </c>
+      <c r="F24" s="39">
+        <f>F8</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="35">
+        <f>(F19/24)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="34"/>
+      <c r="I24" s="28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="28"/>
+      <c r="K24" s="63">
+        <f t="shared" si="9"/>
+        <v>832</v>
+      </c>
+      <c r="N24" s="41"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="71">
+        <v>3426</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="34">
+        <f t="shared" si="7"/>
+        <v>3426</v>
+      </c>
+      <c r="F25" s="35">
+        <f>F4</f>
+        <v>23736</v>
+      </c>
+      <c r="G25" s="35">
+        <f>F25/24</f>
+        <v>989</v>
+      </c>
+      <c r="H25" s="34"/>
+      <c r="I25" s="28">
+        <f t="shared" si="8"/>
+        <v>989</v>
+      </c>
+      <c r="J25" s="28"/>
+      <c r="K25" s="63">
+        <f t="shared" si="9"/>
+        <v>2437</v>
+      </c>
+      <c r="M25" s="62"/>
+      <c r="N25" s="41"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="70">
+        <v>200</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="34">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+      <c r="F26" s="35">
+        <f>F5</f>
+        <v>2184</v>
+      </c>
+      <c r="G26" s="35">
+        <f>F26/24</f>
+        <v>91</v>
+      </c>
+      <c r="H26" s="34"/>
+      <c r="I26" s="28">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="J26" s="28"/>
+      <c r="K26" s="63">
+        <f t="shared" si="9"/>
+        <v>109</v>
+      </c>
+      <c r="N26" s="41"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="70">
+        <v>547</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="34">
+        <f t="shared" si="7"/>
+        <v>547</v>
+      </c>
+      <c r="F27" s="35">
+        <f>F11</f>
+        <v>2808</v>
+      </c>
+      <c r="G27" s="35">
+        <f>F27/24</f>
+        <v>117</v>
+      </c>
+      <c r="H27" s="34"/>
+      <c r="I27" s="28">
+        <f>G27+H27</f>
+        <v>117</v>
+      </c>
+      <c r="J27" s="28"/>
+      <c r="K27" s="63">
+        <f t="shared" si="9"/>
+        <v>430</v>
+      </c>
+      <c r="N27" s="41"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="11"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="N28" s="41"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="70">
+        <v>22380</v>
+      </c>
+      <c r="C29" s="2">
+        <v>57500</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="34">
+        <f t="shared" ref="E29:E36" si="10">B29+C29+D29</f>
+        <v>79880</v>
+      </c>
+      <c r="F29" s="44">
+        <f>'[1]September 2021'!$K$30</f>
+        <v>2148</v>
+      </c>
+      <c r="G29" s="44">
+        <f>F29*2</f>
+        <v>4296</v>
+      </c>
+      <c r="H29" s="45"/>
+      <c r="I29" s="28">
+        <f t="shared" ref="I29:I36" si="11">G29+H29</f>
+        <v>4296</v>
+      </c>
+      <c r="J29" s="28"/>
+      <c r="K29" s="64">
+        <f t="shared" ref="K29:K35" si="12">E29-I29-J29</f>
+        <v>75584</v>
+      </c>
+      <c r="N29" s="41"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="70">
+        <v>16796</v>
+      </c>
+      <c r="C30" s="2">
+        <v>45500</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="46">
+        <f t="shared" si="10"/>
+        <v>62296</v>
+      </c>
+      <c r="F30" s="47">
+        <f>'[1]September 2021'!$L$30</f>
+        <v>3852</v>
+      </c>
+      <c r="G30" s="44">
+        <f>F30*4</f>
+        <v>15408</v>
+      </c>
+      <c r="H30" s="45"/>
+      <c r="I30" s="28">
+        <f t="shared" si="11"/>
+        <v>15408</v>
+      </c>
+      <c r="J30" s="28"/>
+      <c r="K30" s="64">
+        <f>E30-I30-J30</f>
+        <v>46888</v>
+      </c>
+      <c r="N30" s="41"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="70">
+        <v>5123</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="46">
+        <f t="shared" si="10"/>
+        <v>5123</v>
+      </c>
+      <c r="F31" s="49">
+        <f>F29</f>
+        <v>2148</v>
+      </c>
+      <c r="G31" s="44">
+        <f>F31/12</f>
+        <v>179</v>
+      </c>
+      <c r="H31" s="45"/>
+      <c r="I31" s="28">
+        <f t="shared" si="11"/>
+        <v>179</v>
+      </c>
+      <c r="J31" s="28"/>
+      <c r="K31" s="27">
+        <f t="shared" si="12"/>
+        <v>4944</v>
+      </c>
+      <c r="N31" s="41"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="70">
+        <v>1013</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="46">
+        <f t="shared" si="10"/>
+        <v>1013</v>
+      </c>
+      <c r="F32" s="49">
+        <f>F30</f>
+        <v>3852</v>
+      </c>
+      <c r="G32" s="50">
+        <f>F32/12</f>
+        <v>321</v>
+      </c>
+      <c r="H32" s="51"/>
+      <c r="I32" s="28">
+        <f t="shared" si="11"/>
+        <v>321</v>
+      </c>
+      <c r="J32" s="28"/>
+      <c r="K32" s="27">
+        <f t="shared" si="12"/>
+        <v>692</v>
+      </c>
+      <c r="N32" s="41"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="70">
+        <v>57873</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="46">
+        <f t="shared" si="10"/>
+        <v>57873</v>
+      </c>
+      <c r="F33" s="49">
+        <f>F30</f>
+        <v>3852</v>
+      </c>
+      <c r="G33" s="50">
+        <f>F33*4</f>
+        <v>15408</v>
+      </c>
+      <c r="H33" s="48"/>
+      <c r="I33" s="28">
+        <f t="shared" si="11"/>
+        <v>15408</v>
+      </c>
+      <c r="J33" s="28"/>
+      <c r="K33" s="27">
+        <f t="shared" si="12"/>
+        <v>42465</v>
+      </c>
+      <c r="N33" s="41"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="70">
+        <v>2020</v>
+      </c>
+      <c r="C34" s="4">
+        <v>20000</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="46">
+        <f t="shared" si="10"/>
+        <v>22020</v>
+      </c>
+      <c r="F34" s="49">
+        <f>F29</f>
+        <v>2148</v>
+      </c>
+      <c r="G34" s="50">
+        <f>F34*2</f>
+        <v>4296</v>
+      </c>
+      <c r="H34" s="51"/>
+      <c r="I34" s="28">
+        <f t="shared" si="11"/>
+        <v>4296</v>
+      </c>
+      <c r="J34" s="28"/>
+      <c r="K34" s="27">
+        <f t="shared" si="12"/>
+        <v>17724</v>
+      </c>
+      <c r="N34" s="41"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="70">
+        <v>76798</v>
+      </c>
+      <c r="C35" s="4">
+        <f>39000+39000</f>
+        <v>78000</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="46">
+        <f t="shared" si="10"/>
+        <v>154798</v>
+      </c>
+      <c r="F35" s="49">
+        <f>F29</f>
+        <v>2148</v>
+      </c>
+      <c r="G35" s="50">
+        <f>F35*2</f>
+        <v>4296</v>
+      </c>
+      <c r="H35" s="51"/>
+      <c r="I35" s="28">
+        <f t="shared" si="11"/>
+        <v>4296</v>
+      </c>
+      <c r="J35" s="28"/>
+      <c r="K35" s="27">
+        <f t="shared" si="12"/>
+        <v>150502</v>
+      </c>
+      <c r="N35" s="41"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A36" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="72">
+        <v>47336</v>
+      </c>
+      <c r="C36" s="54"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="56">
+        <f t="shared" si="10"/>
+        <v>47336</v>
+      </c>
+      <c r="F36" s="57">
+        <f>F29</f>
+        <v>2148</v>
+      </c>
+      <c r="G36" s="58">
+        <f>F36*2</f>
+        <v>4296</v>
+      </c>
+      <c r="H36" s="59"/>
+      <c r="I36" s="60">
+        <f t="shared" si="11"/>
+        <v>4296</v>
+      </c>
+      <c r="J36" s="60"/>
+      <c r="K36" s="66">
+        <f>E36-I36-J36</f>
+        <v>43040</v>
+      </c>
+      <c r="N36" s="41"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="B37" s="41"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="F38" s="61">
+        <f>F4+F5+F6+F7+F8+F10+F11+F12+F13+F29+F30</f>
+        <v>58240</v>
       </c>
     </row>
     <row r="39" spans="1:14">

--- a/PACKING MATEREILS STATEMENT-2021-22.xlsx
+++ b/PACKING MATEREILS STATEMENT-2021-22.xlsx
@@ -4,15 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021-22" sheetId="79" r:id="rId1"/>
     <sheet name="May 2021" sheetId="80" r:id="rId2"/>
     <sheet name="June 2021" sheetId="81" r:id="rId3"/>
+    <sheet name="july" sheetId="82" r:id="rId4"/>
+    <sheet name="AUGUST" sheetId="83" r:id="rId5"/>
+    <sheet name="september" sheetId="84" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="125725"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="47">
   <si>
     <t>Particulars</t>
   </si>
@@ -159,6 +162,15 @@
   </si>
   <si>
     <t>PACKING MATERIALS STATEMENT AS ON THE MONTH OF JUNE 2021</t>
+  </si>
+  <si>
+    <t>PACKING MATERIALS STATEMENT AS ON THE MONTH OF JULY 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PACKING MATERIALS STATEMENT AS ON THE MONTH OF AUGUST 2021   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PACKING MATERIALS STATEMENT AS ON THE MONTH OF SEPTEMBER 2021   </t>
   </si>
 </sst>
 </file>
@@ -422,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -602,6 +614,11 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -629,6 +646,9 @@
       <sheetName val="April 2021-22"/>
       <sheetName val="May 2021"/>
       <sheetName val="June 2021"/>
+      <sheetName val="July 2020"/>
+      <sheetName val="August 2021"/>
+      <sheetName val="September 2021"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -739,6 +759,117 @@
           </cell>
           <cell r="L30">
             <v>612</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="30">
+          <cell r="B30">
+            <v>1008</v>
+          </cell>
+          <cell r="C30">
+            <v>3936</v>
+          </cell>
+          <cell r="D30">
+            <v>41880</v>
+          </cell>
+          <cell r="E30">
+            <v>744</v>
+          </cell>
+          <cell r="F30">
+            <v>2156</v>
+          </cell>
+          <cell r="G30">
+            <v>308</v>
+          </cell>
+          <cell r="H30">
+            <v>9480</v>
+          </cell>
+          <cell r="I30">
+            <v>6696</v>
+          </cell>
+          <cell r="J30">
+            <v>52176</v>
+          </cell>
+          <cell r="K30">
+            <v>10596</v>
+          </cell>
+          <cell r="L30">
+            <v>12</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="30">
+          <cell r="B30">
+            <v>768</v>
+          </cell>
+          <cell r="C30">
+            <v>7728</v>
+          </cell>
+          <cell r="D30">
+            <v>39900</v>
+          </cell>
+          <cell r="E30">
+            <v>696</v>
+          </cell>
+          <cell r="F30">
+            <v>2222</v>
+          </cell>
+          <cell r="G30">
+            <v>330</v>
+          </cell>
+          <cell r="H30">
+            <v>6960</v>
+          </cell>
+          <cell r="I30">
+            <v>3624</v>
+          </cell>
+          <cell r="J30">
+            <v>47040</v>
+          </cell>
+          <cell r="K30">
+            <v>8952</v>
+          </cell>
+          <cell r="L30">
+            <v>600</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="30">
+          <cell r="B30">
+            <v>1608</v>
+          </cell>
+          <cell r="C30">
+            <v>2712</v>
+          </cell>
+          <cell r="D30">
+            <v>40200</v>
+          </cell>
+          <cell r="E30">
+            <v>0</v>
+          </cell>
+          <cell r="F30">
+            <v>1342</v>
+          </cell>
+          <cell r="G30">
+            <v>616</v>
+          </cell>
+          <cell r="H30">
+            <v>7944</v>
+          </cell>
+          <cell r="I30">
+            <v>5976</v>
+          </cell>
+          <cell r="J30">
+            <v>50208</v>
+          </cell>
+          <cell r="K30">
+            <v>8184</v>
+          </cell>
+          <cell r="L30">
+            <v>7212</v>
           </cell>
         </row>
       </sheetData>
@@ -1034,7 +1165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M4" sqref="M4:M36"/>
     </sheetView>
   </sheetViews>
@@ -1055,19 +1186,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
     </row>
     <row r="2" spans="1:12" s="22" customFormat="1" ht="23.25" thickBot="1">
       <c r="A2" s="8" t="s">
@@ -2135,7 +2266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2156,19 +2287,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
     </row>
     <row r="2" spans="1:14" s="22" customFormat="1" ht="23.25" thickBot="1">
       <c r="A2" s="8" t="s">
@@ -3269,8 +3400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3290,19 +3421,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
     </row>
     <row r="2" spans="1:14" s="22" customFormat="1" ht="23.25" thickBot="1">
       <c r="A2" s="8" t="s">
@@ -3359,14 +3490,11 @@
       <c r="B4" s="26">
         <v>3127.5</v>
       </c>
-      <c r="C4" s="27">
-        <f>3000+325+1920</f>
-        <v>5245</v>
-      </c>
+      <c r="C4" s="27"/>
       <c r="D4" s="3"/>
       <c r="E4" s="28">
         <f t="shared" ref="E4:E7" si="0">B4+C4+D4</f>
-        <v>8372.5</v>
+        <v>3127.5</v>
       </c>
       <c r="F4" s="29">
         <f>'[1]June 2021'!$J$30</f>
@@ -3384,7 +3512,7 @@
       <c r="J4" s="28"/>
       <c r="K4" s="29">
         <f>E4-I4-J4</f>
-        <v>7374.8680000000004</v>
+        <v>2129.8679999999999</v>
       </c>
       <c r="N4" s="41"/>
     </row>
@@ -3396,13 +3524,12 @@
         <v>368.73</v>
       </c>
       <c r="C5" s="27">
-        <f>1027.71+200+304</f>
-        <v>1531.71</v>
+        <v>1027.71</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="28">
         <f t="shared" si="0"/>
-        <v>1900.44</v>
+        <v>1396.44</v>
       </c>
       <c r="F5" s="29">
         <f>'[1]June 2021'!$C$30</f>
@@ -3420,7 +3547,7 @@
       <c r="J5" s="28"/>
       <c r="K5" s="28">
         <f>E5-I5-J5</f>
-        <v>1793.3040000000001</v>
+        <v>1289.3040000000001</v>
       </c>
       <c r="N5" s="41"/>
     </row>
@@ -3465,12 +3592,12 @@
         <v>84.4</v>
       </c>
       <c r="C7" s="27">
-        <v>1136.5</v>
+        <v>1113.6500000000001</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="28">
         <f t="shared" si="0"/>
-        <v>1220.9000000000001</v>
+        <v>1198.0500000000002</v>
       </c>
       <c r="F7" s="29">
         <f>'[1]June 2021'!$F$30</f>
@@ -3488,7 +3615,7 @@
       <c r="J7" s="28"/>
       <c r="K7" s="28">
         <f>E7-I7-J7</f>
-        <v>1112</v>
+        <v>1089.1500000000001</v>
       </c>
       <c r="N7" s="41"/>
     </row>
@@ -3547,13 +3674,12 @@
         <v>28539</v>
       </c>
       <c r="C10" s="2">
-        <f>506+64925+200+908</f>
-        <v>66539</v>
+        <v>64925</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="34">
         <f>B10+C10+D10</f>
-        <v>95078</v>
+        <v>93464</v>
       </c>
       <c r="F10" s="35">
         <f>'[1]June 2021'!$H$30</f>
@@ -3571,7 +3697,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="63">
         <f>E10-I10-J10</f>
-        <v>84422</v>
+        <v>82808</v>
       </c>
       <c r="N10" s="41"/>
     </row>
@@ -3582,14 +3708,11 @@
       <c r="B11" s="33">
         <v>74085</v>
       </c>
-      <c r="C11" s="2">
-        <f>560+200+269</f>
-        <v>1029</v>
-      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="3"/>
       <c r="E11" s="34">
         <f>B11+C11+D11</f>
-        <v>75114</v>
+        <v>74085</v>
       </c>
       <c r="F11" s="35">
         <f>'[1]June 2021'!$I$30</f>
@@ -3607,7 +3730,7 @@
       <c r="J11" s="28"/>
       <c r="K11" s="63">
         <f>E11-I11-J11</f>
-        <v>65226</v>
+        <v>64197</v>
       </c>
       <c r="N11" s="41"/>
     </row>
@@ -3881,11 +4004,13 @@
       <c r="B21" s="40">
         <v>200</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2">
+        <v>1614</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="34">
         <f t="shared" ref="E21:E27" si="7">B21+C21+D21</f>
-        <v>200</v>
+        <v>1814</v>
       </c>
       <c r="F21" s="35">
         <f>F10</f>
@@ -3903,7 +4028,7 @@
       <c r="J21" s="28"/>
       <c r="K21" s="63">
         <f t="shared" ref="K21:K27" si="9">E21-I21-J21</f>
-        <v>-244</v>
+        <v>1370</v>
       </c>
       <c r="N21" s="41"/>
     </row>
@@ -4011,11 +4136,13 @@
       <c r="B25" s="40">
         <v>2547</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2">
+        <v>5245</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="34">
         <f t="shared" si="7"/>
-        <v>2547</v>
+        <v>7792</v>
       </c>
       <c r="F25" s="35">
         <f>F4</f>
@@ -4033,7 +4160,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="63">
         <f t="shared" si="9"/>
-        <v>815</v>
+        <v>6060</v>
       </c>
       <c r="M25" s="62"/>
       <c r="N25" s="41"/>
@@ -4045,11 +4172,13 @@
       <c r="B26" s="40">
         <v>367</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2">
+        <v>504</v>
+      </c>
       <c r="D26" s="3"/>
       <c r="E26" s="34">
         <f t="shared" si="7"/>
-        <v>367</v>
+        <v>871</v>
       </c>
       <c r="F26" s="35">
         <f>F5</f>
@@ -4067,7 +4196,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="63">
         <f t="shared" si="9"/>
-        <v>181</v>
+        <v>685</v>
       </c>
       <c r="N26" s="41"/>
     </row>
@@ -4078,11 +4207,13 @@
       <c r="B27" s="40">
         <v>154</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2">
+        <v>1029</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="E27" s="34">
         <f t="shared" si="7"/>
-        <v>154</v>
+        <v>1183</v>
       </c>
       <c r="F27" s="35">
         <f>F11</f>
@@ -4100,7 +4231,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="63">
         <f t="shared" si="9"/>
-        <v>-52</v>
+        <v>977</v>
       </c>
       <c r="N27" s="41"/>
     </row>
@@ -4411,4 +4542,3503 @@
   <pageMargins left="0.27" right="0.34" top="0.28000000000000003" bottom="0.21" header="0.23" footer="0.16"/>
   <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="13" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="13"/>
+    <col min="10" max="10" width="6.28515625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="13" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A1" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+    </row>
+    <row r="2" spans="1:14" s="22" customFormat="1" ht="23.25" thickBot="1">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="15"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="65"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="26">
+        <v>2129.9</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="28">
+        <f t="shared" ref="E4:E7" si="0">B4+C4+D4</f>
+        <v>2129.9</v>
+      </c>
+      <c r="F4" s="29">
+        <f>'[1]July 2020'!$J$30</f>
+        <v>52176</v>
+      </c>
+      <c r="G4" s="29">
+        <f>F4*0.024</f>
+        <v>1252.2239999999999</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28">
+        <f>G4+H4</f>
+        <v>1252.2239999999999</v>
+      </c>
+      <c r="J4" s="28"/>
+      <c r="K4" s="29">
+        <f>E4-I4-J4</f>
+        <v>877.67600000000016</v>
+      </c>
+      <c r="N4" s="41"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="26">
+        <v>1289.3</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="28">
+        <f t="shared" si="0"/>
+        <v>1289.3</v>
+      </c>
+      <c r="F5" s="29">
+        <f>'[1]July 2020'!$C$30</f>
+        <v>3936</v>
+      </c>
+      <c r="G5" s="29">
+        <f>F5*0.024</f>
+        <v>94.463999999999999</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28">
+        <f t="shared" ref="I5:I6" si="1">G5+H5</f>
+        <v>94.463999999999999</v>
+      </c>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28">
+        <f>E5-I5-J5</f>
+        <v>1194.836</v>
+      </c>
+      <c r="N5" s="41"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="26">
+        <v>1018.5</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="28">
+        <f t="shared" si="0"/>
+        <v>1018.5</v>
+      </c>
+      <c r="F6" s="29">
+        <f>'[1]July 2020'!$G$30</f>
+        <v>308</v>
+      </c>
+      <c r="G6" s="29">
+        <f>F6*0.108</f>
+        <v>33.264000000000003</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28">
+        <f t="shared" si="1"/>
+        <v>33.264000000000003</v>
+      </c>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28">
+        <f>E6-I6-J6</f>
+        <v>985.23599999999999</v>
+      </c>
+      <c r="N6" s="41"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="26">
+        <v>1089.1500000000001</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="28">
+        <f t="shared" si="0"/>
+        <v>1089.1500000000001</v>
+      </c>
+      <c r="F7" s="29">
+        <f>'[1]July 2020'!$F$30</f>
+        <v>2156</v>
+      </c>
+      <c r="G7" s="29">
+        <f>F7*0.075</f>
+        <v>161.69999999999999</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28">
+        <f>G7+H7</f>
+        <v>161.69999999999999</v>
+      </c>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28">
+        <f>E7-I7-J7</f>
+        <v>927.45</v>
+      </c>
+      <c r="N7" s="41"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="26">
+        <v>656.44</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="28">
+        <f>B8+C8+D8</f>
+        <v>656.44</v>
+      </c>
+      <c r="F8" s="29">
+        <f>'[1]July 2020'!$E$30</f>
+        <v>744</v>
+      </c>
+      <c r="G8" s="29">
+        <f>F8*0.035</f>
+        <v>26.040000000000003</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28">
+        <f t="shared" ref="I8" si="2">G8+H8</f>
+        <v>26.040000000000003</v>
+      </c>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28">
+        <f t="shared" ref="K8" si="3">E8-I8-J8</f>
+        <v>630.40000000000009</v>
+      </c>
+      <c r="N8" s="41"/>
+    </row>
+    <row r="9" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="N9" s="41"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="33">
+        <v>82808</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="34">
+        <f>B10+C10+D10</f>
+        <v>82808</v>
+      </c>
+      <c r="F10" s="35">
+        <f>'[1]July 2020'!$H$30</f>
+        <v>9480</v>
+      </c>
+      <c r="G10" s="35">
+        <f>F10*1</f>
+        <v>9480</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="28">
+        <f t="shared" ref="I10:I13" si="4">G10+H10</f>
+        <v>9480</v>
+      </c>
+      <c r="J10" s="28"/>
+      <c r="K10" s="63">
+        <f>E10-I10-J10</f>
+        <v>73328</v>
+      </c>
+      <c r="N10" s="41"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="33">
+        <v>64197</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="34">
+        <f>B11+C11+D11</f>
+        <v>64197</v>
+      </c>
+      <c r="F11" s="35">
+        <f>'[1]July 2020'!$I$30</f>
+        <v>6696</v>
+      </c>
+      <c r="G11" s="35">
+        <f>F11*2</f>
+        <v>13392</v>
+      </c>
+      <c r="H11" s="34"/>
+      <c r="I11" s="28">
+        <f t="shared" si="4"/>
+        <v>13392</v>
+      </c>
+      <c r="J11" s="28"/>
+      <c r="K11" s="63">
+        <f>E11-I11-J11</f>
+        <v>50805</v>
+      </c>
+      <c r="N11" s="41"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="33">
+        <v>7008</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="34">
+        <f>B12+C12+D12</f>
+        <v>7008</v>
+      </c>
+      <c r="F12" s="35">
+        <f>'[1]July 2020'!$B$30</f>
+        <v>1008</v>
+      </c>
+      <c r="G12" s="35">
+        <f>F12*1</f>
+        <v>1008</v>
+      </c>
+      <c r="H12" s="34"/>
+      <c r="I12" s="28">
+        <f t="shared" si="4"/>
+        <v>1008</v>
+      </c>
+      <c r="J12" s="28"/>
+      <c r="K12" s="63">
+        <f>E12-I12-J12</f>
+        <v>6000</v>
+      </c>
+      <c r="N12" s="41"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="33">
+        <v>5558</v>
+      </c>
+      <c r="C13" s="2">
+        <f>4200+2600+1900</f>
+        <v>8700</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="34">
+        <f>B13+C13+D13</f>
+        <v>14258</v>
+      </c>
+      <c r="F13" s="35">
+        <f>'[1]July 2020'!$D$30</f>
+        <v>41880</v>
+      </c>
+      <c r="G13" s="35">
+        <f>F13/5</f>
+        <v>8376</v>
+      </c>
+      <c r="H13" s="34"/>
+      <c r="I13" s="28">
+        <f t="shared" si="4"/>
+        <v>8376</v>
+      </c>
+      <c r="J13" s="28"/>
+      <c r="K13" s="63">
+        <f>E13-I13-J13</f>
+        <v>5882</v>
+      </c>
+      <c r="L13" s="62"/>
+      <c r="N13" s="41"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="N14" s="41"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="33">
+        <v>91140</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="34">
+        <f t="shared" ref="E15:E19" si="5">B15+C15+D15</f>
+        <v>91140</v>
+      </c>
+      <c r="F15" s="35">
+        <f>F13</f>
+        <v>41880</v>
+      </c>
+      <c r="G15" s="35">
+        <f>F15/5</f>
+        <v>8376</v>
+      </c>
+      <c r="H15" s="34"/>
+      <c r="I15" s="28">
+        <f t="shared" ref="I15:I19" si="6">G15+H15</f>
+        <v>8376</v>
+      </c>
+      <c r="J15" s="28"/>
+      <c r="K15" s="63">
+        <f>E15-I15-J15</f>
+        <v>82764</v>
+      </c>
+      <c r="N15" s="41"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="33">
+        <v>86520</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="34">
+        <f t="shared" si="5"/>
+        <v>86520</v>
+      </c>
+      <c r="F16" s="35">
+        <f>F4+F5</f>
+        <v>56112</v>
+      </c>
+      <c r="G16" s="35">
+        <f>F16/2</f>
+        <v>28056</v>
+      </c>
+      <c r="H16" s="34"/>
+      <c r="I16" s="28">
+        <f t="shared" si="6"/>
+        <v>28056</v>
+      </c>
+      <c r="J16" s="28"/>
+      <c r="K16" s="63">
+        <f>E16-I16-J16</f>
+        <v>58464</v>
+      </c>
+      <c r="N16" s="41"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="33">
+        <v>55300</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="34">
+        <f t="shared" si="5"/>
+        <v>55300</v>
+      </c>
+      <c r="F17" s="35">
+        <f>F6</f>
+        <v>308</v>
+      </c>
+      <c r="G17" s="35">
+        <f>(F17/22)*50</f>
+        <v>700</v>
+      </c>
+      <c r="H17" s="34"/>
+      <c r="I17" s="28">
+        <f t="shared" si="6"/>
+        <v>700</v>
+      </c>
+      <c r="J17" s="28"/>
+      <c r="K17" s="63">
+        <f>E17-I17-J17</f>
+        <v>54600</v>
+      </c>
+      <c r="N17" s="41"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="33">
+        <v>183989</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="34">
+        <f t="shared" si="5"/>
+        <v>183989</v>
+      </c>
+      <c r="F18" s="39">
+        <f>F7</f>
+        <v>2156</v>
+      </c>
+      <c r="G18" s="35">
+        <f>(F18/22)*25</f>
+        <v>2450</v>
+      </c>
+      <c r="H18" s="34"/>
+      <c r="I18" s="28">
+        <f t="shared" si="6"/>
+        <v>2450</v>
+      </c>
+      <c r="J18" s="28"/>
+      <c r="K18" s="63">
+        <f>E18-I18-J18</f>
+        <v>181539</v>
+      </c>
+      <c r="N18" s="41"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="33">
+        <v>1158</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="34">
+        <f t="shared" si="5"/>
+        <v>1158</v>
+      </c>
+      <c r="F19" s="39">
+        <f>F8</f>
+        <v>744</v>
+      </c>
+      <c r="G19" s="35">
+        <f>F19/2</f>
+        <v>372</v>
+      </c>
+      <c r="H19" s="34"/>
+      <c r="I19" s="28">
+        <f t="shared" si="6"/>
+        <v>372</v>
+      </c>
+      <c r="J19" s="28"/>
+      <c r="K19" s="63">
+        <f>E19-I19-J19</f>
+        <v>786</v>
+      </c>
+      <c r="N19" s="41"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1">
+      <c r="A20" s="9"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="N20" s="41"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="40">
+        <v>1370</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="34">
+        <f t="shared" ref="E21:E27" si="7">B21+C21+D21</f>
+        <v>1370</v>
+      </c>
+      <c r="F21" s="35">
+        <f>F10</f>
+        <v>9480</v>
+      </c>
+      <c r="G21" s="35">
+        <f>F21/24</f>
+        <v>395</v>
+      </c>
+      <c r="H21" s="34"/>
+      <c r="I21" s="28">
+        <f t="shared" ref="I21:I26" si="8">G21+H21</f>
+        <v>395</v>
+      </c>
+      <c r="J21" s="28"/>
+      <c r="K21" s="63">
+        <f t="shared" ref="K21:K27" si="9">E21-I21-J21</f>
+        <v>975</v>
+      </c>
+      <c r="N21" s="41"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="40">
+        <v>1400</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="34">
+        <f t="shared" si="7"/>
+        <v>1400</v>
+      </c>
+      <c r="F22" s="35">
+        <f>F12</f>
+        <v>1008</v>
+      </c>
+      <c r="G22" s="35">
+        <f>F22/24</f>
+        <v>42</v>
+      </c>
+      <c r="H22" s="34"/>
+      <c r="I22" s="28">
+        <f t="shared" si="8"/>
+        <v>42</v>
+      </c>
+      <c r="J22" s="28"/>
+      <c r="K22" s="63">
+        <f t="shared" si="9"/>
+        <v>1358</v>
+      </c>
+      <c r="N22" s="41"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="33">
+        <v>4328</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="34">
+        <f t="shared" si="7"/>
+        <v>4328</v>
+      </c>
+      <c r="F23" s="39"/>
+      <c r="G23" s="35">
+        <f>(F13/30)+(F7/22)+(F6/22)</f>
+        <v>1508</v>
+      </c>
+      <c r="H23" s="34"/>
+      <c r="I23" s="28">
+        <f t="shared" si="8"/>
+        <v>1508</v>
+      </c>
+      <c r="J23" s="28"/>
+      <c r="K23" s="33">
+        <f t="shared" si="9"/>
+        <v>2820</v>
+      </c>
+      <c r="L23" s="41"/>
+      <c r="N23" s="41"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="43">
+        <v>883</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="34">
+        <f t="shared" si="7"/>
+        <v>883</v>
+      </c>
+      <c r="F24" s="39">
+        <f>F8</f>
+        <v>744</v>
+      </c>
+      <c r="G24" s="35">
+        <f>(F19/24)</f>
+        <v>31</v>
+      </c>
+      <c r="H24" s="34"/>
+      <c r="I24" s="28">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="J24" s="28"/>
+      <c r="K24" s="63">
+        <f t="shared" si="9"/>
+        <v>852</v>
+      </c>
+      <c r="N24" s="41"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="40">
+        <v>6060</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="34">
+        <f t="shared" si="7"/>
+        <v>7560</v>
+      </c>
+      <c r="F25" s="35">
+        <f>F4</f>
+        <v>52176</v>
+      </c>
+      <c r="G25" s="35">
+        <f>F25/24</f>
+        <v>2174</v>
+      </c>
+      <c r="H25" s="34"/>
+      <c r="I25" s="28">
+        <f t="shared" si="8"/>
+        <v>2174</v>
+      </c>
+      <c r="J25" s="28"/>
+      <c r="K25" s="63">
+        <f t="shared" si="9"/>
+        <v>5386</v>
+      </c>
+      <c r="M25" s="62"/>
+      <c r="N25" s="41"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="40">
+        <v>685</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="34">
+        <f t="shared" si="7"/>
+        <v>685</v>
+      </c>
+      <c r="F26" s="35">
+        <f>F5</f>
+        <v>3936</v>
+      </c>
+      <c r="G26" s="35">
+        <f>F26/24</f>
+        <v>164</v>
+      </c>
+      <c r="H26" s="34"/>
+      <c r="I26" s="28">
+        <f t="shared" si="8"/>
+        <v>164</v>
+      </c>
+      <c r="J26" s="28"/>
+      <c r="K26" s="63">
+        <f t="shared" si="9"/>
+        <v>521</v>
+      </c>
+      <c r="N26" s="41"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="40">
+        <v>977</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="34">
+        <f t="shared" si="7"/>
+        <v>977</v>
+      </c>
+      <c r="F27" s="35">
+        <f>F11</f>
+        <v>6696</v>
+      </c>
+      <c r="G27" s="35">
+        <f>F27/24</f>
+        <v>279</v>
+      </c>
+      <c r="H27" s="34"/>
+      <c r="I27" s="28">
+        <f>G27+H27</f>
+        <v>279</v>
+      </c>
+      <c r="J27" s="28"/>
+      <c r="K27" s="63">
+        <f t="shared" si="9"/>
+        <v>698</v>
+      </c>
+      <c r="N27" s="41"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="11"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="N28" s="41"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="40">
+        <v>30372</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="34">
+        <f t="shared" ref="E29:E36" si="10">B29+C29+D29</f>
+        <v>30372</v>
+      </c>
+      <c r="F29" s="44">
+        <f>'[1]July 2020'!$K$30</f>
+        <v>10596</v>
+      </c>
+      <c r="G29" s="44">
+        <f>F29*2</f>
+        <v>21192</v>
+      </c>
+      <c r="H29" s="45"/>
+      <c r="I29" s="28">
+        <f t="shared" ref="I29:I36" si="11">G29+H29</f>
+        <v>21192</v>
+      </c>
+      <c r="J29" s="28"/>
+      <c r="K29" s="64">
+        <f t="shared" ref="K29:K35" si="12">E29-I29-J29</f>
+        <v>9180</v>
+      </c>
+      <c r="N29" s="41"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="40">
+        <v>19244</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="46">
+        <f t="shared" si="10"/>
+        <v>19244</v>
+      </c>
+      <c r="F30" s="47">
+        <f>'[1]July 2020'!$L$30</f>
+        <v>12</v>
+      </c>
+      <c r="G30" s="44">
+        <f>F30*4</f>
+        <v>48</v>
+      </c>
+      <c r="H30" s="45"/>
+      <c r="I30" s="28">
+        <f t="shared" si="11"/>
+        <v>48</v>
+      </c>
+      <c r="J30" s="28"/>
+      <c r="K30" s="64">
+        <f>E30-I30-J30</f>
+        <v>19196</v>
+      </c>
+      <c r="N30" s="41"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="40">
+        <v>1238</v>
+      </c>
+      <c r="C31" s="2">
+        <v>550</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="46">
+        <f t="shared" si="10"/>
+        <v>1788</v>
+      </c>
+      <c r="F31" s="49">
+        <f>F29</f>
+        <v>10596</v>
+      </c>
+      <c r="G31" s="44">
+        <f>F31/12</f>
+        <v>883</v>
+      </c>
+      <c r="H31" s="45"/>
+      <c r="I31" s="28">
+        <f t="shared" si="11"/>
+        <v>883</v>
+      </c>
+      <c r="J31" s="28"/>
+      <c r="K31" s="27">
+        <f t="shared" si="12"/>
+        <v>905</v>
+      </c>
+      <c r="N31" s="41"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="40">
+        <v>1064</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="46">
+        <f t="shared" si="10"/>
+        <v>1064</v>
+      </c>
+      <c r="F32" s="49">
+        <f>F30</f>
+        <v>12</v>
+      </c>
+      <c r="G32" s="50">
+        <f>F32/12</f>
+        <v>1</v>
+      </c>
+      <c r="H32" s="51"/>
+      <c r="I32" s="28">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J32" s="28"/>
+      <c r="K32" s="27">
+        <f t="shared" si="12"/>
+        <v>1063</v>
+      </c>
+      <c r="N32" s="41"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="40">
+        <v>60321</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="46">
+        <f t="shared" si="10"/>
+        <v>60321</v>
+      </c>
+      <c r="F33" s="49">
+        <f>F30</f>
+        <v>12</v>
+      </c>
+      <c r="G33" s="50">
+        <f>F33*4</f>
+        <v>48</v>
+      </c>
+      <c r="H33" s="48"/>
+      <c r="I33" s="28">
+        <f t="shared" si="11"/>
+        <v>48</v>
+      </c>
+      <c r="J33" s="28"/>
+      <c r="K33" s="27">
+        <f t="shared" si="12"/>
+        <v>60273</v>
+      </c>
+      <c r="N33" s="41"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="40">
+        <v>41116</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="46">
+        <f t="shared" si="10"/>
+        <v>41116</v>
+      </c>
+      <c r="F34" s="49">
+        <f>F29</f>
+        <v>10596</v>
+      </c>
+      <c r="G34" s="50">
+        <f>F34*2</f>
+        <v>21192</v>
+      </c>
+      <c r="H34" s="51"/>
+      <c r="I34" s="28">
+        <f t="shared" si="11"/>
+        <v>21192</v>
+      </c>
+      <c r="J34" s="28"/>
+      <c r="K34" s="27">
+        <f t="shared" si="12"/>
+        <v>19924</v>
+      </c>
+      <c r="N34" s="41"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="40">
+        <v>3894</v>
+      </c>
+      <c r="C35" s="4">
+        <f>102000+10000</f>
+        <v>112000</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="46">
+        <f t="shared" si="10"/>
+        <v>115894</v>
+      </c>
+      <c r="F35" s="49">
+        <f>F29</f>
+        <v>10596</v>
+      </c>
+      <c r="G35" s="50">
+        <f>F35*2</f>
+        <v>21192</v>
+      </c>
+      <c r="H35" s="51"/>
+      <c r="I35" s="28">
+        <f t="shared" si="11"/>
+        <v>21192</v>
+      </c>
+      <c r="J35" s="28"/>
+      <c r="K35" s="27">
+        <f t="shared" si="12"/>
+        <v>94702</v>
+      </c>
+      <c r="N35" s="41"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A36" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="53">
+        <v>432</v>
+      </c>
+      <c r="C36" s="54">
+        <f>24000+10000</f>
+        <v>34000</v>
+      </c>
+      <c r="D36" s="55"/>
+      <c r="E36" s="56">
+        <f t="shared" si="10"/>
+        <v>34432</v>
+      </c>
+      <c r="F36" s="57">
+        <f>F29</f>
+        <v>10596</v>
+      </c>
+      <c r="G36" s="58">
+        <f>F36*2</f>
+        <v>21192</v>
+      </c>
+      <c r="H36" s="59"/>
+      <c r="I36" s="60">
+        <f t="shared" si="11"/>
+        <v>21192</v>
+      </c>
+      <c r="J36" s="60"/>
+      <c r="K36" s="66">
+        <f>E36-I36-J36</f>
+        <v>13240</v>
+      </c>
+      <c r="N36" s="41"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="B37" s="41"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="F38" s="61">
+        <f>F4+F5+F6+F7+F8+F10+F11+F12+F13+F29+F30</f>
+        <v>128992</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="F39" s="41"/>
+      <c r="H39" s="61"/>
+      <c r="J39" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.27" right="0.34" top="0.28000000000000003" bottom="0.21" header="0.23" footer="0.16"/>
+  <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="13" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="13"/>
+    <col min="10" max="10" width="6.28515625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="13" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A1" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+    </row>
+    <row r="2" spans="1:14" s="22" customFormat="1" ht="23.25" thickBot="1">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="15"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="65"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="26">
+        <v>877.7</v>
+      </c>
+      <c r="C4" s="27">
+        <v>4036.79</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="28">
+        <f t="shared" ref="E4:E7" si="0">B4+C4+D4</f>
+        <v>4914.49</v>
+      </c>
+      <c r="F4" s="29">
+        <f>'[1]August 2021'!$J$30</f>
+        <v>47040</v>
+      </c>
+      <c r="G4" s="29">
+        <f>F4*0.024</f>
+        <v>1128.96</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28">
+        <f>G4+H4</f>
+        <v>1128.96</v>
+      </c>
+      <c r="J4" s="28"/>
+      <c r="K4" s="29">
+        <f>E4-I4-J4</f>
+        <v>3785.5299999999997</v>
+      </c>
+      <c r="M4" s="13">
+        <v>3785.5</v>
+      </c>
+      <c r="N4" s="41"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="26">
+        <v>1195.4100000000001</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="28">
+        <f t="shared" si="0"/>
+        <v>1195.4100000000001</v>
+      </c>
+      <c r="F5" s="29">
+        <f>'[1]August 2021'!$C$30</f>
+        <v>7728</v>
+      </c>
+      <c r="G5" s="29">
+        <f>F5*0.024</f>
+        <v>185.47200000000001</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28">
+        <f t="shared" ref="I5:I6" si="1">G5+H5</f>
+        <v>185.47200000000001</v>
+      </c>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28">
+        <f>E5-I5-J5</f>
+        <v>1009.9380000000001</v>
+      </c>
+      <c r="M5" s="13">
+        <v>1009.94</v>
+      </c>
+      <c r="N5" s="41"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="26">
+        <v>985.24</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="28">
+        <f t="shared" si="0"/>
+        <v>985.24</v>
+      </c>
+      <c r="F6" s="29">
+        <f>'[1]August 2021'!$G$30</f>
+        <v>330</v>
+      </c>
+      <c r="G6" s="29">
+        <f>F6*0.108</f>
+        <v>35.64</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28">
+        <f t="shared" si="1"/>
+        <v>35.64</v>
+      </c>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28">
+        <f>E6-I6-J6</f>
+        <v>949.6</v>
+      </c>
+      <c r="M6" s="13">
+        <v>949.6</v>
+      </c>
+      <c r="N6" s="41"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="26">
+        <v>927.45</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="28">
+        <f t="shared" si="0"/>
+        <v>927.45</v>
+      </c>
+      <c r="F7" s="29">
+        <f>'[1]August 2021'!$F$30</f>
+        <v>2222</v>
+      </c>
+      <c r="G7" s="29">
+        <f>F7*0.075</f>
+        <v>166.65</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28">
+        <f>G7+H7</f>
+        <v>166.65</v>
+      </c>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28">
+        <f>E7-I7-J7</f>
+        <v>760.80000000000007</v>
+      </c>
+      <c r="M7" s="13">
+        <v>760.8</v>
+      </c>
+      <c r="N7" s="41"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="26">
+        <v>630.4</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="28">
+        <f>B8+C8+D8</f>
+        <v>630.4</v>
+      </c>
+      <c r="F8" s="29">
+        <f>'[1]August 2021'!$E$30</f>
+        <v>696</v>
+      </c>
+      <c r="G8" s="29">
+        <f>F8*0.035</f>
+        <v>24.360000000000003</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28">
+        <f t="shared" ref="I8" si="2">G8+H8</f>
+        <v>24.360000000000003</v>
+      </c>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28">
+        <f t="shared" ref="K8" si="3">E8-I8-J8</f>
+        <v>606.04</v>
+      </c>
+      <c r="M8" s="13">
+        <v>606.04</v>
+      </c>
+      <c r="N8" s="41"/>
+    </row>
+    <row r="9" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="N9" s="41"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="33">
+        <v>73328</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="34">
+        <f>B10+C10+D10</f>
+        <v>73328</v>
+      </c>
+      <c r="F10" s="35">
+        <f>'[1]August 2021'!$H$30</f>
+        <v>6960</v>
+      </c>
+      <c r="G10" s="35">
+        <f>F10*1</f>
+        <v>6960</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="28">
+        <f t="shared" ref="I10:I13" si="4">G10+H10</f>
+        <v>6960</v>
+      </c>
+      <c r="J10" s="28"/>
+      <c r="K10" s="63">
+        <f>E10-I10-J10</f>
+        <v>66368</v>
+      </c>
+      <c r="M10" s="13">
+        <v>66368</v>
+      </c>
+      <c r="N10" s="41"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="33">
+        <v>50805</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="34">
+        <f>B11+C11+D11</f>
+        <v>50805</v>
+      </c>
+      <c r="F11" s="35">
+        <f>'[1]August 2021'!$I$30</f>
+        <v>3624</v>
+      </c>
+      <c r="G11" s="35">
+        <f>F11*2</f>
+        <v>7248</v>
+      </c>
+      <c r="H11" s="34"/>
+      <c r="I11" s="28">
+        <f t="shared" si="4"/>
+        <v>7248</v>
+      </c>
+      <c r="J11" s="28"/>
+      <c r="K11" s="63">
+        <f>E11-I11-J11</f>
+        <v>43557</v>
+      </c>
+      <c r="M11" s="13">
+        <v>43557</v>
+      </c>
+      <c r="N11" s="41"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="33">
+        <v>6000</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="34">
+        <f>B12+C12+D12</f>
+        <v>6000</v>
+      </c>
+      <c r="F12" s="35">
+        <f>'[1]August 2021'!$B$30</f>
+        <v>768</v>
+      </c>
+      <c r="G12" s="35">
+        <f>F12*1</f>
+        <v>768</v>
+      </c>
+      <c r="H12" s="34"/>
+      <c r="I12" s="28">
+        <f t="shared" si="4"/>
+        <v>768</v>
+      </c>
+      <c r="J12" s="28"/>
+      <c r="K12" s="63">
+        <f>E12-I12-J12</f>
+        <v>5232</v>
+      </c>
+      <c r="M12" s="13">
+        <v>5232</v>
+      </c>
+      <c r="N12" s="41"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="33">
+        <v>5882</v>
+      </c>
+      <c r="C13" s="2">
+        <f>2000</f>
+        <v>2000</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="34">
+        <f>B13+C13+D13</f>
+        <v>7882</v>
+      </c>
+      <c r="F13" s="35">
+        <f>'[1]August 2021'!$D$30</f>
+        <v>39900</v>
+      </c>
+      <c r="G13" s="35">
+        <f>F13/5</f>
+        <v>7980</v>
+      </c>
+      <c r="H13" s="34"/>
+      <c r="I13" s="28">
+        <f t="shared" si="4"/>
+        <v>7980</v>
+      </c>
+      <c r="J13" s="28"/>
+      <c r="K13" s="63">
+        <f>E13-I13-J13</f>
+        <v>-98</v>
+      </c>
+      <c r="L13" s="62"/>
+      <c r="M13" s="13">
+        <v>-98</v>
+      </c>
+      <c r="N13" s="41"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="N14" s="41"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="33">
+        <v>82764</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="34">
+        <f t="shared" ref="E15:E19" si="5">B15+C15+D15</f>
+        <v>82764</v>
+      </c>
+      <c r="F15" s="35">
+        <f>F13</f>
+        <v>39900</v>
+      </c>
+      <c r="G15" s="35">
+        <f>F15/5</f>
+        <v>7980</v>
+      </c>
+      <c r="H15" s="34"/>
+      <c r="I15" s="28">
+        <f t="shared" ref="I15:I19" si="6">G15+H15</f>
+        <v>7980</v>
+      </c>
+      <c r="J15" s="28"/>
+      <c r="K15" s="63">
+        <f>E15-I15-J15</f>
+        <v>74784</v>
+      </c>
+      <c r="M15" s="13">
+        <v>74784</v>
+      </c>
+      <c r="N15" s="41"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="33">
+        <v>58476</v>
+      </c>
+      <c r="C16" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="34">
+        <f t="shared" si="5"/>
+        <v>158476</v>
+      </c>
+      <c r="F16" s="35">
+        <f>F4+F5</f>
+        <v>54768</v>
+      </c>
+      <c r="G16" s="35">
+        <f>F16/2</f>
+        <v>27384</v>
+      </c>
+      <c r="H16" s="34"/>
+      <c r="I16" s="28">
+        <f t="shared" si="6"/>
+        <v>27384</v>
+      </c>
+      <c r="J16" s="28"/>
+      <c r="K16" s="63">
+        <f>E16-I16-J16</f>
+        <v>131092</v>
+      </c>
+      <c r="M16" s="13">
+        <v>131092</v>
+      </c>
+      <c r="N16" s="41"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="33">
+        <v>54600</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="34">
+        <f t="shared" si="5"/>
+        <v>54600</v>
+      </c>
+      <c r="F17" s="35">
+        <f>F6</f>
+        <v>330</v>
+      </c>
+      <c r="G17" s="35">
+        <f>(F17/22)*50</f>
+        <v>750</v>
+      </c>
+      <c r="H17" s="34"/>
+      <c r="I17" s="28">
+        <f t="shared" si="6"/>
+        <v>750</v>
+      </c>
+      <c r="J17" s="28"/>
+      <c r="K17" s="63">
+        <f>E17-I17-J17</f>
+        <v>53850</v>
+      </c>
+      <c r="M17" s="13">
+        <v>53850</v>
+      </c>
+      <c r="N17" s="41"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="33">
+        <v>181539</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="34">
+        <f t="shared" si="5"/>
+        <v>181539</v>
+      </c>
+      <c r="F18" s="39">
+        <f>F7</f>
+        <v>2222</v>
+      </c>
+      <c r="G18" s="35">
+        <f>(F18/22)*25</f>
+        <v>2525</v>
+      </c>
+      <c r="H18" s="34"/>
+      <c r="I18" s="28">
+        <f t="shared" si="6"/>
+        <v>2525</v>
+      </c>
+      <c r="J18" s="28"/>
+      <c r="K18" s="63">
+        <f>E18-I18-J18</f>
+        <v>179014</v>
+      </c>
+      <c r="M18" s="13">
+        <v>179014</v>
+      </c>
+      <c r="N18" s="41"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="33">
+        <v>786</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="34">
+        <f t="shared" si="5"/>
+        <v>786</v>
+      </c>
+      <c r="F19" s="39">
+        <f>F8</f>
+        <v>696</v>
+      </c>
+      <c r="G19" s="35">
+        <f>F19/2</f>
+        <v>348</v>
+      </c>
+      <c r="H19" s="34"/>
+      <c r="I19" s="28">
+        <f t="shared" si="6"/>
+        <v>348</v>
+      </c>
+      <c r="J19" s="28"/>
+      <c r="K19" s="63">
+        <f>E19-I19-J19</f>
+        <v>438</v>
+      </c>
+      <c r="M19" s="13">
+        <v>438</v>
+      </c>
+      <c r="N19" s="41"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1">
+      <c r="A20" s="9"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="N20" s="41"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="40">
+        <v>975</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="34">
+        <f t="shared" ref="E21:E27" si="7">B21+C21+D21</f>
+        <v>975</v>
+      </c>
+      <c r="F21" s="35">
+        <f>F10</f>
+        <v>6960</v>
+      </c>
+      <c r="G21" s="35">
+        <f>F21/24</f>
+        <v>290</v>
+      </c>
+      <c r="H21" s="34"/>
+      <c r="I21" s="28">
+        <f t="shared" ref="I21:I26" si="8">G21+H21</f>
+        <v>290</v>
+      </c>
+      <c r="J21" s="28"/>
+      <c r="K21" s="63">
+        <f t="shared" ref="K21:K27" si="9">E21-I21-J21</f>
+        <v>685</v>
+      </c>
+      <c r="M21" s="13">
+        <v>685</v>
+      </c>
+      <c r="N21" s="41"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="40">
+        <v>1358</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="34">
+        <f t="shared" si="7"/>
+        <v>1358</v>
+      </c>
+      <c r="F22" s="35">
+        <f>F12</f>
+        <v>768</v>
+      </c>
+      <c r="G22" s="35">
+        <f>F22/24</f>
+        <v>32</v>
+      </c>
+      <c r="H22" s="34"/>
+      <c r="I22" s="28">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="J22" s="28"/>
+      <c r="K22" s="63">
+        <f t="shared" si="9"/>
+        <v>1326</v>
+      </c>
+      <c r="M22" s="13">
+        <v>1326</v>
+      </c>
+      <c r="N22" s="41"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="33">
+        <v>2820</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="34">
+        <f t="shared" si="7"/>
+        <v>2820</v>
+      </c>
+      <c r="F23" s="39"/>
+      <c r="G23" s="35">
+        <f>(F13/30)+(F7/22)+(F6/22)</f>
+        <v>1446</v>
+      </c>
+      <c r="H23" s="34"/>
+      <c r="I23" s="28">
+        <f t="shared" si="8"/>
+        <v>1446</v>
+      </c>
+      <c r="J23" s="28"/>
+      <c r="K23" s="33">
+        <f t="shared" si="9"/>
+        <v>1374</v>
+      </c>
+      <c r="L23" s="41"/>
+      <c r="M23" s="13">
+        <v>1374</v>
+      </c>
+      <c r="N23" s="41"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="43">
+        <v>852</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="34">
+        <f t="shared" si="7"/>
+        <v>852</v>
+      </c>
+      <c r="F24" s="39">
+        <f>F8</f>
+        <v>696</v>
+      </c>
+      <c r="G24" s="35">
+        <f>(F19/24)</f>
+        <v>29</v>
+      </c>
+      <c r="H24" s="34"/>
+      <c r="I24" s="28">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="J24" s="28"/>
+      <c r="K24" s="63">
+        <f t="shared" si="9"/>
+        <v>823</v>
+      </c>
+      <c r="M24" s="13">
+        <v>832</v>
+      </c>
+      <c r="N24" s="41"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="40">
+        <v>5386</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="34">
+        <f t="shared" si="7"/>
+        <v>5386</v>
+      </c>
+      <c r="F25" s="35">
+        <f>F4</f>
+        <v>47040</v>
+      </c>
+      <c r="G25" s="35">
+        <f>F25/24</f>
+        <v>1960</v>
+      </c>
+      <c r="H25" s="34"/>
+      <c r="I25" s="28">
+        <f t="shared" si="8"/>
+        <v>1960</v>
+      </c>
+      <c r="J25" s="28"/>
+      <c r="K25" s="63">
+        <f t="shared" si="9"/>
+        <v>3426</v>
+      </c>
+      <c r="M25" s="62">
+        <v>3426</v>
+      </c>
+      <c r="N25" s="41"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="40">
+        <v>522</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="34">
+        <f t="shared" si="7"/>
+        <v>522</v>
+      </c>
+      <c r="F26" s="35">
+        <f>F5</f>
+        <v>7728</v>
+      </c>
+      <c r="G26" s="35">
+        <f>F26/24</f>
+        <v>322</v>
+      </c>
+      <c r="H26" s="34"/>
+      <c r="I26" s="28">
+        <f t="shared" si="8"/>
+        <v>322</v>
+      </c>
+      <c r="J26" s="28"/>
+      <c r="K26" s="63">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="M26" s="13">
+        <v>200</v>
+      </c>
+      <c r="N26" s="41"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="40">
+        <v>698</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="34">
+        <f t="shared" si="7"/>
+        <v>698</v>
+      </c>
+      <c r="F27" s="35">
+        <f>F11</f>
+        <v>3624</v>
+      </c>
+      <c r="G27" s="35">
+        <f>F27/24</f>
+        <v>151</v>
+      </c>
+      <c r="H27" s="34"/>
+      <c r="I27" s="28">
+        <f>G27+H27</f>
+        <v>151</v>
+      </c>
+      <c r="J27" s="28"/>
+      <c r="K27" s="63">
+        <f t="shared" si="9"/>
+        <v>547</v>
+      </c>
+      <c r="M27" s="13">
+        <v>547</v>
+      </c>
+      <c r="N27" s="41"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="11"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="N28" s="41"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="40">
+        <v>9180</v>
+      </c>
+      <c r="C29" s="2">
+        <v>31104</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="34">
+        <f t="shared" ref="E29:E36" si="10">B29+C29+D29</f>
+        <v>40284</v>
+      </c>
+      <c r="F29" s="44">
+        <f>'[1]August 2021'!$K$30</f>
+        <v>8952</v>
+      </c>
+      <c r="G29" s="44">
+        <f>F29*2</f>
+        <v>17904</v>
+      </c>
+      <c r="H29" s="45"/>
+      <c r="I29" s="28">
+        <f t="shared" ref="I29:I36" si="11">G29+H29</f>
+        <v>17904</v>
+      </c>
+      <c r="J29" s="28"/>
+      <c r="K29" s="64">
+        <f t="shared" ref="K29:K35" si="12">E29-I29-J29</f>
+        <v>22380</v>
+      </c>
+      <c r="M29" s="13">
+        <v>22380</v>
+      </c>
+      <c r="N29" s="41"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="40">
+        <v>19196</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="46">
+        <f t="shared" si="10"/>
+        <v>19196</v>
+      </c>
+      <c r="F30" s="47">
+        <f>'[1]August 2021'!$L$30</f>
+        <v>600</v>
+      </c>
+      <c r="G30" s="44">
+        <f>F30*4</f>
+        <v>2400</v>
+      </c>
+      <c r="H30" s="45"/>
+      <c r="I30" s="28">
+        <f t="shared" si="11"/>
+        <v>2400</v>
+      </c>
+      <c r="J30" s="28"/>
+      <c r="K30" s="64">
+        <f>E30-I30-J30</f>
+        <v>16796</v>
+      </c>
+      <c r="M30" s="13">
+        <v>16796</v>
+      </c>
+      <c r="N30" s="41"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="40">
+        <v>905</v>
+      </c>
+      <c r="C31" s="2">
+        <f>700+1300+2300+664</f>
+        <v>4964</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="46">
+        <f t="shared" si="10"/>
+        <v>5869</v>
+      </c>
+      <c r="F31" s="49">
+        <f>F29</f>
+        <v>8952</v>
+      </c>
+      <c r="G31" s="44">
+        <f>F31/12</f>
+        <v>746</v>
+      </c>
+      <c r="H31" s="45"/>
+      <c r="I31" s="28">
+        <f t="shared" si="11"/>
+        <v>746</v>
+      </c>
+      <c r="J31" s="28"/>
+      <c r="K31" s="27">
+        <f t="shared" si="12"/>
+        <v>5123</v>
+      </c>
+      <c r="M31" s="13">
+        <v>5123</v>
+      </c>
+      <c r="N31" s="41"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="40">
+        <v>1063</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="46">
+        <f t="shared" si="10"/>
+        <v>1063</v>
+      </c>
+      <c r="F32" s="49">
+        <f>F30</f>
+        <v>600</v>
+      </c>
+      <c r="G32" s="50">
+        <f>F32/12</f>
+        <v>50</v>
+      </c>
+      <c r="H32" s="51"/>
+      <c r="I32" s="28">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="J32" s="28"/>
+      <c r="K32" s="27">
+        <f t="shared" si="12"/>
+        <v>1013</v>
+      </c>
+      <c r="M32" s="13">
+        <v>1013</v>
+      </c>
+      <c r="N32" s="41"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="40">
+        <v>60273</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="46">
+        <f t="shared" si="10"/>
+        <v>60273</v>
+      </c>
+      <c r="F33" s="49">
+        <f>F30</f>
+        <v>600</v>
+      </c>
+      <c r="G33" s="50">
+        <f>F33*4</f>
+        <v>2400</v>
+      </c>
+      <c r="H33" s="48"/>
+      <c r="I33" s="28">
+        <f t="shared" si="11"/>
+        <v>2400</v>
+      </c>
+      <c r="J33" s="28"/>
+      <c r="K33" s="27">
+        <f t="shared" si="12"/>
+        <v>57873</v>
+      </c>
+      <c r="M33" s="13">
+        <v>57873</v>
+      </c>
+      <c r="N33" s="41"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="40">
+        <v>19924</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="46">
+        <f t="shared" si="10"/>
+        <v>19924</v>
+      </c>
+      <c r="F34" s="49">
+        <f>F29</f>
+        <v>8952</v>
+      </c>
+      <c r="G34" s="50">
+        <f>F34*2</f>
+        <v>17904</v>
+      </c>
+      <c r="H34" s="51"/>
+      <c r="I34" s="28">
+        <f t="shared" si="11"/>
+        <v>17904</v>
+      </c>
+      <c r="J34" s="28"/>
+      <c r="K34" s="27">
+        <f t="shared" si="12"/>
+        <v>2020</v>
+      </c>
+      <c r="M34" s="13">
+        <v>2020</v>
+      </c>
+      <c r="N34" s="41"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="40">
+        <v>94702</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="46">
+        <f t="shared" si="10"/>
+        <v>94702</v>
+      </c>
+      <c r="F35" s="49">
+        <f>F29</f>
+        <v>8952</v>
+      </c>
+      <c r="G35" s="50">
+        <f>F35*2</f>
+        <v>17904</v>
+      </c>
+      <c r="H35" s="51"/>
+      <c r="I35" s="28">
+        <f t="shared" si="11"/>
+        <v>17904</v>
+      </c>
+      <c r="J35" s="28"/>
+      <c r="K35" s="27">
+        <f t="shared" si="12"/>
+        <v>76798</v>
+      </c>
+      <c r="M35" s="13">
+        <v>76798</v>
+      </c>
+      <c r="N35" s="41"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A36" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="53">
+        <v>13240</v>
+      </c>
+      <c r="C36" s="54">
+        <v>52000</v>
+      </c>
+      <c r="D36" s="55"/>
+      <c r="E36" s="56">
+        <f t="shared" si="10"/>
+        <v>65240</v>
+      </c>
+      <c r="F36" s="57">
+        <f>F29</f>
+        <v>8952</v>
+      </c>
+      <c r="G36" s="58">
+        <f>F36*2</f>
+        <v>17904</v>
+      </c>
+      <c r="H36" s="59"/>
+      <c r="I36" s="60">
+        <f t="shared" si="11"/>
+        <v>17904</v>
+      </c>
+      <c r="J36" s="60"/>
+      <c r="K36" s="66">
+        <f>E36-I36-J36</f>
+        <v>47336</v>
+      </c>
+      <c r="M36" s="13">
+        <v>47336</v>
+      </c>
+      <c r="N36" s="41"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="B37" s="41"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="F38" s="61">
+        <f>F4+F5+F6+F7+F8+F10+F11+F12+F13+F29+F30</f>
+        <v>118820</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="F39" s="41"/>
+      <c r="H39" s="61"/>
+      <c r="J39" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.27" right="0.34" top="0.28000000000000003" bottom="0.21" header="0.23" footer="0.16"/>
+  <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="13" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="13"/>
+    <col min="10" max="10" width="6.28515625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="13" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A1" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+    </row>
+    <row r="2" spans="1:14" s="22" customFormat="1" ht="23.25" thickBot="1">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="15"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="65"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="69">
+        <v>3785.5</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="28">
+        <f t="shared" ref="E4:E7" si="0">B4+C4+D4</f>
+        <v>3785.5</v>
+      </c>
+      <c r="F4" s="29">
+        <f>'[1]September 2021'!$J$30</f>
+        <v>50208</v>
+      </c>
+      <c r="G4" s="29">
+        <f>F4*0.024</f>
+        <v>1204.992</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28">
+        <f>G4+H4</f>
+        <v>1204.992</v>
+      </c>
+      <c r="J4" s="28"/>
+      <c r="K4" s="29">
+        <f>E4-I4-J4</f>
+        <v>2580.5079999999998</v>
+      </c>
+      <c r="N4" s="41"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="69">
+        <v>1009.94</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="28">
+        <f t="shared" si="0"/>
+        <v>1009.94</v>
+      </c>
+      <c r="F5" s="29">
+        <f>'[1]September 2021'!$C$30</f>
+        <v>2712</v>
+      </c>
+      <c r="G5" s="29">
+        <f>F5*0.024</f>
+        <v>65.088000000000008</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28">
+        <f t="shared" ref="I5:I6" si="1">G5+H5</f>
+        <v>65.088000000000008</v>
+      </c>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28">
+        <f>E5-I5-J5</f>
+        <v>944.85200000000009</v>
+      </c>
+      <c r="N5" s="41"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="69">
+        <v>949.6</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="28">
+        <f t="shared" si="0"/>
+        <v>949.6</v>
+      </c>
+      <c r="F6" s="29">
+        <f>'[1]September 2021'!$G$30</f>
+        <v>616</v>
+      </c>
+      <c r="G6" s="29">
+        <f>F6*0.108</f>
+        <v>66.528000000000006</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28">
+        <f t="shared" si="1"/>
+        <v>66.528000000000006</v>
+      </c>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28">
+        <f>E6-I6-J6</f>
+        <v>883.072</v>
+      </c>
+      <c r="N6" s="41"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="69">
+        <v>760.8</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="28">
+        <f t="shared" si="0"/>
+        <v>760.8</v>
+      </c>
+      <c r="F7" s="29">
+        <f>'[1]September 2021'!$F$30</f>
+        <v>1342</v>
+      </c>
+      <c r="G7" s="29">
+        <f>F7*0.075</f>
+        <v>100.64999999999999</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28">
+        <f>G7+H7</f>
+        <v>100.64999999999999</v>
+      </c>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28">
+        <f>E7-I7-J7</f>
+        <v>660.15</v>
+      </c>
+      <c r="N7" s="41"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="69">
+        <v>606.04</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="28">
+        <f>B8+C8+D8</f>
+        <v>606.04</v>
+      </c>
+      <c r="F8" s="29">
+        <f>'[1]September 2021'!$E$30</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="29">
+        <f>F8*0.035</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28">
+        <f t="shared" ref="I8" si="2">G8+H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28">
+        <f t="shared" ref="K8" si="3">E8-I8-J8</f>
+        <v>606.04</v>
+      </c>
+      <c r="N8" s="41"/>
+    </row>
+    <row r="9" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="N9" s="41"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="69">
+        <v>66368</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="34">
+        <f>B10+C10+D10</f>
+        <v>66368</v>
+      </c>
+      <c r="F10" s="35">
+        <f>'[1]September 2021'!$H$30</f>
+        <v>7944</v>
+      </c>
+      <c r="G10" s="35">
+        <f>F10*1</f>
+        <v>7944</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="28">
+        <f t="shared" ref="I10:I13" si="4">G10+H10</f>
+        <v>7944</v>
+      </c>
+      <c r="J10" s="28"/>
+      <c r="K10" s="63">
+        <f>E10-I10-J10</f>
+        <v>58424</v>
+      </c>
+      <c r="N10" s="41"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="69">
+        <v>43557</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="34">
+        <f>B11+C11+D11</f>
+        <v>43557</v>
+      </c>
+      <c r="F11" s="35">
+        <f>'[1]September 2021'!$I$30</f>
+        <v>5976</v>
+      </c>
+      <c r="G11" s="35">
+        <f>F11*2</f>
+        <v>11952</v>
+      </c>
+      <c r="H11" s="34"/>
+      <c r="I11" s="28">
+        <f t="shared" si="4"/>
+        <v>11952</v>
+      </c>
+      <c r="J11" s="28"/>
+      <c r="K11" s="63">
+        <f>E11-I11-J11</f>
+        <v>31605</v>
+      </c>
+      <c r="N11" s="41"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="69">
+        <v>5232</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="34">
+        <f>B12+C12+D12</f>
+        <v>5232</v>
+      </c>
+      <c r="F12" s="35">
+        <f>'[1]September 2021'!$B$30</f>
+        <v>1608</v>
+      </c>
+      <c r="G12" s="35">
+        <f>F12*1</f>
+        <v>1608</v>
+      </c>
+      <c r="H12" s="34"/>
+      <c r="I12" s="28">
+        <f t="shared" si="4"/>
+        <v>1608</v>
+      </c>
+      <c r="J12" s="28"/>
+      <c r="K12" s="63">
+        <f>E12-I12-J12</f>
+        <v>3624</v>
+      </c>
+      <c r="N12" s="41"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="69">
+        <v>-98</v>
+      </c>
+      <c r="C13" s="2">
+        <f>9560</f>
+        <v>9560</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="34">
+        <f>B13+C13+D13</f>
+        <v>9462</v>
+      </c>
+      <c r="F13" s="35">
+        <f>'[1]September 2021'!$D$30</f>
+        <v>40200</v>
+      </c>
+      <c r="G13" s="35">
+        <f>F13/5</f>
+        <v>8040</v>
+      </c>
+      <c r="H13" s="34"/>
+      <c r="I13" s="28">
+        <f t="shared" si="4"/>
+        <v>8040</v>
+      </c>
+      <c r="J13" s="28"/>
+      <c r="K13" s="63">
+        <f>E13-I13-J13</f>
+        <v>1422</v>
+      </c>
+      <c r="L13" s="62"/>
+      <c r="N13" s="41"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="N14" s="41"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="67">
+        <v>74784</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="34">
+        <f t="shared" ref="E15:E19" si="5">B15+C15+D15</f>
+        <v>74784</v>
+      </c>
+      <c r="F15" s="35">
+        <f>F13</f>
+        <v>40200</v>
+      </c>
+      <c r="G15" s="35">
+        <f>F15/5</f>
+        <v>8040</v>
+      </c>
+      <c r="H15" s="34"/>
+      <c r="I15" s="28">
+        <f t="shared" ref="I15:I19" si="6">G15+H15</f>
+        <v>8040</v>
+      </c>
+      <c r="J15" s="28"/>
+      <c r="K15" s="63">
+        <f>E15-I15-J15</f>
+        <v>66744</v>
+      </c>
+      <c r="N15" s="41"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="69">
+        <v>131092</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="34">
+        <f t="shared" si="5"/>
+        <v>131092</v>
+      </c>
+      <c r="F16" s="35">
+        <f>F4+F5</f>
+        <v>52920</v>
+      </c>
+      <c r="G16" s="35">
+        <f>F16/2</f>
+        <v>26460</v>
+      </c>
+      <c r="H16" s="34"/>
+      <c r="I16" s="28">
+        <f t="shared" si="6"/>
+        <v>26460</v>
+      </c>
+      <c r="J16" s="28"/>
+      <c r="K16" s="63">
+        <f>E16-I16-J16</f>
+        <v>104632</v>
+      </c>
+      <c r="N16" s="41"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="69">
+        <v>53850</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="34">
+        <f t="shared" si="5"/>
+        <v>53850</v>
+      </c>
+      <c r="F17" s="35">
+        <f>F6</f>
+        <v>616</v>
+      </c>
+      <c r="G17" s="35">
+        <f>(F17/22)*50</f>
+        <v>1400</v>
+      </c>
+      <c r="H17" s="34"/>
+      <c r="I17" s="28">
+        <f t="shared" si="6"/>
+        <v>1400</v>
+      </c>
+      <c r="J17" s="28"/>
+      <c r="K17" s="63">
+        <f>E17-I17-J17</f>
+        <v>52450</v>
+      </c>
+      <c r="N17" s="41"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="69">
+        <v>179014</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="34">
+        <f t="shared" si="5"/>
+        <v>179014</v>
+      </c>
+      <c r="F18" s="39">
+        <f>F7</f>
+        <v>1342</v>
+      </c>
+      <c r="G18" s="35">
+        <f>(F18/22)*25</f>
+        <v>1525</v>
+      </c>
+      <c r="H18" s="34"/>
+      <c r="I18" s="28">
+        <f t="shared" si="6"/>
+        <v>1525</v>
+      </c>
+      <c r="J18" s="28"/>
+      <c r="K18" s="63">
+        <f>E18-I18-J18</f>
+        <v>177489</v>
+      </c>
+      <c r="N18" s="41"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="69">
+        <v>438</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="34">
+        <f t="shared" si="5"/>
+        <v>438</v>
+      </c>
+      <c r="F19" s="39">
+        <f>F8</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="35">
+        <f>F19/2</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="34"/>
+      <c r="I19" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="28"/>
+      <c r="K19" s="63">
+        <f>E19-I19-J19</f>
+        <v>438</v>
+      </c>
+      <c r="N19" s="41"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1">
+      <c r="A20" s="9"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="N20" s="41"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="69">
+        <v>685</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="34">
+        <f t="shared" ref="E21:E27" si="7">B21+C21+D21</f>
+        <v>685</v>
+      </c>
+      <c r="F21" s="35">
+        <f>F10</f>
+        <v>7944</v>
+      </c>
+      <c r="G21" s="35">
+        <f>F21/24</f>
+        <v>331</v>
+      </c>
+      <c r="H21" s="34"/>
+      <c r="I21" s="28">
+        <f t="shared" ref="I21:I26" si="8">G21+H21</f>
+        <v>331</v>
+      </c>
+      <c r="J21" s="28"/>
+      <c r="K21" s="63">
+        <f t="shared" ref="K21:K27" si="9">E21-I21-J21</f>
+        <v>354</v>
+      </c>
+      <c r="N21" s="41"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="69">
+        <v>1326</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="34">
+        <f t="shared" si="7"/>
+        <v>1326</v>
+      </c>
+      <c r="F22" s="35">
+        <f>F12</f>
+        <v>1608</v>
+      </c>
+      <c r="G22" s="35">
+        <f>F22/24</f>
+        <v>67</v>
+      </c>
+      <c r="H22" s="34"/>
+      <c r="I22" s="28">
+        <f t="shared" si="8"/>
+        <v>67</v>
+      </c>
+      <c r="J22" s="28"/>
+      <c r="K22" s="63">
+        <f t="shared" si="9"/>
+        <v>1259</v>
+      </c>
+      <c r="N22" s="41"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="69">
+        <v>1374</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3050</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="34">
+        <f t="shared" si="7"/>
+        <v>4424</v>
+      </c>
+      <c r="F23" s="39"/>
+      <c r="G23" s="35">
+        <f>(F13/30)+(F7/22)+(F6/22)</f>
+        <v>1429</v>
+      </c>
+      <c r="H23" s="34"/>
+      <c r="I23" s="28">
+        <f t="shared" si="8"/>
+        <v>1429</v>
+      </c>
+      <c r="J23" s="28"/>
+      <c r="K23" s="33">
+        <f t="shared" si="9"/>
+        <v>2995</v>
+      </c>
+      <c r="L23" s="41"/>
+      <c r="N23" s="41"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="69">
+        <v>832</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="34">
+        <f t="shared" si="7"/>
+        <v>832</v>
+      </c>
+      <c r="F24" s="39">
+        <f>F8</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="35">
+        <f>(F19/24)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="34"/>
+      <c r="I24" s="28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="28"/>
+      <c r="K24" s="63">
+        <f t="shared" si="9"/>
+        <v>832</v>
+      </c>
+      <c r="N24" s="41"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="70">
+        <v>3426</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3497</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="34">
+        <f t="shared" si="7"/>
+        <v>6923</v>
+      </c>
+      <c r="F25" s="35">
+        <f>F4</f>
+        <v>50208</v>
+      </c>
+      <c r="G25" s="35">
+        <f>F25/24</f>
+        <v>2092</v>
+      </c>
+      <c r="H25" s="34"/>
+      <c r="I25" s="28">
+        <f t="shared" si="8"/>
+        <v>2092</v>
+      </c>
+      <c r="J25" s="28"/>
+      <c r="K25" s="63">
+        <f t="shared" si="9"/>
+        <v>4831</v>
+      </c>
+      <c r="M25" s="62"/>
+      <c r="N25" s="41"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="69">
+        <v>200</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="34">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+      <c r="F26" s="35">
+        <f>F5</f>
+        <v>2712</v>
+      </c>
+      <c r="G26" s="35">
+        <f>F26/24</f>
+        <v>113</v>
+      </c>
+      <c r="H26" s="34"/>
+      <c r="I26" s="28">
+        <f t="shared" si="8"/>
+        <v>113</v>
+      </c>
+      <c r="J26" s="28"/>
+      <c r="K26" s="63">
+        <f t="shared" si="9"/>
+        <v>87</v>
+      </c>
+      <c r="N26" s="41"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="69">
+        <v>547</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="34">
+        <f t="shared" si="7"/>
+        <v>547</v>
+      </c>
+      <c r="F27" s="35">
+        <f>F11</f>
+        <v>5976</v>
+      </c>
+      <c r="G27" s="35">
+        <f>F27/24</f>
+        <v>249</v>
+      </c>
+      <c r="H27" s="34"/>
+      <c r="I27" s="28">
+        <f>G27+H27</f>
+        <v>249</v>
+      </c>
+      <c r="J27" s="28"/>
+      <c r="K27" s="63">
+        <f t="shared" si="9"/>
+        <v>298</v>
+      </c>
+      <c r="N27" s="41"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="11"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="N28" s="41"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="69">
+        <v>22380</v>
+      </c>
+      <c r="C29" s="2">
+        <v>57500</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="34">
+        <f t="shared" ref="E29:E36" si="10">B29+C29+D29</f>
+        <v>79880</v>
+      </c>
+      <c r="F29" s="44">
+        <f>'[1]September 2021'!$K$30</f>
+        <v>8184</v>
+      </c>
+      <c r="G29" s="44">
+        <f>F29*2</f>
+        <v>16368</v>
+      </c>
+      <c r="H29" s="45"/>
+      <c r="I29" s="28">
+        <f t="shared" ref="I29:I36" si="11">G29+H29</f>
+        <v>16368</v>
+      </c>
+      <c r="J29" s="28"/>
+      <c r="K29" s="64">
+        <f t="shared" ref="K29:K35" si="12">E29-I29-J29</f>
+        <v>63512</v>
+      </c>
+      <c r="N29" s="41"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="69">
+        <v>16796</v>
+      </c>
+      <c r="C30" s="2">
+        <v>45500</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="46">
+        <f t="shared" si="10"/>
+        <v>62296</v>
+      </c>
+      <c r="F30" s="47">
+        <f>'[1]September 2021'!$L$30</f>
+        <v>7212</v>
+      </c>
+      <c r="G30" s="44">
+        <f>F30*4</f>
+        <v>28848</v>
+      </c>
+      <c r="H30" s="45"/>
+      <c r="I30" s="28">
+        <f t="shared" si="11"/>
+        <v>28848</v>
+      </c>
+      <c r="J30" s="28"/>
+      <c r="K30" s="64">
+        <f>E30-I30-J30</f>
+        <v>33448</v>
+      </c>
+      <c r="N30" s="41"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="69">
+        <v>5123</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="46">
+        <f t="shared" si="10"/>
+        <v>5123</v>
+      </c>
+      <c r="F31" s="49">
+        <f>F29</f>
+        <v>8184</v>
+      </c>
+      <c r="G31" s="44">
+        <f>F31/12</f>
+        <v>682</v>
+      </c>
+      <c r="H31" s="45"/>
+      <c r="I31" s="28">
+        <f t="shared" si="11"/>
+        <v>682</v>
+      </c>
+      <c r="J31" s="28"/>
+      <c r="K31" s="27">
+        <f t="shared" si="12"/>
+        <v>4441</v>
+      </c>
+      <c r="N31" s="41"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="69">
+        <v>1013</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="46">
+        <f t="shared" si="10"/>
+        <v>1013</v>
+      </c>
+      <c r="F32" s="49">
+        <f>F30</f>
+        <v>7212</v>
+      </c>
+      <c r="G32" s="50">
+        <f>F32/12</f>
+        <v>601</v>
+      </c>
+      <c r="H32" s="51"/>
+      <c r="I32" s="28">
+        <f t="shared" si="11"/>
+        <v>601</v>
+      </c>
+      <c r="J32" s="28"/>
+      <c r="K32" s="27">
+        <f t="shared" si="12"/>
+        <v>412</v>
+      </c>
+      <c r="N32" s="41"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="69">
+        <v>57873</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="46">
+        <f t="shared" si="10"/>
+        <v>57873</v>
+      </c>
+      <c r="F33" s="49">
+        <f>F30</f>
+        <v>7212</v>
+      </c>
+      <c r="G33" s="50">
+        <f>F33*4</f>
+        <v>28848</v>
+      </c>
+      <c r="H33" s="48"/>
+      <c r="I33" s="28">
+        <f t="shared" si="11"/>
+        <v>28848</v>
+      </c>
+      <c r="J33" s="28"/>
+      <c r="K33" s="27">
+        <f t="shared" si="12"/>
+        <v>29025</v>
+      </c>
+      <c r="N33" s="41"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="69">
+        <v>2020</v>
+      </c>
+      <c r="C34" s="4">
+        <f>57500+20000</f>
+        <v>77500</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="46">
+        <f t="shared" si="10"/>
+        <v>79520</v>
+      </c>
+      <c r="F34" s="49">
+        <f>F29</f>
+        <v>8184</v>
+      </c>
+      <c r="G34" s="50">
+        <f>F34*2</f>
+        <v>16368</v>
+      </c>
+      <c r="H34" s="51"/>
+      <c r="I34" s="28">
+        <f t="shared" si="11"/>
+        <v>16368</v>
+      </c>
+      <c r="J34" s="28"/>
+      <c r="K34" s="27">
+        <f t="shared" si="12"/>
+        <v>63152</v>
+      </c>
+      <c r="N34" s="41"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="69">
+        <v>76798</v>
+      </c>
+      <c r="C35" s="4">
+        <f>39000+39000</f>
+        <v>78000</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="46">
+        <f t="shared" si="10"/>
+        <v>154798</v>
+      </c>
+      <c r="F35" s="49">
+        <f>F29</f>
+        <v>8184</v>
+      </c>
+      <c r="G35" s="50">
+        <f>F35*2</f>
+        <v>16368</v>
+      </c>
+      <c r="H35" s="51"/>
+      <c r="I35" s="28">
+        <f t="shared" si="11"/>
+        <v>16368</v>
+      </c>
+      <c r="J35" s="28"/>
+      <c r="K35" s="27">
+        <f t="shared" si="12"/>
+        <v>138430</v>
+      </c>
+      <c r="N35" s="41"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A36" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="71">
+        <v>47336</v>
+      </c>
+      <c r="C36" s="54"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="56">
+        <f t="shared" si="10"/>
+        <v>47336</v>
+      </c>
+      <c r="F36" s="57">
+        <f>F29</f>
+        <v>8184</v>
+      </c>
+      <c r="G36" s="58">
+        <f>F36*2</f>
+        <v>16368</v>
+      </c>
+      <c r="H36" s="59"/>
+      <c r="I36" s="60">
+        <f t="shared" si="11"/>
+        <v>16368</v>
+      </c>
+      <c r="J36" s="60"/>
+      <c r="K36" s="66">
+        <f>E36-I36-J36</f>
+        <v>30968</v>
+      </c>
+      <c r="N36" s="41"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="B37" s="41"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="F38" s="61">
+        <f>F4+F5+F6+F7+F8+F10+F11+F12+F13+F29+F30</f>
+        <v>126002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="F39" s="41"/>
+      <c r="H39" s="61"/>
+      <c r="J39" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.27" right="0.34" top="0.28000000000000003" bottom="0.21" header="0.23" footer="0.16"/>
+  <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/PACKING MATEREILS STATEMENT-2021-22.xlsx
+++ b/PACKING MATEREILS STATEMENT-2021-22.xlsx
@@ -649,6 +649,7 @@
       <sheetName val="July 2020"/>
       <sheetName val="August 2021"/>
       <sheetName val="September 2021"/>
+      <sheetName val="October 2021"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -873,6 +874,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>

--- a/PACKING MATEREILS STATEMENT-2021-22.xlsx
+++ b/PACKING MATEREILS STATEMENT-2021-22.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5"/>
@@ -614,14 +614,14 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,6 +649,7 @@
       <sheetName val="July 2020"/>
       <sheetName val="August 2021"/>
       <sheetName val="September 2021"/>
+      <sheetName val="October 2021"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -839,40 +840,41 @@
       <sheetData sheetId="5">
         <row r="30">
           <cell r="B30">
-            <v>1248</v>
+            <v>1608</v>
           </cell>
           <cell r="C30">
-            <v>2184</v>
+            <v>2712</v>
           </cell>
           <cell r="D30">
-            <v>16380</v>
+            <v>40200</v>
           </cell>
           <cell r="E30">
             <v>0</v>
           </cell>
           <cell r="F30">
-            <v>660</v>
+            <v>1342</v>
           </cell>
           <cell r="G30">
             <v>616</v>
           </cell>
           <cell r="H30">
-            <v>4608</v>
+            <v>7944</v>
           </cell>
           <cell r="I30">
-            <v>2808</v>
+            <v>5976</v>
           </cell>
           <cell r="J30">
-            <v>23736</v>
+            <v>50208</v>
           </cell>
           <cell r="K30">
-            <v>2148</v>
+            <v>8184</v>
           </cell>
           <cell r="L30">
-            <v>3852</v>
+            <v>7212</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1186,19 +1188,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
     </row>
     <row r="2" spans="1:12" s="22" customFormat="1" ht="23.25" thickBot="1">
       <c r="A2" s="8" t="s">
@@ -2287,19 +2289,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
     </row>
     <row r="2" spans="1:14" s="22" customFormat="1" ht="23.25" thickBot="1">
       <c r="A2" s="8" t="s">
@@ -3421,19 +3423,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
     </row>
     <row r="2" spans="1:14" s="22" customFormat="1" ht="23.25" thickBot="1">
       <c r="A2" s="8" t="s">
@@ -4569,19 +4571,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
     </row>
     <row r="2" spans="1:14" s="22" customFormat="1" ht="23.25" thickBot="1">
       <c r="A2" s="8" t="s">
@@ -5705,19 +5707,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
     </row>
     <row r="2" spans="1:14" s="22" customFormat="1" ht="23.25" thickBot="1">
       <c r="A2" s="8" t="s">
@@ -6908,7 +6910,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6928,19 +6930,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
     </row>
     <row r="2" spans="1:14" s="22" customFormat="1" ht="23.25" thickBot="1">
       <c r="A2" s="8" t="s">
@@ -6994,7 +6996,7 @@
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="70">
+      <c r="B4" s="69">
         <v>3785.5</v>
       </c>
       <c r="C4" s="27"/>
@@ -7005,21 +7007,21 @@
       </c>
       <c r="F4" s="29">
         <f>'[1]September 2021'!$J$30</f>
-        <v>23736</v>
+        <v>50208</v>
       </c>
       <c r="G4" s="29">
         <f>F4*0.024</f>
-        <v>569.66399999999999</v>
+        <v>1204.992</v>
       </c>
       <c r="H4" s="28"/>
       <c r="I4" s="28">
         <f>G4+H4</f>
-        <v>569.66399999999999</v>
+        <v>1204.992</v>
       </c>
       <c r="J4" s="28"/>
       <c r="K4" s="29">
         <f>E4-I4-J4</f>
-        <v>3215.8360000000002</v>
+        <v>2580.5079999999998</v>
       </c>
       <c r="N4" s="41"/>
     </row>
@@ -7027,7 +7029,7 @@
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="70">
+      <c r="B5" s="69">
         <v>1009.94</v>
       </c>
       <c r="C5" s="27"/>
@@ -7038,21 +7040,21 @@
       </c>
       <c r="F5" s="29">
         <f>'[1]September 2021'!$C$30</f>
-        <v>2184</v>
+        <v>2712</v>
       </c>
       <c r="G5" s="29">
         <f>F5*0.024</f>
-        <v>52.416000000000004</v>
+        <v>65.088000000000008</v>
       </c>
       <c r="H5" s="28"/>
       <c r="I5" s="28">
         <f t="shared" ref="I5:I6" si="1">G5+H5</f>
-        <v>52.416000000000004</v>
+        <v>65.088000000000008</v>
       </c>
       <c r="J5" s="28"/>
       <c r="K5" s="28">
         <f>E5-I5-J5</f>
-        <v>957.524</v>
+        <v>944.85200000000009</v>
       </c>
       <c r="N5" s="41"/>
     </row>
@@ -7060,7 +7062,7 @@
       <c r="A6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="70">
+      <c r="B6" s="69">
         <v>949.6</v>
       </c>
       <c r="C6" s="27"/>
@@ -7093,7 +7095,7 @@
       <c r="A7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="70">
+      <c r="B7" s="69">
         <v>760.8</v>
       </c>
       <c r="C7" s="27"/>
@@ -7104,21 +7106,21 @@
       </c>
       <c r="F7" s="29">
         <f>'[1]September 2021'!$F$30</f>
-        <v>660</v>
+        <v>1342</v>
       </c>
       <c r="G7" s="29">
         <f>F7*0.075</f>
-        <v>49.5</v>
+        <v>100.64999999999999</v>
       </c>
       <c r="H7" s="28"/>
       <c r="I7" s="28">
         <f>G7+H7</f>
-        <v>49.5</v>
+        <v>100.64999999999999</v>
       </c>
       <c r="J7" s="28"/>
       <c r="K7" s="28">
         <f>E7-I7-J7</f>
-        <v>711.3</v>
+        <v>660.15</v>
       </c>
       <c r="N7" s="41"/>
     </row>
@@ -7126,7 +7128,7 @@
       <c r="A8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="70">
+      <c r="B8" s="69">
         <v>606.04</v>
       </c>
       <c r="C8" s="27"/>
@@ -7173,7 +7175,7 @@
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="70">
+      <c r="B10" s="69">
         <v>66368</v>
       </c>
       <c r="C10" s="2"/>
@@ -7184,21 +7186,21 @@
       </c>
       <c r="F10" s="35">
         <f>'[1]September 2021'!$H$30</f>
-        <v>4608</v>
+        <v>7944</v>
       </c>
       <c r="G10" s="35">
         <f>F10*1</f>
-        <v>4608</v>
+        <v>7944</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="28">
         <f t="shared" ref="I10:I13" si="4">G10+H10</f>
-        <v>4608</v>
+        <v>7944</v>
       </c>
       <c r="J10" s="28"/>
       <c r="K10" s="63">
         <f>E10-I10-J10</f>
-        <v>61760</v>
+        <v>58424</v>
       </c>
       <c r="N10" s="41"/>
     </row>
@@ -7206,7 +7208,7 @@
       <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="70">
+      <c r="B11" s="69">
         <v>43557</v>
       </c>
       <c r="C11" s="2"/>
@@ -7217,21 +7219,21 @@
       </c>
       <c r="F11" s="35">
         <f>'[1]September 2021'!$I$30</f>
-        <v>2808</v>
+        <v>5976</v>
       </c>
       <c r="G11" s="35">
         <f>F11*2</f>
-        <v>5616</v>
+        <v>11952</v>
       </c>
       <c r="H11" s="34"/>
       <c r="I11" s="28">
         <f t="shared" si="4"/>
-        <v>5616</v>
+        <v>11952</v>
       </c>
       <c r="J11" s="28"/>
       <c r="K11" s="63">
         <f>E11-I11-J11</f>
-        <v>37941</v>
+        <v>31605</v>
       </c>
       <c r="N11" s="41"/>
     </row>
@@ -7239,7 +7241,7 @@
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="70">
+      <c r="B12" s="69">
         <v>5232</v>
       </c>
       <c r="C12" s="2"/>
@@ -7250,21 +7252,21 @@
       </c>
       <c r="F12" s="35">
         <f>'[1]September 2021'!$B$30</f>
-        <v>1248</v>
+        <v>1608</v>
       </c>
       <c r="G12" s="35">
         <f>F12*1</f>
-        <v>1248</v>
+        <v>1608</v>
       </c>
       <c r="H12" s="34"/>
       <c r="I12" s="28">
         <f t="shared" si="4"/>
-        <v>1248</v>
+        <v>1608</v>
       </c>
       <c r="J12" s="28"/>
       <c r="K12" s="63">
         <f>E12-I12-J12</f>
-        <v>3984</v>
+        <v>3624</v>
       </c>
       <c r="N12" s="41"/>
     </row>
@@ -7272,34 +7274,35 @@
       <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="70">
+      <c r="B13" s="69">
         <v>-98</v>
       </c>
       <c r="C13" s="2">
-        <v>3050</v>
+        <f>9560</f>
+        <v>9560</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="34">
         <f>B13+C13+D13</f>
-        <v>2952</v>
+        <v>9462</v>
       </c>
       <c r="F13" s="35">
         <f>'[1]September 2021'!$D$30</f>
-        <v>16380</v>
+        <v>40200</v>
       </c>
       <c r="G13" s="35">
         <f>F13/5</f>
-        <v>3276</v>
+        <v>8040</v>
       </c>
       <c r="H13" s="34"/>
       <c r="I13" s="28">
         <f t="shared" si="4"/>
-        <v>3276</v>
+        <v>8040</v>
       </c>
       <c r="J13" s="28"/>
       <c r="K13" s="63">
         <f>E13-I13-J13</f>
-        <v>-324</v>
+        <v>1422</v>
       </c>
       <c r="L13" s="62"/>
       <c r="N13" s="41"/>
@@ -7322,7 +7325,7 @@
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="68">
+      <c r="B15" s="67">
         <v>74784</v>
       </c>
       <c r="C15" s="2"/>
@@ -7333,21 +7336,21 @@
       </c>
       <c r="F15" s="35">
         <f>F13</f>
-        <v>16380</v>
+        <v>40200</v>
       </c>
       <c r="G15" s="35">
         <f>F15/5</f>
-        <v>3276</v>
+        <v>8040</v>
       </c>
       <c r="H15" s="34"/>
       <c r="I15" s="28">
         <f t="shared" ref="I15:I19" si="6">G15+H15</f>
-        <v>3276</v>
+        <v>8040</v>
       </c>
       <c r="J15" s="28"/>
       <c r="K15" s="63">
         <f>E15-I15-J15</f>
-        <v>71508</v>
+        <v>66744</v>
       </c>
       <c r="N15" s="41"/>
     </row>
@@ -7355,7 +7358,7 @@
       <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="70">
+      <c r="B16" s="69">
         <v>131092</v>
       </c>
       <c r="C16" s="2"/>
@@ -7366,21 +7369,21 @@
       </c>
       <c r="F16" s="35">
         <f>F4+F5</f>
-        <v>25920</v>
+        <v>52920</v>
       </c>
       <c r="G16" s="35">
         <f>F16/2</f>
-        <v>12960</v>
+        <v>26460</v>
       </c>
       <c r="H16" s="34"/>
       <c r="I16" s="28">
         <f t="shared" si="6"/>
-        <v>12960</v>
+        <v>26460</v>
       </c>
       <c r="J16" s="28"/>
       <c r="K16" s="63">
         <f>E16-I16-J16</f>
-        <v>118132</v>
+        <v>104632</v>
       </c>
       <c r="N16" s="41"/>
     </row>
@@ -7388,7 +7391,7 @@
       <c r="A17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="70">
+      <c r="B17" s="69">
         <v>53850</v>
       </c>
       <c r="C17" s="2"/>
@@ -7421,7 +7424,7 @@
       <c r="A18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="70">
+      <c r="B18" s="69">
         <v>179014</v>
       </c>
       <c r="C18" s="2"/>
@@ -7432,21 +7435,21 @@
       </c>
       <c r="F18" s="39">
         <f>F7</f>
-        <v>660</v>
+        <v>1342</v>
       </c>
       <c r="G18" s="35">
         <f>(F18/22)*25</f>
-        <v>750</v>
+        <v>1525</v>
       </c>
       <c r="H18" s="34"/>
       <c r="I18" s="28">
         <f t="shared" si="6"/>
-        <v>750</v>
+        <v>1525</v>
       </c>
       <c r="J18" s="28"/>
       <c r="K18" s="63">
         <f>E18-I18-J18</f>
-        <v>178264</v>
+        <v>177489</v>
       </c>
       <c r="N18" s="41"/>
     </row>
@@ -7454,7 +7457,7 @@
       <c r="A19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="70">
+      <c r="B19" s="69">
         <v>438</v>
       </c>
       <c r="C19" s="2"/>
@@ -7485,7 +7488,7 @@
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1">
       <c r="A20" s="9"/>
-      <c r="B20" s="69"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
       <c r="E20" s="37"/>
@@ -7501,7 +7504,7 @@
       <c r="A21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="70">
+      <c r="B21" s="69">
         <v>685</v>
       </c>
       <c r="C21" s="2"/>
@@ -7512,21 +7515,21 @@
       </c>
       <c r="F21" s="35">
         <f>F10</f>
-        <v>4608</v>
+        <v>7944</v>
       </c>
       <c r="G21" s="35">
         <f>F21/24</f>
-        <v>192</v>
+        <v>331</v>
       </c>
       <c r="H21" s="34"/>
       <c r="I21" s="28">
         <f t="shared" ref="I21:I26" si="8">G21+H21</f>
-        <v>192</v>
+        <v>331</v>
       </c>
       <c r="J21" s="28"/>
       <c r="K21" s="63">
         <f t="shared" ref="K21:K27" si="9">E21-I21-J21</f>
-        <v>493</v>
+        <v>354</v>
       </c>
       <c r="N21" s="41"/>
     </row>
@@ -7534,7 +7537,7 @@
       <c r="A22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="70">
+      <c r="B22" s="69">
         <v>1326</v>
       </c>
       <c r="C22" s="2"/>
@@ -7545,21 +7548,21 @@
       </c>
       <c r="F22" s="35">
         <f>F12</f>
-        <v>1248</v>
+        <v>1608</v>
       </c>
       <c r="G22" s="35">
         <f>F22/24</f>
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H22" s="34"/>
       <c r="I22" s="28">
         <f t="shared" si="8"/>
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="J22" s="28"/>
       <c r="K22" s="63">
         <f t="shared" si="9"/>
-        <v>1274</v>
+        <v>1259</v>
       </c>
       <c r="N22" s="41"/>
     </row>
@@ -7567,29 +7570,31 @@
       <c r="A23" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="70">
+      <c r="B23" s="69">
         <v>1374</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2">
+        <v>3050</v>
+      </c>
       <c r="D23" s="3"/>
       <c r="E23" s="34">
         <f t="shared" si="7"/>
-        <v>1374</v>
+        <v>4424</v>
       </c>
       <c r="F23" s="39"/>
       <c r="G23" s="35">
         <f>(F13/30)+(F7/22)+(F6/22)</f>
-        <v>604</v>
+        <v>1429</v>
       </c>
       <c r="H23" s="34"/>
       <c r="I23" s="28">
         <f t="shared" si="8"/>
-        <v>604</v>
+        <v>1429</v>
       </c>
       <c r="J23" s="28"/>
       <c r="K23" s="33">
         <f t="shared" si="9"/>
-        <v>770</v>
+        <v>2995</v>
       </c>
       <c r="L23" s="41"/>
       <c r="N23" s="41"/>
@@ -7598,7 +7603,7 @@
       <c r="A24" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="70">
+      <c r="B24" s="69">
         <v>832</v>
       </c>
       <c r="C24" s="2"/>
@@ -7631,32 +7636,34 @@
       <c r="A25" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="71">
+      <c r="B25" s="70">
         <v>3426</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2">
+        <v>3497</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="34">
         <f t="shared" si="7"/>
-        <v>3426</v>
+        <v>6923</v>
       </c>
       <c r="F25" s="35">
         <f>F4</f>
-        <v>23736</v>
+        <v>50208</v>
       </c>
       <c r="G25" s="35">
         <f>F25/24</f>
-        <v>989</v>
+        <v>2092</v>
       </c>
       <c r="H25" s="34"/>
       <c r="I25" s="28">
         <f t="shared" si="8"/>
-        <v>989</v>
+        <v>2092</v>
       </c>
       <c r="J25" s="28"/>
       <c r="K25" s="63">
         <f t="shared" si="9"/>
-        <v>2437</v>
+        <v>4831</v>
       </c>
       <c r="M25" s="62"/>
       <c r="N25" s="41"/>
@@ -7665,7 +7672,7 @@
       <c r="A26" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="70">
+      <c r="B26" s="69">
         <v>200</v>
       </c>
       <c r="C26" s="2"/>
@@ -7676,21 +7683,21 @@
       </c>
       <c r="F26" s="35">
         <f>F5</f>
-        <v>2184</v>
+        <v>2712</v>
       </c>
       <c r="G26" s="35">
         <f>F26/24</f>
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="H26" s="34"/>
       <c r="I26" s="28">
         <f t="shared" si="8"/>
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="J26" s="28"/>
       <c r="K26" s="63">
         <f t="shared" si="9"/>
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="N26" s="41"/>
     </row>
@@ -7698,7 +7705,7 @@
       <c r="A27" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="70">
+      <c r="B27" s="69">
         <v>547</v>
       </c>
       <c r="C27" s="2"/>
@@ -7709,27 +7716,27 @@
       </c>
       <c r="F27" s="35">
         <f>F11</f>
-        <v>2808</v>
+        <v>5976</v>
       </c>
       <c r="G27" s="35">
         <f>F27/24</f>
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="H27" s="34"/>
       <c r="I27" s="28">
         <f>G27+H27</f>
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="J27" s="28"/>
       <c r="K27" s="63">
         <f t="shared" si="9"/>
-        <v>430</v>
+        <v>298</v>
       </c>
       <c r="N27" s="41"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="11"/>
-      <c r="B28" s="69"/>
+      <c r="B28" s="68"/>
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
       <c r="E28" s="37"/>
@@ -7745,34 +7752,32 @@
       <c r="A29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="70">
+      <c r="B29" s="69">
         <v>22380</v>
       </c>
-      <c r="C29" s="2">
-        <v>57500</v>
-      </c>
+      <c r="C29" s="2"/>
       <c r="D29" s="3"/>
       <c r="E29" s="34">
         <f t="shared" ref="E29:E36" si="10">B29+C29+D29</f>
-        <v>79880</v>
+        <v>22380</v>
       </c>
       <c r="F29" s="44">
         <f>'[1]September 2021'!$K$30</f>
-        <v>2148</v>
+        <v>8184</v>
       </c>
       <c r="G29" s="44">
         <f>F29*2</f>
-        <v>4296</v>
+        <v>16368</v>
       </c>
       <c r="H29" s="45"/>
       <c r="I29" s="28">
         <f t="shared" ref="I29:I36" si="11">G29+H29</f>
-        <v>4296</v>
+        <v>16368</v>
       </c>
       <c r="J29" s="28"/>
       <c r="K29" s="64">
         <f t="shared" ref="K29:K35" si="12">E29-I29-J29</f>
-        <v>75584</v>
+        <v>6012</v>
       </c>
       <c r="N29" s="41"/>
     </row>
@@ -7780,7 +7785,7 @@
       <c r="A30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="70">
+      <c r="B30" s="69">
         <v>16796</v>
       </c>
       <c r="C30" s="2">
@@ -7793,21 +7798,21 @@
       </c>
       <c r="F30" s="47">
         <f>'[1]September 2021'!$L$30</f>
-        <v>3852</v>
+        <v>7212</v>
       </c>
       <c r="G30" s="44">
         <f>F30*4</f>
-        <v>15408</v>
+        <v>28848</v>
       </c>
       <c r="H30" s="45"/>
       <c r="I30" s="28">
         <f t="shared" si="11"/>
-        <v>15408</v>
+        <v>28848</v>
       </c>
       <c r="J30" s="28"/>
       <c r="K30" s="64">
         <f>E30-I30-J30</f>
-        <v>46888</v>
+        <v>33448</v>
       </c>
       <c r="N30" s="41"/>
     </row>
@@ -7815,7 +7820,7 @@
       <c r="A31" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="70">
+      <c r="B31" s="69">
         <v>5123</v>
       </c>
       <c r="C31" s="2"/>
@@ -7826,21 +7831,21 @@
       </c>
       <c r="F31" s="49">
         <f>F29</f>
-        <v>2148</v>
+        <v>8184</v>
       </c>
       <c r="G31" s="44">
         <f>F31/12</f>
-        <v>179</v>
+        <v>682</v>
       </c>
       <c r="H31" s="45"/>
       <c r="I31" s="28">
         <f t="shared" si="11"/>
-        <v>179</v>
+        <v>682</v>
       </c>
       <c r="J31" s="28"/>
       <c r="K31" s="27">
         <f t="shared" si="12"/>
-        <v>4944</v>
+        <v>4441</v>
       </c>
       <c r="N31" s="41"/>
     </row>
@@ -7848,7 +7853,7 @@
       <c r="A32" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="70">
+      <c r="B32" s="69">
         <v>1013</v>
       </c>
       <c r="C32" s="4"/>
@@ -7859,21 +7864,21 @@
       </c>
       <c r="F32" s="49">
         <f>F30</f>
-        <v>3852</v>
+        <v>7212</v>
       </c>
       <c r="G32" s="50">
         <f>F32/12</f>
-        <v>321</v>
+        <v>601</v>
       </c>
       <c r="H32" s="51"/>
       <c r="I32" s="28">
         <f t="shared" si="11"/>
-        <v>321</v>
+        <v>601</v>
       </c>
       <c r="J32" s="28"/>
       <c r="K32" s="27">
         <f t="shared" si="12"/>
-        <v>692</v>
+        <v>412</v>
       </c>
       <c r="N32" s="41"/>
     </row>
@@ -7881,7 +7886,7 @@
       <c r="A33" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="70">
+      <c r="B33" s="69">
         <v>57873</v>
       </c>
       <c r="C33" s="2"/>
@@ -7892,21 +7897,21 @@
       </c>
       <c r="F33" s="49">
         <f>F30</f>
-        <v>3852</v>
+        <v>7212</v>
       </c>
       <c r="G33" s="50">
         <f>F33*4</f>
-        <v>15408</v>
+        <v>28848</v>
       </c>
       <c r="H33" s="48"/>
       <c r="I33" s="28">
         <f t="shared" si="11"/>
-        <v>15408</v>
+        <v>28848</v>
       </c>
       <c r="J33" s="28"/>
       <c r="K33" s="27">
         <f t="shared" si="12"/>
-        <v>42465</v>
+        <v>29025</v>
       </c>
       <c r="N33" s="41"/>
     </row>
@@ -7914,34 +7919,35 @@
       <c r="A34" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="70">
+      <c r="B34" s="69">
         <v>2020</v>
       </c>
       <c r="C34" s="4">
-        <v>20000</v>
+        <f>57500+20000</f>
+        <v>77500</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="46">
         <f t="shared" si="10"/>
-        <v>22020</v>
+        <v>79520</v>
       </c>
       <c r="F34" s="49">
         <f>F29</f>
-        <v>2148</v>
+        <v>8184</v>
       </c>
       <c r="G34" s="50">
         <f>F34*2</f>
-        <v>4296</v>
+        <v>16368</v>
       </c>
       <c r="H34" s="51"/>
       <c r="I34" s="28">
         <f t="shared" si="11"/>
-        <v>4296</v>
+        <v>16368</v>
       </c>
       <c r="J34" s="28"/>
       <c r="K34" s="27">
         <f t="shared" si="12"/>
-        <v>17724</v>
+        <v>63152</v>
       </c>
       <c r="N34" s="41"/>
     </row>
@@ -7949,7 +7955,7 @@
       <c r="A35" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="70">
+      <c r="B35" s="69">
         <v>76798</v>
       </c>
       <c r="C35" s="4">
@@ -7963,21 +7969,21 @@
       </c>
       <c r="F35" s="49">
         <f>F29</f>
-        <v>2148</v>
+        <v>8184</v>
       </c>
       <c r="G35" s="50">
         <f>F35*2</f>
-        <v>4296</v>
+        <v>16368</v>
       </c>
       <c r="H35" s="51"/>
       <c r="I35" s="28">
         <f t="shared" si="11"/>
-        <v>4296</v>
+        <v>16368</v>
       </c>
       <c r="J35" s="28"/>
       <c r="K35" s="27">
         <f t="shared" si="12"/>
-        <v>150502</v>
+        <v>138430</v>
       </c>
       <c r="N35" s="41"/>
     </row>
@@ -7985,7 +7991,7 @@
       <c r="A36" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="72">
+      <c r="B36" s="71">
         <v>47336</v>
       </c>
       <c r="C36" s="54"/>
@@ -7996,21 +8002,21 @@
       </c>
       <c r="F36" s="57">
         <f>F29</f>
-        <v>2148</v>
+        <v>8184</v>
       </c>
       <c r="G36" s="58">
         <f>F36*2</f>
-        <v>4296</v>
+        <v>16368</v>
       </c>
       <c r="H36" s="59"/>
       <c r="I36" s="60">
         <f t="shared" si="11"/>
-        <v>4296</v>
+        <v>16368</v>
       </c>
       <c r="J36" s="60"/>
       <c r="K36" s="66">
         <f>E36-I36-J36</f>
-        <v>43040</v>
+        <v>30968</v>
       </c>
       <c r="N36" s="41"/>
     </row>
@@ -8018,10 +8024,7 @@
       <c r="B37" s="41"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="F38" s="61">
-        <f>F4+F5+F6+F7+F8+F10+F11+F12+F13+F29+F30</f>
-        <v>58240</v>
-      </c>
+      <c r="F38" s="61"/>
     </row>
     <row r="39" spans="1:14">
       <c r="F39" s="41"/>

--- a/PACKING MATEREILS STATEMENT-2021-22.xlsx
+++ b/PACKING MATEREILS STATEMENT-2021-22.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021-22" sheetId="79" r:id="rId1"/>
@@ -13,9 +13,10 @@
     <sheet name="july" sheetId="82" r:id="rId4"/>
     <sheet name="AUGUST" sheetId="83" r:id="rId5"/>
     <sheet name="september" sheetId="84" r:id="rId6"/>
+    <sheet name="October 2021" sheetId="86" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="125725"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="49">
   <si>
     <t>Particulars</t>
   </si>
@@ -171,6 +172,12 @@
   </si>
   <si>
     <t xml:space="preserve">PACKING MATERIALS STATEMENT AS ON THE MONTH OF SEPTEMBER 2021   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PACKING MATERIALS STATEMENT AS ON THE MONTH OF OCTOBER 2021   </t>
+  </si>
+  <si>
+    <t>PR</t>
   </si>
 </sst>
 </file>
@@ -874,7 +881,43 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="6">
+        <row r="30">
+          <cell r="B30">
+            <v>1032</v>
+          </cell>
+          <cell r="C30">
+            <v>2736</v>
+          </cell>
+          <cell r="D30">
+            <v>11670</v>
+          </cell>
+          <cell r="E30">
+            <v>576</v>
+          </cell>
+          <cell r="F30">
+            <v>0</v>
+          </cell>
+          <cell r="G30">
+            <v>0</v>
+          </cell>
+          <cell r="H30">
+            <v>2592</v>
+          </cell>
+          <cell r="I30">
+            <v>1584</v>
+          </cell>
+          <cell r="J30">
+            <v>15456</v>
+          </cell>
+          <cell r="K30">
+            <v>2856</v>
+          </cell>
+          <cell r="L30">
+            <v>132</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1167,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:M36"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5686,8 +5729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6907,10 +6950,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7202,6 +7248,9 @@
         <f>E10-I10-J10</f>
         <v>58424</v>
       </c>
+      <c r="M10" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="N10" s="41"/>
     </row>
     <row r="11" spans="1:14">
@@ -7235,7 +7284,13 @@
         <f>E11-I11-J11</f>
         <v>31605</v>
       </c>
-      <c r="N11" s="41"/>
+      <c r="M11" s="13">
+        <v>500</v>
+      </c>
+      <c r="N11" s="41">
+        <f>M11/5</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="7" t="s">
@@ -8036,6 +8091,1163 @@
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.27" right="0.34" top="0.28000000000000003" bottom="0.21" header="0.23" footer="0.16"/>
-  <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="77" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:K36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="13" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="13"/>
+    <col min="10" max="10" width="6.28515625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="13" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A1" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+    </row>
+    <row r="2" spans="1:14" s="22" customFormat="1" ht="23.25" thickBot="1">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="15"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="65"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="69">
+        <v>2580.5</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="28">
+        <f t="shared" ref="E4:E7" si="0">B4+C4+D4</f>
+        <v>2580.5</v>
+      </c>
+      <c r="F4" s="29">
+        <f>'[1]October 2021'!$J$30</f>
+        <v>15456</v>
+      </c>
+      <c r="G4" s="29">
+        <f>F4*0.024</f>
+        <v>370.94400000000002</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28">
+        <f>G4+H4</f>
+        <v>370.94400000000002</v>
+      </c>
+      <c r="J4" s="28"/>
+      <c r="K4" s="29">
+        <f>E4-I4-J4</f>
+        <v>2209.556</v>
+      </c>
+      <c r="M4"/>
+      <c r="N4" s="41"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="69">
+        <v>944.85</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="28">
+        <f t="shared" si="0"/>
+        <v>944.85</v>
+      </c>
+      <c r="F5" s="29">
+        <f>'[1]October 2021'!$C$30</f>
+        <v>2736</v>
+      </c>
+      <c r="G5" s="29">
+        <f>F5*0.024</f>
+        <v>65.664000000000001</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28">
+        <f t="shared" ref="I5:I6" si="1">G5+H5</f>
+        <v>65.664000000000001</v>
+      </c>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28">
+        <f>E5-I5-J5</f>
+        <v>879.18600000000004</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5" s="41"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="69">
+        <v>883.07</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="28">
+        <f t="shared" si="0"/>
+        <v>883.07</v>
+      </c>
+      <c r="F6" s="29">
+        <f>'[1]October 2021'!$G$30</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="29">
+        <f>F6*0.108</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28">
+        <f>E6-I6-J6</f>
+        <v>883.07</v>
+      </c>
+      <c r="M6"/>
+      <c r="N6" s="41"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="69">
+        <v>660.15</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="28">
+        <f t="shared" si="0"/>
+        <v>660.15</v>
+      </c>
+      <c r="F7" s="29">
+        <f>'[1]October 2021'!$F$30</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="29">
+        <f>F7*0.075</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28">
+        <f>G7+H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28">
+        <f>E7-I7-J7</f>
+        <v>660.15</v>
+      </c>
+      <c r="M7"/>
+      <c r="N7" s="41"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="69">
+        <v>606.04</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="28">
+        <f>B8+C8+D8</f>
+        <v>606.04</v>
+      </c>
+      <c r="F8" s="29">
+        <f>'[1]October 2021'!$E$30</f>
+        <v>576</v>
+      </c>
+      <c r="G8" s="29">
+        <f>F8*0.035</f>
+        <v>20.160000000000004</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28">
+        <f t="shared" ref="I8" si="2">G8+H8</f>
+        <v>20.160000000000004</v>
+      </c>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28">
+        <f t="shared" ref="K8" si="3">E8-I8-J8</f>
+        <v>585.88</v>
+      </c>
+      <c r="M8"/>
+      <c r="N8" s="41"/>
+    </row>
+    <row r="9" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="M9"/>
+      <c r="N9" s="41"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="69">
+        <v>58424</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="34">
+        <f>B10+C10+D10</f>
+        <v>58424</v>
+      </c>
+      <c r="F10" s="35">
+        <f>'[1]October 2021'!$H$30</f>
+        <v>2592</v>
+      </c>
+      <c r="G10" s="35">
+        <f>F10*1</f>
+        <v>2592</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="28">
+        <f t="shared" ref="I10:I13" si="4">G10+H10</f>
+        <v>2592</v>
+      </c>
+      <c r="J10" s="28"/>
+      <c r="K10" s="63">
+        <f>E10-I10-J10</f>
+        <v>55832</v>
+      </c>
+      <c r="M10"/>
+      <c r="N10" s="41"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="69">
+        <v>31605</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="34">
+        <f>B11+C11+D11</f>
+        <v>31605</v>
+      </c>
+      <c r="F11" s="35">
+        <f>'[1]October 2021'!$I$30</f>
+        <v>1584</v>
+      </c>
+      <c r="G11" s="35">
+        <f>F11*2</f>
+        <v>3168</v>
+      </c>
+      <c r="H11" s="34"/>
+      <c r="I11" s="28">
+        <f t="shared" si="4"/>
+        <v>3168</v>
+      </c>
+      <c r="J11" s="28"/>
+      <c r="K11" s="63">
+        <f>E11-I11-J11</f>
+        <v>28437</v>
+      </c>
+      <c r="M11"/>
+      <c r="N11" s="41"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="69">
+        <v>3624</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="34">
+        <f>B12+C12+D12</f>
+        <v>3624</v>
+      </c>
+      <c r="F12" s="35">
+        <f>'[1]October 2021'!$B$30</f>
+        <v>1032</v>
+      </c>
+      <c r="G12" s="35">
+        <f>F12*1</f>
+        <v>1032</v>
+      </c>
+      <c r="H12" s="34"/>
+      <c r="I12" s="28">
+        <f t="shared" si="4"/>
+        <v>1032</v>
+      </c>
+      <c r="J12" s="28"/>
+      <c r="K12" s="63">
+        <f>E12-I12-J12</f>
+        <v>2592</v>
+      </c>
+      <c r="M12"/>
+      <c r="N12" s="41"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="69">
+        <v>1422</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="34">
+        <f>B13+C13+D13</f>
+        <v>1422</v>
+      </c>
+      <c r="F13" s="35">
+        <f>'[1]October 2021'!$D$30</f>
+        <v>11670</v>
+      </c>
+      <c r="G13" s="35">
+        <f>F13/5</f>
+        <v>2334</v>
+      </c>
+      <c r="H13" s="34"/>
+      <c r="I13" s="28">
+        <f t="shared" si="4"/>
+        <v>2334</v>
+      </c>
+      <c r="J13" s="28"/>
+      <c r="K13" s="63">
+        <f>E13-I13-J13</f>
+        <v>-912</v>
+      </c>
+      <c r="L13" s="62"/>
+      <c r="M13"/>
+      <c r="N13" s="41"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="M14"/>
+      <c r="N14" s="41"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="67">
+        <v>66744</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="34">
+        <f t="shared" ref="E15:E19" si="5">B15+C15+D15</f>
+        <v>66744</v>
+      </c>
+      <c r="F15" s="35">
+        <f>F13</f>
+        <v>11670</v>
+      </c>
+      <c r="G15" s="35">
+        <f>F15/5</f>
+        <v>2334</v>
+      </c>
+      <c r="H15" s="34"/>
+      <c r="I15" s="28">
+        <f t="shared" ref="I15:I19" si="6">G15+H15</f>
+        <v>2334</v>
+      </c>
+      <c r="J15" s="28"/>
+      <c r="K15" s="63">
+        <f>E15-I15-J15</f>
+        <v>64410</v>
+      </c>
+      <c r="M15"/>
+      <c r="N15" s="41"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="69">
+        <v>104632</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="34">
+        <f t="shared" si="5"/>
+        <v>104632</v>
+      </c>
+      <c r="F16" s="35">
+        <f>F4+F5</f>
+        <v>18192</v>
+      </c>
+      <c r="G16" s="35">
+        <f>F16/2</f>
+        <v>9096</v>
+      </c>
+      <c r="H16" s="34"/>
+      <c r="I16" s="28">
+        <f t="shared" si="6"/>
+        <v>9096</v>
+      </c>
+      <c r="J16" s="28"/>
+      <c r="K16" s="63">
+        <f>E16-I16-J16</f>
+        <v>95536</v>
+      </c>
+      <c r="M16"/>
+      <c r="N16" s="41"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="69">
+        <v>52450</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="34">
+        <f t="shared" si="5"/>
+        <v>52450</v>
+      </c>
+      <c r="F17" s="35">
+        <f>F6</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="35">
+        <f>(F17/22)*50</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="34"/>
+      <c r="I17" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="28"/>
+      <c r="K17" s="63">
+        <f>E17-I17-J17</f>
+        <v>52450</v>
+      </c>
+      <c r="M17"/>
+      <c r="N17" s="41"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="69">
+        <v>177489</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="34">
+        <f t="shared" si="5"/>
+        <v>177489</v>
+      </c>
+      <c r="F18" s="39">
+        <f>F7</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="35">
+        <f>(F18/22)*25</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="34"/>
+      <c r="I18" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="28"/>
+      <c r="K18" s="63">
+        <f>E18-I18-J18</f>
+        <v>177489</v>
+      </c>
+      <c r="M18"/>
+      <c r="N18" s="41"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="69">
+        <v>438</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="34">
+        <f t="shared" si="5"/>
+        <v>438</v>
+      </c>
+      <c r="F19" s="39">
+        <f>F8</f>
+        <v>576</v>
+      </c>
+      <c r="G19" s="35">
+        <f>F19/2</f>
+        <v>288</v>
+      </c>
+      <c r="H19" s="34"/>
+      <c r="I19" s="28">
+        <f t="shared" si="6"/>
+        <v>288</v>
+      </c>
+      <c r="J19" s="28"/>
+      <c r="K19" s="63">
+        <f>E19-I19-J19</f>
+        <v>150</v>
+      </c>
+      <c r="M19"/>
+      <c r="N19" s="41"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1">
+      <c r="A20" s="9"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="M20"/>
+      <c r="N20" s="41"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="69">
+        <v>354</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="34">
+        <f t="shared" ref="E21:E27" si="7">B21+C21+D21</f>
+        <v>354</v>
+      </c>
+      <c r="F21" s="35">
+        <f>F10</f>
+        <v>2592</v>
+      </c>
+      <c r="G21" s="35">
+        <f>F21/24</f>
+        <v>108</v>
+      </c>
+      <c r="H21" s="34"/>
+      <c r="I21" s="28">
+        <f t="shared" ref="I21:I26" si="8">G21+H21</f>
+        <v>108</v>
+      </c>
+      <c r="J21" s="28"/>
+      <c r="K21" s="63">
+        <f t="shared" ref="K21:K27" si="9">E21-I21-J21</f>
+        <v>246</v>
+      </c>
+      <c r="M21"/>
+      <c r="N21" s="41"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="69">
+        <v>1259</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="34">
+        <f t="shared" si="7"/>
+        <v>1259</v>
+      </c>
+      <c r="F22" s="35">
+        <f>F12</f>
+        <v>1032</v>
+      </c>
+      <c r="G22" s="35">
+        <f>F22/24</f>
+        <v>43</v>
+      </c>
+      <c r="H22" s="34"/>
+      <c r="I22" s="28">
+        <f t="shared" si="8"/>
+        <v>43</v>
+      </c>
+      <c r="J22" s="28"/>
+      <c r="K22" s="63">
+        <f t="shared" si="9"/>
+        <v>1216</v>
+      </c>
+      <c r="M22"/>
+      <c r="N22" s="41"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="69">
+        <v>2995</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="34">
+        <f t="shared" si="7"/>
+        <v>2995</v>
+      </c>
+      <c r="F23" s="39"/>
+      <c r="G23" s="35">
+        <f>(F13/30)+(F7/22)+(F6/22)</f>
+        <v>389</v>
+      </c>
+      <c r="H23" s="34"/>
+      <c r="I23" s="28">
+        <f t="shared" si="8"/>
+        <v>389</v>
+      </c>
+      <c r="J23" s="28"/>
+      <c r="K23" s="33">
+        <f t="shared" si="9"/>
+        <v>2606</v>
+      </c>
+      <c r="L23" s="41"/>
+      <c r="M23"/>
+      <c r="N23" s="41"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="69">
+        <v>832</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="34">
+        <f t="shared" si="7"/>
+        <v>832</v>
+      </c>
+      <c r="F24" s="39">
+        <f>F8</f>
+        <v>576</v>
+      </c>
+      <c r="G24" s="35">
+        <f>(F19/24)</f>
+        <v>24</v>
+      </c>
+      <c r="H24" s="34"/>
+      <c r="I24" s="28">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="J24" s="28"/>
+      <c r="K24" s="63">
+        <f t="shared" si="9"/>
+        <v>808</v>
+      </c>
+      <c r="M24"/>
+      <c r="N24" s="41"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="70">
+        <v>4831</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="34">
+        <f t="shared" si="7"/>
+        <v>4831</v>
+      </c>
+      <c r="F25" s="35">
+        <f>F4</f>
+        <v>15456</v>
+      </c>
+      <c r="G25" s="35">
+        <f>F25/24</f>
+        <v>644</v>
+      </c>
+      <c r="H25" s="34"/>
+      <c r="I25" s="28">
+        <f t="shared" si="8"/>
+        <v>644</v>
+      </c>
+      <c r="J25" s="28"/>
+      <c r="K25" s="63">
+        <f t="shared" si="9"/>
+        <v>4187</v>
+      </c>
+      <c r="M25"/>
+      <c r="N25" s="41"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="69">
+        <v>87</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="34">
+        <f t="shared" si="7"/>
+        <v>87</v>
+      </c>
+      <c r="F26" s="35">
+        <f>F5</f>
+        <v>2736</v>
+      </c>
+      <c r="G26" s="35">
+        <f>F26/24</f>
+        <v>114</v>
+      </c>
+      <c r="H26" s="34"/>
+      <c r="I26" s="28">
+        <f t="shared" si="8"/>
+        <v>114</v>
+      </c>
+      <c r="J26" s="28"/>
+      <c r="K26" s="63">
+        <f t="shared" si="9"/>
+        <v>-27</v>
+      </c>
+      <c r="M26"/>
+      <c r="N26" s="41"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="69">
+        <v>298</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="34">
+        <f t="shared" si="7"/>
+        <v>298</v>
+      </c>
+      <c r="F27" s="35">
+        <f>F11</f>
+        <v>1584</v>
+      </c>
+      <c r="G27" s="35">
+        <f>F27/24</f>
+        <v>66</v>
+      </c>
+      <c r="H27" s="34"/>
+      <c r="I27" s="28">
+        <f>G27+H27</f>
+        <v>66</v>
+      </c>
+      <c r="J27" s="28"/>
+      <c r="K27" s="63">
+        <f t="shared" si="9"/>
+        <v>232</v>
+      </c>
+      <c r="M27"/>
+      <c r="N27" s="41"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="11"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="M28"/>
+      <c r="N28" s="41"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="69">
+        <v>6012</v>
+      </c>
+      <c r="C29" s="2">
+        <v>30564</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="34">
+        <f t="shared" ref="E29:E36" si="10">B29+C29+D29</f>
+        <v>36576</v>
+      </c>
+      <c r="F29" s="44">
+        <f>'[1]October 2021'!$K$30</f>
+        <v>2856</v>
+      </c>
+      <c r="G29" s="44">
+        <f>F29*2</f>
+        <v>5712</v>
+      </c>
+      <c r="H29" s="45"/>
+      <c r="I29" s="28">
+        <f t="shared" ref="I29:I36" si="11">G29+H29</f>
+        <v>5712</v>
+      </c>
+      <c r="J29" s="28"/>
+      <c r="K29" s="64">
+        <f t="shared" ref="K29:K35" si="12">E29-I29-J29</f>
+        <v>30864</v>
+      </c>
+      <c r="M29"/>
+      <c r="N29" s="41"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="69">
+        <v>33448</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="46">
+        <f t="shared" si="10"/>
+        <v>33448</v>
+      </c>
+      <c r="F30" s="47">
+        <f>'[1]October 2021'!$L$30</f>
+        <v>132</v>
+      </c>
+      <c r="G30" s="44">
+        <f>F30*4</f>
+        <v>528</v>
+      </c>
+      <c r="H30" s="45"/>
+      <c r="I30" s="28">
+        <f t="shared" si="11"/>
+        <v>528</v>
+      </c>
+      <c r="J30" s="28"/>
+      <c r="K30" s="64">
+        <f>E30-I30-J30</f>
+        <v>32920</v>
+      </c>
+      <c r="M30"/>
+      <c r="N30" s="41"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="69">
+        <v>4441</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="46">
+        <f t="shared" si="10"/>
+        <v>4441</v>
+      </c>
+      <c r="F31" s="49">
+        <f>F29</f>
+        <v>2856</v>
+      </c>
+      <c r="G31" s="44">
+        <f>F31/12</f>
+        <v>238</v>
+      </c>
+      <c r="H31" s="45"/>
+      <c r="I31" s="28">
+        <f t="shared" si="11"/>
+        <v>238</v>
+      </c>
+      <c r="J31" s="28"/>
+      <c r="K31" s="27">
+        <f t="shared" si="12"/>
+        <v>4203</v>
+      </c>
+      <c r="M31"/>
+      <c r="N31" s="41"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="69">
+        <v>412</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="46">
+        <f t="shared" si="10"/>
+        <v>412</v>
+      </c>
+      <c r="F32" s="49">
+        <f>F30</f>
+        <v>132</v>
+      </c>
+      <c r="G32" s="50">
+        <f>F32/12</f>
+        <v>11</v>
+      </c>
+      <c r="H32" s="51"/>
+      <c r="I32" s="28">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="J32" s="28"/>
+      <c r="K32" s="27">
+        <f t="shared" si="12"/>
+        <v>401</v>
+      </c>
+      <c r="M32"/>
+      <c r="N32" s="41"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="69">
+        <v>29025</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="46">
+        <f t="shared" si="10"/>
+        <v>29025</v>
+      </c>
+      <c r="F33" s="49">
+        <f>F30</f>
+        <v>132</v>
+      </c>
+      <c r="G33" s="50">
+        <f>F33*4</f>
+        <v>528</v>
+      </c>
+      <c r="H33" s="48"/>
+      <c r="I33" s="28">
+        <f t="shared" si="11"/>
+        <v>528</v>
+      </c>
+      <c r="J33" s="28"/>
+      <c r="K33" s="27">
+        <f t="shared" si="12"/>
+        <v>28497</v>
+      </c>
+      <c r="M33"/>
+      <c r="N33" s="41"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="69">
+        <v>63152</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="46">
+        <f t="shared" si="10"/>
+        <v>63152</v>
+      </c>
+      <c r="F34" s="49">
+        <f>F29</f>
+        <v>2856</v>
+      </c>
+      <c r="G34" s="50">
+        <f>F34*2</f>
+        <v>5712</v>
+      </c>
+      <c r="H34" s="51"/>
+      <c r="I34" s="28">
+        <f t="shared" si="11"/>
+        <v>5712</v>
+      </c>
+      <c r="J34" s="28"/>
+      <c r="K34" s="27">
+        <f t="shared" si="12"/>
+        <v>57440</v>
+      </c>
+      <c r="M34"/>
+      <c r="N34" s="41"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="69">
+        <v>138430</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="46">
+        <f t="shared" si="10"/>
+        <v>138430</v>
+      </c>
+      <c r="F35" s="49">
+        <f>F29</f>
+        <v>2856</v>
+      </c>
+      <c r="G35" s="50">
+        <f>F35*2</f>
+        <v>5712</v>
+      </c>
+      <c r="H35" s="51"/>
+      <c r="I35" s="28">
+        <f t="shared" si="11"/>
+        <v>5712</v>
+      </c>
+      <c r="J35" s="28"/>
+      <c r="K35" s="27">
+        <f t="shared" si="12"/>
+        <v>132718</v>
+      </c>
+      <c r="M35"/>
+      <c r="N35" s="41"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A36" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="71">
+        <v>30968</v>
+      </c>
+      <c r="C36" s="54"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="56">
+        <f t="shared" si="10"/>
+        <v>30968</v>
+      </c>
+      <c r="F36" s="57">
+        <f>F29</f>
+        <v>2856</v>
+      </c>
+      <c r="G36" s="58">
+        <f>F36*2</f>
+        <v>5712</v>
+      </c>
+      <c r="H36" s="59"/>
+      <c r="I36" s="60">
+        <f t="shared" si="11"/>
+        <v>5712</v>
+      </c>
+      <c r="J36" s="60"/>
+      <c r="K36" s="66">
+        <f>E36-I36-J36</f>
+        <v>25256</v>
+      </c>
+      <c r="M36"/>
+      <c r="N36" s="41"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="B37" s="41"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="F38" s="61"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="F39" s="41"/>
+      <c r="H39" s="61"/>
+      <c r="J39" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.27" right="0.34" top="0.28000000000000003" bottom="0.21" header="0.23" footer="0.16"/>
+  <pageSetup paperSize="9" scale="77" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PACKING MATEREILS STATEMENT-2021-22.xlsx
+++ b/PACKING MATEREILS STATEMENT-2021-22.xlsx
@@ -890,31 +890,31 @@
             <v>2736</v>
           </cell>
           <cell r="D30">
-            <v>11670</v>
+            <v>25290</v>
           </cell>
           <cell r="E30">
             <v>576</v>
           </cell>
           <cell r="F30">
-            <v>0</v>
+            <v>660</v>
           </cell>
           <cell r="G30">
             <v>0</v>
           </cell>
           <cell r="H30">
-            <v>2592</v>
+            <v>6360</v>
           </cell>
           <cell r="I30">
-            <v>1584</v>
+            <v>3768</v>
           </cell>
           <cell r="J30">
-            <v>15456</v>
+            <v>27696</v>
           </cell>
           <cell r="K30">
-            <v>2856</v>
+            <v>4704</v>
           </cell>
           <cell r="L30">
-            <v>132</v>
+            <v>1332</v>
           </cell>
         </row>
       </sheetData>
@@ -1210,7 +1210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
@@ -2312,7 +2312,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3445,7 +3445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -6955,7 +6955,7 @@
   </sheetPr>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
@@ -8102,8 +8102,8 @@
   </sheetPr>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:K36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8200,21 +8200,21 @@
       </c>
       <c r="F4" s="29">
         <f>'[1]October 2021'!$J$30</f>
-        <v>15456</v>
+        <v>27696</v>
       </c>
       <c r="G4" s="29">
         <f>F4*0.024</f>
-        <v>370.94400000000002</v>
+        <v>664.70400000000006</v>
       </c>
       <c r="H4" s="28"/>
       <c r="I4" s="28">
         <f>G4+H4</f>
-        <v>370.94400000000002</v>
+        <v>664.70400000000006</v>
       </c>
       <c r="J4" s="28"/>
       <c r="K4" s="29">
         <f>E4-I4-J4</f>
-        <v>2209.556</v>
+        <v>1915.7959999999998</v>
       </c>
       <c r="M4"/>
       <c r="N4" s="41"/>
@@ -8302,21 +8302,21 @@
       </c>
       <c r="F7" s="29">
         <f>'[1]October 2021'!$F$30</f>
-        <v>0</v>
+        <v>660</v>
       </c>
       <c r="G7" s="29">
         <f>F7*0.075</f>
-        <v>0</v>
+        <v>49.5</v>
       </c>
       <c r="H7" s="28"/>
       <c r="I7" s="28">
         <f>G7+H7</f>
-        <v>0</v>
+        <v>49.5</v>
       </c>
       <c r="J7" s="28"/>
       <c r="K7" s="28">
         <f>E7-I7-J7</f>
-        <v>660.15</v>
+        <v>610.65</v>
       </c>
       <c r="M7"/>
       <c r="N7" s="41"/>
@@ -8385,21 +8385,21 @@
       </c>
       <c r="F10" s="35">
         <f>'[1]October 2021'!$H$30</f>
-        <v>2592</v>
+        <v>6360</v>
       </c>
       <c r="G10" s="35">
         <f>F10*1</f>
-        <v>2592</v>
+        <v>6360</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="28">
         <f t="shared" ref="I10:I13" si="4">G10+H10</f>
-        <v>2592</v>
+        <v>6360</v>
       </c>
       <c r="J10" s="28"/>
       <c r="K10" s="63">
         <f>E10-I10-J10</f>
-        <v>55832</v>
+        <v>52064</v>
       </c>
       <c r="M10"/>
       <c r="N10" s="41"/>
@@ -8419,21 +8419,21 @@
       </c>
       <c r="F11" s="35">
         <f>'[1]October 2021'!$I$30</f>
-        <v>1584</v>
+        <v>3768</v>
       </c>
       <c r="G11" s="35">
         <f>F11*2</f>
-        <v>3168</v>
+        <v>7536</v>
       </c>
       <c r="H11" s="34"/>
       <c r="I11" s="28">
         <f t="shared" si="4"/>
-        <v>3168</v>
+        <v>7536</v>
       </c>
       <c r="J11" s="28"/>
       <c r="K11" s="63">
         <f>E11-I11-J11</f>
-        <v>28437</v>
+        <v>24069</v>
       </c>
       <c r="M11"/>
       <c r="N11" s="41"/>
@@ -8487,21 +8487,21 @@
       </c>
       <c r="F13" s="35">
         <f>'[1]October 2021'!$D$30</f>
-        <v>11670</v>
+        <v>25290</v>
       </c>
       <c r="G13" s="35">
         <f>F13/5</f>
-        <v>2334</v>
+        <v>5058</v>
       </c>
       <c r="H13" s="34"/>
       <c r="I13" s="28">
         <f t="shared" si="4"/>
-        <v>2334</v>
+        <v>5058</v>
       </c>
       <c r="J13" s="28"/>
       <c r="K13" s="63">
         <f>E13-I13-J13</f>
-        <v>-912</v>
+        <v>-3636</v>
       </c>
       <c r="L13" s="62"/>
       <c r="M13"/>
@@ -8537,21 +8537,21 @@
       </c>
       <c r="F15" s="35">
         <f>F13</f>
-        <v>11670</v>
+        <v>25290</v>
       </c>
       <c r="G15" s="35">
         <f>F15/5</f>
-        <v>2334</v>
+        <v>5058</v>
       </c>
       <c r="H15" s="34"/>
       <c r="I15" s="28">
         <f t="shared" ref="I15:I19" si="6">G15+H15</f>
-        <v>2334</v>
+        <v>5058</v>
       </c>
       <c r="J15" s="28"/>
       <c r="K15" s="63">
         <f>E15-I15-J15</f>
-        <v>64410</v>
+        <v>61686</v>
       </c>
       <c r="M15"/>
       <c r="N15" s="41"/>
@@ -8571,21 +8571,21 @@
       </c>
       <c r="F16" s="35">
         <f>F4+F5</f>
-        <v>18192</v>
+        <v>30432</v>
       </c>
       <c r="G16" s="35">
         <f>F16/2</f>
-        <v>9096</v>
+        <v>15216</v>
       </c>
       <c r="H16" s="34"/>
       <c r="I16" s="28">
         <f t="shared" si="6"/>
-        <v>9096</v>
+        <v>15216</v>
       </c>
       <c r="J16" s="28"/>
       <c r="K16" s="63">
         <f>E16-I16-J16</f>
-        <v>95536</v>
+        <v>89416</v>
       </c>
       <c r="M16"/>
       <c r="N16" s="41"/>
@@ -8639,21 +8639,21 @@
       </c>
       <c r="F18" s="39">
         <f>F7</f>
-        <v>0</v>
+        <v>660</v>
       </c>
       <c r="G18" s="35">
         <f>(F18/22)*25</f>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="H18" s="34"/>
       <c r="I18" s="28">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="J18" s="28"/>
       <c r="K18" s="63">
         <f>E18-I18-J18</f>
-        <v>177489</v>
+        <v>176739</v>
       </c>
       <c r="M18"/>
       <c r="N18" s="41"/>
@@ -8665,11 +8665,13 @@
       <c r="B19" s="69">
         <v>438</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2">
+        <v>45660</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="34">
         <f t="shared" si="5"/>
-        <v>438</v>
+        <v>46098</v>
       </c>
       <c r="F19" s="39">
         <f>F8</f>
@@ -8687,7 +8689,7 @@
       <c r="J19" s="28"/>
       <c r="K19" s="63">
         <f>E19-I19-J19</f>
-        <v>150</v>
+        <v>45810</v>
       </c>
       <c r="M19"/>
       <c r="N19" s="41"/>
@@ -8722,21 +8724,21 @@
       </c>
       <c r="F21" s="35">
         <f>F10</f>
-        <v>2592</v>
+        <v>6360</v>
       </c>
       <c r="G21" s="35">
         <f>F21/24</f>
-        <v>108</v>
+        <v>265</v>
       </c>
       <c r="H21" s="34"/>
       <c r="I21" s="28">
         <f t="shared" ref="I21:I26" si="8">G21+H21</f>
-        <v>108</v>
+        <v>265</v>
       </c>
       <c r="J21" s="28"/>
       <c r="K21" s="63">
         <f t="shared" ref="K21:K27" si="9">E21-I21-J21</f>
-        <v>246</v>
+        <v>89</v>
       </c>
       <c r="M21"/>
       <c r="N21" s="41"/>
@@ -8791,17 +8793,17 @@
       <c r="F23" s="39"/>
       <c r="G23" s="35">
         <f>(F13/30)+(F7/22)+(F6/22)</f>
-        <v>389</v>
+        <v>873</v>
       </c>
       <c r="H23" s="34"/>
       <c r="I23" s="28">
         <f t="shared" si="8"/>
-        <v>389</v>
+        <v>873</v>
       </c>
       <c r="J23" s="28"/>
       <c r="K23" s="33">
         <f t="shared" si="9"/>
-        <v>2606</v>
+        <v>2122</v>
       </c>
       <c r="L23" s="41"/>
       <c r="M23"/>
@@ -8856,21 +8858,21 @@
       </c>
       <c r="F25" s="35">
         <f>F4</f>
-        <v>15456</v>
+        <v>27696</v>
       </c>
       <c r="G25" s="35">
         <f>F25/24</f>
-        <v>644</v>
+        <v>1154</v>
       </c>
       <c r="H25" s="34"/>
       <c r="I25" s="28">
         <f t="shared" si="8"/>
-        <v>644</v>
+        <v>1154</v>
       </c>
       <c r="J25" s="28"/>
       <c r="K25" s="63">
         <f t="shared" si="9"/>
-        <v>4187</v>
+        <v>3677</v>
       </c>
       <c r="M25"/>
       <c r="N25" s="41"/>
@@ -8924,21 +8926,21 @@
       </c>
       <c r="F27" s="35">
         <f>F11</f>
-        <v>1584</v>
+        <v>3768</v>
       </c>
       <c r="G27" s="35">
         <f>F27/24</f>
-        <v>66</v>
+        <v>157</v>
       </c>
       <c r="H27" s="34"/>
       <c r="I27" s="28">
         <f>G27+H27</f>
-        <v>66</v>
+        <v>157</v>
       </c>
       <c r="J27" s="28"/>
       <c r="K27" s="63">
         <f t="shared" si="9"/>
-        <v>232</v>
+        <v>141</v>
       </c>
       <c r="M27"/>
       <c r="N27" s="41"/>
@@ -8975,21 +8977,21 @@
       </c>
       <c r="F29" s="44">
         <f>'[1]October 2021'!$K$30</f>
-        <v>2856</v>
+        <v>4704</v>
       </c>
       <c r="G29" s="44">
         <f>F29*2</f>
-        <v>5712</v>
+        <v>9408</v>
       </c>
       <c r="H29" s="45"/>
       <c r="I29" s="28">
         <f t="shared" ref="I29:I36" si="11">G29+H29</f>
-        <v>5712</v>
+        <v>9408</v>
       </c>
       <c r="J29" s="28"/>
       <c r="K29" s="64">
         <f t="shared" ref="K29:K35" si="12">E29-I29-J29</f>
-        <v>30864</v>
+        <v>27168</v>
       </c>
       <c r="M29"/>
       <c r="N29" s="41"/>
@@ -9009,21 +9011,21 @@
       </c>
       <c r="F30" s="47">
         <f>'[1]October 2021'!$L$30</f>
-        <v>132</v>
+        <v>1332</v>
       </c>
       <c r="G30" s="44">
         <f>F30*4</f>
-        <v>528</v>
+        <v>5328</v>
       </c>
       <c r="H30" s="45"/>
       <c r="I30" s="28">
         <f t="shared" si="11"/>
-        <v>528</v>
+        <v>5328</v>
       </c>
       <c r="J30" s="28"/>
       <c r="K30" s="64">
         <f>E30-I30-J30</f>
-        <v>32920</v>
+        <v>28120</v>
       </c>
       <c r="M30"/>
       <c r="N30" s="41"/>
@@ -9043,21 +9045,21 @@
       </c>
       <c r="F31" s="49">
         <f>F29</f>
-        <v>2856</v>
+        <v>4704</v>
       </c>
       <c r="G31" s="44">
         <f>F31/12</f>
-        <v>238</v>
+        <v>392</v>
       </c>
       <c r="H31" s="45"/>
       <c r="I31" s="28">
         <f t="shared" si="11"/>
-        <v>238</v>
+        <v>392</v>
       </c>
       <c r="J31" s="28"/>
       <c r="K31" s="27">
         <f t="shared" si="12"/>
-        <v>4203</v>
+        <v>4049</v>
       </c>
       <c r="M31"/>
       <c r="N31" s="41"/>
@@ -9077,21 +9079,21 @@
       </c>
       <c r="F32" s="49">
         <f>F30</f>
-        <v>132</v>
+        <v>1332</v>
       </c>
       <c r="G32" s="50">
         <f>F32/12</f>
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="H32" s="51"/>
       <c r="I32" s="28">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="J32" s="28"/>
       <c r="K32" s="27">
         <f t="shared" si="12"/>
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="M32"/>
       <c r="N32" s="41"/>
@@ -9103,29 +9105,32 @@
       <c r="B33" s="69">
         <v>29025</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="2">
+        <f>45900+50000</f>
+        <v>95900</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="46">
         <f t="shared" si="10"/>
-        <v>29025</v>
+        <v>124925</v>
       </c>
       <c r="F33" s="49">
         <f>F30</f>
-        <v>132</v>
+        <v>1332</v>
       </c>
       <c r="G33" s="50">
         <f>F33*4</f>
-        <v>528</v>
+        <v>5328</v>
       </c>
       <c r="H33" s="48"/>
       <c r="I33" s="28">
         <f t="shared" si="11"/>
-        <v>528</v>
+        <v>5328</v>
       </c>
       <c r="J33" s="28"/>
       <c r="K33" s="27">
         <f t="shared" si="12"/>
-        <v>28497</v>
+        <v>119597</v>
       </c>
       <c r="M33"/>
       <c r="N33" s="41"/>
@@ -9145,21 +9150,21 @@
       </c>
       <c r="F34" s="49">
         <f>F29</f>
-        <v>2856</v>
+        <v>4704</v>
       </c>
       <c r="G34" s="50">
         <f>F34*2</f>
-        <v>5712</v>
+        <v>9408</v>
       </c>
       <c r="H34" s="51"/>
       <c r="I34" s="28">
         <f t="shared" si="11"/>
-        <v>5712</v>
+        <v>9408</v>
       </c>
       <c r="J34" s="28"/>
       <c r="K34" s="27">
         <f t="shared" si="12"/>
-        <v>57440</v>
+        <v>53744</v>
       </c>
       <c r="M34"/>
       <c r="N34" s="41"/>
@@ -9179,21 +9184,21 @@
       </c>
       <c r="F35" s="49">
         <f>F29</f>
-        <v>2856</v>
+        <v>4704</v>
       </c>
       <c r="G35" s="50">
         <f>F35*2</f>
-        <v>5712</v>
+        <v>9408</v>
       </c>
       <c r="H35" s="51"/>
       <c r="I35" s="28">
         <f t="shared" si="11"/>
-        <v>5712</v>
+        <v>9408</v>
       </c>
       <c r="J35" s="28"/>
       <c r="K35" s="27">
         <f t="shared" si="12"/>
-        <v>132718</v>
+        <v>129022</v>
       </c>
       <c r="M35"/>
       <c r="N35" s="41"/>
@@ -9213,21 +9218,21 @@
       </c>
       <c r="F36" s="57">
         <f>F29</f>
-        <v>2856</v>
+        <v>4704</v>
       </c>
       <c r="G36" s="58">
         <f>F36*2</f>
-        <v>5712</v>
+        <v>9408</v>
       </c>
       <c r="H36" s="59"/>
       <c r="I36" s="60">
         <f t="shared" si="11"/>
-        <v>5712</v>
+        <v>9408</v>
       </c>
       <c r="J36" s="60"/>
       <c r="K36" s="66">
         <f>E36-I36-J36</f>
-        <v>25256</v>
+        <v>21560</v>
       </c>
       <c r="M36"/>
       <c r="N36" s="41"/>

--- a/PACKING MATEREILS STATEMENT-2021-22.xlsx
+++ b/PACKING MATEREILS STATEMENT-2021-22.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="April 2021-22" sheetId="79" r:id="rId1"/>
@@ -13,9 +13,12 @@
     <sheet name="july" sheetId="82" r:id="rId4"/>
     <sheet name="AUGUST" sheetId="83" r:id="rId5"/>
     <sheet name="september" sheetId="84" r:id="rId6"/>
+    <sheet name="October 2021" sheetId="86" r:id="rId7"/>
+    <sheet name="November 2021" sheetId="87" r:id="rId8"/>
+    <sheet name="December 21-22" sheetId="88" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="125725"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="53">
   <si>
     <t>Particulars</t>
   </si>
@@ -172,6 +175,24 @@
   <si>
     <t xml:space="preserve">PACKING MATERIALS STATEMENT AS ON THE MONTH OF SEPTEMBER 2021   </t>
   </si>
+  <si>
+    <t xml:space="preserve">PACKING MATERIALS STATEMENT AS ON THE MONTH OF OCTOBER 2021   </t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PACKING MATERIALS STATEMENT AS ON THE MONTH OF NOVEMBER 2021   </t>
+  </si>
+  <si>
+    <t>PMT RECEPIT-2021-22.xlsx</t>
+  </si>
+  <si>
+    <t>DAILY PRODUCTION REGISTER-2021-22.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PACKING MATERIALS STATEMENT AS ON THE MONTH OF DECEMBER 2021   </t>
+  </si>
 </sst>
 </file>
 
@@ -180,7 +201,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +292,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -431,10 +459,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -619,11 +651,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -650,6 +684,8 @@
       <sheetName val="August 2021"/>
       <sheetName val="September 2021"/>
       <sheetName val="October 2021"/>
+      <sheetName val="November 2021"/>
+      <sheetName val="December 2021"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -874,7 +910,117 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="30">
+          <cell r="B30">
+            <v>1344</v>
+          </cell>
+          <cell r="C30">
+            <v>5832</v>
+          </cell>
+          <cell r="D30">
+            <v>44820</v>
+          </cell>
+          <cell r="E30">
+            <v>1080</v>
+          </cell>
+          <cell r="F30">
+            <v>836</v>
+          </cell>
+          <cell r="G30">
+            <v>198</v>
+          </cell>
+          <cell r="H30">
+            <v>10896</v>
+          </cell>
+          <cell r="I30">
+            <v>6912</v>
+          </cell>
+          <cell r="J30">
+            <v>52560</v>
+          </cell>
+          <cell r="K30">
+            <v>10188</v>
+          </cell>
+          <cell r="L30">
+            <v>132</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7">
+        <row r="30">
+          <cell r="B30">
+            <v>264</v>
+          </cell>
+          <cell r="C30">
+            <v>6552</v>
+          </cell>
+          <cell r="D30">
+            <v>45390</v>
+          </cell>
+          <cell r="E30">
+            <v>0</v>
+          </cell>
+          <cell r="F30">
+            <v>1430</v>
+          </cell>
+          <cell r="G30">
+            <v>308</v>
+          </cell>
+          <cell r="H30">
+            <v>12072</v>
+          </cell>
+          <cell r="I30">
+            <v>4776</v>
+          </cell>
+          <cell r="J30">
+            <v>53376</v>
+          </cell>
+          <cell r="K30">
+            <v>7368</v>
+          </cell>
+          <cell r="L30">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="30">
+          <cell r="B30">
+            <v>960</v>
+          </cell>
+          <cell r="C30">
+            <v>1440</v>
+          </cell>
+          <cell r="D30">
+            <v>5970</v>
+          </cell>
+          <cell r="E30">
+            <v>0</v>
+          </cell>
+          <cell r="F30">
+            <v>638</v>
+          </cell>
+          <cell r="G30">
+            <v>110</v>
+          </cell>
+          <cell r="H30">
+            <v>2760</v>
+          </cell>
+          <cell r="I30">
+            <v>1008</v>
+          </cell>
+          <cell r="J30">
+            <v>11592</v>
+          </cell>
+          <cell r="K30">
+            <v>2016</v>
+          </cell>
+          <cell r="L30">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1165,10 +1311,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:M36"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1188,19 +1337,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
     </row>
     <row r="2" spans="1:12" s="22" customFormat="1" ht="23.25" thickBot="1">
       <c r="A2" s="8" t="s">
@@ -2266,10 +2415,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2289,19 +2441,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
     </row>
     <row r="2" spans="1:14" s="22" customFormat="1" ht="23.25" thickBot="1">
       <c r="A2" s="8" t="s">
@@ -3400,9 +3552,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -3423,19 +3578,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
     </row>
     <row r="2" spans="1:14" s="22" customFormat="1" ht="23.25" thickBot="1">
       <c r="A2" s="8" t="s">
@@ -4548,6 +4703,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
@@ -4571,19 +4729,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
     </row>
     <row r="2" spans="1:14" s="22" customFormat="1" ht="23.25" thickBot="1">
       <c r="A2" s="8" t="s">
@@ -5684,10 +5842,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5707,19 +5868,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
     </row>
     <row r="2" spans="1:14" s="22" customFormat="1" ht="23.25" thickBot="1">
       <c r="A2" s="8" t="s">
@@ -6907,10 +7068,14 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6930,19 +7095,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
     </row>
     <row r="2" spans="1:14" s="22" customFormat="1" ht="23.25" thickBot="1">
       <c r="A2" s="8" t="s">
@@ -7202,6 +7367,9 @@
         <f>E10-I10-J10</f>
         <v>58424</v>
       </c>
+      <c r="M10" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="N10" s="41"/>
     </row>
     <row r="11" spans="1:14">
@@ -7235,7 +7403,13 @@
         <f>E11-I11-J11</f>
         <v>31605</v>
       </c>
-      <c r="N11" s="41"/>
+      <c r="M11" s="13">
+        <v>500</v>
+      </c>
+      <c r="N11" s="41">
+        <f>M11/5</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="7" t="s">
@@ -7755,13 +7929,11 @@
       <c r="B29" s="69">
         <v>22380</v>
       </c>
-      <c r="C29" s="2">
-        <v>57500</v>
-      </c>
+      <c r="C29" s="2"/>
       <c r="D29" s="3"/>
       <c r="E29" s="34">
         <f t="shared" ref="E29:E36" si="10">B29+C29+D29</f>
-        <v>79880</v>
+        <v>22380</v>
       </c>
       <c r="F29" s="44">
         <f>'[1]September 2021'!$K$30</f>
@@ -7779,7 +7951,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="64">
         <f t="shared" ref="K29:K35" si="12">E29-I29-J29</f>
-        <v>63512</v>
+        <v>6012</v>
       </c>
       <c r="N29" s="41"/>
     </row>
@@ -8026,10 +8198,7 @@
       <c r="B37" s="41"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="F38" s="61">
-        <f>F4+F5+F6+F7+F8+F10+F11+F12+F13+F29+F30</f>
-        <v>126002</v>
-      </c>
+      <c r="F38" s="61"/>
     </row>
     <row r="39" spans="1:14">
       <c r="F39" s="41"/>
@@ -8041,6 +8210,3592 @@
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.27" right="0.34" top="0.28000000000000003" bottom="0.21" header="0.23" footer="0.16"/>
-  <pageSetup orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="77" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N39"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="13" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="13"/>
+    <col min="10" max="10" width="6.28515625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="13" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A1" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+    </row>
+    <row r="2" spans="1:14" s="22" customFormat="1" ht="23.25" thickBot="1">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="15"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="65"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="69">
+        <v>2580.5</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="28">
+        <f t="shared" ref="E4:E7" si="0">B4+C4+D4</f>
+        <v>2580.5</v>
+      </c>
+      <c r="F4" s="29">
+        <f>'[1]October 2021'!$J$30</f>
+        <v>52560</v>
+      </c>
+      <c r="G4" s="29">
+        <f>F4*0.024</f>
+        <v>1261.44</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28">
+        <f>G4+H4</f>
+        <v>1261.44</v>
+      </c>
+      <c r="J4" s="28"/>
+      <c r="K4" s="29">
+        <f>E4-I4-J4</f>
+        <v>1319.06</v>
+      </c>
+      <c r="M4"/>
+      <c r="N4" s="41"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="69">
+        <v>944.85</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="28">
+        <f t="shared" si="0"/>
+        <v>944.85</v>
+      </c>
+      <c r="F5" s="29">
+        <f>'[1]October 2021'!$C$30</f>
+        <v>5832</v>
+      </c>
+      <c r="G5" s="29">
+        <f>F5*0.024</f>
+        <v>139.96799999999999</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28">
+        <f t="shared" ref="I5:I6" si="1">G5+H5</f>
+        <v>139.96799999999999</v>
+      </c>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28">
+        <f>E5-I5-J5</f>
+        <v>804.88200000000006</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5" s="41"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="69">
+        <v>883.07</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="28">
+        <f t="shared" si="0"/>
+        <v>883.07</v>
+      </c>
+      <c r="F6" s="29">
+        <f>'[1]October 2021'!$G$30</f>
+        <v>198</v>
+      </c>
+      <c r="G6" s="29">
+        <f>F6*0.108</f>
+        <v>21.384</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28">
+        <f t="shared" si="1"/>
+        <v>21.384</v>
+      </c>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28">
+        <f>E6-I6-J6</f>
+        <v>861.68600000000004</v>
+      </c>
+      <c r="M6"/>
+      <c r="N6" s="41"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="69">
+        <v>660.15</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="28">
+        <f t="shared" si="0"/>
+        <v>660.15</v>
+      </c>
+      <c r="F7" s="29">
+        <f>'[1]October 2021'!$F$30</f>
+        <v>836</v>
+      </c>
+      <c r="G7" s="29">
+        <f>F7*0.075</f>
+        <v>62.699999999999996</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28">
+        <f>G7+H7</f>
+        <v>62.699999999999996</v>
+      </c>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28">
+        <f>E7-I7-J7</f>
+        <v>597.44999999999993</v>
+      </c>
+      <c r="M7"/>
+      <c r="N7" s="41"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="69">
+        <v>606.04</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="28">
+        <f>B8+C8+D8</f>
+        <v>606.04</v>
+      </c>
+      <c r="F8" s="29">
+        <f>'[1]October 2021'!$E$30</f>
+        <v>1080</v>
+      </c>
+      <c r="G8" s="29">
+        <f>F8*0.035</f>
+        <v>37.800000000000004</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28">
+        <f t="shared" ref="I8" si="2">G8+H8</f>
+        <v>37.800000000000004</v>
+      </c>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28">
+        <f t="shared" ref="K8" si="3">E8-I8-J8</f>
+        <v>568.24</v>
+      </c>
+      <c r="M8"/>
+      <c r="N8" s="41"/>
+    </row>
+    <row r="9" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="M9"/>
+      <c r="N9" s="41"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="69">
+        <v>58424</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="34">
+        <f>B10+C10+D10</f>
+        <v>58424</v>
+      </c>
+      <c r="F10" s="35">
+        <f>'[1]October 2021'!$H$30</f>
+        <v>10896</v>
+      </c>
+      <c r="G10" s="35">
+        <f>F10*1</f>
+        <v>10896</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="28">
+        <f t="shared" ref="I10:I13" si="4">G10+H10</f>
+        <v>10896</v>
+      </c>
+      <c r="J10" s="28"/>
+      <c r="K10" s="63">
+        <f>E10-I10-J10</f>
+        <v>47528</v>
+      </c>
+      <c r="M10"/>
+      <c r="N10" s="41"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="69">
+        <v>31605</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="34">
+        <f>B11+C11+D11</f>
+        <v>31605</v>
+      </c>
+      <c r="F11" s="35">
+        <f>'[1]October 2021'!$I$30</f>
+        <v>6912</v>
+      </c>
+      <c r="G11" s="35">
+        <f>F11*2</f>
+        <v>13824</v>
+      </c>
+      <c r="H11" s="34"/>
+      <c r="I11" s="28">
+        <f t="shared" si="4"/>
+        <v>13824</v>
+      </c>
+      <c r="J11" s="28"/>
+      <c r="K11" s="63">
+        <f>E11-I11-J11</f>
+        <v>17781</v>
+      </c>
+      <c r="M11"/>
+      <c r="N11" s="41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="69">
+        <v>3624</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="34">
+        <f>B12+C12+D12</f>
+        <v>3624</v>
+      </c>
+      <c r="F12" s="35">
+        <f>'[1]October 2021'!$B$30</f>
+        <v>1344</v>
+      </c>
+      <c r="G12" s="35">
+        <f>F12*1</f>
+        <v>1344</v>
+      </c>
+      <c r="H12" s="34"/>
+      <c r="I12" s="28">
+        <f t="shared" si="4"/>
+        <v>1344</v>
+      </c>
+      <c r="J12" s="28"/>
+      <c r="K12" s="63">
+        <f>E12-I12-J12</f>
+        <v>2280</v>
+      </c>
+      <c r="M12"/>
+      <c r="N12" s="41"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="69">
+        <v>1422</v>
+      </c>
+      <c r="C13" s="2">
+        <f>1300+2200</f>
+        <v>3500</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="34">
+        <f>B13+C13+D13</f>
+        <v>4922</v>
+      </c>
+      <c r="F13" s="35">
+        <f>'[1]October 2021'!$D$30</f>
+        <v>44820</v>
+      </c>
+      <c r="G13" s="35">
+        <f>F13/5</f>
+        <v>8964</v>
+      </c>
+      <c r="H13" s="34"/>
+      <c r="I13" s="28">
+        <f t="shared" si="4"/>
+        <v>8964</v>
+      </c>
+      <c r="J13" s="28"/>
+      <c r="K13" s="63">
+        <f>E13-I13-J13</f>
+        <v>-4042</v>
+      </c>
+      <c r="L13" s="62"/>
+      <c r="M13"/>
+      <c r="N13" s="41"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="M14"/>
+      <c r="N14" s="41"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="67">
+        <v>66744</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="34">
+        <f t="shared" ref="E15:E19" si="5">B15+C15+D15</f>
+        <v>66744</v>
+      </c>
+      <c r="F15" s="35">
+        <f>F13</f>
+        <v>44820</v>
+      </c>
+      <c r="G15" s="35">
+        <f>F15/5</f>
+        <v>8964</v>
+      </c>
+      <c r="H15" s="34"/>
+      <c r="I15" s="28">
+        <f t="shared" ref="I15:I19" si="6">G15+H15</f>
+        <v>8964</v>
+      </c>
+      <c r="J15" s="28"/>
+      <c r="K15" s="63">
+        <f>E15-I15-J15</f>
+        <v>57780</v>
+      </c>
+      <c r="M15"/>
+      <c r="N15" s="41"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="69">
+        <v>104632</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="34">
+        <f t="shared" si="5"/>
+        <v>104632</v>
+      </c>
+      <c r="F16" s="35">
+        <f>F4+F5</f>
+        <v>58392</v>
+      </c>
+      <c r="G16" s="35">
+        <f>F16/2</f>
+        <v>29196</v>
+      </c>
+      <c r="H16" s="34"/>
+      <c r="I16" s="28">
+        <f t="shared" si="6"/>
+        <v>29196</v>
+      </c>
+      <c r="J16" s="28"/>
+      <c r="K16" s="63">
+        <f>E16-I16-J16</f>
+        <v>75436</v>
+      </c>
+      <c r="M16"/>
+      <c r="N16" s="41"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="69">
+        <v>52450</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="34">
+        <f t="shared" si="5"/>
+        <v>52450</v>
+      </c>
+      <c r="F17" s="35">
+        <f>F6</f>
+        <v>198</v>
+      </c>
+      <c r="G17" s="35">
+        <f>(F17/22)*50</f>
+        <v>450</v>
+      </c>
+      <c r="H17" s="34"/>
+      <c r="I17" s="28">
+        <f t="shared" si="6"/>
+        <v>450</v>
+      </c>
+      <c r="J17" s="28"/>
+      <c r="K17" s="63">
+        <f>E17-I17-J17</f>
+        <v>52000</v>
+      </c>
+      <c r="M17"/>
+      <c r="N17" s="41"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="69">
+        <v>177489</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="34">
+        <f t="shared" si="5"/>
+        <v>177489</v>
+      </c>
+      <c r="F18" s="39">
+        <f>F7</f>
+        <v>836</v>
+      </c>
+      <c r="G18" s="35">
+        <f>(F18/22)*25</f>
+        <v>950</v>
+      </c>
+      <c r="H18" s="34"/>
+      <c r="I18" s="28">
+        <f t="shared" si="6"/>
+        <v>950</v>
+      </c>
+      <c r="J18" s="28"/>
+      <c r="K18" s="63">
+        <f>E18-I18-J18</f>
+        <v>176539</v>
+      </c>
+      <c r="M18"/>
+      <c r="N18" s="41"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="69">
+        <v>438</v>
+      </c>
+      <c r="C19" s="2">
+        <v>45660</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="34">
+        <f t="shared" si="5"/>
+        <v>46098</v>
+      </c>
+      <c r="F19" s="39">
+        <f>F8</f>
+        <v>1080</v>
+      </c>
+      <c r="G19" s="35">
+        <f>F19/2</f>
+        <v>540</v>
+      </c>
+      <c r="H19" s="34"/>
+      <c r="I19" s="28">
+        <f t="shared" si="6"/>
+        <v>540</v>
+      </c>
+      <c r="J19" s="28"/>
+      <c r="K19" s="63">
+        <f>E19-I19-J19</f>
+        <v>45558</v>
+      </c>
+      <c r="M19"/>
+      <c r="N19" s="41"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1">
+      <c r="A20" s="9"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="M20"/>
+      <c r="N20" s="41"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="69">
+        <v>354</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1087</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="34">
+        <f t="shared" ref="E21:E27" si="7">B21+C21+D21</f>
+        <v>1441</v>
+      </c>
+      <c r="F21" s="35">
+        <f>F10</f>
+        <v>10896</v>
+      </c>
+      <c r="G21" s="35">
+        <f>F21/24</f>
+        <v>454</v>
+      </c>
+      <c r="H21" s="34"/>
+      <c r="I21" s="28">
+        <f t="shared" ref="I21:I26" si="8">G21+H21</f>
+        <v>454</v>
+      </c>
+      <c r="J21" s="28"/>
+      <c r="K21" s="63">
+        <f t="shared" ref="K21:K27" si="9">E21-I21-J21</f>
+        <v>987</v>
+      </c>
+      <c r="M21"/>
+      <c r="N21" s="41"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="69">
+        <v>1259</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="34">
+        <f t="shared" si="7"/>
+        <v>1259</v>
+      </c>
+      <c r="F22" s="35">
+        <f>F12</f>
+        <v>1344</v>
+      </c>
+      <c r="G22" s="35">
+        <f>F22/24</f>
+        <v>56</v>
+      </c>
+      <c r="H22" s="34"/>
+      <c r="I22" s="28">
+        <f t="shared" si="8"/>
+        <v>56</v>
+      </c>
+      <c r="J22" s="28"/>
+      <c r="K22" s="63">
+        <f t="shared" si="9"/>
+        <v>1203</v>
+      </c>
+      <c r="M22"/>
+      <c r="N22" s="41"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="69">
+        <v>2995</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="34">
+        <f t="shared" si="7"/>
+        <v>2995</v>
+      </c>
+      <c r="F23" s="39"/>
+      <c r="G23" s="35">
+        <f>(F13/30)+(F7/22)+(F6/22)</f>
+        <v>1541</v>
+      </c>
+      <c r="H23" s="34"/>
+      <c r="I23" s="28">
+        <f t="shared" si="8"/>
+        <v>1541</v>
+      </c>
+      <c r="J23" s="28"/>
+      <c r="K23" s="33">
+        <f t="shared" si="9"/>
+        <v>1454</v>
+      </c>
+      <c r="L23" s="41"/>
+      <c r="M23"/>
+      <c r="N23" s="41"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="69">
+        <v>832</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="34">
+        <f t="shared" si="7"/>
+        <v>832</v>
+      </c>
+      <c r="F24" s="39">
+        <f>F8</f>
+        <v>1080</v>
+      </c>
+      <c r="G24" s="35">
+        <f>(F19/24)</f>
+        <v>45</v>
+      </c>
+      <c r="H24" s="34"/>
+      <c r="I24" s="28">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="J24" s="28"/>
+      <c r="K24" s="63">
+        <f t="shared" si="9"/>
+        <v>787</v>
+      </c>
+      <c r="M24"/>
+      <c r="N24" s="41"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="70">
+        <v>4831</v>
+      </c>
+      <c r="C25" s="2">
+        <f>1247+830</f>
+        <v>2077</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="34">
+        <f t="shared" si="7"/>
+        <v>6908</v>
+      </c>
+      <c r="F25" s="35">
+        <f>F4</f>
+        <v>52560</v>
+      </c>
+      <c r="G25" s="35">
+        <f>F25/24</f>
+        <v>2190</v>
+      </c>
+      <c r="H25" s="34"/>
+      <c r="I25" s="28">
+        <f t="shared" si="8"/>
+        <v>2190</v>
+      </c>
+      <c r="J25" s="28"/>
+      <c r="K25" s="63">
+        <f t="shared" si="9"/>
+        <v>4718</v>
+      </c>
+      <c r="M25"/>
+      <c r="N25" s="41"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="69">
+        <v>87</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1085</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="34">
+        <f t="shared" si="7"/>
+        <v>1172</v>
+      </c>
+      <c r="F26" s="35">
+        <f>F5</f>
+        <v>5832</v>
+      </c>
+      <c r="G26" s="35">
+        <f>F26/24</f>
+        <v>243</v>
+      </c>
+      <c r="H26" s="34"/>
+      <c r="I26" s="28">
+        <f t="shared" si="8"/>
+        <v>243</v>
+      </c>
+      <c r="J26" s="28"/>
+      <c r="K26" s="63">
+        <f t="shared" si="9"/>
+        <v>929</v>
+      </c>
+      <c r="M26"/>
+      <c r="N26" s="41"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="69">
+        <v>298</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="34">
+        <f t="shared" si="7"/>
+        <v>298</v>
+      </c>
+      <c r="F27" s="35">
+        <f>F11</f>
+        <v>6912</v>
+      </c>
+      <c r="G27" s="35">
+        <f>F27/24</f>
+        <v>288</v>
+      </c>
+      <c r="H27" s="34"/>
+      <c r="I27" s="28">
+        <f>G27+H27</f>
+        <v>288</v>
+      </c>
+      <c r="J27" s="28"/>
+      <c r="K27" s="63">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="M27"/>
+      <c r="N27" s="41"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="11"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="M28"/>
+      <c r="N28" s="41"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="69">
+        <v>6012</v>
+      </c>
+      <c r="C29" s="2">
+        <v>30564</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="34">
+        <f t="shared" ref="E29:E36" si="10">B29+C29+D29</f>
+        <v>36576</v>
+      </c>
+      <c r="F29" s="44">
+        <f>'[1]October 2021'!$K$30</f>
+        <v>10188</v>
+      </c>
+      <c r="G29" s="44">
+        <f>F29*2</f>
+        <v>20376</v>
+      </c>
+      <c r="H29" s="45"/>
+      <c r="I29" s="28">
+        <f t="shared" ref="I29:I36" si="11">G29+H29</f>
+        <v>20376</v>
+      </c>
+      <c r="J29" s="28"/>
+      <c r="K29" s="64">
+        <f t="shared" ref="K29:K35" si="12">E29-I29-J29</f>
+        <v>16200</v>
+      </c>
+      <c r="M29"/>
+      <c r="N29" s="41"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="69">
+        <v>33448</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="46">
+        <f t="shared" si="10"/>
+        <v>33448</v>
+      </c>
+      <c r="F30" s="47">
+        <f>'[1]October 2021'!$L$30</f>
+        <v>132</v>
+      </c>
+      <c r="G30" s="44">
+        <f>F30*4</f>
+        <v>528</v>
+      </c>
+      <c r="H30" s="45"/>
+      <c r="I30" s="28">
+        <f t="shared" si="11"/>
+        <v>528</v>
+      </c>
+      <c r="J30" s="28"/>
+      <c r="K30" s="64">
+        <f>E30-I30-J30</f>
+        <v>32920</v>
+      </c>
+      <c r="M30"/>
+      <c r="N30" s="41"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="69">
+        <v>4441</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="46">
+        <f t="shared" si="10"/>
+        <v>4441</v>
+      </c>
+      <c r="F31" s="49">
+        <f>F29</f>
+        <v>10188</v>
+      </c>
+      <c r="G31" s="44">
+        <f>F31/12</f>
+        <v>849</v>
+      </c>
+      <c r="H31" s="45"/>
+      <c r="I31" s="28">
+        <f t="shared" si="11"/>
+        <v>849</v>
+      </c>
+      <c r="J31" s="28"/>
+      <c r="K31" s="27">
+        <f t="shared" si="12"/>
+        <v>3592</v>
+      </c>
+      <c r="M31"/>
+      <c r="N31" s="41"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="69">
+        <v>412</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="46">
+        <f t="shared" si="10"/>
+        <v>412</v>
+      </c>
+      <c r="F32" s="49">
+        <f>F30</f>
+        <v>132</v>
+      </c>
+      <c r="G32" s="50">
+        <f>F32/12</f>
+        <v>11</v>
+      </c>
+      <c r="H32" s="51"/>
+      <c r="I32" s="28">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="J32" s="28"/>
+      <c r="K32" s="27">
+        <f t="shared" si="12"/>
+        <v>401</v>
+      </c>
+      <c r="M32"/>
+      <c r="N32" s="41"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="69">
+        <v>29025</v>
+      </c>
+      <c r="C33" s="2">
+        <f>45900+50000</f>
+        <v>95900</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="46">
+        <f t="shared" si="10"/>
+        <v>124925</v>
+      </c>
+      <c r="F33" s="49">
+        <f>F30</f>
+        <v>132</v>
+      </c>
+      <c r="G33" s="50">
+        <f>F33*4</f>
+        <v>528</v>
+      </c>
+      <c r="H33" s="48"/>
+      <c r="I33" s="28">
+        <f t="shared" si="11"/>
+        <v>528</v>
+      </c>
+      <c r="J33" s="28"/>
+      <c r="K33" s="27">
+        <f t="shared" si="12"/>
+        <v>124397</v>
+      </c>
+      <c r="M33"/>
+      <c r="N33" s="41"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="69">
+        <v>63152</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="46">
+        <f t="shared" si="10"/>
+        <v>63152</v>
+      </c>
+      <c r="F34" s="49">
+        <f>F29</f>
+        <v>10188</v>
+      </c>
+      <c r="G34" s="50">
+        <f>F34*2</f>
+        <v>20376</v>
+      </c>
+      <c r="H34" s="51"/>
+      <c r="I34" s="28">
+        <f t="shared" si="11"/>
+        <v>20376</v>
+      </c>
+      <c r="J34" s="28"/>
+      <c r="K34" s="27">
+        <f t="shared" si="12"/>
+        <v>42776</v>
+      </c>
+      <c r="M34"/>
+      <c r="N34" s="41"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="69">
+        <v>138430</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="46">
+        <f t="shared" si="10"/>
+        <v>138430</v>
+      </c>
+      <c r="F35" s="49">
+        <f>F29</f>
+        <v>10188</v>
+      </c>
+      <c r="G35" s="50">
+        <f>F35*2</f>
+        <v>20376</v>
+      </c>
+      <c r="H35" s="51"/>
+      <c r="I35" s="28">
+        <f t="shared" si="11"/>
+        <v>20376</v>
+      </c>
+      <c r="J35" s="28"/>
+      <c r="K35" s="27">
+        <f t="shared" si="12"/>
+        <v>118054</v>
+      </c>
+      <c r="M35"/>
+      <c r="N35" s="41"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A36" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="71">
+        <v>30968</v>
+      </c>
+      <c r="C36" s="54"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="56">
+        <f t="shared" si="10"/>
+        <v>30968</v>
+      </c>
+      <c r="F36" s="57">
+        <f>F29</f>
+        <v>10188</v>
+      </c>
+      <c r="G36" s="58">
+        <f>F36*2</f>
+        <v>20376</v>
+      </c>
+      <c r="H36" s="59"/>
+      <c r="I36" s="60">
+        <f t="shared" si="11"/>
+        <v>20376</v>
+      </c>
+      <c r="J36" s="60"/>
+      <c r="K36" s="66">
+        <f>E36-I36-J36</f>
+        <v>10592</v>
+      </c>
+      <c r="M36"/>
+      <c r="N36" s="41"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="B37" s="41"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="F38" s="61"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="F39" s="41"/>
+      <c r="H39" s="61"/>
+      <c r="J39" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.27" right="0.34" top="0.28000000000000003" bottom="0.21" header="0.23" footer="0.16"/>
+  <pageSetup paperSize="9" scale="92" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:R39"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="13" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="13"/>
+    <col min="10" max="10" width="6.28515625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="13" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A1" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+    </row>
+    <row r="2" spans="1:18" s="22" customFormat="1" ht="23.25" thickBot="1">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="15"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="65"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="69">
+        <v>1319.1</v>
+      </c>
+      <c r="C4" s="27">
+        <v>3100.13</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="28">
+        <f t="shared" ref="E4:E7" si="0">B4+C4+D4</f>
+        <v>4419.2299999999996</v>
+      </c>
+      <c r="F4" s="29">
+        <f>'[1]November 2021'!$J$30</f>
+        <v>53376</v>
+      </c>
+      <c r="G4" s="29">
+        <f>F4*0.024</f>
+        <v>1281.0240000000001</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28">
+        <f>G4+H4</f>
+        <v>1281.0240000000001</v>
+      </c>
+      <c r="J4" s="28"/>
+      <c r="K4" s="29">
+        <f>E4-I4-J4</f>
+        <v>3138.2059999999992</v>
+      </c>
+      <c r="M4"/>
+      <c r="N4" s="41"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="69">
+        <v>804.88</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="28">
+        <f t="shared" si="0"/>
+        <v>804.88</v>
+      </c>
+      <c r="F5" s="29">
+        <f>'[1]November 2021'!$C$30</f>
+        <v>6552</v>
+      </c>
+      <c r="G5" s="29">
+        <f>F5*0.024</f>
+        <v>157.24799999999999</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28">
+        <f t="shared" ref="I5:I6" si="1">G5+H5</f>
+        <v>157.24799999999999</v>
+      </c>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28">
+        <f>E5-I5-J5</f>
+        <v>647.63200000000006</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5" s="41"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="69">
+        <v>861.69</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="28">
+        <f t="shared" si="0"/>
+        <v>861.69</v>
+      </c>
+      <c r="F6" s="29">
+        <f>'[1]November 2021'!$G$30</f>
+        <v>308</v>
+      </c>
+      <c r="G6" s="29">
+        <f>F6*0.108</f>
+        <v>33.264000000000003</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28">
+        <f t="shared" si="1"/>
+        <v>33.264000000000003</v>
+      </c>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28">
+        <f>E6-I6-J6</f>
+        <v>828.42600000000004</v>
+      </c>
+      <c r="M6"/>
+      <c r="N6" s="41"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="69">
+        <v>597.45000000000005</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="28">
+        <f t="shared" si="0"/>
+        <v>597.45000000000005</v>
+      </c>
+      <c r="F7" s="29">
+        <f>'[1]November 2021'!$F$30</f>
+        <v>1430</v>
+      </c>
+      <c r="G7" s="29">
+        <f>F7*0.075</f>
+        <v>107.25</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28">
+        <f>G7+H7</f>
+        <v>107.25</v>
+      </c>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28">
+        <f>E7-I7-J7</f>
+        <v>490.20000000000005</v>
+      </c>
+      <c r="M7"/>
+      <c r="N7" s="41"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="69">
+        <v>568.24</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="28">
+        <f>B8+C8+D8</f>
+        <v>568.24</v>
+      </c>
+      <c r="F8" s="29">
+        <f>'[1]November 2021'!$E$30</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="29">
+        <f>F8*0.035</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28">
+        <f t="shared" ref="I8" si="2">G8+H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28">
+        <f t="shared" ref="K8" si="3">E8-I8-J8</f>
+        <v>568.24</v>
+      </c>
+      <c r="M8" s="72"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+    </row>
+    <row r="9" spans="1:18" ht="12.75" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="M9" s="72"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="69">
+        <v>47528</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="34">
+        <f>B10+C10+D10</f>
+        <v>47528</v>
+      </c>
+      <c r="F10" s="35">
+        <f>'[1]November 2021'!$H$30</f>
+        <v>12072</v>
+      </c>
+      <c r="G10" s="35">
+        <f>F10*1</f>
+        <v>12072</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="28">
+        <f t="shared" ref="I10:I13" si="4">G10+H10</f>
+        <v>12072</v>
+      </c>
+      <c r="J10" s="28"/>
+      <c r="K10" s="63">
+        <f>E10-I10-J10</f>
+        <v>35456</v>
+      </c>
+      <c r="M10" s="72"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="69">
+        <v>17781</v>
+      </c>
+      <c r="C11" s="2">
+        <v>51475</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="34">
+        <f>B11+C11+D11</f>
+        <v>69256</v>
+      </c>
+      <c r="F11" s="35">
+        <f>'[1]November 2021'!$I$30</f>
+        <v>4776</v>
+      </c>
+      <c r="G11" s="35">
+        <f>F11*2</f>
+        <v>9552</v>
+      </c>
+      <c r="H11" s="34"/>
+      <c r="I11" s="28">
+        <f t="shared" si="4"/>
+        <v>9552</v>
+      </c>
+      <c r="J11" s="28"/>
+      <c r="K11" s="63">
+        <f>E11-I11-J11</f>
+        <v>59704</v>
+      </c>
+      <c r="M11" s="72"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="69">
+        <v>2280</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="34">
+        <f>B12+C12+D12</f>
+        <v>2280</v>
+      </c>
+      <c r="F12" s="35">
+        <f>'[1]November 2021'!$B$30</f>
+        <v>264</v>
+      </c>
+      <c r="G12" s="35">
+        <f>F12*1</f>
+        <v>264</v>
+      </c>
+      <c r="H12" s="34"/>
+      <c r="I12" s="28">
+        <f t="shared" si="4"/>
+        <v>264</v>
+      </c>
+      <c r="J12" s="28"/>
+      <c r="K12" s="63">
+        <f>E12-I12-J12</f>
+        <v>2016</v>
+      </c>
+      <c r="M12" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="69">
+        <v>4042</v>
+      </c>
+      <c r="C13" s="2">
+        <f>1000+2800+3000+1443+8000</f>
+        <v>16243</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="34">
+        <f>B13+C13+D13</f>
+        <v>20285</v>
+      </c>
+      <c r="F13" s="35">
+        <f>'[1]November 2021'!$D$30</f>
+        <v>45390</v>
+      </c>
+      <c r="G13" s="35">
+        <f>F13/5</f>
+        <v>9078</v>
+      </c>
+      <c r="H13" s="34"/>
+      <c r="I13" s="28">
+        <f t="shared" si="4"/>
+        <v>9078</v>
+      </c>
+      <c r="J13" s="28"/>
+      <c r="K13" s="63">
+        <f>E13-I13-J13</f>
+        <v>11207</v>
+      </c>
+      <c r="L13" s="62"/>
+      <c r="M13" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+    </row>
+    <row r="14" spans="1:18" ht="16.5" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="M14" s="72"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="67">
+        <v>57780</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="34">
+        <f t="shared" ref="E15:E19" si="5">B15+C15+D15</f>
+        <v>57780</v>
+      </c>
+      <c r="F15" s="35">
+        <f>F13</f>
+        <v>45390</v>
+      </c>
+      <c r="G15" s="35">
+        <f>F15/5</f>
+        <v>9078</v>
+      </c>
+      <c r="H15" s="34"/>
+      <c r="I15" s="28">
+        <f t="shared" ref="I15:I19" si="6">G15+H15</f>
+        <v>9078</v>
+      </c>
+      <c r="J15" s="28"/>
+      <c r="K15" s="63">
+        <f>E15-I15-J15</f>
+        <v>48702</v>
+      </c>
+      <c r="M15"/>
+      <c r="N15" s="41"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="69">
+        <v>75436</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="34">
+        <f t="shared" si="5"/>
+        <v>75436</v>
+      </c>
+      <c r="F16" s="35">
+        <f>F4+F5</f>
+        <v>59928</v>
+      </c>
+      <c r="G16" s="35">
+        <f>F16/2</f>
+        <v>29964</v>
+      </c>
+      <c r="H16" s="34"/>
+      <c r="I16" s="28">
+        <f t="shared" si="6"/>
+        <v>29964</v>
+      </c>
+      <c r="J16" s="28"/>
+      <c r="K16" s="63">
+        <f>E16-I16-J16</f>
+        <v>45472</v>
+      </c>
+      <c r="M16"/>
+      <c r="N16" s="41"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="69">
+        <v>52000</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="34">
+        <f t="shared" si="5"/>
+        <v>52000</v>
+      </c>
+      <c r="F17" s="35">
+        <f>F6</f>
+        <v>308</v>
+      </c>
+      <c r="G17" s="35">
+        <f>(F17/22)*50</f>
+        <v>700</v>
+      </c>
+      <c r="H17" s="34"/>
+      <c r="I17" s="28">
+        <f t="shared" si="6"/>
+        <v>700</v>
+      </c>
+      <c r="J17" s="28"/>
+      <c r="K17" s="63">
+        <f>E17-I17-J17</f>
+        <v>51300</v>
+      </c>
+      <c r="M17"/>
+      <c r="N17" s="41"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="69">
+        <v>176539</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="34">
+        <f t="shared" si="5"/>
+        <v>176539</v>
+      </c>
+      <c r="F18" s="39">
+        <f>F7</f>
+        <v>1430</v>
+      </c>
+      <c r="G18" s="35">
+        <f>(F18/22)*25</f>
+        <v>1625</v>
+      </c>
+      <c r="H18" s="34"/>
+      <c r="I18" s="28">
+        <f t="shared" si="6"/>
+        <v>1625</v>
+      </c>
+      <c r="J18" s="28"/>
+      <c r="K18" s="63">
+        <f>E18-I18-J18</f>
+        <v>174914</v>
+      </c>
+      <c r="M18"/>
+      <c r="N18" s="41"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="69">
+        <v>45558</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="34">
+        <f t="shared" si="5"/>
+        <v>45558</v>
+      </c>
+      <c r="F19" s="39">
+        <f>F8</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="35">
+        <f>F19/2</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="34"/>
+      <c r="I19" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="28"/>
+      <c r="K19" s="63">
+        <f>E19-I19-J19</f>
+        <v>45558</v>
+      </c>
+      <c r="M19"/>
+      <c r="N19" s="41"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1">
+      <c r="A20" s="9"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="M20"/>
+      <c r="N20" s="41"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="69">
+        <v>987</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="34">
+        <f t="shared" ref="E21:E27" si="7">B21+C21+D21</f>
+        <v>987</v>
+      </c>
+      <c r="F21" s="35">
+        <f>F10</f>
+        <v>12072</v>
+      </c>
+      <c r="G21" s="35">
+        <f>F21/24</f>
+        <v>503</v>
+      </c>
+      <c r="H21" s="34"/>
+      <c r="I21" s="28">
+        <f t="shared" ref="I21:I26" si="8">G21+H21</f>
+        <v>503</v>
+      </c>
+      <c r="J21" s="28"/>
+      <c r="K21" s="63">
+        <f t="shared" ref="K21:K27" si="9">E21-I21-J21</f>
+        <v>484</v>
+      </c>
+      <c r="M21"/>
+      <c r="N21" s="41"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="69">
+        <v>1203</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="34">
+        <f t="shared" si="7"/>
+        <v>1203</v>
+      </c>
+      <c r="F22" s="35">
+        <f>F12</f>
+        <v>264</v>
+      </c>
+      <c r="G22" s="35">
+        <f>F22/24</f>
+        <v>11</v>
+      </c>
+      <c r="H22" s="34"/>
+      <c r="I22" s="28">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="J22" s="28"/>
+      <c r="K22" s="63">
+        <f t="shared" si="9"/>
+        <v>1192</v>
+      </c>
+      <c r="M22"/>
+      <c r="N22" s="41"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="69">
+        <v>1454</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3045</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="34">
+        <f t="shared" si="7"/>
+        <v>4499</v>
+      </c>
+      <c r="F23" s="39"/>
+      <c r="G23" s="35">
+        <f>(F13/30)+(F7/22)+(F6/22)</f>
+        <v>1592</v>
+      </c>
+      <c r="H23" s="34"/>
+      <c r="I23" s="28">
+        <f t="shared" si="8"/>
+        <v>1592</v>
+      </c>
+      <c r="J23" s="28"/>
+      <c r="K23" s="33">
+        <f t="shared" si="9"/>
+        <v>2907</v>
+      </c>
+      <c r="L23" s="41"/>
+      <c r="M23"/>
+      <c r="N23" s="41"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="69">
+        <v>787</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="34">
+        <f t="shared" si="7"/>
+        <v>787</v>
+      </c>
+      <c r="F24" s="39">
+        <f>F8</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="35">
+        <f>(F19/24)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="34"/>
+      <c r="I24" s="28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="28"/>
+      <c r="K24" s="63">
+        <f t="shared" si="9"/>
+        <v>787</v>
+      </c>
+      <c r="M24"/>
+      <c r="N24" s="41"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="70">
+        <v>4718</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="34">
+        <f t="shared" si="7"/>
+        <v>4718</v>
+      </c>
+      <c r="F25" s="35">
+        <f>F4</f>
+        <v>53376</v>
+      </c>
+      <c r="G25" s="35">
+        <f>F25/24</f>
+        <v>2224</v>
+      </c>
+      <c r="H25" s="34"/>
+      <c r="I25" s="28">
+        <f t="shared" si="8"/>
+        <v>2224</v>
+      </c>
+      <c r="J25" s="28"/>
+      <c r="K25" s="63">
+        <f t="shared" si="9"/>
+        <v>2494</v>
+      </c>
+      <c r="M25"/>
+      <c r="N25" s="41"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="69">
+        <v>929</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="34">
+        <f t="shared" si="7"/>
+        <v>929</v>
+      </c>
+      <c r="F26" s="35">
+        <f>F5</f>
+        <v>6552</v>
+      </c>
+      <c r="G26" s="35">
+        <f>F26/24</f>
+        <v>273</v>
+      </c>
+      <c r="H26" s="34"/>
+      <c r="I26" s="28">
+        <f t="shared" si="8"/>
+        <v>273</v>
+      </c>
+      <c r="J26" s="28"/>
+      <c r="K26" s="63">
+        <f t="shared" si="9"/>
+        <v>656</v>
+      </c>
+      <c r="M26"/>
+      <c r="N26" s="41"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="69">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2">
+        <f>100+300</f>
+        <v>400</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="34">
+        <f t="shared" si="7"/>
+        <v>410</v>
+      </c>
+      <c r="F27" s="35">
+        <f>F11</f>
+        <v>4776</v>
+      </c>
+      <c r="G27" s="35">
+        <f>F27/24</f>
+        <v>199</v>
+      </c>
+      <c r="H27" s="34"/>
+      <c r="I27" s="28">
+        <f>G27+H27</f>
+        <v>199</v>
+      </c>
+      <c r="J27" s="28"/>
+      <c r="K27" s="63">
+        <f t="shared" si="9"/>
+        <v>211</v>
+      </c>
+      <c r="M27"/>
+      <c r="N27" s="41"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="11"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="M28"/>
+      <c r="N28" s="41"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="69">
+        <v>16200</v>
+      </c>
+      <c r="C29" s="2">
+        <v>31104</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="34">
+        <f t="shared" ref="E29:E36" si="10">B29+C29+D29</f>
+        <v>47304</v>
+      </c>
+      <c r="F29" s="44">
+        <f>'[1]November 2021'!$K$30</f>
+        <v>7368</v>
+      </c>
+      <c r="G29" s="44">
+        <f>F29*2</f>
+        <v>14736</v>
+      </c>
+      <c r="H29" s="45"/>
+      <c r="I29" s="28">
+        <f t="shared" ref="I29:I36" si="11">G29+H29</f>
+        <v>14736</v>
+      </c>
+      <c r="J29" s="28"/>
+      <c r="K29" s="64">
+        <f t="shared" ref="K29:K35" si="12">E29-I29-J29</f>
+        <v>32568</v>
+      </c>
+      <c r="M29"/>
+      <c r="N29" s="41"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="69">
+        <v>32920</v>
+      </c>
+      <c r="C30" s="2">
+        <v>68500</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="46">
+        <f t="shared" si="10"/>
+        <v>101420</v>
+      </c>
+      <c r="F30" s="47">
+        <f>'[1]November 2021'!$L$30</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="44">
+        <f>F30*4</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="45"/>
+      <c r="I30" s="28">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="28"/>
+      <c r="K30" s="64">
+        <f>E30-I30-J30</f>
+        <v>101420</v>
+      </c>
+      <c r="M30"/>
+      <c r="N30" s="41"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="69">
+        <v>3592</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1018</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="46">
+        <f t="shared" si="10"/>
+        <v>4610</v>
+      </c>
+      <c r="F31" s="49">
+        <f>F29</f>
+        <v>7368</v>
+      </c>
+      <c r="G31" s="44">
+        <f>F31/12</f>
+        <v>614</v>
+      </c>
+      <c r="H31" s="45"/>
+      <c r="I31" s="28">
+        <f t="shared" si="11"/>
+        <v>614</v>
+      </c>
+      <c r="J31" s="28"/>
+      <c r="K31" s="27">
+        <f t="shared" si="12"/>
+        <v>3996</v>
+      </c>
+      <c r="M31"/>
+      <c r="N31" s="41"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="69">
+        <v>401</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1012</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="46">
+        <f t="shared" si="10"/>
+        <v>1413</v>
+      </c>
+      <c r="F32" s="49">
+        <f>F30</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="50">
+        <f>F32/12</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="51"/>
+      <c r="I32" s="28">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="28"/>
+      <c r="K32" s="27">
+        <f t="shared" si="12"/>
+        <v>1413</v>
+      </c>
+      <c r="M32"/>
+      <c r="N32" s="41"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="69">
+        <v>124397</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="46">
+        <f t="shared" si="10"/>
+        <v>124397</v>
+      </c>
+      <c r="F33" s="49">
+        <f>F30</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="50">
+        <f>F33*4</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="48"/>
+      <c r="I33" s="28">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="28"/>
+      <c r="K33" s="27">
+        <f t="shared" si="12"/>
+        <v>124397</v>
+      </c>
+      <c r="M33"/>
+      <c r="N33" s="41"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="69">
+        <v>42776</v>
+      </c>
+      <c r="C34" s="4">
+        <v>120000</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="46">
+        <f t="shared" si="10"/>
+        <v>162776</v>
+      </c>
+      <c r="F34" s="49">
+        <f>F29</f>
+        <v>7368</v>
+      </c>
+      <c r="G34" s="50">
+        <f>F34*2</f>
+        <v>14736</v>
+      </c>
+      <c r="H34" s="51"/>
+      <c r="I34" s="28">
+        <f t="shared" si="11"/>
+        <v>14736</v>
+      </c>
+      <c r="J34" s="28"/>
+      <c r="K34" s="27">
+        <f t="shared" si="12"/>
+        <v>148040</v>
+      </c>
+      <c r="M34"/>
+      <c r="N34" s="41"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="69">
+        <v>118054</v>
+      </c>
+      <c r="C35" s="4">
+        <v>124000</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="46">
+        <f t="shared" si="10"/>
+        <v>242054</v>
+      </c>
+      <c r="F35" s="49">
+        <f>F29</f>
+        <v>7368</v>
+      </c>
+      <c r="G35" s="50">
+        <f>F35*2</f>
+        <v>14736</v>
+      </c>
+      <c r="H35" s="51"/>
+      <c r="I35" s="28">
+        <f t="shared" si="11"/>
+        <v>14736</v>
+      </c>
+      <c r="J35" s="28"/>
+      <c r="K35" s="27">
+        <f t="shared" si="12"/>
+        <v>227318</v>
+      </c>
+      <c r="M35"/>
+      <c r="N35" s="41"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A36" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="71">
+        <v>10592</v>
+      </c>
+      <c r="C36" s="54">
+        <f>91000+59000</f>
+        <v>150000</v>
+      </c>
+      <c r="D36" s="55"/>
+      <c r="E36" s="56">
+        <f t="shared" si="10"/>
+        <v>160592</v>
+      </c>
+      <c r="F36" s="57">
+        <f>F29</f>
+        <v>7368</v>
+      </c>
+      <c r="G36" s="58">
+        <f>F36*2</f>
+        <v>14736</v>
+      </c>
+      <c r="H36" s="59"/>
+      <c r="I36" s="60">
+        <f t="shared" si="11"/>
+        <v>14736</v>
+      </c>
+      <c r="J36" s="60"/>
+      <c r="K36" s="66">
+        <f>E36-I36-J36</f>
+        <v>145856</v>
+      </c>
+      <c r="M36"/>
+      <c r="N36" s="41"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="B37" s="41"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="F38" s="61"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="F39" s="41"/>
+      <c r="H39" s="61"/>
+      <c r="J39" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="M12" r:id="rId1"/>
+    <hyperlink ref="M13" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.27" right="0.34" top="0.28000000000000003" bottom="0.21" header="0.23" footer="0.16"/>
+  <pageSetup paperSize="9" scale="82" orientation="landscape" verticalDpi="0" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF002060"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:R39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="13" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="13"/>
+    <col min="10" max="10" width="6.28515625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="13" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A1" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+    </row>
+    <row r="2" spans="1:18" s="22" customFormat="1" ht="23.25" thickBot="1">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="15"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="65"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="69">
+        <v>3138.2</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="28">
+        <f t="shared" ref="E4:E7" si="0">B4+C4+D4</f>
+        <v>3138.2</v>
+      </c>
+      <c r="F4" s="29">
+        <f>'[1]December 2021'!$J$30</f>
+        <v>11592</v>
+      </c>
+      <c r="G4" s="29">
+        <f>F4*0.024</f>
+        <v>278.20800000000003</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28">
+        <f>G4+H4</f>
+        <v>278.20800000000003</v>
+      </c>
+      <c r="J4" s="28"/>
+      <c r="K4" s="29">
+        <f>E4-I4-J4</f>
+        <v>2859.9919999999997</v>
+      </c>
+      <c r="M4"/>
+      <c r="N4" s="41"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="69">
+        <v>647.63</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="28">
+        <f t="shared" si="0"/>
+        <v>647.63</v>
+      </c>
+      <c r="F5" s="29">
+        <f>'[1]December 2021'!$C$30</f>
+        <v>1440</v>
+      </c>
+      <c r="G5" s="29">
+        <f>F5*0.024</f>
+        <v>34.56</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28">
+        <f t="shared" ref="I5:I6" si="1">G5+H5</f>
+        <v>34.56</v>
+      </c>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28">
+        <f>E5-I5-J5</f>
+        <v>613.06999999999994</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5" s="41"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="69">
+        <v>828.43</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="28">
+        <f t="shared" si="0"/>
+        <v>828.43</v>
+      </c>
+      <c r="F6" s="29">
+        <f>'[1]December 2021'!$G$30</f>
+        <v>110</v>
+      </c>
+      <c r="G6" s="29">
+        <f>F6*0.108</f>
+        <v>11.879999999999999</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28">
+        <f t="shared" si="1"/>
+        <v>11.879999999999999</v>
+      </c>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28">
+        <f>E6-I6-J6</f>
+        <v>816.55</v>
+      </c>
+      <c r="M6"/>
+      <c r="N6" s="41"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="69">
+        <v>490.2</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="28">
+        <f t="shared" si="0"/>
+        <v>490.2</v>
+      </c>
+      <c r="F7" s="29">
+        <f>'[1]December 2021'!$F$30</f>
+        <v>638</v>
+      </c>
+      <c r="G7" s="29">
+        <f>F7*0.075</f>
+        <v>47.85</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28">
+        <f>G7+H7</f>
+        <v>47.85</v>
+      </c>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28">
+        <f>E7-I7-J7</f>
+        <v>442.34999999999997</v>
+      </c>
+      <c r="M7"/>
+      <c r="N7" s="41"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="69">
+        <v>568.24</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="28">
+        <f>B8+C8+D8</f>
+        <v>568.24</v>
+      </c>
+      <c r="F8" s="29">
+        <f>'[1]December 2021'!$E$30</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="29">
+        <f>F8*0.035</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28">
+        <f t="shared" ref="I8" si="2">G8+H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28">
+        <f t="shared" ref="K8" si="3">E8-I8-J8</f>
+        <v>568.24</v>
+      </c>
+      <c r="M8" s="72"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+    </row>
+    <row r="9" spans="1:18" ht="12.75" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="M9" s="72"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="69">
+        <v>35456</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="34">
+        <f>B10+C10+D10</f>
+        <v>35456</v>
+      </c>
+      <c r="F10" s="35">
+        <f>'[1]December 2021'!$H$30</f>
+        <v>2760</v>
+      </c>
+      <c r="G10" s="35">
+        <f>F10*1</f>
+        <v>2760</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="28">
+        <f t="shared" ref="I10:I13" si="4">G10+H10</f>
+        <v>2760</v>
+      </c>
+      <c r="J10" s="28"/>
+      <c r="K10" s="63">
+        <f>E10-I10-J10</f>
+        <v>32696</v>
+      </c>
+      <c r="M10" s="72"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="69">
+        <v>59704</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="34">
+        <f>B11+C11+D11</f>
+        <v>59704</v>
+      </c>
+      <c r="F11" s="35">
+        <f>'[1]December 2021'!$I$30</f>
+        <v>1008</v>
+      </c>
+      <c r="G11" s="35">
+        <f>F11*2</f>
+        <v>2016</v>
+      </c>
+      <c r="H11" s="34"/>
+      <c r="I11" s="28">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="J11" s="28"/>
+      <c r="K11" s="63">
+        <f>E11-I11-J11</f>
+        <v>57688</v>
+      </c>
+      <c r="M11" s="72"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="69">
+        <v>2016</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="34">
+        <f>B12+C12+D12</f>
+        <v>2016</v>
+      </c>
+      <c r="F12" s="35">
+        <f>'[1]December 2021'!$B$30</f>
+        <v>960</v>
+      </c>
+      <c r="G12" s="35">
+        <f>F12*1</f>
+        <v>960</v>
+      </c>
+      <c r="H12" s="34"/>
+      <c r="I12" s="28">
+        <f t="shared" si="4"/>
+        <v>960</v>
+      </c>
+      <c r="J12" s="28"/>
+      <c r="K12" s="63">
+        <f>E12-I12-J12</f>
+        <v>1056</v>
+      </c>
+      <c r="M12" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="69">
+        <v>11207</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="34">
+        <f>B13+C13+D13</f>
+        <v>11207</v>
+      </c>
+      <c r="F13" s="35">
+        <f>'[1]December 2021'!$D$30</f>
+        <v>5970</v>
+      </c>
+      <c r="G13" s="35">
+        <f>F13/5</f>
+        <v>1194</v>
+      </c>
+      <c r="H13" s="34"/>
+      <c r="I13" s="28">
+        <f t="shared" si="4"/>
+        <v>1194</v>
+      </c>
+      <c r="J13" s="28"/>
+      <c r="K13" s="63">
+        <f>E13-I13-J13</f>
+        <v>10013</v>
+      </c>
+      <c r="L13" s="62"/>
+      <c r="M13" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+    </row>
+    <row r="14" spans="1:18" ht="16.5" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="M14" s="72"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="67">
+        <v>48702</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="34">
+        <f t="shared" ref="E15:E19" si="5">B15+C15+D15</f>
+        <v>48702</v>
+      </c>
+      <c r="F15" s="35">
+        <f>F13</f>
+        <v>5970</v>
+      </c>
+      <c r="G15" s="35">
+        <f>F15/5</f>
+        <v>1194</v>
+      </c>
+      <c r="H15" s="34"/>
+      <c r="I15" s="28">
+        <f t="shared" ref="I15:I19" si="6">G15+H15</f>
+        <v>1194</v>
+      </c>
+      <c r="J15" s="28"/>
+      <c r="K15" s="63">
+        <f>E15-I15-J15</f>
+        <v>47508</v>
+      </c>
+      <c r="M15"/>
+      <c r="N15" s="41"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="69">
+        <v>45472</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="34">
+        <f t="shared" si="5"/>
+        <v>45472</v>
+      </c>
+      <c r="F16" s="35">
+        <f>F4+F5</f>
+        <v>13032</v>
+      </c>
+      <c r="G16" s="35">
+        <f>F16/2</f>
+        <v>6516</v>
+      </c>
+      <c r="H16" s="34"/>
+      <c r="I16" s="28">
+        <f t="shared" si="6"/>
+        <v>6516</v>
+      </c>
+      <c r="J16" s="28"/>
+      <c r="K16" s="63">
+        <f>E16-I16-J16</f>
+        <v>38956</v>
+      </c>
+      <c r="M16"/>
+      <c r="N16" s="41"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="69">
+        <v>51300</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="34">
+        <f t="shared" si="5"/>
+        <v>51300</v>
+      </c>
+      <c r="F17" s="35">
+        <f>F6</f>
+        <v>110</v>
+      </c>
+      <c r="G17" s="35">
+        <f>(F17/22)*50</f>
+        <v>250</v>
+      </c>
+      <c r="H17" s="34"/>
+      <c r="I17" s="28">
+        <f t="shared" si="6"/>
+        <v>250</v>
+      </c>
+      <c r="J17" s="28"/>
+      <c r="K17" s="63">
+        <f>E17-I17-J17</f>
+        <v>51050</v>
+      </c>
+      <c r="M17"/>
+      <c r="N17" s="41"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="69">
+        <v>174914</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="34">
+        <f t="shared" si="5"/>
+        <v>174914</v>
+      </c>
+      <c r="F18" s="39">
+        <f>F7</f>
+        <v>638</v>
+      </c>
+      <c r="G18" s="35">
+        <f>(F18/22)*25</f>
+        <v>725</v>
+      </c>
+      <c r="H18" s="34"/>
+      <c r="I18" s="28">
+        <f t="shared" si="6"/>
+        <v>725</v>
+      </c>
+      <c r="J18" s="28"/>
+      <c r="K18" s="63">
+        <f>E18-I18-J18</f>
+        <v>174189</v>
+      </c>
+      <c r="M18"/>
+      <c r="N18" s="41"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="69">
+        <v>45558</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="34">
+        <f t="shared" si="5"/>
+        <v>45558</v>
+      </c>
+      <c r="F19" s="39">
+        <f>F8</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="35">
+        <f>F19/2</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="34"/>
+      <c r="I19" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="28"/>
+      <c r="K19" s="63">
+        <f>E19-I19-J19</f>
+        <v>45558</v>
+      </c>
+      <c r="M19"/>
+      <c r="N19" s="41"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1">
+      <c r="A20" s="9"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="M20"/>
+      <c r="N20" s="41"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="69">
+        <v>484</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="34">
+        <f t="shared" ref="E21:E27" si="7">B21+C21+D21</f>
+        <v>484</v>
+      </c>
+      <c r="F21" s="35">
+        <f>F10</f>
+        <v>2760</v>
+      </c>
+      <c r="G21" s="35">
+        <f>F21/24</f>
+        <v>115</v>
+      </c>
+      <c r="H21" s="34"/>
+      <c r="I21" s="28">
+        <f t="shared" ref="I21:I26" si="8">G21+H21</f>
+        <v>115</v>
+      </c>
+      <c r="J21" s="28"/>
+      <c r="K21" s="63">
+        <f t="shared" ref="K21:K27" si="9">E21-I21-J21</f>
+        <v>369</v>
+      </c>
+      <c r="M21"/>
+      <c r="N21" s="41"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="69">
+        <v>1192</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="34">
+        <f t="shared" si="7"/>
+        <v>1192</v>
+      </c>
+      <c r="F22" s="35">
+        <f>F12</f>
+        <v>960</v>
+      </c>
+      <c r="G22" s="35">
+        <f>F22/24</f>
+        <v>40</v>
+      </c>
+      <c r="H22" s="34"/>
+      <c r="I22" s="28">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="J22" s="28"/>
+      <c r="K22" s="63">
+        <f t="shared" si="9"/>
+        <v>1152</v>
+      </c>
+      <c r="M22"/>
+      <c r="N22" s="41"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="69">
+        <v>2907</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="34">
+        <f t="shared" si="7"/>
+        <v>2907</v>
+      </c>
+      <c r="F23" s="39"/>
+      <c r="G23" s="35">
+        <f>(F13/30)+(F7/22)+(F6/22)</f>
+        <v>233</v>
+      </c>
+      <c r="H23" s="34"/>
+      <c r="I23" s="28">
+        <f t="shared" si="8"/>
+        <v>233</v>
+      </c>
+      <c r="J23" s="28"/>
+      <c r="K23" s="33">
+        <f t="shared" si="9"/>
+        <v>2674</v>
+      </c>
+      <c r="L23" s="41"/>
+      <c r="M23"/>
+      <c r="N23" s="41"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="69">
+        <v>787</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="34">
+        <f t="shared" si="7"/>
+        <v>787</v>
+      </c>
+      <c r="F24" s="39">
+        <f>F8</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="35">
+        <f>(F19/24)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="34"/>
+      <c r="I24" s="28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="28"/>
+      <c r="K24" s="63">
+        <f t="shared" si="9"/>
+        <v>787</v>
+      </c>
+      <c r="M24"/>
+      <c r="N24" s="41"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="70">
+        <v>2494</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="34">
+        <f t="shared" si="7"/>
+        <v>2494</v>
+      </c>
+      <c r="F25" s="35">
+        <f>F4</f>
+        <v>11592</v>
+      </c>
+      <c r="G25" s="35">
+        <f>F25/24</f>
+        <v>483</v>
+      </c>
+      <c r="H25" s="34"/>
+      <c r="I25" s="28">
+        <f t="shared" si="8"/>
+        <v>483</v>
+      </c>
+      <c r="J25" s="28"/>
+      <c r="K25" s="63">
+        <f t="shared" si="9"/>
+        <v>2011</v>
+      </c>
+      <c r="M25"/>
+      <c r="N25" s="41"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="69">
+        <v>656</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="34">
+        <f t="shared" si="7"/>
+        <v>656</v>
+      </c>
+      <c r="F26" s="35">
+        <f>F5</f>
+        <v>1440</v>
+      </c>
+      <c r="G26" s="35">
+        <f>F26/24</f>
+        <v>60</v>
+      </c>
+      <c r="H26" s="34"/>
+      <c r="I26" s="28">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="J26" s="28"/>
+      <c r="K26" s="63">
+        <f t="shared" si="9"/>
+        <v>596</v>
+      </c>
+      <c r="M26"/>
+      <c r="N26" s="41"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="69">
+        <v>211</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="34">
+        <f t="shared" si="7"/>
+        <v>211</v>
+      </c>
+      <c r="F27" s="35">
+        <f>F11</f>
+        <v>1008</v>
+      </c>
+      <c r="G27" s="35">
+        <f>F27/24</f>
+        <v>42</v>
+      </c>
+      <c r="H27" s="34"/>
+      <c r="I27" s="28">
+        <f>G27+H27</f>
+        <v>42</v>
+      </c>
+      <c r="J27" s="28"/>
+      <c r="K27" s="63">
+        <f t="shared" si="9"/>
+        <v>169</v>
+      </c>
+      <c r="M27"/>
+      <c r="N27" s="41"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="11"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="M28"/>
+      <c r="N28" s="41"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="69">
+        <v>32568</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="34">
+        <f t="shared" ref="E29:E36" si="10">B29+C29+D29</f>
+        <v>32568</v>
+      </c>
+      <c r="F29" s="44">
+        <f>'[1]December 2021'!$K$30</f>
+        <v>2016</v>
+      </c>
+      <c r="G29" s="44">
+        <f>F29*2</f>
+        <v>4032</v>
+      </c>
+      <c r="H29" s="45"/>
+      <c r="I29" s="28">
+        <f t="shared" ref="I29:I36" si="11">G29+H29</f>
+        <v>4032</v>
+      </c>
+      <c r="J29" s="28"/>
+      <c r="K29" s="64">
+        <f t="shared" ref="K29:K35" si="12">E29-I29-J29</f>
+        <v>28536</v>
+      </c>
+      <c r="M29"/>
+      <c r="N29" s="41"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="69">
+        <v>101420</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="46">
+        <f t="shared" si="10"/>
+        <v>101420</v>
+      </c>
+      <c r="F30" s="47">
+        <f>'[1]December 2021'!$L$30</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="44">
+        <f>F30*4</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="45"/>
+      <c r="I30" s="28">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="28"/>
+      <c r="K30" s="64">
+        <f>E30-I30-J30</f>
+        <v>101420</v>
+      </c>
+      <c r="M30"/>
+      <c r="N30" s="41"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="69">
+        <v>3996</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="46">
+        <f t="shared" si="10"/>
+        <v>3996</v>
+      </c>
+      <c r="F31" s="49">
+        <f>F29</f>
+        <v>2016</v>
+      </c>
+      <c r="G31" s="44">
+        <f>F31/12</f>
+        <v>168</v>
+      </c>
+      <c r="H31" s="45"/>
+      <c r="I31" s="28">
+        <f t="shared" si="11"/>
+        <v>168</v>
+      </c>
+      <c r="J31" s="28"/>
+      <c r="K31" s="27">
+        <f t="shared" si="12"/>
+        <v>3828</v>
+      </c>
+      <c r="M31"/>
+      <c r="N31" s="41"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="69">
+        <v>1413</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="46">
+        <f t="shared" si="10"/>
+        <v>1413</v>
+      </c>
+      <c r="F32" s="49">
+        <f>F30</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="50">
+        <f>F32/12</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="51"/>
+      <c r="I32" s="28">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="28"/>
+      <c r="K32" s="27">
+        <f t="shared" si="12"/>
+        <v>1413</v>
+      </c>
+      <c r="M32"/>
+      <c r="N32" s="41"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="69">
+        <v>124397</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="46">
+        <f t="shared" si="10"/>
+        <v>124397</v>
+      </c>
+      <c r="F33" s="49">
+        <f>F30</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="50">
+        <f>F33*4</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="48"/>
+      <c r="I33" s="28">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="28"/>
+      <c r="K33" s="27">
+        <f t="shared" si="12"/>
+        <v>124397</v>
+      </c>
+      <c r="M33"/>
+      <c r="N33" s="41"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="69">
+        <v>148040</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="46">
+        <f t="shared" si="10"/>
+        <v>148040</v>
+      </c>
+      <c r="F34" s="49">
+        <f>F29</f>
+        <v>2016</v>
+      </c>
+      <c r="G34" s="50">
+        <f>F34*2</f>
+        <v>4032</v>
+      </c>
+      <c r="H34" s="51"/>
+      <c r="I34" s="28">
+        <f t="shared" si="11"/>
+        <v>4032</v>
+      </c>
+      <c r="J34" s="28"/>
+      <c r="K34" s="27">
+        <f t="shared" si="12"/>
+        <v>144008</v>
+      </c>
+      <c r="M34"/>
+      <c r="N34" s="41"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="69">
+        <v>227318</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="46">
+        <f t="shared" si="10"/>
+        <v>227318</v>
+      </c>
+      <c r="F35" s="49">
+        <f>F29</f>
+        <v>2016</v>
+      </c>
+      <c r="G35" s="50">
+        <f>F35*2</f>
+        <v>4032</v>
+      </c>
+      <c r="H35" s="51"/>
+      <c r="I35" s="28">
+        <f t="shared" si="11"/>
+        <v>4032</v>
+      </c>
+      <c r="J35" s="28"/>
+      <c r="K35" s="27">
+        <f t="shared" si="12"/>
+        <v>223286</v>
+      </c>
+      <c r="M35"/>
+      <c r="N35" s="41"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A36" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="71">
+        <v>145856</v>
+      </c>
+      <c r="C36" s="54"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="56">
+        <f t="shared" si="10"/>
+        <v>145856</v>
+      </c>
+      <c r="F36" s="57">
+        <f>F29</f>
+        <v>2016</v>
+      </c>
+      <c r="G36" s="58">
+        <f>F36*2</f>
+        <v>4032</v>
+      </c>
+      <c r="H36" s="59"/>
+      <c r="I36" s="60">
+        <f t="shared" si="11"/>
+        <v>4032</v>
+      </c>
+      <c r="J36" s="60"/>
+      <c r="K36" s="66">
+        <f>E36-I36-J36</f>
+        <v>141824</v>
+      </c>
+      <c r="M36"/>
+      <c r="N36" s="41"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="B37" s="41"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="F38" s="61"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="F39" s="41"/>
+      <c r="H39" s="61"/>
+      <c r="J39" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="M12" r:id="rId1"/>
+    <hyperlink ref="M13" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.27" right="0.34" top="0.28000000000000003" bottom="0.21" header="0.23" footer="0.16"/>
+  <pageSetup paperSize="9" scale="82" orientation="landscape" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/PACKING MATEREILS STATEMENT-2021-22.xlsx
+++ b/PACKING MATEREILS STATEMENT-2021-22.xlsx
@@ -15,7 +15,7 @@
     <sheet name="september" sheetId="84" r:id="rId6"/>
     <sheet name="October 2021" sheetId="86" r:id="rId7"/>
     <sheet name="November 2021" sheetId="87" r:id="rId8"/>
-    <sheet name="December 21-22" sheetId="88" r:id="rId9"/>
+    <sheet name="December 2021" sheetId="88" r:id="rId9"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId10"/>
@@ -990,31 +990,31 @@
             <v>960</v>
           </cell>
           <cell r="C30">
-            <v>1440</v>
+            <v>2376</v>
           </cell>
           <cell r="D30">
-            <v>5970</v>
+            <v>21480</v>
           </cell>
           <cell r="E30">
             <v>0</v>
           </cell>
           <cell r="F30">
-            <v>638</v>
+            <v>726</v>
           </cell>
           <cell r="G30">
-            <v>110</v>
+            <v>220</v>
           </cell>
           <cell r="H30">
-            <v>2760</v>
+            <v>5208</v>
           </cell>
           <cell r="I30">
-            <v>1008</v>
+            <v>4704</v>
           </cell>
           <cell r="J30">
-            <v>11592</v>
+            <v>25968</v>
           </cell>
           <cell r="K30">
-            <v>2016</v>
+            <v>4260</v>
           </cell>
           <cell r="L30">
             <v>0</v>
@@ -10616,8 +10616,8 @@
   </sheetPr>
   <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10714,21 +10714,21 @@
       </c>
       <c r="F4" s="29">
         <f>'[1]December 2021'!$J$30</f>
-        <v>11592</v>
+        <v>25968</v>
       </c>
       <c r="G4" s="29">
         <f>F4*0.024</f>
-        <v>278.20800000000003</v>
+        <v>623.23199999999997</v>
       </c>
       <c r="H4" s="28"/>
       <c r="I4" s="28">
         <f>G4+H4</f>
-        <v>278.20800000000003</v>
+        <v>623.23199999999997</v>
       </c>
       <c r="J4" s="28"/>
       <c r="K4" s="29">
         <f>E4-I4-J4</f>
-        <v>2859.9919999999997</v>
+        <v>2514.9679999999998</v>
       </c>
       <c r="M4"/>
       <c r="N4" s="41"/>
@@ -10748,21 +10748,21 @@
       </c>
       <c r="F5" s="29">
         <f>'[1]December 2021'!$C$30</f>
-        <v>1440</v>
+        <v>2376</v>
       </c>
       <c r="G5" s="29">
         <f>F5*0.024</f>
-        <v>34.56</v>
+        <v>57.024000000000001</v>
       </c>
       <c r="H5" s="28"/>
       <c r="I5" s="28">
         <f t="shared" ref="I5:I6" si="1">G5+H5</f>
-        <v>34.56</v>
+        <v>57.024000000000001</v>
       </c>
       <c r="J5" s="28"/>
       <c r="K5" s="28">
         <f>E5-I5-J5</f>
-        <v>613.06999999999994</v>
+        <v>590.60599999999999</v>
       </c>
       <c r="M5"/>
       <c r="N5" s="41"/>
@@ -10782,21 +10782,21 @@
       </c>
       <c r="F6" s="29">
         <f>'[1]December 2021'!$G$30</f>
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="G6" s="29">
         <f>F6*0.108</f>
-        <v>11.879999999999999</v>
+        <v>23.759999999999998</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="28">
         <f t="shared" si="1"/>
-        <v>11.879999999999999</v>
+        <v>23.759999999999998</v>
       </c>
       <c r="J6" s="28"/>
       <c r="K6" s="28">
         <f>E6-I6-J6</f>
-        <v>816.55</v>
+        <v>804.67</v>
       </c>
       <c r="M6"/>
       <c r="N6" s="41"/>
@@ -10816,21 +10816,21 @@
       </c>
       <c r="F7" s="29">
         <f>'[1]December 2021'!$F$30</f>
-        <v>638</v>
+        <v>726</v>
       </c>
       <c r="G7" s="29">
         <f>F7*0.075</f>
-        <v>47.85</v>
+        <v>54.449999999999996</v>
       </c>
       <c r="H7" s="28"/>
       <c r="I7" s="28">
         <f>G7+H7</f>
-        <v>47.85</v>
+        <v>54.449999999999996</v>
       </c>
       <c r="J7" s="28"/>
       <c r="K7" s="28">
         <f>E7-I7-J7</f>
-        <v>442.34999999999997</v>
+        <v>435.75</v>
       </c>
       <c r="M7"/>
       <c r="N7" s="41"/>
@@ -10907,21 +10907,21 @@
       </c>
       <c r="F10" s="35">
         <f>'[1]December 2021'!$H$30</f>
-        <v>2760</v>
+        <v>5208</v>
       </c>
       <c r="G10" s="35">
         <f>F10*1</f>
-        <v>2760</v>
+        <v>5208</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="28">
         <f t="shared" ref="I10:I13" si="4">G10+H10</f>
-        <v>2760</v>
+        <v>5208</v>
       </c>
       <c r="J10" s="28"/>
       <c r="K10" s="63">
         <f>E10-I10-J10</f>
-        <v>32696</v>
+        <v>30248</v>
       </c>
       <c r="M10" s="72"/>
       <c r="N10"/>
@@ -10945,21 +10945,21 @@
       </c>
       <c r="F11" s="35">
         <f>'[1]December 2021'!$I$30</f>
-        <v>1008</v>
+        <v>4704</v>
       </c>
       <c r="G11" s="35">
         <f>F11*2</f>
-        <v>2016</v>
+        <v>9408</v>
       </c>
       <c r="H11" s="34"/>
       <c r="I11" s="28">
         <f t="shared" si="4"/>
-        <v>2016</v>
+        <v>9408</v>
       </c>
       <c r="J11" s="28"/>
       <c r="K11" s="63">
         <f>E11-I11-J11</f>
-        <v>57688</v>
+        <v>50296</v>
       </c>
       <c r="M11" s="72"/>
       <c r="N11"/>
@@ -11015,29 +11015,31 @@
       <c r="B13" s="69">
         <v>11207</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <v>2000</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="34">
         <f>B13+C13+D13</f>
-        <v>11207</v>
+        <v>13207</v>
       </c>
       <c r="F13" s="35">
         <f>'[1]December 2021'!$D$30</f>
-        <v>5970</v>
+        <v>21480</v>
       </c>
       <c r="G13" s="35">
         <f>F13/5</f>
-        <v>1194</v>
+        <v>4296</v>
       </c>
       <c r="H13" s="34"/>
       <c r="I13" s="28">
         <f t="shared" si="4"/>
-        <v>1194</v>
+        <v>4296</v>
       </c>
       <c r="J13" s="28"/>
       <c r="K13" s="63">
         <f>E13-I13-J13</f>
-        <v>10013</v>
+        <v>8911</v>
       </c>
       <c r="L13" s="62"/>
       <c r="M13" s="72" t="s">
@@ -11083,21 +11085,21 @@
       </c>
       <c r="F15" s="35">
         <f>F13</f>
-        <v>5970</v>
+        <v>21480</v>
       </c>
       <c r="G15" s="35">
         <f>F15/5</f>
-        <v>1194</v>
+        <v>4296</v>
       </c>
       <c r="H15" s="34"/>
       <c r="I15" s="28">
         <f t="shared" ref="I15:I19" si="6">G15+H15</f>
-        <v>1194</v>
+        <v>4296</v>
       </c>
       <c r="J15" s="28"/>
       <c r="K15" s="63">
         <f>E15-I15-J15</f>
-        <v>47508</v>
+        <v>44406</v>
       </c>
       <c r="M15"/>
       <c r="N15" s="41"/>
@@ -11117,21 +11119,21 @@
       </c>
       <c r="F16" s="35">
         <f>F4+F5</f>
-        <v>13032</v>
+        <v>28344</v>
       </c>
       <c r="G16" s="35">
         <f>F16/2</f>
-        <v>6516</v>
+        <v>14172</v>
       </c>
       <c r="H16" s="34"/>
       <c r="I16" s="28">
         <f t="shared" si="6"/>
-        <v>6516</v>
+        <v>14172</v>
       </c>
       <c r="J16" s="28"/>
       <c r="K16" s="63">
         <f>E16-I16-J16</f>
-        <v>38956</v>
+        <v>31300</v>
       </c>
       <c r="M16"/>
       <c r="N16" s="41"/>
@@ -11151,21 +11153,21 @@
       </c>
       <c r="F17" s="35">
         <f>F6</f>
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="G17" s="35">
         <f>(F17/22)*50</f>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="H17" s="34"/>
       <c r="I17" s="28">
         <f t="shared" si="6"/>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="J17" s="28"/>
       <c r="K17" s="63">
         <f>E17-I17-J17</f>
-        <v>51050</v>
+        <v>50800</v>
       </c>
       <c r="M17"/>
       <c r="N17" s="41"/>
@@ -11185,21 +11187,21 @@
       </c>
       <c r="F18" s="39">
         <f>F7</f>
-        <v>638</v>
+        <v>726</v>
       </c>
       <c r="G18" s="35">
         <f>(F18/22)*25</f>
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="H18" s="34"/>
       <c r="I18" s="28">
         <f t="shared" si="6"/>
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="J18" s="28"/>
       <c r="K18" s="63">
         <f>E18-I18-J18</f>
-        <v>174189</v>
+        <v>174089</v>
       </c>
       <c r="M18"/>
       <c r="N18" s="41"/>
@@ -11268,21 +11270,21 @@
       </c>
       <c r="F21" s="35">
         <f>F10</f>
-        <v>2760</v>
+        <v>5208</v>
       </c>
       <c r="G21" s="35">
         <f>F21/24</f>
-        <v>115</v>
+        <v>217</v>
       </c>
       <c r="H21" s="34"/>
       <c r="I21" s="28">
         <f t="shared" ref="I21:I26" si="8">G21+H21</f>
-        <v>115</v>
+        <v>217</v>
       </c>
       <c r="J21" s="28"/>
       <c r="K21" s="63">
         <f t="shared" ref="K21:K27" si="9">E21-I21-J21</f>
-        <v>369</v>
+        <v>267</v>
       </c>
       <c r="M21"/>
       <c r="N21" s="41"/>
@@ -11337,17 +11339,17 @@
       <c r="F23" s="39"/>
       <c r="G23" s="35">
         <f>(F13/30)+(F7/22)+(F6/22)</f>
-        <v>233</v>
+        <v>759</v>
       </c>
       <c r="H23" s="34"/>
       <c r="I23" s="28">
         <f t="shared" si="8"/>
-        <v>233</v>
+        <v>759</v>
       </c>
       <c r="J23" s="28"/>
       <c r="K23" s="33">
         <f t="shared" si="9"/>
-        <v>2674</v>
+        <v>2148</v>
       </c>
       <c r="L23" s="41"/>
       <c r="M23"/>
@@ -11402,21 +11404,21 @@
       </c>
       <c r="F25" s="35">
         <f>F4</f>
-        <v>11592</v>
+        <v>25968</v>
       </c>
       <c r="G25" s="35">
         <f>F25/24</f>
-        <v>483</v>
+        <v>1082</v>
       </c>
       <c r="H25" s="34"/>
       <c r="I25" s="28">
         <f t="shared" si="8"/>
-        <v>483</v>
+        <v>1082</v>
       </c>
       <c r="J25" s="28"/>
       <c r="K25" s="63">
         <f t="shared" si="9"/>
-        <v>2011</v>
+        <v>1412</v>
       </c>
       <c r="M25"/>
       <c r="N25" s="41"/>
@@ -11436,21 +11438,21 @@
       </c>
       <c r="F26" s="35">
         <f>F5</f>
-        <v>1440</v>
+        <v>2376</v>
       </c>
       <c r="G26" s="35">
         <f>F26/24</f>
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="H26" s="34"/>
       <c r="I26" s="28">
         <f t="shared" si="8"/>
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="J26" s="28"/>
       <c r="K26" s="63">
         <f t="shared" si="9"/>
-        <v>596</v>
+        <v>557</v>
       </c>
       <c r="M26"/>
       <c r="N26" s="41"/>
@@ -11470,21 +11472,21 @@
       </c>
       <c r="F27" s="35">
         <f>F11</f>
-        <v>1008</v>
+        <v>4704</v>
       </c>
       <c r="G27" s="35">
         <f>F27/24</f>
-        <v>42</v>
+        <v>196</v>
       </c>
       <c r="H27" s="34"/>
       <c r="I27" s="28">
         <f>G27+H27</f>
-        <v>42</v>
+        <v>196</v>
       </c>
       <c r="J27" s="28"/>
       <c r="K27" s="63">
         <f t="shared" si="9"/>
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="M27"/>
       <c r="N27" s="41"/>
@@ -11519,21 +11521,21 @@
       </c>
       <c r="F29" s="44">
         <f>'[1]December 2021'!$K$30</f>
-        <v>2016</v>
+        <v>4260</v>
       </c>
       <c r="G29" s="44">
         <f>F29*2</f>
-        <v>4032</v>
+        <v>8520</v>
       </c>
       <c r="H29" s="45"/>
       <c r="I29" s="28">
         <f t="shared" ref="I29:I36" si="11">G29+H29</f>
-        <v>4032</v>
+        <v>8520</v>
       </c>
       <c r="J29" s="28"/>
       <c r="K29" s="64">
         <f t="shared" ref="K29:K35" si="12">E29-I29-J29</f>
-        <v>28536</v>
+        <v>24048</v>
       </c>
       <c r="M29"/>
       <c r="N29" s="41"/>
@@ -11587,21 +11589,21 @@
       </c>
       <c r="F31" s="49">
         <f>F29</f>
-        <v>2016</v>
+        <v>4260</v>
       </c>
       <c r="G31" s="44">
         <f>F31/12</f>
-        <v>168</v>
+        <v>355</v>
       </c>
       <c r="H31" s="45"/>
       <c r="I31" s="28">
         <f t="shared" si="11"/>
-        <v>168</v>
+        <v>355</v>
       </c>
       <c r="J31" s="28"/>
       <c r="K31" s="27">
         <f t="shared" si="12"/>
-        <v>3828</v>
+        <v>3641</v>
       </c>
       <c r="M31"/>
       <c r="N31" s="41"/>
@@ -11689,21 +11691,21 @@
       </c>
       <c r="F34" s="49">
         <f>F29</f>
-        <v>2016</v>
+        <v>4260</v>
       </c>
       <c r="G34" s="50">
         <f>F34*2</f>
-        <v>4032</v>
+        <v>8520</v>
       </c>
       <c r="H34" s="51"/>
       <c r="I34" s="28">
         <f t="shared" si="11"/>
-        <v>4032</v>
+        <v>8520</v>
       </c>
       <c r="J34" s="28"/>
       <c r="K34" s="27">
         <f t="shared" si="12"/>
-        <v>144008</v>
+        <v>139520</v>
       </c>
       <c r="M34"/>
       <c r="N34" s="41"/>
@@ -11723,21 +11725,21 @@
       </c>
       <c r="F35" s="49">
         <f>F29</f>
-        <v>2016</v>
+        <v>4260</v>
       </c>
       <c r="G35" s="50">
         <f>F35*2</f>
-        <v>4032</v>
+        <v>8520</v>
       </c>
       <c r="H35" s="51"/>
       <c r="I35" s="28">
         <f t="shared" si="11"/>
-        <v>4032</v>
+        <v>8520</v>
       </c>
       <c r="J35" s="28"/>
       <c r="K35" s="27">
         <f t="shared" si="12"/>
-        <v>223286</v>
+        <v>218798</v>
       </c>
       <c r="M35"/>
       <c r="N35" s="41"/>
@@ -11757,21 +11759,21 @@
       </c>
       <c r="F36" s="57">
         <f>F29</f>
-        <v>2016</v>
+        <v>4260</v>
       </c>
       <c r="G36" s="58">
         <f>F36*2</f>
-        <v>4032</v>
+        <v>8520</v>
       </c>
       <c r="H36" s="59"/>
       <c r="I36" s="60">
         <f t="shared" si="11"/>
-        <v>4032</v>
+        <v>8520</v>
       </c>
       <c r="J36" s="60"/>
       <c r="K36" s="66">
         <f>E36-I36-J36</f>
-        <v>141824</v>
+        <v>137336</v>
       </c>
       <c r="M36"/>
       <c r="N36" s="41"/>
